--- a/vignettes/definicje_zmiennych.xlsx
+++ b/vignettes/definicje_zmiennych.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="215">
   <si>
     <t>zmienna</t>
   </si>
@@ -34,7 +34,10 @@
     <t>zależy od</t>
   </si>
   <si>
-    <t>trudna</t>
+    <t>funkcja</t>
+  </si>
+  <si>
+    <t>zbiór bazowy</t>
   </si>
   <si>
     <t>wartość 1</t>
@@ -67,313 +70,504 @@
     <t>okienko</t>
   </si>
   <si>
-    <t>Liczba przypadków utraty etatu (absolwent stracił etat w miesiącu k, jeśli miał go w k, ale nie miał już etatu u tego pracodawcy w k+1)</t>
-  </si>
-  <si>
-    <t>#</t>
+    <t>Liczba przypadków utraty etatu.
+Utrata etatu oznacza zmianę z etat = 1 na (etat = 0 lub brak danych zus) w kolejnym okresie dla tego samego pracodawcy.
+W szczególności przejście na netat u tego samego pracodawcy również stanowi utratę etatu.</t>
+  </si>
+  <si>
+    <t>oblicz_utrata_etatu</t>
+  </si>
+  <si>
+    <t>okienko, utrataEtatu</t>
+  </si>
+  <si>
+    <t>NMLENP</t>
+  </si>
+  <si>
+    <t>Liczba przypadków utraty etatu (patrz NMLE), z wyłączeniem utrat etatu w podmiotach zlikwidowanych do 6 miesięcy po utracie etatu.</t>
+  </si>
+  <si>
+    <t>NMLEP</t>
+  </si>
+  <si>
+    <t>Liczba przypadków utraty etatu z uwagi na likwidację płatnika w okresie do 6 miesięcy od utraty etatu.
+NMLE – NMLENP</t>
+  </si>
+  <si>
+    <t>NMLE, NMLENP</t>
+  </si>
+  <si>
+    <t>oblicz_zmienne_pochodne</t>
+  </si>
+  <si>
+    <t>razem</t>
+  </si>
+  <si>
+    <t>EMLEP</t>
+  </si>
+  <si>
+    <t>średnia roczna NMLEP
+NMLEP * 12 / LEN</t>
+  </si>
+  <si>
+    <t>NMLEP, LEN</t>
+  </si>
+  <si>
+    <t>EMLENP</t>
+  </si>
+  <si>
+    <t>średnia roczna NMLENP
+NMLENP * 12 / LEN</t>
+  </si>
+  <si>
+    <t>NMLENP, LEN</t>
   </si>
   <si>
     <t>NNDN</t>
   </si>
   <si>
-    <t>Liczba nowych pracodawców na etat (nowy to taki, że w całej dostępnej nam historii zawodowej badanego, także sprzed dyplomu, nie znaleźliśmy takiego pracodawcy)
-- zawsze cała historia zawodowa, pracodawca bez względu na formę zatrudnienia</t>
+    <t>Liczba nowych pracodawców na etat.
+Nowy to taki, który nie wystąpił w całej znanej nam historii zawodowej badanego przed początkiem okienka, uwzględniając dowolny rodzaj zatrudnienia.</t>
+  </si>
+  <si>
+    <t>oblicz_nowi_pracodawcy</t>
   </si>
   <si>
     <t>NNNN</t>
   </si>
   <si>
-    <t>Liczba nowych pracodawców nieetatowych (nowy to taki, że w całej dostępnej nam historii zawodowej badanego, także sprzed dyplomu, nie znaleźliśmy takiego pracodawcy)
-- zawsze cała historia zawodowa, pracodawca bez względu na formę zatrudnienia</t>
+    <t>Liczba nowych pracodawców na netat.
+Nowy to taki, który nie wystąpił w całej znanej nam historii zawodowej badanego przed początkiem okienka, uwzględniając dowolny rodzaj zatrudnienia.</t>
+  </si>
+  <si>
+    <t>EZUBAZYD</t>
+  </si>
+  <si>
+    <t>Średnie miesięczne zarobki na umowę o pracę.
+SZE / NME</t>
+  </si>
+  <si>
+    <t>SZE, NME</t>
+  </si>
+  <si>
+    <t>IFZUS</t>
+  </si>
+  <si>
+    <t>Czy dołączono jakikolwiek rekord danych ZUS</t>
+  </si>
+  <si>
+    <t>NZUS</t>
+  </si>
+  <si>
+    <t>nie</t>
+  </si>
+  <si>
+    <t>tak</t>
+  </si>
+  <si>
+    <t>LEN</t>
+  </si>
+  <si>
+    <t>Liczba miesięcy w okienku dla danego badanego</t>
+  </si>
+  <si>
+    <t>oblicz_okienko</t>
+  </si>
+  <si>
+    <t>zus_zdau</t>
+  </si>
+  <si>
+    <t>NDE</t>
+  </si>
+  <si>
+    <t>Liczba różnych dawców etatu</t>
+  </si>
+  <si>
+    <t>oblicz_absolwent</t>
+  </si>
+  <si>
+    <t>NDN</t>
+  </si>
+  <si>
+    <t>Liczba różnych dawców nieetatu</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>Liczba etatodawcomiesięcy w okienku 
+(suma liczb różnych dawców etatu w miesiącu, np. jeśli pracował 3 miesiące dla dwóch etatodawców, przez dwa dla jednego, a przez 7 wcale, to 3*2+2*1+7*0=8)</t>
+  </si>
+  <si>
+    <t>oblicz_absolwent_okres</t>
+  </si>
+  <si>
+    <t>NMB</t>
+  </si>
+  <si>
+    <t>Liczba miesięcy bycia bezrobotnym (bezrob lub brak danych ZUS).
+(za bezrobotnego uznajemy każdego z tytułem ubezpieczenia bezrob, bez względu na ew. inne tytuły ubezpieczenia w tym samym okresie oraz osoby w ogóle nie mające danych z ZUS dla danego okresu)</t>
+  </si>
+  <si>
+    <t>NMB_V2</t>
+  </si>
+  <si>
+    <t>Liczba miesięcy bycia bezrobotnym
+(za bezrobotnego uznjamy tylko osoby, które w danym okresie mają tytuł ubezpieczenia bezrob i jednocześnie nie mają żadnego tytułu ubezpieczenia etat/netat/samoze/rentemer/student albo w ogóle nie mają danych z ZUS dla danego okresu)</t>
+  </si>
+  <si>
+    <t>NME</t>
+  </si>
+  <si>
+    <t>Liczba miesięcy bycia zatrudnionym na etacie (etat)</t>
+  </si>
+  <si>
+    <t>NMJ</t>
+  </si>
+  <si>
+    <t>Liczba miesięcy bycia aplikantem, sędzią lub prokuratorem (prawnik)</t>
+  </si>
+  <si>
+    <t>NMM</t>
+  </si>
+  <si>
+    <t>Liczba miesięcy bycia zatrudnionym w służbach mundurowych (mundur)</t>
+  </si>
+  <si>
+    <t>NMN</t>
+  </si>
+  <si>
+    <t>Liczba miesięcy bycia zatrudnionym bez etatu (netat)</t>
+  </si>
+  <si>
+    <t>NMP</t>
+  </si>
+  <si>
+    <t>Liczba przepracowanych miesięcy (etat/netat/samoz)</t>
+  </si>
+  <si>
+    <t>NMS</t>
+  </si>
+  <si>
+    <t>Liczba miesięcy bycia samozatrudnionym (samoz)</t>
+  </si>
+  <si>
+    <t>liczba okresów obserwacji dla których przyłączono dane ZUS</t>
+  </si>
+  <si>
+    <t>SZE</t>
+  </si>
+  <si>
+    <t>Suma podstawy składek z etatu</t>
+  </si>
+  <si>
+    <t>SZN</t>
+  </si>
+  <si>
+    <t>Suma podstawy składek z nieetatu</t>
+  </si>
+  <si>
+    <t>GBEZD</t>
+  </si>
+  <si>
+    <t>Średnia stopa bezrobocia (w procentach) w powiecie zamieszkania absolwenta dla całego okienka.
+- W wypadku niejednoznacznego mapowania PNA na TERYT liczymy wartość dla PNA jako prostą średnią z powiatów-kandydatów.
+- W wypadku niejednoznacznego PNA dla danego okresu liczymy wartość dla okresu jako średnią z wartości PNA-kandydatów.
+- W wypadku braku danych ZUS dla danego okresu zastępujemy wartością ogólnopolską.</t>
+  </si>
+  <si>
+    <t>powiaty</t>
+  </si>
+  <si>
+    <t>GEZBAZYD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Średnie miesięczne zarobki w powiecie zamieszkania absolwenta dla przepracowanych miesięcy danego okienka (etat/netat/samoz).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- W wypadku niejednoznacznego mapowania PNA na TERYT liczymy wartość dla PNA jako prostą średnią z powiatów-kandydatów.
+- W wypadku niejednoznacznego PNA dla danego okresu liczymy wartość dla okresu jako średnią z wartości PNA-kandydatów.</t>
+    </r>
+  </si>
+  <si>
+    <t>GEZBAZYD_V2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Średnie miesięczne zarobki w powiecie zamieszkania absolwenta dla całego okienka.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- W wypadku niejednoznacznego mapowania PNA na TERYT liczymy wartość dla PNA jako prostą średnią z powiatów-kandydatów.
+- W wypadku niejednoznacznego PNA dla danego okresu liczymy wartość dla okresu jako średnią z wartości PNA-kandydatów.
+- W wypadku braku danych ZUS dla danego okresu zastępujemy wartością ogólnopolską.</t>
+    </r>
+  </si>
+  <si>
+    <t>ZILORAZD</t>
+  </si>
+  <si>
+    <t>EZARD / GEZBAZYD</t>
+  </si>
+  <si>
+    <t>EZARD, GEZBAZYD</t>
+  </si>
+  <si>
+    <t>ZILORAZD_V2</t>
+  </si>
+  <si>
+    <t>EZARD / GEZBAZYD_V2</t>
+  </si>
+  <si>
+    <t>EZARD, GEZBAZYD_V2</t>
+  </si>
+  <si>
+    <t>BEZD</t>
+  </si>
+  <si>
+    <t>NMB &gt; 0</t>
+  </si>
+  <si>
+    <t>nie był</t>
+  </si>
+  <si>
+    <t>był</t>
+  </si>
+  <si>
+    <t>BEZD_V2</t>
+  </si>
+  <si>
+    <t>NMB_V2 &gt; 0</t>
+  </si>
+  <si>
+    <t>BILOD</t>
+  </si>
+  <si>
+    <t>PBEZD / GBEZD
+(0 dla 0/0)</t>
+  </si>
+  <si>
+    <t>PBEZD, GBEZD</t>
+  </si>
+  <si>
+    <t>EEM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NEM / LEN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NA dla 0/0)</t>
+    </r>
+  </si>
+  <si>
+    <t>NEM, LEN</t>
+  </si>
+  <si>
+    <t>EEMP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NEM / NME
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NA dla 0/0)</t>
+    </r>
+  </si>
+  <si>
+    <t>NEM, NME</t>
+  </si>
+  <si>
+    <t>EMLE</t>
+  </si>
+  <si>
+    <t>NMLE * 12 / LEN
+(NA dla 0/0)</t>
+  </si>
+  <si>
+    <t>NMLE, LEN</t>
+  </si>
+  <si>
+    <t>ENDN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NNDN * 12 / LEN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NA dla 0/0)</t>
+    </r>
+  </si>
+  <si>
+    <t>NDN, LEN</t>
+  </si>
+  <si>
+    <t>ENNN</t>
+  </si>
+  <si>
+    <t>NNNN * 12 / LEN
+(NA dla 0/0)</t>
+  </si>
+  <si>
+    <t>NNNN, LEN</t>
+  </si>
+  <si>
+    <t>EPRNDAWD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NDN / NMN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NA dla 0/0)</t>
+    </r>
+  </si>
+  <si>
+    <t>NDN, NMN</t>
+  </si>
+  <si>
+    <t>EPRUDAWD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NDE / NME 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NA dla 0/0)</t>
+    </r>
+  </si>
+  <si>
+    <t>NDE, NME</t>
   </si>
   <si>
     <t>EZARD</t>
   </si>
   <si>
-    <t>Średnie wynagrodzenie</t>
-  </si>
-  <si>
-    <t>EZUBAZYD</t>
-  </si>
-  <si>
-    <t>Średnie miesięczne zarobki z umów NA UMOWĘ O PRACĘ w miesiącach przepracowanych NA UMOWĘ O PRACĘ po miesiącu uzysk. dyplomu (wyłącznie) do końca obserwacji</t>
-  </si>
-  <si>
-    <t>IFZUS</t>
-  </si>
-  <si>
-    <t>czy mamy w zbiorze informacje o składkach (według zbioru ZDU3)</t>
-  </si>
-  <si>
-    <t>nie</t>
-  </si>
-  <si>
-    <t>tak</t>
-  </si>
-  <si>
-    <t>LEN</t>
-  </si>
-  <si>
-    <t>rzeczywista długość okesu (zmienna techniczna)</t>
-  </si>
-  <si>
-    <t>NDE</t>
-  </si>
-  <si>
-    <t>Liczba różnych dawców etatu</t>
-  </si>
-  <si>
-    <t>NDN</t>
-  </si>
-  <si>
-    <t>Liczba różnych dawców nieetatu</t>
-  </si>
-  <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>Suma etatodawcomiesięcy w okresie (suma liczb różnych dawców etatu w miesiącu, np. jeśli pracował 3 miesiące dla dwóch etatodawców, przez dwa dla jednego, a przez 7 wcale, to 3*2+2*1+7*0=8)</t>
-  </si>
-  <si>
-    <t>NMB</t>
-  </si>
-  <si>
-    <t>Liczba miesięcy bycia bezrobotnym</t>
-  </si>
-  <si>
-    <t>NMB_V2</t>
-  </si>
-  <si>
-    <t>Liczba miesięcy bycia bezrobotnym (wykluczając etat/netat/samoze/rentemer/student)</t>
-  </si>
-  <si>
-    <t>NME</t>
-  </si>
-  <si>
-    <t>Liczba miesięcy bycia zatrudnionym na etacie</t>
-  </si>
-  <si>
-    <t>NMJ</t>
-  </si>
-  <si>
-    <t>Liczba miesięcy bycia aplikantem, sędzią lub prokuratorem</t>
-  </si>
-  <si>
-    <t>NMM</t>
-  </si>
-  <si>
-    <t>Liczba miesięcy bycia zatrudnionym w służbach mundurowych</t>
-  </si>
-  <si>
-    <t>NMN</t>
-  </si>
-  <si>
-    <t>Liczba miesięcy bycia zatrudnionym bez etatu (netat)</t>
-  </si>
-  <si>
-    <t>NMP</t>
-  </si>
-  <si>
-    <t>Liczba miesięcy przepracowanych (zatrudniony lub samozatrudniony)
-etat/netat/samoz</t>
-  </si>
-  <si>
-    <t>NMS</t>
-  </si>
-  <si>
-    <t>Liczba miesięcy bycia samozatrudnionym (samoz)</t>
-  </si>
-  <si>
-    <t>NOKR</t>
-  </si>
-  <si>
-    <t>liczba okresów obserwacji od zakończenia dyplomu (data bazy - data uzyskania dyplomu w miesiącach)</t>
-  </si>
-  <si>
-    <t>SZE</t>
-  </si>
-  <si>
-    <t>suma zarobków z etatu (zmienna techniczna)</t>
-  </si>
-  <si>
-    <t>SZN</t>
-  </si>
-  <si>
-    <t>suma zarobków z nieetatu (zmienna techniczna)</t>
-  </si>
-  <si>
-    <t>ZPOW</t>
-  </si>
-  <si>
-    <t>zarobki w powiecie (zmienna techniczna)</t>
-  </si>
-  <si>
-    <t>GBEZD</t>
-  </si>
-  <si>
-    <t>Średnia stopa bezrobocia (w procentach) w powiecie zamieszkania absolwenta w okresie po miesiącu uzysk. dyplomu (wyłącznie) do końca obserwacji
-- jeśli wiele powiatów-kandydatów, to średnia
-- braki danych powiatu zastępujemy średnią ogólnopolską</t>
-  </si>
-  <si>
-    <t>powiaty</t>
-  </si>
-  <si>
-    <t>GEZBAZYD</t>
-  </si>
-  <si>
-    <t>Średnie miesięczne zarobki w powiecie zamieszkania absolwenta w okresie po miesiącu uzysk. dyplomu (wyłącznie) do końca obserwacji, uwzględniając tylko miesiące zatrudnienia
-We wszystkich miesiącach, w których absolwent mieszkał w danych powiatach, a NIE TYLKO W PRZEPRACOWANYCH</t>
-  </si>
-  <si>
-    <t>GEZBAZYD_V2</t>
-  </si>
-  <si>
-    <t>Średnie miesięczne zarobki w powiecie zamieszkania absolwenta w okresie po miesiącu uzysk. dyplomu (wyłącznie) do końca obserwacji uwzględniając wszystkie miesiące
-We wszystkich miesiącach, w których absolwent mieszkał w danych powiatach, a NIE TYLKO W PRZEPRACOWANYCH</t>
-  </si>
-  <si>
-    <t>ZILORAZD</t>
-  </si>
-  <si>
-    <t>Iloraz średnich miesięcznych zarobków absolwenta przez średnie mies. zarobki w powiecie zamieszkania absolwenta w okresie po miesiącu uzysk. dyplomu (wyłącznie) do końca obserwacji. śREDNIE ZAROBKI W POWIECIE POLICZYĆ UWZGLĘDNIAJĄC TYLKO MIESIĄCE, W KTÓRYCH ABSOLWENT BYŁ ZATRUDNIONY.
-- zatrudnienie na etat bądź netat; powiat dla każdego miesiąca z osobna, gdy nieznany, średnia ogólnopolska; najpierw policzyć średnie zarobki delikwenta, potem średnie zarobki w powiecie (uwzględniając tylko miesiące przepracowane); na koniec podzielić jedno przez drugie</t>
-  </si>
-  <si>
-    <t>EZARD, GEZBAZYD</t>
-  </si>
-  <si>
-    <t>ZILORAZD_V2</t>
-  </si>
-  <si>
-    <t>Iloraz średnich miesięcznych zarobków absolwenta przez średnie mies. zarobki w powiecie zamieszkania absolwenta w okresie po miesiącu uzysk. dyplomu (wyłącznie) do końca obserwacji. śREDNIE ZAROBKI W POWIECIE POLICZYĆ UWZGLĘDNIAJĄC WSZYSTKIE MIESIĄCE, NIE TYLKO PRZEPRACOWANE.
-- zatrudnienie na etat bądź netat; powiat dla każdego miesiąca z osobna, gdy nieznany, średnia ogólnopolska; najpierw policzyć średnie zarobki delikwenta, potem średnie zarobki w powiecie (uwzględniając wszystkie miesiące danego roku); na koniec podzielić jedno przez drugie</t>
-  </si>
-  <si>
-    <t>EZARD, GEZBAZYD_V2</t>
-  </si>
-  <si>
-    <t>BEZD</t>
-  </si>
-  <si>
-    <t>tylko na podstawie „bezrob”</t>
-  </si>
-  <si>
-    <t>nie był</t>
-  </si>
-  <si>
-    <t>był</t>
-  </si>
-  <si>
-    <t>BEZD_V2</t>
-  </si>
-  <si>
-    <t>czy był bezrobotny na podstawie „bezrob”, ale wykluczając „etat”, „netat”, „rentemer”, „samoz”, „student”</t>
-  </si>
-  <si>
-    <t>BILOD</t>
-  </si>
-  <si>
-    <t>Iloraz PBEZD przez GBEZD (0 dla 0/0)</t>
-  </si>
-  <si>
-    <t>PBEZD, GBEZD</t>
-  </si>
-  <si>
-    <t>BPOW</t>
-  </si>
-  <si>
-    <t>EEM</t>
-  </si>
-  <si>
-    <t>średnia liczba etatodawców w miesiącu - NEM przez liczbę miesięcy w okresie</t>
-  </si>
-  <si>
-    <t>NEM, LEN</t>
-  </si>
-  <si>
-    <t>EEMP</t>
-  </si>
-  <si>
-    <t>średnia liczba etatodawców w przepracowanym miesiącu - NEM przez liczbę miesięcy przepracowanych na etat w okresie</t>
-  </si>
-  <si>
-    <t>NEM, NME</t>
-  </si>
-  <si>
-    <t>EMLE</t>
-  </si>
-  <si>
-    <t>średnia roczna liczba utrat etatu - NMLE przez liczbę miesięcy w okresie * 12</t>
-  </si>
-  <si>
-    <t>NMLE, LEN</t>
-  </si>
-  <si>
-    <t>ENDN</t>
-  </si>
-  <si>
-    <t>średnia roczna liczba nowych pracodawców na etat - NNDN przez liczbę miesięcy w okresie * 12</t>
-  </si>
-  <si>
-    <t>NDN, LEN</t>
-  </si>
-  <si>
-    <t>ENNN</t>
-  </si>
-  <si>
-    <t>średnia roczna liczba nowych pracodawców nieetatowych - NNNN przez liczbę miesięcy w okresie * 12</t>
-  </si>
-  <si>
-    <t>NNNN, LEN</t>
-  </si>
-  <si>
-    <t>EPRNDAWD</t>
-  </si>
-  <si>
-    <t>iloraz różnych dawców NIEetatu (umowy inne niż etat, zmienna NDN1) przez liczbę miesięcy na NIEetacie (zmienna NMN1) w pierwszym 12 miesięcznym okresie od miesiąca uzysk. dyplomu 
-- tylko na podstawie netat</t>
-  </si>
-  <si>
-    <t>NDN, NMN</t>
-  </si>
-  <si>
-    <t>Iloraz liczby różnych dawców NIEetatu przez liczbę mięsięcy na NIEetacie w badanym okresie := NDN / NMN lub BD
-Algorytm: iloraz różnych dawców NIEetatu (umowy inne niż etat, zmienna NDN) przez liczbę miesięcy na NIEetacie (zmienna NMN) w badanym okresie (BRAK DANYCH dla 0/0)</t>
-  </si>
-  <si>
-    <t>EPRUDAWD</t>
-  </si>
-  <si>
-    <t>iloraz różnych dawców etatu (tylko UMOWY O PRACĘ, zmienna NDE1) przez liczbę mięsięcy na etacie (zmienna NME1) w pierwszym 12 miesięcznym okresie od miesiąca uzysk. dyplomu (0 dla 0/0)</t>
-  </si>
-  <si>
-    <t>NDE, NME</t>
-  </si>
-  <si>
-    <t>Iloraz liczby różnych dawców etatu przez liczbę mięsięcy na etacie w badanym okresie := NDE / NME lub 0
-Algorytm: iloraz różnych dawców etatu (tylko UMOWY O PRAC , zmienna NDE) przez liczbę mięsięcy na etacie (zmienna NME) w badanym okresie (0 dla 0/0)</t>
-  </si>
-  <si>
-    <t>Średnie miesięczne zarobki w przepracowanych miesiącach po miesiącu uzysk. dyplomu (wyłącznie) do końca obserwacji</t>
+    <t>SZ / NMP
+(0 dla 0/0)</t>
+  </si>
+  <si>
+    <t>SZ, NMP</t>
   </si>
   <si>
     <t>EZARD_V2</t>
   </si>
   <si>
-    <t>Suma zarobków w badanym okresie podzielona przez liczbę miesięcy w tym okresie (a nie przez liczbę przepracowanych miesięcy, jak w EZARD); to dość świeża zmienna, pominąłem ją przez przeoczenie</t>
+    <t>SZ / LEN
+(0 dla 0/0)</t>
+  </si>
+  <si>
+    <t>SZ, LEN</t>
   </si>
   <si>
     <t>JPDZAM</t>
   </si>
   <si>
-    <t>różnica między powiatem zamieszkania absolwenta a powiatem jednostki dydaktycznej, którą ukończył na koniec okresu (dla 0 w momencie uzyskania dyplomu)
-- w wypadku niejednoznacznego dopasowania powiatów najniższa możliwa wartość zmiennej spośród możliwych powiatów</t>
+    <t>Zgodność powiatów zamieszkania absolwenta i jednostki dydaktycznej, którą ukończył na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
+W wypadku niejednoznacznego mapowania PNA na powiaty jako TERYT odpowiadający danemu PNA przyjmowane jednoznacznie wyznaczane województwo, a gdy także województwo niejednoznaczne, Polska.
+W wypadku gdy wiele różnych JST dla danego okresu, wtedy zmienna liczona dla każdego JST z osobna, a następnie przypisywana najmniejsza uzyskana wartość.</t>
   </si>
   <si>
     <t>POWIAT</t>
   </si>
   <si>
+    <t>oblicz_zamieszkanie</t>
+  </si>
+  <si>
+    <t>okienko, jednostki</t>
+  </si>
+  <si>
     <t>tożsame powiaty</t>
   </si>
   <si>
@@ -386,8 +580,8 @@
     <t>KLASZAM</t>
   </si>
   <si>
-    <t>klasa wielkości miejscowości zamieszkania na koniec okresu (dla 0 w momencie uzyskania dyplomu)
-- w wypadku niejednoznacznej klasy wielkości miejscowości brak danych</t>
+    <t>Klasa wielkości miejscowości zamieszkania na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
+W wypadku niejednoznacznego mapowania PNA na powiaty lub wiele wpisów dla tego samego okresu wskazuje na różne powiaty, wtedy NA.</t>
   </si>
   <si>
     <t>powiaty 264, 1261, 1061, 1465, 3064</t>
@@ -402,15 +596,33 @@
     <t>KLASZAM_V2</t>
   </si>
   <si>
-    <t>klasa wielkości miejscowości zamieszkania w momencie uzyskania dyplomu
-- w wypadku niejednoznacznej klasy wielkości miejscowości najmniejsza wartość</t>
+    <t>Klasa wielkości miejscowości zamieszkania na koniec na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
+W wypadku niejednoznacznego mapowania PNA na powiaty przyjmowana minimalna wartość spośród powiatów-kandydatów.
+W wypadku gdy wiele różnych PNA dla danego okresu, wtedy najmniejsza wartość spośród wartości PNA-kandydatów.</t>
   </si>
   <si>
     <t>MIEJZAM</t>
   </si>
   <si>
-    <t>akademickość miejsca zamieszkania na koniec okresu (dla 0 w momencie uzyskania dyplomu)
-- w wypadku niejednoznacznego powiatu brak danych</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Akademickość miejsca zamieszkania na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>W wypadku niejednoznacznego mapowania PNA na powiaty lub wiele wpisów dla tego samego okresu wskazuje na różne powiaty, wtedy NA.</t>
+    </r>
   </si>
   <si>
     <t>powiaty 264, 461, 463, 663, 1061, 1261, 1465, 1863, 2061, 2261, 2262, 2469, 2862, 3064, 3262</t>
@@ -419,43 +631,60 @@
     <t>MIEJZAM_V2</t>
   </si>
   <si>
-    <t>akademickość miejsca zamieszkania na koniec okresu (dla 0 w momencie uzyskania dyplomu)
-- w wypadku niejednoznacznego powiatu minimalna wartość</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Akademickość miejsca zamieszkania na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>W wypadku niejednoznacznego mapowania PNA na powiaty przyjmowana minimalna wartość spośród powiatów-kandydatów.
+W wypadku gdy wiele różnych PNA dla danego okresu, wtedy najmniejsza wartość spośród wartości PNA-kandydatów.</t>
+    </r>
   </si>
   <si>
     <t>MNPRD</t>
   </si>
   <si>
-    <t>Odsetek miesięcy pozostawania bez pracy po uzyskaniu dyplomu do końca obserwacji (do ostatniego miesiąca objętego obserwacją w ZUS)
-wartość 0, jeśli uzyskał pracę w 1 miesiącu po miesiącu uzyskania dyplomu
-- jeśli brak danych z ZUS, to traktujemy jako bezrobocie</t>
-  </si>
-  <si>
-    <t>NMB, LEN</t>
+    <t>Odsetek miesięcy pozostawania bez pracy w okienku.
+(LEN – CZASPRD) / LEN
+(NA dla 0/0)</t>
+  </si>
+  <si>
+    <t>CZASPRD, LEN</t>
   </si>
   <si>
     <t>MNPRUD</t>
   </si>
   <si>
-    <t>Odsetek miesięcy pozostawania bez pracy NA UMOWĘ O PRACĘ po uzyskaniu dyplomu do końca obserwacji (do ostatniego miesiąca objętego obserwacją w ZUS)
-wartość 0, jeśli uzyskał pracę NA UMOWĘ O PRACĘ w 1 miesiącu po miesiącu uzyskania dyplomu
-- jeśli brak danych z ZUS, to traktujemy jako bezrobocie</t>
-  </si>
-  <si>
-    <t>NME, LEN</t>
+    <t>Odsetek miesięcy pozostawania bez etatu w okienku.
+(LEN – CZASPRUD) / LEN
+(NA dla 0/0)</t>
+  </si>
+  <si>
+    <t>CZASPRUD, LEN</t>
   </si>
   <si>
     <t>MUNBAZY</t>
   </si>
   <si>
-    <t>Czy został zatrudniony w zawodowych służbach mundurowych po miesiącu uzysk. dyplomu do końca obserwacji (do ostatniego miesiąca objętego obserwacją w ZUS) 
-wartość 0 dla nieobecnych w ZUS, niezatrudnionych itp.</t>
+    <t>NMM &gt; 0</t>
   </si>
   <si>
     <t>NETATPOD</t>
   </si>
   <si>
-    <t>Czy absolwent nie podjął jakiejkolwiek pracy na umowę o pracę od dyplomu do końca obserwacji (do ostatniego miesiąca objętego obserwacją w ZUS)?</t>
+    <t>NME &gt; 0</t>
   </si>
   <si>
     <t>podjął</t>
@@ -467,14 +696,14 @@
     <t>NPRACPOD</t>
   </si>
   <si>
-    <t>Czy absolwent nie podjął jakiejkolwiek pracy od dyplomu do końca obserwacji (etat/netat/samoz)?</t>
+    <t>NMP &gt; 0</t>
   </si>
   <si>
     <t>NRWOJ</t>
   </si>
   <si>
-    <t>identyfikator województwa zamieszkania na koniec okresu (dla 0 w momencie uzyskania dyplomu)
-- w razie niejednoznaczności "Polska"</t>
+    <t>Identyfikator województwa zamieszkania na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
+W razie niejednoznaczności jednoznaczne województwo, a gdy także ono niejednoznaczne, Polska.</t>
   </si>
   <si>
     <t>PBEZD</t>
@@ -484,14 +713,17 @@
 - patrz też bezd</t>
   </si>
   <si>
-    <t>identyfikator powiatu zamieszkania na koniec okresu
-w razie niejednoznaczności "Polska"</t>
+    <t>NMB, LEN</t>
+  </si>
+  <si>
+    <t>Identyfikator powiatu zamieszkania na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
+W razie niejednoznaczności jednoznaczne województwo, a gdy także ono niejednoznaczne, Polska.</t>
   </si>
   <si>
     <t>SAMOPOD</t>
   </si>
   <si>
-    <t>Czy absolwent był kiedykolwiek samozatrudniony od miesiąca uzyskania dyplomu (włącznie) do końca obserwacji (do ostatniego miesiąca objętego obserwacją w ZUS)?</t>
+    <t>NMS &gt; 0</t>
   </si>
   <si>
     <t>CZASMUN_V2</t>
@@ -504,6 +736,9 @@
 wartości od 0 (w tym samym miesiącu co miesiąc uzyskania dyplomu, jeśli w następnym miesiącu nie utracił pracy u tego samego pracodawcy)</t>
   </si>
   <si>
+    <t>oblicz_zmienne_czasowe</t>
+  </si>
+  <si>
     <t>CZASPRAW_V2</t>
   </si>
   <si>
@@ -584,8 +819,14 @@
     <t>KONT</t>
   </si>
   <si>
-    <t>absolwent odbywał studia 2 stopnia po ukończeniu studiów 1 stopnia
-- gdy na wielu uczelniach/jednostakch, bierzemy minimum</t>
+    <t>Czy absolwent odbywał studia 2 stopnia po ukończeniu studiów 1 stopnia.
+Jeśli wiele takich studiów, wtedy najmniejsza wartość zmiennej spośród kandydatów.</t>
+  </si>
+  <si>
+    <t>oblicz_studyp</t>
+  </si>
+  <si>
+    <t>zdau</t>
   </si>
   <si>
     <t>nie studiował</t>
@@ -612,15 +853,13 @@
     <t>STUDYP</t>
   </si>
   <si>
-    <t>na ilu kierunkach absolwent studiował w momencie uzyskania dyplomu
-jeśli wpisany jako student tego, co ukończył, to nie liczymy tego do zmiennej</t>
+    <t>Na ilu kierunkach absolwent studiował w momencie uzyskania dyplomu (pomijając kierunek, w którym uzyskał dyplom).</t>
   </si>
   <si>
     <t>STUDYP1</t>
   </si>
   <si>
-    <t>cechy pierwszych napotkanych studiów 1 stopnia odbywanych równolegle z uzyskaniem dyplomu
-- naprawdę pierwsze, co wpadnie</t>
+    <t>Charakter pierwszych napotkanych (wszystko jedno jakich) studiów 1 stopnia odbywanych równolegle z uzyskaniem dyplomu</t>
   </si>
   <si>
     <t>nie było takich studiów</t>
@@ -629,15 +868,13 @@
     <t>STUDYP2</t>
   </si>
   <si>
-    <t>cechy pierwszych napotkanych studiów 2 stopnia odbywanych równolegle z uzyskaniem dyplomu
-- naprawdę pierwsze, co wpadnie</t>
+    <t>Charakter pierwszych napotkanych (wszystko jedno jakich) studiów 2 stopnia odbywanych równolegle z uzyskaniem dyplomu</t>
   </si>
   <si>
     <t>STUDYP3</t>
   </si>
   <si>
-    <t>cechy pierwszych napotkanych studiów jednolitych magisterskich odbywanych równolegle z uzyskaniem dyplomu
-- naprawdę pierwsze, co wpadnie</t>
+    <t>Charakter pierwszych napotkanych (wszystko jedno jakich) studiów jednolitych magisterskich odbywanych równolegle z uzyskaniem dyplomu</t>
   </si>
 </sst>
 </file>
@@ -648,7 +885,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -693,8 +930,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,6 +954,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -762,7 +1011,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -791,12 +1040,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -880,21 +1137,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M65536"/>
+  <dimension ref="A1:N65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.63775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="50.219387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.1734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.6785714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="25.4948979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.2755102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,7 +1171,7 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -934,1964 +1192,2295 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="70.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="8" t="n">
+      <c r="M2" s="6"/>
+      <c r="N2" s="8" t="n">
         <f aca="false">D2=""</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="8" t="n">
-        <f aca="false">D3=""</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M3" s="6"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="8" t="n">
-        <f aca="false">D4=""</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="6"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="8" t="n">
-        <f aca="false">D5=""</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M5" s="6"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="8" t="n">
-        <f aca="false">D6=""</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M6" s="6"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="47.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="8" t="n">
+      <c r="M7" s="6"/>
+      <c r="N7" s="8" t="n">
         <f aca="false">D7=""</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="47.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="8" t="n">
+      <c r="M8" s="6"/>
+      <c r="N8" s="8" t="n">
         <f aca="false">D8=""</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="8" t="n">
+      <c r="M9" s="6"/>
+      <c r="N9" s="8" t="n">
         <f aca="false">D9=""</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="8" t="n">
+      <c r="M10" s="6"/>
+      <c r="N10" s="8" t="n">
         <f aca="false">D10=""</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="8" t="n">
+      <c r="M11" s="6"/>
+      <c r="N11" s="8" t="n">
         <f aca="false">D11=""</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="8" t="n">
+      <c r="M12" s="6"/>
+      <c r="N12" s="8" t="n">
         <f aca="false">D12=""</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="8" t="n">
+      <c r="M13" s="6"/>
+      <c r="N13" s="8" t="n">
         <f aca="false">D13=""</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="47.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="8" t="n">
+      <c r="M14" s="6"/>
+      <c r="N14" s="8" t="n">
         <f aca="false">D14=""</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="8" t="n">
+      <c r="M15" s="6"/>
+      <c r="N15" s="8" t="n">
         <f aca="false">D15=""</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="8" t="n">
+      <c r="M16" s="6"/>
+      <c r="N16" s="8" t="n">
         <f aca="false">D16=""</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="8" t="n">
+      <c r="M17" s="6"/>
+      <c r="N17" s="8" t="n">
         <f aca="false">D17=""</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="8" t="n">
+      <c r="M18" s="6"/>
+      <c r="N18" s="8" t="n">
         <f aca="false">D18=""</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="8" t="n">
+      <c r="M19" s="6"/>
+      <c r="N19" s="8" t="n">
         <f aca="false">D19=""</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="8" t="n">
+      <c r="M20" s="6"/>
+      <c r="N20" s="8" t="n">
         <f aca="false">D20=""</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="8" t="n">
+      <c r="M21" s="6"/>
+      <c r="N21" s="8" t="n">
         <f aca="false">D21=""</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="8" t="n">
+      <c r="M22" s="6"/>
+      <c r="N22" s="8" t="n">
         <f aca="false">D22=""</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
+      <c r="E23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="8" t="n">
-        <f aca="false">D23=""</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M23" s="6"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="8" t="n">
+      <c r="M24" s="6"/>
+      <c r="N24" s="8" t="n">
         <f aca="false">D24=""</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="8" t="n">
+      <c r="M25" s="6"/>
+      <c r="N25" s="8" t="n">
         <f aca="false">D25=""</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="115.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="8" t="n">
+      <c r="M26" s="6"/>
+      <c r="N26" s="8" t="n">
         <f aca="false">D26=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="8" t="n">
+      <c r="M27" s="6"/>
+      <c r="N27" s="8" t="n">
         <f aca="false">D27=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="115.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="8" t="n">
+      <c r="M28" s="6"/>
+      <c r="N28" s="8" t="n">
         <f aca="false">D28=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="8" t="n">
+      <c r="M29" s="6"/>
+      <c r="N29" s="8" t="n">
         <f aca="false">D29=""</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>28</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="8" t="n">
+      <c r="M30" s="6"/>
+      <c r="N30" s="8" t="n">
         <f aca="false">D30=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="8" t="n">
+      <c r="M31" s="6"/>
+      <c r="N31" s="8" t="n">
         <f aca="false">D31=""</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="8" t="n">
+      <c r="M32" s="6"/>
+      <c r="N32" s="8" t="n">
         <f aca="false">D32=""</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="8" t="n">
+      <c r="M33" s="6"/>
+      <c r="N33" s="8" t="n">
         <f aca="false">D33=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="8" t="n">
+      <c r="M34" s="6"/>
+      <c r="N34" s="8" t="n">
         <f aca="false">D34=""</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="8" t="n">
+      <c r="M35" s="6"/>
+      <c r="N35" s="8" t="n">
         <f aca="false">D35=""</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="8" t="n">
+      <c r="M36" s="6"/>
+      <c r="N36" s="8" t="n">
         <f aca="false">D36=""</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="8" t="n">
+      <c r="M37" s="6"/>
+      <c r="N37" s="8" t="n">
         <f aca="false">D37=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="8" t="n">
+      <c r="M38" s="6"/>
+      <c r="N38" s="8" t="n">
         <f aca="false">D38=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="8" t="n">
+      <c r="M39" s="6"/>
+      <c r="N39" s="8" t="n">
         <f aca="false">D39=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="8" t="n">
+      <c r="M40" s="6"/>
+      <c r="N40" s="8" t="n">
         <f aca="false">D40=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="8" t="n">
+      <c r="M41" s="6"/>
+      <c r="N41" s="8" t="n">
         <f aca="false">D41=""</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="8" t="n">
+      <c r="M42" s="6"/>
+      <c r="N42" s="8" t="n">
         <f aca="false">D42=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="8" t="n">
+      <c r="M43" s="6"/>
+      <c r="N43" s="8" t="n">
         <f aca="false">D43=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="6" t="s">
-        <v>113</v>
+        <v>129</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I44" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="8" t="n">
+      <c r="M44" s="6"/>
+      <c r="N44" s="8" t="n">
         <f aca="false">D44=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="6" t="s">
-        <v>118</v>
+        <v>80</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I45" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="8" t="n">
+      <c r="M45" s="6"/>
+      <c r="N45" s="8" t="n">
         <f aca="false">D45=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="6" t="s">
-        <v>118</v>
+        <v>80</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I46" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="8" t="n">
+      <c r="M46" s="6"/>
+      <c r="N46" s="8" t="n">
         <f aca="false">D46=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="6" t="s">
-        <v>125</v>
+        <v>80</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I47" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="8" t="n">
+      <c r="M47" s="6"/>
+      <c r="N47" s="8" t="n">
         <f aca="false">D47=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="6" t="s">
-        <v>125</v>
+        <v>80</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I48" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="8" t="n">
+      <c r="M48" s="6"/>
+      <c r="N48" s="8" t="n">
         <f aca="false">D48=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>129</v>
+    <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="6"/>
+        <v>149</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="8" t="n">
+      <c r="M49" s="6"/>
+      <c r="N49" s="8" t="n">
         <f aca="false">D49=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>132</v>
+    <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="6"/>
+        <v>152</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="8" t="n">
+      <c r="M50" s="6"/>
+      <c r="N50" s="8" t="n">
         <f aca="false">D50=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="8" t="n">
+      <c r="M51" s="6"/>
+      <c r="N51" s="8" t="n">
         <f aca="false">D51=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="6" t="s">
-        <v>138</v>
+        <v>61</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H52" s="6"/>
+        <v>157</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="8" t="n">
+      <c r="M52" s="6"/>
+      <c r="N52" s="8" t="n">
         <f aca="false">D52=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="6" t="s">
-        <v>138</v>
+        <v>69</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H53" s="6"/>
+        <v>157</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
-      <c r="M53" s="8" t="n">
+      <c r="M53" s="6"/>
+      <c r="N53" s="8" t="n">
         <f aca="false">D53=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="8" t="n">
+      <c r="M54" s="6"/>
+      <c r="N54" s="8" t="n">
         <f aca="false">D54=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="47.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="6"/>
+        <v>165</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="8" t="n">
+      <c r="M55" s="6"/>
+      <c r="N55" s="8" t="n">
         <f aca="false">D55=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
-      <c r="M56" s="8" t="n">
+      <c r="M56" s="6"/>
+      <c r="N56" s="8" t="n">
         <f aca="false">D56=""</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H57" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-      <c r="M57" s="8" t="n">
+      <c r="M57" s="6"/>
+      <c r="N57" s="8" t="n">
         <f aca="false">D57=""</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>151</v>
+      <c r="A58" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="8" t="n">
+      <c r="M58" s="6"/>
+      <c r="N58" s="8" t="n">
         <f aca="false">D58=""</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>153</v>
+      <c r="A59" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
-      <c r="M59" s="8" t="n">
+      <c r="M59" s="6"/>
+      <c r="N59" s="8" t="n">
         <f aca="false">D59=""</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>155</v>
+      <c r="A60" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
-      <c r="M60" s="8" t="n">
+      <c r="M60" s="6"/>
+      <c r="N60" s="8" t="n">
         <f aca="false">D60=""</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>157</v>
+      <c r="A61" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="8" t="n">
+      <c r="M61" s="6"/>
+      <c r="N61" s="8" t="n">
         <f aca="false">D61=""</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>159</v>
+      <c r="A62" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
-      <c r="M62" s="8" t="n">
+      <c r="M62" s="6"/>
+      <c r="N62" s="8" t="n">
         <f aca="false">D62=""</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>161</v>
+      <c r="A63" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="8" t="n">
+      <c r="M63" s="6"/>
+      <c r="N63" s="8" t="n">
         <f aca="false">D63=""</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>163</v>
+      <c r="A64" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="D64" s="6"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="6"/>
+      <c r="E64" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
-      <c r="M64" s="8" t="n">
+      <c r="M64" s="6"/>
+      <c r="N64" s="8" t="n">
         <f aca="false">D64=""</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>165</v>
+      <c r="A65" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="D65" s="6"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="6"/>
+      <c r="E65" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="8" t="n">
+      <c r="M65" s="6"/>
+      <c r="N65" s="8" t="n">
         <f aca="false">D65=""</f>
         <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>167</v>
+      <c r="A66" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="D66" s="6"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="6"/>
+      <c r="E66" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
-      <c r="M66" s="8" t="n">
+      <c r="M66" s="6"/>
+      <c r="N66" s="8" t="n">
         <f aca="false">D66=""</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>169</v>
+      <c r="A67" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="D67" s="6"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="6"/>
+      <c r="E67" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="8" t="n">
+      <c r="M67" s="6"/>
+      <c r="N67" s="8" t="n">
         <f aca="false">D67=""</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>171</v>
+      <c r="C68" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="D68" s="6"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="6"/>
+      <c r="E68" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
-      <c r="M68" s="8" t="n">
+      <c r="M68" s="6"/>
+      <c r="N68" s="8" t="n">
         <f aca="false">D68=""</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="6"/>
+      <c r="F69" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="8" t="n">
+      <c r="M69" s="6"/>
+      <c r="N69" s="8" t="n">
         <f aca="false">D69=""</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="D70" s="6"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="6" t="s">
-        <v>176</v>
+      <c r="E70" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="M70" s="9" t="n">
+        <v>204</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="N70" s="11" t="n">
         <f aca="false">D70=""</f>
         <v>1</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D71" s="6"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="6"/>
+      <c r="E71" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
-      <c r="M71" s="8" t="n">
+      <c r="M71" s="6"/>
+      <c r="N71" s="8" t="n">
         <f aca="false">D71=""</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="D72" s="6"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="6" t="s">
-        <v>187</v>
+      <c r="E72" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="M72" s="8" t="n">
+        <v>204</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="N72" s="8" t="n">
         <f aca="false">D72=""</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="D73" s="6"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="6" t="s">
-        <v>187</v>
+      <c r="E73" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="M73" s="8" t="n">
+        <v>204</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="N73" s="8" t="n">
         <f aca="false">D73=""</f>
         <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="D74" s="6"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="6" t="s">
-        <v>187</v>
+      <c r="E74" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="M74" s="8" t="n">
+        <v>204</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="N74" s="8" t="n">
         <f aca="false">D74=""</f>
         <v>1</v>
       </c>
@@ -2913,13 +3502,13 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="42" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="12" man="true" max="65535" min="0"/>
+    <brk id="13" man="true" max="65535" min="0"/>
   </colBreaks>
 </worksheet>
 </file>
--- a/vignettes/definicje_zmiennych.xlsx
+++ b/vignettes/definicje_zmiennych.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="216">
   <si>
     <t>zmienna</t>
   </si>
@@ -282,52 +282,18 @@
     <t>GEZBAZYD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Średnie miesięczne zarobki w powiecie zamieszkania absolwenta dla przepracowanych miesięcy danego okienka (etat/netat/samoz).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- W wypadku niejednoznacznego mapowania PNA na TERYT liczymy wartość dla PNA jako prostą średnią z powiatów-kandydatów.
+    <t>Średnie miesięczne zarobki w powiecie zamieszkania absolwenta dla przepracowanych miesięcy danego okienka (etat/netat/samoz).
+- W wypadku niejednoznacznego mapowania PNA na TERYT liczymy wartość dla PNA jako prostą średnią z powiatów-kandydatów.
 - W wypadku niejednoznacznego PNA dla danego okresu liczymy wartość dla okresu jako średnią z wartości PNA-kandydatów.</t>
-    </r>
   </si>
   <si>
     <t>GEZBAZYD_V2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Średnie miesięczne zarobki w powiecie zamieszkania absolwenta dla całego okienka.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- W wypadku niejednoznacznego mapowania PNA na TERYT liczymy wartość dla PNA jako prostą średnią z powiatów-kandydatów.
+    <t>Średnie miesięczne zarobki w powiecie zamieszkania absolwenta dla całego okienka.
+- W wypadku niejednoznacznego mapowania PNA na TERYT liczymy wartość dla PNA jako prostą średnią z powiatów-kandydatów.
 - W wypadku niejednoznacznego PNA dla danego okresu liczymy wartość dla okresu jako średnią z wartości PNA-kandydatów.
 - W wypadku braku danych ZUS dla danego okresu zastępujemy wartością ogólnopolską.</t>
-    </r>
   </si>
   <si>
     <t>ZILORAZD</t>
@@ -379,25 +345,8 @@
     <t>EEM</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NEM / LEN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NA dla 0/0)</t>
-    </r>
+    <t>NEM / LEN
+(NA dla 0/0)</t>
   </si>
   <si>
     <t>NEM, LEN</t>
@@ -406,25 +355,8 @@
     <t>EEMP</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NEM / NME
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NA dla 0/0)</t>
-    </r>
+    <t>NEM / NME
+(NA dla 0/0)</t>
   </si>
   <si>
     <t>NEM, NME</t>
@@ -443,25 +375,8 @@
     <t>ENDN</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NNDN * 12 / LEN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NA dla 0/0)</t>
-    </r>
+    <t>NNDN * 12 / LEN
+(NA dla 0/0)</t>
   </si>
   <si>
     <t>NDN, LEN</t>
@@ -480,25 +395,8 @@
     <t>EPRNDAWD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NDN / NMN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NA dla 0/0)</t>
-    </r>
+    <t>NDN / NMN
+(NA dla 0/0)</t>
   </si>
   <si>
     <t>NDN, NMN</t>
@@ -507,25 +405,8 @@
     <t>EPRUDAWD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NDE / NME 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NA dla 0/0)</t>
-    </r>
+    <t>NDE / NME 
+(NA dla 0/0)</t>
   </si>
   <si>
     <t>NDE, NME</t>
@@ -604,25 +485,8 @@
     <t>MIEJZAM</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Akademickość miejsca zamieszkania na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>W wypadku niejednoznacznego mapowania PNA na powiaty lub wiele wpisów dla tego samego okresu wskazuje na różne powiaty, wtedy NA.</t>
-    </r>
+    <t>Akademickość miejsca zamieszkania na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
+W wypadku niejednoznacznego mapowania PNA na powiaty lub wiele wpisów dla tego samego okresu wskazuje na różne powiaty, wtedy NA.</t>
   </si>
   <si>
     <t>powiaty 264, 461, 463, 663, 1061, 1261, 1465, 1863, 2061, 2261, 2262, 2469, 2862, 3064, 3262</t>
@@ -631,26 +495,9 @@
     <t>MIEJZAM_V2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Akademickość miejsca zamieszkania na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>W wypadku niejednoznacznego mapowania PNA na powiaty przyjmowana minimalna wartość spośród powiatów-kandydatów.
+    <t>Akademickość miejsca zamieszkania na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
+W wypadku niejednoznacznego mapowania PNA na powiaty przyjmowana minimalna wartość spośród powiatów-kandydatów.
 W wypadku gdy wiele różnych PNA dla danego okresu, wtedy najmniejsza wartość spośród wartości PNA-kandydatów.</t>
-    </r>
   </si>
   <si>
     <t>MNPRD</t>
@@ -732,88 +579,85 @@
     <t>stała</t>
   </si>
   <si>
-    <t>W którym miesiącu od miesiąca uzyskania dyplomu absolwent podjął zatrudnienie W ZAWODOWYCH SŁUŻBACH MUNDUROWYCH (do ostatniego miesiąca objętego obserwacją w ZUS)
-wartości od 0 (w tym samym miesiącu co miesiąc uzyskania dyplomu, jeśli w następnym miesiącu nie utracił pracy u tego samego pracodawcy)</t>
+    <t>Okres składkowy uzyskania pierwszej pracy w służbach mundurowych (mundur) minus miesiąc uzyskania dyplomu (czas do uzyskania pierwszej pracy w służbach mundurowych w miesiącach)
+Wartość 0 tylko gdy utrzymał pracę o tym samym charakterze u tego samego pracodawcy w kolejnym miesiącu.</t>
   </si>
   <si>
     <t>oblicz_zmienne_czasowe</t>
   </si>
   <si>
+    <t>baza, utrataEtatu</t>
+  </si>
+  <si>
     <t>CZASPRAW_V2</t>
   </si>
   <si>
-    <t>W którym miesiącu od miesiąca uzyskania dyplomu absolwent podjął zatrudnienie jako aplikant, sędzia, prokurator (do ostatniego miesiąca objętego obserwacją w ZUS)
-wartości od 0 (w tym samym miesiącu co miesiąc uzyskania dyplomu, jeśli w następnym miesiącu nie utracił pracy u tego samego pracodawcy)</t>
+    <t>Okres składkowy uzyskania pierwszej pracy jako aplikant/sędzia/prokurator (prawnik) minus miesiąc uzyskania dyplomu (czas do uzyskania pierwszej pracy jako aplikant/sędzia/prokurator w miesiącach)
+Wartość 0 tylko gdy utrzymał pracę o tym samym charakterze u tego samego pracodawcy w kolejnym miesiącu.</t>
   </si>
   <si>
     <t>CZASPRD_V2</t>
   </si>
   <si>
-    <t>W którym miesiącu od miesiąca uzyskania dyplomu absolwent podjął pracę (samozatrudnienie, etat lub nieetat) (do ostatniego miesiąca objętego obserwacją w ZUS)
-wartości od 0 (w tym samym miesiącu co miesiąc uzyskania dyplomu, jeśli w następnym miesiącu nie utracił pracy u tego samego pracodawcy)</t>
+    <t>Okres składkowy uzyskania pierwszej pracy (etat/netat/samoz) minus miesiąc uzyskania dyplomu (czas do uzyskania pierwszej pracy w miesiącach)
+Wartość 0 tylko gdy utrzymał pracę o tym samym charakterze u tego samego pracodawcy w kolejnym miesiącu</t>
   </si>
   <si>
     <t>CZASPRSD_V2</t>
   </si>
   <si>
-    <t>W którym miesiącu od miesiąca uzyskania dyplomu absolwent podjął SAMOZATRUDNIENIE (do ostatniego miesiąca objętego obserwacją w ZUS)
-wartości od 0 (w tym samym miesiącu co miesiąc uzyskania dyplomu, jeśli w następnym miesiącu nie utracił pracy u tego samego pracodawcy)</t>
+    <t>Okres składkowy podjęcia pierwszej pracy jako samozatrudniony (samoz) jako  minus miesiąc uzyskania dyplomu (czas do podejęcia pierwszej pracy jako samozatrudniony)
+Wartość 0 tylko gdy utrzymał pracę o tym samym charakterze u tego samego pracodawcy w kolejnym miesiącu.</t>
   </si>
   <si>
     <t>CZASPRUD_V2</t>
   </si>
   <si>
-    <t>W którym miesiącu od miesiąca uzyskania dyplomu absolwent podjął pracę NA UMOWĘ O PRACĘ (etat) (do ostatniego miesiąca objętego obserwacją w ZUS)
-wartości od 0 (w tym samym miesiącu co miesiąc uzyskania dyplomu, jeśli w następnym miesiącu nie utracił pracy u tego samego pracodawcy)</t>
+    <t>Okres składkowy podjęcia pierwszej pracy etatowej (etat) jako  minus miesiąc uzyskania dyplomu (czas do podejęcia pierwszej pracy etatowek)
+Wartość 0 tylko gdy utrzymał pracę o tym samym charakterze u tego samego pracodawcy w kolejnym miesiącu.</t>
   </si>
   <si>
     <t>CZASZATD_V2</t>
   </si>
   <si>
-    <t>W którym miesiącu od miesiąca uzyskania dyplomu absolwent podjął zatrudnienie (etat lub nieetat) (do ostatniego miesiąca objętego obserwacją w ZUS)
-wartości od 0 (w tym samym miesiącu co miesiąc uzyskania dyplomu, jeśli w następnym miesiącu nie utracił pracy u tego samego pracodawcy)</t>
+    <t>Okres składkowy podjęcia pierwszej pracy na etat lub netat  minus miesiąc uzyskania dyplomu (czas do podejęcia pierwszej pracy na etat/netat)
+Wartość 0 tylko gdy utrzymał pracę o tym samym charakterze u tego samego pracodawcy w kolejnym miesiącu.</t>
   </si>
   <si>
     <t>CZASMUN</t>
   </si>
   <si>
-    <t>Ile pełnych miesięcy od dyplomu minęło do czasu, aż podjął zatrudnienie W ZAWODOWYCH SŁUŻBACH MUNDUROWYCH (do ostatniego miesiąca objętego obserwacją w ZUS)
-wartości od 0 (w tym samym miesiącu co miesiąc uzyskania dyplomu, jeśli w następnym miesiącu nie utracił tej pracy)</t>
+    <t>max(0, CZASMUN_V2 – 1)</t>
   </si>
   <si>
     <t>CZASPRAW</t>
   </si>
   <si>
-    <t>Ile pełnych miesięcy od dyplomu minęło do czasu, aż podjął zatrudnienie jako aplikant, sędzia, prokurator (do ostatniego miesiąca objętego obserwacją w ZUS)
-wartości od 0 (w tym samym miesiącu co miesiąc uzyskania dyplomu, jeśli w następnym miesiącu nie utracił tej pracy)</t>
+    <t>max(0, CZAPRAW_V2 – 1)</t>
   </si>
   <si>
     <t>CZASPRD</t>
   </si>
   <si>
-    <t>Ile pełnych miesięcy od dyplomu minęło do czasu, aż podjął pracę (samozatrudnienie, etat lub nieetat) (do ostatniego miesiąca objętego obserwacją w ZUS)
-wartości od 0</t>
+    <t>max(0, CZASPRD_V2 – 1)</t>
   </si>
   <si>
     <t>CZASPRSD</t>
   </si>
   <si>
-    <t>Ile pełnych miesięcy od dyplomu minęło do czasu, aż podjął SAMOZATRUDNIENIE (do ostatniego miesiąca objętego obserwacją w ZUS)
-wartości od 0 (w tym samym miesiącu co miesiąc uzyskania dyplomu, jeśli w następnym miesiącu nie utracił tej pracy)</t>
+    <t>max(0, CZASPRSD_V2 – 1)</t>
   </si>
   <si>
     <t>CZASPRUD</t>
   </si>
   <si>
-    <t>Ile pełnych miesięcy od dyplomu minęło do czasu, aż podjął pracę NA UMOWĘ O PRACĘ (etat) (do ostatniego miesiąca objętego obserwacją w ZUS)
-wartości od 0 (w tym samym miesiącu co miesiąc uzyskania dyplomu, jeśli w następnym miesiącu nie utracił tej pracy)</t>
+    <t>max(0, CZASPRUD_V2 – 1)</t>
   </si>
   <si>
     <t>CZASZATD</t>
   </si>
   <si>
-    <t>Ile pełnych miesięcy od dyplomu minęło do czasu, aż podjął zatrudnienie (etat lub nieetat) (do ostatniego miesiąca objętego obserwacją w ZUS)
-wartości od 0 (w tym samym miesiącu co miesiąc uzyskania dyplomu, jeśli w następnym miesiącu nie utracił tej pracy)</t>
+    <t>max(0, CZASZATD_V2 – 1)</t>
   </si>
   <si>
     <t>KONT</t>
@@ -885,13 +729,12 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -913,7 +756,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -921,23 +763,15 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -954,12 +788,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor rgb="FFEEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1011,7 +839,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1048,11 +876,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1139,20 +963,22 @@
   </sheetPr>
   <dimension ref="A1:N65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.6785714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="25.4948979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.2755102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.1377551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.280612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,7 +1200,7 @@
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="6"/>
@@ -2646,13 +2472,13 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="10" t="s">
+      <c r="B49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>148</v>
       </c>
       <c r="D49" s="6" t="s">
@@ -2677,13 +2503,13 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="10" t="s">
+      <c r="B50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>151</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -2937,13 +2763,13 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>171</v>
       </c>
       <c r="D58" s="6"/>
@@ -2951,7 +2777,7 @@
         <v>172</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -2966,21 +2792,21 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B59" s="10" t="s">
+      <c r="A59" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>174</v>
+      <c r="C59" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -2995,21 +2821,21 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B60" s="10" t="s">
+      <c r="A60" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>176</v>
+      <c r="C60" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -3023,22 +2849,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B61" s="10" t="s">
+    <row r="61" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>178</v>
+      <c r="C61" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -3053,21 +2879,21 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B62" s="10" t="s">
+      <c r="A62" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>180</v>
+      <c r="C62" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -3082,21 +2908,21 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B63" s="10" t="s">
+      <c r="A63" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>182</v>
+      <c r="C63" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -3110,22 +2936,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B64" s="10" t="s">
+    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" s="6"/>
+      <c r="C64" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="E64" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -3136,25 +2964,27 @@
       <c r="M64" s="6"/>
       <c r="N64" s="8" t="n">
         <f aca="false">D64=""</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B65" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D65" s="6"/>
+      <c r="C65" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="E65" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -3165,25 +2995,27 @@
       <c r="M65" s="6"/>
       <c r="N65" s="8" t="n">
         <f aca="false">D65=""</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B66" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D66" s="6"/>
+      <c r="C66" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="E66" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -3194,25 +3026,27 @@
       <c r="M66" s="6"/>
       <c r="N66" s="8" t="n">
         <f aca="false">D66=""</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B67" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D67" s="6"/>
+      <c r="C67" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="E67" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -3223,25 +3057,27 @@
       <c r="M67" s="6"/>
       <c r="N67" s="8" t="n">
         <f aca="false">D67=""</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B68" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D68" s="6"/>
+      <c r="C68" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="E68" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -3252,25 +3088,27 @@
       <c r="M68" s="6"/>
       <c r="N68" s="8" t="n">
         <f aca="false">D68=""</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B69" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D69" s="6"/>
+      <c r="C69" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="E69" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -3281,68 +3119,68 @@
       <c r="M69" s="6"/>
       <c r="N69" s="8" t="n">
         <f aca="false">D69=""</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>170</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="N70" s="11" t="n">
+        <v>206</v>
+      </c>
+      <c r="N70" s="10" t="n">
         <f aca="false">D70=""</f>
         <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>170</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -3358,41 +3196,41 @@
     </row>
     <row r="72" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>170</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N72" s="8" t="n">
         <f aca="false">D72=""</f>
@@ -3401,41 +3239,41 @@
     </row>
     <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>170</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N73" s="8" t="n">
         <f aca="false">D73=""</f>
@@ -3444,41 +3282,41 @@
     </row>
     <row r="74" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>170</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N74" s="8" t="n">
         <f aca="false">D74=""</f>

--- a/vignettes/definicje_zmiennych.xlsx
+++ b/vignettes/definicje_zmiennych.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="215">
   <si>
     <t>zmienna</t>
   </si>
@@ -213,7 +213,7 @@
   </si>
   <si>
     <t>Liczba miesięcy bycia bezrobotnym
-(za bezrobotnego uznjamy tylko osoby, które w danym okresie mają tytuł ubezpieczenia bezrob i jednocześnie nie mają żadnego tytułu ubezpieczenia etat/netat/samoze/rentemer/student albo w ogóle nie mają danych z ZUS dla danego okresu)</t>
+(za bezrobotnego uznajemy tylko osoby, które w danym okresie mają tytuł ubezpieczenia bezrob i jednocześnie nie mają żadnego tytułu ubezpieczenia etat/netat/samoze/rentemer/student albo w ogóle nie mają danych z ZUS dla danego okresu)</t>
   </si>
   <si>
     <t>NME</t>
@@ -504,22 +504,22 @@
   </si>
   <si>
     <t>Odsetek miesięcy pozostawania bez pracy w okienku.
-(LEN – CZASPRD) / LEN
+NMB / LEN
 (NA dla 0/0)</t>
   </si>
   <si>
-    <t>CZASPRD, LEN</t>
+    <t>NMB, LEN</t>
   </si>
   <si>
     <t>MNPRUD</t>
   </si>
   <si>
     <t>Odsetek miesięcy pozostawania bez etatu w okienku.
-(LEN – CZASPRUD) / LEN
+(LEN – NME) / LEN
 (NA dla 0/0)</t>
   </si>
   <si>
-    <t>CZASPRUD, LEN</t>
+    <t>NME, LEN</t>
   </si>
   <si>
     <t>MUNBAZY</t>
@@ -558,9 +558,6 @@
   <si>
     <t>Procent miesięcy, w których absolwent był zarejestrowany jako bezrobotny w okresie po miesiącu uzysk. dyplomu (wyłącznie) do końca obserwacji.
 - patrz też bezd</t>
-  </si>
-  <si>
-    <t>NMB, LEN</t>
   </si>
   <si>
     <t>Identyfikator powiatu zamieszkania na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
@@ -735,6 +732,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -756,6 +754,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -763,12 +762,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -839,7 +840,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -874,10 +875,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -964,21 +961,21 @@
   <dimension ref="A1:N65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
+      <selection pane="bottomLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.1377551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.280612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="48.5969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2472,13 +2469,13 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="9" t="s">
+      <c r="B49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>148</v>
       </c>
       <c r="D49" s="6" t="s">
@@ -2503,13 +2500,13 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="B50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>151</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -2676,7 +2673,7 @@
         <v>164</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>24</v>
@@ -2704,7 +2701,7 @@
         <v>15</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>80</v>
@@ -2729,13 +2726,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>71</v>
@@ -2763,21 +2760,21 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="C58" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -2792,21 +2789,21 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -2821,21 +2818,21 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -2850,21 +2847,21 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -2879,21 +2876,21 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -2908,21 +2905,21 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -2937,23 +2934,23 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>185</v>
-      </c>
       <c r="D64" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E64" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -2968,23 +2965,23 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>187</v>
-      </c>
       <c r="D65" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E65" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -2999,23 +2996,23 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>189</v>
-      </c>
       <c r="D66" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E66" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -3030,23 +3027,23 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>191</v>
-      </c>
       <c r="D67" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E67" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -3061,23 +3058,23 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>193</v>
-      </c>
       <c r="D68" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E68" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -3092,23 +3089,23 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="D69" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E69" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -3124,63 +3121,63 @@
     </row>
     <row r="70" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="G70" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="H70" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="I70" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="I70" s="6" t="s">
+      <c r="J70" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="J70" s="6" t="s">
+      <c r="K70" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="K70" s="6" t="s">
+      <c r="L70" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="L70" s="6" t="s">
+      <c r="M70" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="M70" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="N70" s="10" t="n">
+      <c r="N70" s="9" t="n">
         <f aca="false">D70=""</f>
         <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -3196,41 +3193,41 @@
     </row>
     <row r="72" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="G72" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H72" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="I72" s="6" t="s">
+      <c r="J72" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="J72" s="6" t="s">
+      <c r="K72" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="K72" s="6" t="s">
+      <c r="L72" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="L72" s="6" t="s">
+      <c r="M72" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="M72" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="N72" s="8" t="n">
         <f aca="false">D72=""</f>
@@ -3239,41 +3236,41 @@
     </row>
     <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F73" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="G73" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H73" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I73" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="I73" s="6" t="s">
+      <c r="J73" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="J73" s="6" t="s">
+      <c r="K73" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="K73" s="6" t="s">
+      <c r="L73" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="L73" s="6" t="s">
+      <c r="M73" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="M73" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="N73" s="8" t="n">
         <f aca="false">D73=""</f>
@@ -3282,41 +3279,41 @@
     </row>
     <row r="74" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F74" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="G74" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H74" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I74" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="J74" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="J74" s="6" t="s">
+      <c r="K74" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="K74" s="6" t="s">
+      <c r="L74" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="L74" s="6" t="s">
+      <c r="M74" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="M74" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="N74" s="8" t="n">
         <f aca="false">D74=""</f>

--- a/vignettes/definicje_zmiennych.xlsx
+++ b/vignettes/definicje_zmiennych.xlsx
@@ -205,15 +205,15 @@
     <t>NMB</t>
   </si>
   <si>
-    <t>Liczba miesięcy bycia bezrobotnym (bezrob lub brak danych ZUS).
-(za bezrobotnego uznajemy każdego z tytułem ubezpieczenia bezrob, bez względu na ew. inne tytuły ubezpieczenia w tym samym okresie oraz osoby w ogóle nie mające danych z ZUS dla danego okresu)</t>
+    <t>Liczba miesięcy bycia bezrobotnym (bezrob).
+(za bezrobotnego uznajemy każdego z tytułem ubezpieczenia bezrob, bez względu na ew. inne tytuły ubezpieczenia w tym samym okresie; braku danych ZUS nie uznajemy za bycie bezrobotnym)</t>
   </si>
   <si>
     <t>NMB_V2</t>
   </si>
   <si>
-    <t>Liczba miesięcy bycia bezrobotnym
-(za bezrobotnego uznajemy tylko osoby, które w danym okresie mają tytuł ubezpieczenia bezrob i jednocześnie nie mają żadnego tytułu ubezpieczenia etat/netat/samoze/rentemer/student albo w ogóle nie mają danych z ZUS dla danego okresu)</t>
+    <t>Liczba miesięcy bycia bezrobotnym (bezrob)
+(za bezrobotnego uznajemy tylko osoby, które w danym okresie mają tytuł ubezpieczenia bezrob i jednocześnie nie mają żadnego tytułu ubezpieczenia etat/netat/samoze/rentemer/student; braku danych ZUS nie uznajemy za bycie bezrobotnym)</t>
   </si>
   <si>
     <t>NME</t>
@@ -961,21 +961,20 @@
   <dimension ref="A1:N65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
+      <selection pane="bottomLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="48.5969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="47.9234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.9489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>57</v>
       </c>
@@ -1717,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="115.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>78</v>
       </c>

--- a/vignettes/definicje_zmiennych.xlsx
+++ b/vignettes/definicje_zmiennych.xlsx
@@ -504,7 +504,7 @@
   </si>
   <si>
     <t>Odsetek miesięcy pozostawania bez pracy w okienku.
-NMB / LEN
+(LEN – NMP) / LEN
 (NA dla 0/0)</t>
   </si>
   <si>
@@ -961,20 +961,21 @@
   <dimension ref="A1:N65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+      <selection pane="bottomLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="47.9234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="47.2448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/vignettes/definicje_zmiennych.xlsx
+++ b/vignettes/definicje_zmiennych.xlsx
@@ -19,6 +19,30 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C70" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Potrzeba dokładniejszego opisu, co uznajemy za kontynuację (jaką zależność czasową)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="215">
   <si>
@@ -610,7 +634,7 @@
     <t>CZASPRUD_V2</t>
   </si>
   <si>
-    <t>Okres składkowy podjęcia pierwszej pracy etatowej (etat) jako  minus miesiąc uzyskania dyplomu (czas do podejęcia pierwszej pracy etatowek)
+    <t>Okres składkowy podjęcia pierwszej pracy etatowej (etat) minus miesiąc uzyskania dyplomu (czas do podejęcia pierwszej pracy etatowek)
 Wartość 0 tylko gdy utrzymał pracę o tym samym charakterze u tego samego pracodawcy w kolejnym miesiącu.</t>
   </si>
   <si>
@@ -772,7 +796,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,6 +813,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -840,7 +870,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -875,6 +905,14 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -961,21 +999,21 @@
   <dimension ref="A1:N65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+      <selection pane="bottomLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="47.2448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="45.6275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.02551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,7 +2804,7 @@
       <c r="B58" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="9" t="s">
         <v>170</v>
       </c>
       <c r="D58" s="6"/>
@@ -2795,7 +2833,7 @@
       <c r="B59" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="9" t="s">
         <v>174</v>
       </c>
       <c r="D59" s="6"/>
@@ -2824,7 +2862,7 @@
       <c r="B60" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="9" t="s">
         <v>176</v>
       </c>
       <c r="D60" s="6"/>
@@ -2853,7 +2891,7 @@
       <c r="B61" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="9" t="s">
         <v>178</v>
       </c>
       <c r="D61" s="6"/>
@@ -2882,7 +2920,7 @@
       <c r="B62" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="9" t="s">
         <v>180</v>
       </c>
       <c r="D62" s="6"/>
@@ -2911,7 +2949,7 @@
       <c r="B63" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="9" t="s">
         <v>182</v>
       </c>
       <c r="D63" s="6"/>
@@ -3119,14 +3157,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
         <v>195</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="10" t="s">
         <v>196</v>
       </c>
       <c r="D70" s="6"/>
@@ -3157,7 +3195,7 @@
       <c r="M70" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="N70" s="9" t="n">
+      <c r="N70" s="11" t="n">
         <f aca="false">D70=""</f>
         <v>1</v>
       </c>
@@ -3345,5 +3383,6 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="13" man="true" max="65535" min="0"/>
   </colBreaks>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/vignettes/definicje_zmiennych.xlsx
+++ b/vignettes/definicje_zmiennych.xlsx
@@ -64,6 +64,9 @@
     <t>zbiór bazowy</t>
   </si>
   <si>
+    <t>wartość 0</t>
+  </si>
+  <si>
     <t>wartość 1</t>
   </si>
   <si>
@@ -80,9 +83,6 @@
   </si>
   <si>
     <t>wartość 6</t>
-  </si>
-  <si>
-    <t>wartość 7</t>
   </si>
   <si>
     <t>niezależna</t>
@@ -870,7 +870,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -905,10 +905,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -999,24 +995,25 @@
   <dimension ref="A1:N65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
+      <selection pane="bottomLeft" activeCell="L72" activeCellId="0" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="45.6275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.02551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="44.9540816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2804,7 +2801,7 @@
       <c r="B58" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="6" t="s">
         <v>170</v>
       </c>
       <c r="D58" s="6"/>
@@ -2833,7 +2830,7 @@
       <c r="B59" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="6" t="s">
         <v>174</v>
       </c>
       <c r="D59" s="6"/>
@@ -2862,7 +2859,7 @@
       <c r="B60" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="6" t="s">
         <v>176</v>
       </c>
       <c r="D60" s="6"/>
@@ -2891,7 +2888,7 @@
       <c r="B61" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="6" t="s">
         <v>178</v>
       </c>
       <c r="D61" s="6"/>
@@ -2920,7 +2917,7 @@
       <c r="B62" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="6" t="s">
         <v>180</v>
       </c>
       <c r="D62" s="6"/>
@@ -2949,7 +2946,7 @@
       <c r="B63" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="6" t="s">
         <v>182</v>
       </c>
       <c r="D63" s="6"/>
@@ -3164,7 +3161,7 @@
       <c r="B70" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="9" t="s">
         <v>196</v>
       </c>
       <c r="D70" s="6"/>
@@ -3195,7 +3192,7 @@
       <c r="M70" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="N70" s="11" t="n">
+      <c r="N70" s="10" t="n">
         <f aca="false">D70=""</f>
         <v>1</v>
       </c>

--- a/vignettes/definicje_zmiennych.xlsx
+++ b/vignettes/definicje_zmiennych.xlsx
@@ -13,7 +13,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="226">
   <si>
     <t>zmienna</t>
   </si>
@@ -740,6 +740,39 @@
   </si>
   <si>
     <t>Charakter pierwszych napotkanych (wszystko jedno jakich) studiów jednolitych magisterskich odbywanych równolegle z uzyskaniem dyplomu</t>
+  </si>
+  <si>
+    <t>MCSTART</t>
+  </si>
+  <si>
+    <t>Miesiąc rozpoczęcia studiów</t>
+  </si>
+  <si>
+    <t>DATA_ZAK</t>
+  </si>
+  <si>
+    <t>oblicz_stale_czasowe</t>
+  </si>
+  <si>
+    <t>ROKSTART</t>
+  </si>
+  <si>
+    <t>Rok rozpoczęcia studiów</t>
+  </si>
+  <si>
+    <t>MCDYP</t>
+  </si>
+  <si>
+    <t>Miesiąc uzyskania dyplomu</t>
+  </si>
+  <si>
+    <t>DATA_ROZP</t>
+  </si>
+  <si>
+    <t>ROKDYP</t>
+  </si>
+  <si>
+    <t>Rok uzyskania dyplomu</t>
   </si>
 </sst>
 </file>
@@ -750,7 +783,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -772,13 +805,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -870,28 +896,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -903,7 +929,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -911,8 +937,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -992,25 +1022,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N65536"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L72" activeCellId="0" sqref="L72"/>
+      <selection pane="bottomLeft" activeCell="C77" activeCellId="0" sqref="C77:C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="44.9540816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="8" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="44.4132653061225"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="13" min="8" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,7 +1088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="70.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -1086,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1112,7 +1143,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -1140,7 +1171,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
@@ -1168,7 +1199,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -1196,7 +1227,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="47.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1225,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="47.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -1254,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
@@ -1285,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -1320,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
@@ -1349,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
@@ -1378,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>52</v>
       </c>
@@ -1407,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="47.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>54</v>
       </c>
@@ -1494,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>61</v>
       </c>
@@ -1523,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>63</v>
       </c>
@@ -1552,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>65</v>
       </c>
@@ -1581,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>67</v>
       </c>
@@ -1610,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>69</v>
       </c>
@@ -1639,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>71</v>
       </c>
@@ -1668,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>42</v>
       </c>
@@ -1783,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>81</v>
       </c>
@@ -1814,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="115.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>83</v>
       </c>
@@ -1876,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>88</v>
       </c>
@@ -2318,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
         <v>127</v>
       </c>
@@ -2355,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
         <v>135</v>
       </c>
@@ -2392,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
         <v>140</v>
       </c>
@@ -2429,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
         <v>142</v>
       </c>
@@ -2466,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
         <v>145</v>
       </c>
@@ -2666,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
         <v>161</v>
       </c>
@@ -2697,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="47.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
         <v>163</v>
       </c>
@@ -2728,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>129</v>
       </c>
@@ -3226,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
         <v>208</v>
       </c>
@@ -3269,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
         <v>211</v>
       </c>
@@ -3312,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
         <v>213</v>
       </c>
@@ -3355,20 +3386,118 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/vignettes/definicje_zmiennych.xlsx
+++ b/vignettes/definicje_zmiennych.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Arkusz1!$A$1:$O$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Arkusz1!$A$1:$O$86</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Arkusz1!$A$1:$O$86</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="274">
   <si>
     <t xml:space="preserve">zmienna</t>
   </si>
@@ -474,6 +475,9 @@
     <t xml:space="preserve">JPDZAM</t>
   </si>
   <si>
+    <t xml:space="preserve">zamieszkanie</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zgodność powiatów zamieszkania absolwenta i jednostki dydaktycznej, którą ukończył na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
 W wypadku niejednoznacznego mapowania PNA na powiaty jako TERYT odpowiadający danemu PNA przyjmowane jednoznacznie wyznaczane województwo, a gdy także województwo niejednoznaczne, Polska.
 W wypadku gdy wiele różnych JST dla danego okresu, wtedy zmienna liczona dla każdego JST z osobna, a następnie przypisywana najmniejsza uzyskana wartość.</t>
@@ -809,6 +813,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nazwa obszaru studiow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">przygotuj_kierunki</t>
   </si>
   <si>
     <t xml:space="preserve">OBSZ_KOD</t>
@@ -929,7 +936,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -966,12 +973,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1054,7 +1055,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1091,18 +1092,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1115,10 +1104,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1127,8 +1112,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1209,29 +1198,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="G59" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="F71" activeCellId="0" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="43.3316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="8" style="1" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="42.7908163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.5561224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="13" min="8" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1279,7 +1268,7 @@
       </c>
       <c r="O1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -1317,7 +1306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -1353,7 +1342,7 @@
       </c>
       <c r="O3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
@@ -1385,8 +1374,8 @@
       </c>
       <c r="O4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="23.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1419,8 +1408,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="80.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+    <row r="6" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1451,8 +1440,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+    <row r="7" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1485,8 +1474,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="80.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+    <row r="8" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1517,8 +1506,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+    <row r="9" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1527,7 +1516,7 @@
       <c r="C9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1551,8 +1540,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="80.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+    <row r="10" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1583,8 +1572,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+    <row r="11" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1593,7 +1582,7 @@
       <c r="C11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1617,8 +1606,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+    <row r="12" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1649,8 +1638,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+    <row r="13" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1659,7 +1648,7 @@
       <c r="C13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -1683,8 +1672,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="68.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+    <row r="14" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1715,8 +1704,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+    <row r="15" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1725,7 +1714,7 @@
       <c r="C15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -1749,8 +1738,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="68.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+    <row r="16" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1781,111 +1770,111 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="14" t="n">
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="11" t="n">
         <f aca="false">D17=""</f>
         <v>1</v>
       </c>
       <c r="O17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="14" t="n">
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="11" t="n">
         <f aca="false">D18=""</f>
         <v>1</v>
       </c>
       <c r="O18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="14" t="n">
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="11" t="n">
         <f aca="false">D19=""</f>
         <v>1</v>
       </c>
       <c r="O19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="14" t="n">
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="11" t="n">
         <f aca="false">D20=""</f>
         <v>1</v>
       </c>
       <c r="O20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>76</v>
       </c>
@@ -1917,7 +1906,7 @@
       </c>
       <c r="O21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>79</v>
       </c>
@@ -1949,7 +1938,7 @@
       </c>
       <c r="O22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>82</v>
       </c>
@@ -1981,7 +1970,7 @@
       </c>
       <c r="O23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="23.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>85</v>
       </c>
@@ -2010,7 +1999,7 @@
       <c r="N24" s="8"/>
       <c r="O24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="23.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
         <v>88</v>
       </c>
@@ -2039,7 +2028,7 @@
       <c r="N25" s="8"/>
       <c r="O25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>91</v>
       </c>
@@ -2071,7 +2060,7 @@
       </c>
       <c r="O26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>94</v>
       </c>
@@ -2103,7 +2092,7 @@
       </c>
       <c r="O27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>97</v>
       </c>
@@ -2137,7 +2126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>101</v>
       </c>
@@ -2171,7 +2160,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>105</v>
       </c>
@@ -2203,7 +2192,7 @@
       </c>
       <c r="O30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="23.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>108</v>
       </c>
@@ -2237,7 +2226,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="35.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>112</v>
       </c>
@@ -2271,7 +2260,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>116</v>
       </c>
@@ -2303,7 +2292,7 @@
       </c>
       <c r="O33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="102.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>120</v>
       </c>
@@ -2337,7 +2326,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
         <v>123</v>
       </c>
@@ -2371,7 +2360,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
         <v>126</v>
       </c>
@@ -2407,182 +2396,180 @@
       </c>
       <c r="O36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
+    <row r="37" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="C37" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="D37" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="E37" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="F37" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="G37" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="H37" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="14" t="n">
+      <c r="I37" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="8" t="n">
         <f aca="false">D37=""</f>
         <v>0</v>
       </c>
-      <c r="O37" s="15"/>
-    </row>
-    <row r="38" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="12" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="B38" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="13" t="s">
+      <c r="E38" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G38" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="H38" s="12" t="s">
+      <c r="F38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="H38" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="14" t="n">
+      <c r="I38" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="8" t="n">
         <f aca="false">D38=""</f>
         <v>0</v>
       </c>
-      <c r="O38" s="15"/>
-    </row>
-    <row r="39" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="14" t="n">
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="8" t="n">
         <f aca="false">D39=""</f>
         <v>0</v>
       </c>
-      <c r="O39" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="80.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O39" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="N40" s="16" t="n">
+        <v>158</v>
+      </c>
+      <c r="N40" s="12" t="n">
         <f aca="false">D40=""</f>
         <v>1</v>
       </c>
       <c r="O40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -2597,154 +2584,153 @@
       </c>
       <c r="O41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="16" t="s">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" s="16" t="s">
+      <c r="C42" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="D42" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F42" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
+      <c r="E42" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
       <c r="O42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="s">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
+      <c r="F43" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
       <c r="O43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="12" t="s">
+    <row r="44" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="B44" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F44" s="13" t="s">
+      <c r="E44" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G44" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="I44" s="12" t="s">
+      <c r="F44" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="14" t="n">
+      <c r="I44" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="8" t="n">
         <f aca="false">D44=""</f>
         <v>0</v>
       </c>
-      <c r="O44" s="15"/>
-    </row>
-    <row r="45" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="I45" s="12" t="s">
+      <c r="H45" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="14" t="n">
+      <c r="I45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="8" t="n">
         <f aca="false">D45=""</f>
         <v>0</v>
       </c>
-      <c r="O45" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O45" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>18</v>
@@ -2765,18 +2751,18 @@
       </c>
       <c r="O46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>18</v>
@@ -2797,18 +2783,18 @@
       </c>
       <c r="O47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>18</v>
@@ -2828,22 +2814,22 @@
         <v>0</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>15</v>
@@ -2861,19 +2847,19 @@
       </c>
       <c r="O49" s="0"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>15</v>
@@ -2891,15 +2877,15 @@
       </c>
       <c r="O50" s="0"/>
     </row>
-    <row r="51" customFormat="false" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="7" t="s">
@@ -2921,18 +2907,18 @@
       </c>
       <c r="O51" s="0"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>18</v>
@@ -2941,10 +2927,10 @@
         <v>19</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -2956,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
         <v>25</v>
       </c>
@@ -2967,11 +2953,11 @@
         <v>15</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>15</v>
@@ -2989,7 +2975,7 @@
       </c>
       <c r="O53" s="0"/>
     </row>
-    <row r="54" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
         <v>17</v>
       </c>
@@ -2997,7 +2983,7 @@
         <v>15</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="7" t="s">
@@ -3019,19 +3005,19 @@
       </c>
       <c r="O54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>15</v>
@@ -3049,19 +3035,19 @@
       </c>
       <c r="O55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>15</v>
@@ -3079,22 +3065,22 @@
       </c>
       <c r="O56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -3109,22 +3095,22 @@
       </c>
       <c r="O57" s="0"/>
     </row>
-    <row r="58" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -3136,18 +3122,18 @@
       <c r="N58" s="8"/>
       <c r="O58" s="0"/>
     </row>
-    <row r="59" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>18</v>
@@ -3165,19 +3151,19 @@
       <c r="N59" s="8"/>
       <c r="O59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>15</v>
@@ -3195,19 +3181,19 @@
       </c>
       <c r="O60" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>15</v>
@@ -3225,19 +3211,19 @@
       </c>
       <c r="O61" s="0"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>15</v>
@@ -3255,19 +3241,19 @@
       </c>
       <c r="O62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
@@ -3285,19 +3271,19 @@
       </c>
       <c r="O63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>15</v>
@@ -3315,19 +3301,19 @@
       </c>
       <c r="O64" s="0"/>
     </row>
-    <row r="65" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>15</v>
@@ -3345,19 +3331,19 @@
       </c>
       <c r="O65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>15</v>
@@ -3375,24 +3361,24 @@
       </c>
       <c r="O66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="23.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="18" t="s">
-        <v>227</v>
+      <c r="C67" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -3405,19 +3391,20 @@
         <f aca="false">D67=""</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>18</v>
@@ -3426,10 +3413,10 @@
         <v>19</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -3441,42 +3428,41 @@
         <v>0</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B69" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="12" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="B69" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E69" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F69" s="13" t="s">
+      <c r="E69" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="14" t="n">
+      <c r="F69" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="8" t="n">
         <f aca="false">D69=""</f>
         <v>0</v>
       </c>
-      <c r="O69" s="15"/>
-    </row>
-    <row r="70" customFormat="false" ht="23.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="70" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
         <v>128</v>
       </c>
@@ -3484,11 +3470,11 @@
         <v>15</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>15</v>
@@ -3506,70 +3492,74 @@
       </c>
       <c r="O70" s="0"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B71" s="12" t="s">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="B71" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="14" t="n">
+      <c r="C71" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="11" t="n">
         <f aca="false">D71=""</f>
         <v>1</v>
       </c>
       <c r="O71" s="15"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C72" s="12" t="s">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D72" s="12"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="14" t="n">
+      <c r="F72" s="10"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="11" t="n">
         <f aca="false">D72=""</f>
         <v>1</v>
       </c>
       <c r="O72" s="15"/>
     </row>
-    <row r="73" customFormat="false" ht="68.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>18</v>
@@ -3590,18 +3580,18 @@
       </c>
       <c r="O73" s="0"/>
     </row>
-    <row r="74" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>18</v>
@@ -3622,108 +3612,107 @@
       </c>
       <c r="O74" s="0"/>
     </row>
-    <row r="75" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D75" s="12" t="s">
+    <row r="75" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E75" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F75" s="13" t="s">
+      <c r="E75" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="14" t="n">
+      <c r="F75" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="8" t="n">
         <f aca="false">D75=""</f>
         <v>0</v>
       </c>
-      <c r="O75" s="15"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="B76" s="16" t="s">
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B76" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="E76" s="17" t="s">
+      <c r="C76" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D76" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F76" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
+      <c r="E76" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
       <c r="O76" s="0"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="B77" s="16" t="s">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C77" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
+      <c r="C77" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
       <c r="O77" s="0"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>18</v>
@@ -3747,25 +3736,25 @@
         <v>0</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -3780,43 +3769,43 @@
       </c>
       <c r="O79" s="0"/>
     </row>
-    <row r="80" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N80" s="8" t="n">
         <f aca="false">D80=""</f>
@@ -3824,43 +3813,43 @@
       </c>
       <c r="O80" s="0"/>
     </row>
-    <row r="81" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N81" s="8" t="n">
         <f aca="false">D81=""</f>
@@ -3868,43 +3857,43 @@
       </c>
       <c r="O81" s="0"/>
     </row>
-    <row r="82" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N82" s="8" t="n">
         <f aca="false">D82=""</f>
@@ -3912,19 +3901,19 @@
       </c>
       <c r="O82" s="0"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>15</v>
@@ -3942,19 +3931,19 @@
       </c>
       <c r="O83" s="0"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>15</v>
@@ -3972,18 +3961,18 @@
       </c>
       <c r="O84" s="0"/>
     </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>18</v>
@@ -4003,21 +3992,21 @@
         <v>0</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>18</v>
@@ -4037,17 +4026,11 @@
         <v>0</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O86">
-    <filterColumn colId="4">
-      <customFilters and="true">
-        <customFilter operator="equal" val="oblicz_zamieszkanie"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O86"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/vignettes/definicje_zmiennych.xlsx
+++ b/vignettes/definicje_zmiennych.xlsx
@@ -16,6 +16,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Arkusz1!$A$1:$P$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Arkusz1!$A$1:$P$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Arkusz1!$A$1:$P$86</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Arkusz1!$A$1:$P$86</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Arkusz1!$A$1:$P$86</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="329">
   <si>
     <t xml:space="preserve">zmienna</t>
   </si>
@@ -253,11 +255,11 @@
     <t xml:space="preserve">EZARD</t>
   </si>
   <si>
-    <t xml:space="preserve">(SZE + SZN) / NMP
+    <t xml:space="preserve">(SZE + SZN) / NMZ
 (NA dla 0/0)</t>
   </si>
   <si>
-    <t xml:space="preserve">SZ, NMP</t>
+    <t xml:space="preserve">SZ, NMZ</t>
   </si>
   <si>
     <t xml:space="preserve">EZARDA</t>
@@ -968,6 +970,138 @@
   </si>
   <si>
     <t xml:space="preserve">GEZBAZYD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMES / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy pracy na etacie (etat) i studiowania (student2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMNS / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iiczba miesięcy pracy tylko nie na etacie (etat, netat) i studiowania (student2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMDZS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMDZS / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMDZS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy wychowywania dziecka (dziecko) i studiowania (student2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMINNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMINNES / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMINNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy posiadania składek w ZUS z tytułów innych niż etat, netat, dziecko i bycie bezrobotnym (etat, netat, dziecko, bezrob) i studiowania (student2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMBSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMBSS / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMBSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy nieposiadania składek w ZUS pomimo bycia studentem (student2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMENS / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy pracy na etacie (etat) i niestudiowania (student2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMNNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMNNS / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMNNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iiczba miesięcy pracy tylko nie na etacie (etat, netat) i niestudiowania (student2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMDZNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMDZNS / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMDZNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy wychowywania dziecka (dziecko) i niestudiowania (student2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMINNENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMINNENS / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMINNENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy posiadania składek w ZUS z tytułów innych niż etat, netat, dziecko i bycie bezrobotnym (etat, netat, dziecko, bezrob) i niestudiowania (student2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMBNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMBNS / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMBNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy bycia bezrobotnym (bezrob) i niestudiowania (student2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMBSNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMBSNS / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMBSNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy nieposiadania składek w ZUS i niestudiowania (student2)</t>
   </si>
 </sst>
 </file>
@@ -1225,27 +1359,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G65" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="G99" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K67" activeCellId="0" sqref="K67"/>
+      <selection pane="bottomLeft" activeCell="C111" activeCellId="0" sqref="C111:F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="41.8469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="1" width="12.9132653061225"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="7.4234693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,7 +1900,7 @@
       </c>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>62</v>
       </c>
@@ -4230,7 +4364,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
         <v>282</v>
       </c>
@@ -4266,6 +4400,710 @@
       <c r="P86" s="9" t="s">
         <v>284</v>
       </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="8" t="n">
+        <f aca="false">E87=""</f>
+        <v>0</v>
+      </c>
+      <c r="P87" s="9"/>
+    </row>
+    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="8" t="n">
+        <f aca="false">E88=""</f>
+        <v>1</v>
+      </c>
+      <c r="P88" s="9"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="8" t="n">
+        <f aca="false">E89=""</f>
+        <v>0</v>
+      </c>
+      <c r="P89" s="9"/>
+    </row>
+    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="8" t="n">
+        <f aca="false">E90=""</f>
+        <v>1</v>
+      </c>
+      <c r="P90" s="9"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="8" t="n">
+        <f aca="false">E91=""</f>
+        <v>0</v>
+      </c>
+      <c r="P91" s="9"/>
+    </row>
+    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="8" t="n">
+        <f aca="false">E92=""</f>
+        <v>1</v>
+      </c>
+      <c r="P92" s="9"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="8" t="n">
+        <f aca="false">E93=""</f>
+        <v>0</v>
+      </c>
+      <c r="P93" s="9"/>
+    </row>
+    <row r="94" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="8" t="n">
+        <f aca="false">E94=""</f>
+        <v>1</v>
+      </c>
+      <c r="P94" s="9"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="8" t="n">
+        <f aca="false">E95=""</f>
+        <v>0</v>
+      </c>
+      <c r="P95" s="9"/>
+    </row>
+    <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="8" t="n">
+        <f aca="false">E96=""</f>
+        <v>1</v>
+      </c>
+      <c r="P96" s="9"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="8" t="n">
+        <f aca="false">E97=""</f>
+        <v>0</v>
+      </c>
+      <c r="P97" s="9"/>
+    </row>
+    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="8" t="n">
+        <f aca="false">E98=""</f>
+        <v>1</v>
+      </c>
+      <c r="P98" s="9"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="8" t="n">
+        <f aca="false">E99=""</f>
+        <v>0</v>
+      </c>
+      <c r="P99" s="9"/>
+    </row>
+    <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="8" t="n">
+        <f aca="false">E100=""</f>
+        <v>1</v>
+      </c>
+      <c r="P100" s="9"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="8" t="n">
+        <f aca="false">E101=""</f>
+        <v>0</v>
+      </c>
+      <c r="P101" s="9"/>
+    </row>
+    <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="8" t="n">
+        <f aca="false">E102=""</f>
+        <v>1</v>
+      </c>
+      <c r="P102" s="9"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="8" t="n">
+        <f aca="false">E103=""</f>
+        <v>0</v>
+      </c>
+      <c r="P103" s="9"/>
+    </row>
+    <row r="104" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="8" t="n">
+        <f aca="false">E104=""</f>
+        <v>1</v>
+      </c>
+      <c r="P104" s="9"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="8" t="n">
+        <f aca="false">E105=""</f>
+        <v>0</v>
+      </c>
+      <c r="P105" s="9"/>
+    </row>
+    <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="8" t="n">
+        <f aca="false">E106=""</f>
+        <v>1</v>
+      </c>
+      <c r="P106" s="9"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="8" t="n">
+        <f aca="false">E107=""</f>
+        <v>0</v>
+      </c>
+      <c r="P107" s="9"/>
+    </row>
+    <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="8" t="n">
+        <f aca="false">E108=""</f>
+        <v>1</v>
+      </c>
+      <c r="P108" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P86"/>

--- a/vignettes/definicje_zmiennych.xlsx
+++ b/vignettes/definicje_zmiennych.xlsx
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Arkusz1!$A$1:$P$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Arkusz1!$A$1:$P$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Arkusz1!$A$1:$P$86</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Arkusz1!$A$1:$P$86</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -615,6 +616,42 @@
     <t xml:space="preserve">Liczba miesięcy bycia zatrudnionym bez etatu (netat)</t>
   </si>
   <si>
+    <t xml:space="preserve">NMNSTUDBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy nieposiadania składek w ZUS i niestudiowania (student2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMNSTUDBEZROB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy bycia bezrobotnym (bezrob) i niestudiowania (student2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMNSTUDDZIECKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy wychowywania dziecka (dziecko) i niestudiowania (student2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMNSTUDETAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy pracy na etacie (etat) i niestudiowania (student2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMNSTUDINNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy posiadania składek w ZUS z tytułów innych niż etat, netat, dziecko i bycie bezrobotnym (etat, netat, dziecko, bezrob) i niestudiowania (student2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMNSTUDNETAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iiczba miesięcy pracy tylko nie na etacie (etat, netat) i niestudiowania (student2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">NMP</t>
   </si>
   <si>
@@ -625,6 +662,36 @@
   </si>
   <si>
     <t xml:space="preserve">Liczba miesięcy bycia samozatrudnionym (samoz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMSTUDBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy nieposiadania składek w ZUS pomimo bycia studentem (student2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMSTUDDZIECKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy wychowywania dziecka (dziecko) i studiowania (student2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMSTUDETAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy pracy na etacie (etat) i studiowania (student2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMSTUDINNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy posiadania składek w ZUS z tytułów innych niż etat, netat, dziecko i bycie bezrobotnym (etat, netat, dziecko, bezrob) i studiowania (student2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMSTUDNETAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iiczba miesięcy pracy tylko nie na etacie (etat, netat) i studiowania (student2)</t>
   </si>
   <si>
     <t xml:space="preserve">NMZ</t>
@@ -704,6 +771,72 @@
     <t xml:space="preserve">Procent miesięcy, w których absolwent był zarejestrowany jako bezrobotny w okresie po miesiącu uzysk. dyplomu (wyłącznie) do końca obserwacji:
 100 * NMB_V2 / LEN
 (patrz BEZD_V2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMNSTUDBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMNSTUDBD / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMNSTUDBEZROB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMNSTUDBEZROB / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMNSTUDDZIECKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMNSTUDDZIECKO / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMNSTUDETAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMNSTUDETAT / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMNSTUDINNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMNSTUDINNE / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMNSTUDNETAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMNSTUDNETAT / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMSTUDBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMSTUDBD / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMSTUDDZIECKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMSTUDDZIECKO / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMSTUDETAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMSTUDETAT / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMSTUDINNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMSTUDINNE / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMSTUDNETAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMSTUDNETAT / LEN</t>
   </si>
   <si>
     <t xml:space="preserve">Identyfikator powiatu zamieszkania na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
@@ -970,138 +1103,6 @@
   </si>
   <si>
     <t xml:space="preserve">GEZBAZYD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMES / LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liczba miesięcy pracy na etacie (etat) i studiowania (student2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMNS / LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iiczba miesięcy pracy tylko nie na etacie (etat, netat) i studiowania (student2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMDZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMDZS / LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMDZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liczba miesięcy wychowywania dziecka (dziecko) i studiowania (student2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMINNES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMINNES / LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMINNES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liczba miesięcy posiadania składek w ZUS z tytułów innych niż etat, netat, dziecko i bycie bezrobotnym (etat, netat, dziecko, bezrob) i studiowania (student2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMBSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMBSS / LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMBSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liczba miesięcy nieposiadania składek w ZUS pomimo bycia studentem (student2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMENS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMENS / LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMENS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liczba miesięcy pracy na etacie (etat) i niestudiowania (student2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMNNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMNNS / LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMNNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iiczba miesięcy pracy tylko nie na etacie (etat, netat) i niestudiowania (student2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMDZNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMDZNS / LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMDZNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liczba miesięcy wychowywania dziecka (dziecko) i niestudiowania (student2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMINNENS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMINNENS / LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMINNENS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liczba miesięcy posiadania składek w ZUS z tytułów innych niż etat, netat, dziecko i bycie bezrobotnym (etat, netat, dziecko, bezrob) i niestudiowania (student2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMBNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMBNS / LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMBNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liczba miesięcy bycia bezrobotnym (bezrob) i niestudiowania (student2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMBSNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMBSNS / LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMBSNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liczba miesięcy nieposiadania składek w ZUS i niestudiowania (student2)</t>
   </si>
 </sst>
 </file>
@@ -1362,24 +1363,25 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G99" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="G102" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C111" activeCellId="0" sqref="C111:F121"/>
+      <selection pane="bottomLeft" activeCell="A111" activeCellId="0" sqref="A111:P121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="40.765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="40.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.8877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1432,7 +1434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1512,7 +1514,7 @@
       </c>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -1655,7 +1657,7 @@
       </c>
       <c r="P8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>41</v>
       </c>
@@ -1690,7 +1692,7 @@
       </c>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1725,7 +1727,7 @@
       </c>
       <c r="P10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -1760,7 +1762,7 @@
       </c>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>50</v>
       </c>
@@ -1795,7 +1797,7 @@
       </c>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>53</v>
       </c>
@@ -1830,7 +1832,7 @@
       </c>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>56</v>
       </c>
@@ -1865,7 +1867,7 @@
       </c>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>59</v>
       </c>
@@ -1935,7 +1937,7 @@
       </c>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>65</v>
       </c>
@@ -1972,7 +1974,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>69</v>
       </c>
@@ -2009,7 +2011,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>73</v>
       </c>
@@ -2044,7 +2046,7 @@
       </c>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>77</v>
       </c>
@@ -2118,7 +2120,7 @@
       </c>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>85</v>
       </c>
@@ -2157,7 +2159,7 @@
       </c>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>94</v>
       </c>
@@ -2198,7 +2200,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>100</v>
       </c>
@@ -2237,7 +2239,7 @@
       </c>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
         <v>102</v>
       </c>
@@ -2373,7 +2375,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="10"/>
     </row>
-    <row r="29" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>124</v>
       </c>
@@ -2414,7 +2416,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>128</v>
       </c>
@@ -2453,7 +2455,7 @@
       </c>
       <c r="P30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>130</v>
       </c>
@@ -2488,7 +2490,7 @@
       </c>
       <c r="P31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>133</v>
       </c>
@@ -2624,7 +2626,7 @@
       </c>
       <c r="P35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
         <v>146</v>
       </c>
@@ -2657,7 +2659,7 @@
       </c>
       <c r="P36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>148</v>
       </c>
@@ -2698,7 +2700,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>28</v>
       </c>
@@ -2731,7 +2733,7 @@
       </c>
       <c r="P38" s="10"/>
     </row>
-    <row r="39" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
         <v>20</v>
       </c>
@@ -2764,7 +2766,7 @@
       </c>
       <c r="P39" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>150</v>
       </c>
@@ -2797,7 +2799,7 @@
       </c>
       <c r="P40" s="10"/>
     </row>
-    <row r="41" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
         <v>157</v>
       </c>
@@ -2830,7 +2832,7 @@
       </c>
       <c r="P41" s="10"/>
     </row>
-    <row r="42" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
         <v>159</v>
       </c>
@@ -2863,7 +2865,7 @@
       </c>
       <c r="P42" s="10"/>
     </row>
-    <row r="43" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
         <v>164</v>
       </c>
@@ -2896,7 +2898,7 @@
       </c>
       <c r="P43" s="10"/>
     </row>
-    <row r="44" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
         <v>166</v>
       </c>
@@ -2931,7 +2933,7 @@
       </c>
       <c r="P44" s="10"/>
     </row>
-    <row r="45" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
         <v>169</v>
       </c>
@@ -2964,7 +2966,7 @@
       </c>
       <c r="P45" s="10"/>
     </row>
-    <row r="46" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
         <v>171</v>
       </c>
@@ -2997,8 +2999,8 @@
       </c>
       <c r="P46" s="10"/>
     </row>
-    <row r="47" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>173</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -3007,31 +3009,29 @@
       <c r="C47" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="7" t="s">
-        <v>143</v>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
       <c r="O47" s="8" t="n">
         <f aca="false">E47=""</f>
         <v>1</v>
       </c>
-      <c r="P47" s="10"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
+      <c r="P47" s="9"/>
+    </row>
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>175</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -3040,31 +3040,29 @@
       <c r="C48" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="7" t="s">
-        <v>143</v>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
       <c r="O48" s="8" t="n">
         <f aca="false">E48=""</f>
         <v>1</v>
       </c>
-      <c r="P48" s="10"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
+      <c r="P48" s="9"/>
+    </row>
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>177</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -3073,31 +3071,29 @@
       <c r="C49" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="7" t="s">
-        <v>143</v>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
       <c r="O49" s="8" t="n">
         <f aca="false">E49=""</f>
         <v>1</v>
       </c>
-      <c r="P49" s="10"/>
-    </row>
-    <row r="50" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
+      <c r="P49" s="9"/>
+    </row>
+    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>179</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -3106,123 +3102,111 @@
       <c r="C50" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="7" t="s">
-        <v>181</v>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
       <c r="O50" s="8" t="n">
         <f aca="false">E50=""</f>
         <v>1</v>
       </c>
-      <c r="P50" s="10"/>
-    </row>
-    <row r="51" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
+      <c r="P50" s="9"/>
+    </row>
+    <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="7" t="s">
-        <v>181</v>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
       <c r="O51" s="8" t="n">
         <f aca="false">E51=""</f>
         <v>1</v>
       </c>
-      <c r="P51" s="10"/>
-    </row>
-    <row r="52" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
+      <c r="P51" s="9"/>
+    </row>
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>120</v>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
       <c r="O52" s="8" t="n">
         <f aca="false">E52=""</f>
-        <v>0</v>
-      </c>
-      <c r="P52" s="10"/>
-    </row>
-    <row r="53" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="P52" s="9"/>
+    </row>
+    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>173</v>
-      </c>
+      <c r="E53" s="6"/>
       <c r="F53" s="7" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>152</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
@@ -3230,31 +3214,29 @@
       <c r="N53" s="6"/>
       <c r="O53" s="8" t="n">
         <f aca="false">E53=""</f>
-        <v>0</v>
-      </c>
-      <c r="P53" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P53" s="10"/>
+    </row>
+    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="D54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="6"/>
       <c r="F54" s="7" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
@@ -3265,192 +3247,184 @@
       <c r="N54" s="6"/>
       <c r="O54" s="8" t="n">
         <f aca="false">E54=""</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="10"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
-        <v>191</v>
+    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>189</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
+        <v>190</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
       <c r="O55" s="8" t="n">
         <f aca="false">E55=""</f>
         <v>1</v>
       </c>
       <c r="P55" s="9"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
-        <v>195</v>
+    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>191</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
       <c r="O56" s="8" t="n">
         <f aca="false">E56=""</f>
         <v>1</v>
       </c>
       <c r="P56" s="9"/>
     </row>
-    <row r="57" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>197</v>
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>193</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>21</v>
+        <v>194</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
       <c r="O57" s="8" t="n">
         <f aca="false">E57=""</f>
-        <v>0</v>
-      </c>
-      <c r="P57" s="10"/>
-    </row>
-    <row r="58" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>199</v>
+        <v>1</v>
+      </c>
+      <c r="P57" s="9"/>
+    </row>
+    <row r="58" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>195</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>21</v>
+        <v>196</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
       <c r="O58" s="8" t="n">
         <f aca="false">E58=""</f>
-        <v>0</v>
-      </c>
-      <c r="P58" s="10"/>
-    </row>
-    <row r="59" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
-        <v>88</v>
+        <v>1</v>
+      </c>
+      <c r="P58" s="9"/>
+    </row>
+    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>197</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>89</v>
+        <v>198</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
       <c r="O59" s="8" t="n">
         <f aca="false">E59=""</f>
-        <v>0</v>
-      </c>
-      <c r="P59" s="10"/>
-    </row>
-    <row r="60" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="P59" s="9"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>204</v>
-      </c>
+      <c r="E60" s="6"/>
       <c r="F60" s="7" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -3461,33 +3435,29 @@
       <c r="N60" s="6"/>
       <c r="O60" s="8" t="n">
         <f aca="false">E60=""</f>
-        <v>0</v>
-      </c>
-      <c r="P60" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="P60" s="10"/>
+    </row>
+    <row r="61" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>208</v>
-      </c>
+      <c r="E61" s="6"/>
       <c r="F61" s="7" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
@@ -3498,87 +3468,91 @@
       <c r="N61" s="6"/>
       <c r="O61" s="8" t="n">
         <f aca="false">E61=""</f>
-        <v>0</v>
-      </c>
-      <c r="P61" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B62" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P61" s="10"/>
+    </row>
+    <row r="62" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="8" t="n">
+        <f aca="false">E62=""</f>
+        <v>1</v>
+      </c>
+      <c r="P62" s="10"/>
+    </row>
+    <row r="63" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F62" s="11" t="s">
+      <c r="C63" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G63" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="10"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="8" t="n">
+        <f aca="false">E63=""</f>
+        <v>0</v>
+      </c>
       <c r="P63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>21</v>
@@ -3587,10 +3561,10 @@
         <v>22</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -3602,26 +3576,28 @@
         <v>0</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
+      <c r="E65" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="F65" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
@@ -3632,164 +3608,124 @@
       <c r="N65" s="6"/>
       <c r="O65" s="8" t="n">
         <f aca="false">E65=""</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65" s="10"/>
     </row>
-    <row r="66" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L66" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M66" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="N66" s="6" t="s">
-        <v>112</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
       <c r="O66" s="8" t="n">
         <f aca="false">E66=""</f>
         <v>1</v>
       </c>
-      <c r="P66" s="10"/>
-    </row>
-    <row r="67" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P66" s="9"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M67" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="N67" s="6" t="s">
-        <v>112</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
       <c r="O67" s="8" t="n">
         <f aca="false">E67=""</f>
         <v>1</v>
       </c>
-      <c r="P67" s="10"/>
-    </row>
-    <row r="68" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P67" s="9"/>
+    </row>
+    <row r="68" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
+        <v>220</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="F68" s="7" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M68" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="N68" s="6" t="s">
-        <v>112</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
       <c r="O68" s="8" t="n">
         <f aca="false">E68=""</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68" s="10"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="6"/>
+      <c r="E69" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="F69" s="7" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
@@ -3800,410 +3736,392 @@
       <c r="N69" s="6"/>
       <c r="O69" s="8" t="n">
         <f aca="false">E69=""</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="s">
-        <v>228</v>
+      <c r="A70" s="0" t="s">
+        <v>223</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="7" t="s">
-        <v>143</v>
+      <c r="C70" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
       <c r="O70" s="8" t="n">
         <f aca="false">E70=""</f>
-        <v>1</v>
-      </c>
-      <c r="P70" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="9"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6" t="s">
-        <v>230</v>
+      <c r="A71" s="0" t="s">
+        <v>225</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="7" t="s">
-        <v>143</v>
+      <c r="C71" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
       <c r="O71" s="8" t="n">
         <f aca="false">E71=""</f>
-        <v>1</v>
-      </c>
-      <c r="P71" s="10"/>
-    </row>
-    <row r="72" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="s">
-        <v>232</v>
+        <v>0</v>
+      </c>
+      <c r="P71" s="9"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>227</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>139</v>
+        <v>17</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
       <c r="O72" s="8" t="n">
         <f aca="false">E72=""</f>
         <v>0</v>
       </c>
-      <c r="P72" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="s">
-        <v>138</v>
+      <c r="P72" s="9"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="7" t="s">
-        <v>139</v>
+        <v>17</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
       <c r="O73" s="8" t="n">
         <f aca="false">E73=""</f>
-        <v>1</v>
-      </c>
-      <c r="P73" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="s">
-        <v>239</v>
+        <v>0</v>
+      </c>
+      <c r="P73" s="9"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>231</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>139</v>
+        <v>17</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="E74" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
       <c r="O74" s="8" t="n">
         <f aca="false">E74=""</f>
         <v>0</v>
       </c>
-      <c r="P74" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6" t="s">
-        <v>241</v>
+      <c r="P74" s="9"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>233</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E75" s="6"/>
-      <c r="F75" s="7" t="s">
-        <v>139</v>
+        <v>17</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
       <c r="O75" s="8" t="n">
         <f aca="false">E75=""</f>
-        <v>1</v>
-      </c>
-      <c r="P75" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="s">
-        <v>246</v>
+        <v>0</v>
+      </c>
+      <c r="P75" s="9"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>235</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>139</v>
+        <v>17</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
       <c r="O76" s="8" t="n">
         <f aca="false">E76=""</f>
         <v>0</v>
       </c>
-      <c r="P76" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6" t="s">
-        <v>248</v>
+      <c r="P76" s="9"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>237</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="7" t="s">
-        <v>139</v>
+        <v>238</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
       <c r="O77" s="8" t="n">
         <f aca="false">E77=""</f>
-        <v>1</v>
-      </c>
-      <c r="P77" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6" t="s">
-        <v>253</v>
+        <v>0</v>
+      </c>
+      <c r="P77" s="9"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>239</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>139</v>
+        <v>240</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
       <c r="O78" s="8" t="n">
         <f aca="false">E78=""</f>
         <v>0</v>
       </c>
-      <c r="P78" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6" t="s">
-        <v>255</v>
+      <c r="P78" s="9"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>241</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="7" t="s">
-        <v>139</v>
+        <v>17</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
       <c r="O79" s="8" t="n">
         <f aca="false">E79=""</f>
-        <v>1</v>
-      </c>
-      <c r="P79" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="6" t="s">
-        <v>260</v>
+        <v>0</v>
+      </c>
+      <c r="P79" s="9"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>243</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>139</v>
+        <v>244</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
       <c r="O80" s="8" t="n">
         <f aca="false">E80=""</f>
         <v>0</v>
       </c>
-      <c r="P80" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P80" s="9"/>
+    </row>
+    <row r="81" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>262</v>
+        <v>88</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="E81" s="6"/>
+        <v>245</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="F81" s="7" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
@@ -4214,31 +4132,31 @@
       <c r="N81" s="6"/>
       <c r="O81" s="8" t="n">
         <f aca="false">E81=""</f>
-        <v>1</v>
-      </c>
-      <c r="P81" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="P81" s="10"/>
+    </row>
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D82" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="E82" s="6" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
@@ -4251,29 +4169,31 @@
         <f aca="false">E82=""</f>
         <v>0</v>
       </c>
-      <c r="P82" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P82" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E83" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>252</v>
+      </c>
       <c r="F83" s="7" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
@@ -4284,110 +4204,100 @@
       <c r="N83" s="6"/>
       <c r="O83" s="8" t="n">
         <f aca="false">E83=""</f>
-        <v>1</v>
-      </c>
-      <c r="P83" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="8" t="n">
-        <f aca="false">E84=""</f>
-        <v>0</v>
-      </c>
-      <c r="P84" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="8" t="n">
-        <f aca="false">E85=""</f>
-        <v>0</v>
-      </c>
-      <c r="P85" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="P83" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="10"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="10"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
@@ -4398,712 +4308,804 @@
         <v>0</v>
       </c>
       <c r="P86" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="9" t="s">
-        <v>285</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>115</v>
+        <v>262</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
+        <v>105</v>
+      </c>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
       <c r="O87" s="8" t="n">
         <f aca="false">E87=""</f>
-        <v>0</v>
-      </c>
-      <c r="P87" s="9"/>
-    </row>
-    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="9" t="s">
-        <v>287</v>
+        <v>1</v>
+      </c>
+      <c r="P87" s="10"/>
+    </row>
+    <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="11" t="s">
-        <v>115</v>
+        <v>264</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
+        <v>105</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="O88" s="8" t="n">
         <f aca="false">E88=""</f>
         <v>1</v>
       </c>
-      <c r="P88" s="9"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="9" t="s">
-        <v>289</v>
+      <c r="P88" s="10"/>
+    </row>
+    <row r="89" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>115</v>
+        <v>267</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
+        <v>105</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="O89" s="8" t="n">
         <f aca="false">E89=""</f>
-        <v>0</v>
-      </c>
-      <c r="P89" s="9"/>
-    </row>
-    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9" t="s">
-        <v>291</v>
+        <v>1</v>
+      </c>
+      <c r="P89" s="10"/>
+    </row>
+    <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="11" t="s">
-        <v>115</v>
+        <v>269</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
+        <v>105</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="O90" s="8" t="n">
         <f aca="false">E90=""</f>
         <v>1</v>
       </c>
-      <c r="P90" s="9"/>
+      <c r="P90" s="10"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="9" t="s">
-        <v>293</v>
+      <c r="A91" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>115</v>
+        <v>271</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
       <c r="O91" s="8" t="n">
         <f aca="false">E91=""</f>
-        <v>0</v>
-      </c>
-      <c r="P91" s="9"/>
-    </row>
-    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="9" t="s">
-        <v>295</v>
+        <v>1</v>
+      </c>
+      <c r="P91" s="10"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="11" t="s">
-        <v>115</v>
+        <v>273</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
       <c r="O92" s="8" t="n">
         <f aca="false">E92=""</f>
         <v>1</v>
       </c>
-      <c r="P92" s="9"/>
+      <c r="P92" s="10"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="9" t="s">
-        <v>297</v>
+      <c r="A93" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C93" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>115</v>
+      <c r="C93" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
       <c r="O93" s="8" t="n">
         <f aca="false">E93=""</f>
-        <v>0</v>
-      </c>
-      <c r="P93" s="9"/>
-    </row>
-    <row r="94" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9" t="s">
-        <v>299</v>
+        <v>1</v>
+      </c>
+      <c r="P93" s="10"/>
+    </row>
+    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="11" t="s">
-        <v>115</v>
+        <v>277</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
+        <v>278</v>
+      </c>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
       <c r="O94" s="8" t="n">
         <f aca="false">E94=""</f>
-        <v>1</v>
-      </c>
-      <c r="P94" s="9"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="9" t="s">
-        <v>301</v>
+        <v>0</v>
+      </c>
+      <c r="P94" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>115</v>
+        <v>33</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
+        <v>278</v>
+      </c>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
       <c r="O95" s="8" t="n">
         <f aca="false">E95=""</f>
-        <v>0</v>
-      </c>
-      <c r="P95" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="P95" s="10" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9" t="s">
-        <v>303</v>
+      <c r="A96" s="6" t="s">
+        <v>283</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="11" t="s">
-        <v>115</v>
+        <v>284</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="9"/>
+        <v>278</v>
+      </c>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
       <c r="O96" s="8" t="n">
         <f aca="false">E96=""</f>
-        <v>1</v>
-      </c>
-      <c r="P96" s="9"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="9" t="s">
-        <v>305</v>
+        <v>0</v>
+      </c>
+      <c r="P96" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>115</v>
+        <v>33</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E97" s="6"/>
+      <c r="F97" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
-      <c r="N97" s="9"/>
+        <v>278</v>
+      </c>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
       <c r="O97" s="8" t="n">
         <f aca="false">E97=""</f>
-        <v>0</v>
-      </c>
-      <c r="P97" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="P97" s="10" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="9" t="s">
-        <v>307</v>
+      <c r="A98" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="11" t="s">
-        <v>115</v>
+        <v>291</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="9"/>
+        <v>278</v>
+      </c>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
       <c r="O98" s="8" t="n">
         <f aca="false">E98=""</f>
-        <v>1</v>
-      </c>
-      <c r="P98" s="9"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="9" t="s">
-        <v>309</v>
+        <v>0</v>
+      </c>
+      <c r="P98" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>115</v>
+        <v>33</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="9"/>
+        <v>278</v>
+      </c>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
       <c r="O99" s="8" t="n">
         <f aca="false">E99=""</f>
-        <v>0</v>
-      </c>
-      <c r="P99" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="P99" s="10" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="9" t="s">
-        <v>311</v>
+      <c r="A100" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="11" t="s">
-        <v>115</v>
+        <v>298</v>
+      </c>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="9"/>
+        <v>278</v>
+      </c>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
       <c r="O100" s="8" t="n">
         <f aca="false">E100=""</f>
-        <v>1</v>
-      </c>
-      <c r="P100" s="9"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="9" t="s">
-        <v>313</v>
+        <v>0</v>
+      </c>
+      <c r="P100" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>115</v>
+        <v>33</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E101" s="6"/>
+      <c r="F101" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
-      <c r="L101" s="9"/>
-      <c r="M101" s="9"/>
-      <c r="N101" s="9"/>
+        <v>278</v>
+      </c>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
       <c r="O101" s="8" t="n">
         <f aca="false">E101=""</f>
-        <v>0</v>
-      </c>
-      <c r="P101" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="P101" s="10" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="9" t="s">
-        <v>315</v>
+      <c r="A102" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="11" t="s">
-        <v>115</v>
+        <v>305</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
-      <c r="N102" s="9"/>
+        <v>278</v>
+      </c>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
       <c r="O102" s="8" t="n">
         <f aca="false">E102=""</f>
-        <v>1</v>
-      </c>
-      <c r="P102" s="9"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="9" t="s">
-        <v>317</v>
+        <v>0</v>
+      </c>
+      <c r="P102" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>115</v>
+        <v>33</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E103" s="6"/>
+      <c r="F103" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
-      <c r="N103" s="9"/>
+        <v>278</v>
+      </c>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
       <c r="O103" s="8" t="n">
         <f aca="false">E103=""</f>
-        <v>0</v>
-      </c>
-      <c r="P103" s="9"/>
-    </row>
-    <row r="104" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="9" t="s">
-        <v>319</v>
+        <v>1</v>
+      </c>
+      <c r="P103" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6" t="s">
+        <v>311</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="11" t="s">
-        <v>115</v>
+        <v>312</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
-      <c r="N104" s="9"/>
+        <v>278</v>
+      </c>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
       <c r="O104" s="8" t="n">
         <f aca="false">E104=""</f>
-        <v>1</v>
-      </c>
-      <c r="P104" s="9"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="9" t="s">
-        <v>321</v>
+        <v>0</v>
+      </c>
+      <c r="P104" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>115</v>
+        <v>33</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E105" s="6"/>
+      <c r="F105" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
-      <c r="N105" s="9"/>
+        <v>278</v>
+      </c>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
       <c r="O105" s="8" t="n">
         <f aca="false">E105=""</f>
-        <v>0</v>
-      </c>
-      <c r="P105" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="P105" s="10" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="9" t="s">
-        <v>323</v>
+      <c r="A106" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="11" t="s">
-        <v>115</v>
+        <v>319</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
       <c r="O106" s="8" t="n">
         <f aca="false">E106=""</f>
-        <v>1</v>
-      </c>
-      <c r="P106" s="9"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="9" t="s">
-        <v>325</v>
+        <v>0</v>
+      </c>
+      <c r="P106" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>115</v>
+      <c r="C107" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-      <c r="M107" s="9"/>
-      <c r="N107" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
       <c r="O107" s="8" t="n">
         <f aca="false">E107=""</f>
         <v>0</v>
       </c>
-      <c r="P107" s="9"/>
-    </row>
-    <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="9" t="s">
+      <c r="P107" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B108" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="11" t="s">
-        <v>115</v>
+      <c r="D108" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9"/>
-      <c r="M108" s="9"/>
-      <c r="N108" s="9"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
       <c r="O108" s="8" t="n">
         <f aca="false">E108=""</f>
-        <v>1</v>
-      </c>
-      <c r="P108" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="P108" s="9" t="s">
+        <v>328</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P86"/>

--- a/vignettes/definicje_zmiennych.xlsx
+++ b/vignettes/definicje_zmiennych.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Arkusz1!$A$1:$P$86</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Arkusz1!$A$1:$P$123</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Arkusz1!$A$1:$P$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Arkusz1!$A$1:$P$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Arkusz1!$A$1:$P$86</definedName>
@@ -23,6 +23,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Arkusz1!$A$1:$P$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Arkusz1!$A$1:$P$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Arkusz1!$A$1:$P$86</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Arkusz1!$A$1:$P$86</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Arkusz1!$A$1:$P$86</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -39,7 +41,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C25" authorId="0">
+    <comment ref="C32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +49,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Potrzeba dokładniejszego opisu, co uznajemy za kontynuację (jaką zależność czasową)</t>
         </r>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="372">
   <si>
     <t xml:space="preserve">zmienna</t>
   </si>
@@ -156,6 +157,42 @@
   </si>
   <si>
     <t xml:space="preserve">PBEZD, GBEZD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BILOD_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miesiąc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miesięczny BILOD (1-60 miesiąc po dyplomie)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oblicz_zmienne_miesieczne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOSW_ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">typ doświadczenia pracy etatowej lub samozatrudnienia przed uzyskaniem dyplomu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oblicz_stale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pracował etatowo lub był samozatrudniony jeszcze przed miesiącem rozpoczęcia studiów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nie pracował etatowo ani nie był samozatrudniony przed miesiącem rozpoczęcia studiów ale pracował etatowo lub był samozatrudniony w okresie od miesiące rozpoczęcia studiów (włącznie) do miesiąca uzyskania dyplomu (wyłącznie)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pozostałe przypadki</t>
   </si>
   <si>
     <t xml:space="preserve">DYSC</t>
@@ -257,6 +294,15 @@
     <t xml:space="preserve">NNNN, LEN</t>
   </si>
   <si>
+    <t xml:space="preserve">ETATDPROC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 – MNPRUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNPRUD</t>
+  </si>
+  <si>
     <t xml:space="preserve">EZARD</t>
   </si>
   <si>
@@ -278,6 +324,18 @@
   </si>
   <si>
     <t xml:space="preserve">EZARD_V2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZARREKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">średnie miesięczne zarobki w miesiącach przepracowanych w okresie przed miesiącem rozpoczęcia studiów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZARSTUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">średnie miesięczne zarobki w miesiącach przepracowanych w czasie studiów –  od miesiąca rozpoczęcia studiów (włącznie) do miesiąca uzyskania dyplomu (wyłącznie)</t>
   </si>
   <si>
     <t xml:space="preserve">EZUD</t>
@@ -292,6 +350,18 @@
   </si>
   <si>
     <t xml:space="preserve">EZUBAZYD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZUREKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">średnie miesięczne zarobki z pracy etatowej w miesiącach przepracowanych na etat w okresie przed miesiącem rozpoczęcia studiów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZUSTUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">średnie miesięczne zarobki z pracy etatowej w miesiącach przepracowanych na etat w czasie studiów –  od miesiąca rozpoczęcia studiów (włącznie) do miesiąca uzyskania dyplomu (wyłącznie)</t>
   </si>
   <si>
     <t xml:space="preserve">GBEZD</t>
@@ -496,9 +566,6 @@
     <t xml:space="preserve">NMB, LEN</t>
   </si>
   <si>
-    <t xml:space="preserve">MNPRUD</t>
-  </si>
-  <si>
     <t xml:space="preserve">Odsetek miesięcy pozostawania bez etatu w okienku.
 (LEN – NME) / LEN
 (NA dla 0/0)</t>
@@ -672,6 +739,15 @@
     <t xml:space="preserve">Liczba miesięcy bycia samozatrudnionym (samoz)</t>
   </si>
   <si>
+    <t xml:space="preserve">NMSTUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy, w których studiował w danym okienku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oblicz_osoba</t>
+  </si>
+  <si>
     <t xml:space="preserve">NMSTUDBD</t>
   </si>
   <si>
@@ -752,9 +828,6 @@
   </si>
   <si>
     <t xml:space="preserve">OBSZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stala</t>
   </si>
   <si>
     <t xml:space="preserve">Nazwa obszaru studiow</t>
@@ -855,6 +928,12 @@
 W razie niejednoznaczności jednoznaczne województwo, a gdy także ono niejednoznaczne, Polska.</t>
   </si>
   <si>
+    <t xml:space="preserve">PRACDPROC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 – MNPRD</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRNDAW</t>
   </si>
   <si>
@@ -902,6 +981,46 @@
     <t xml:space="preserve">SAMOPOD</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMODPROC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMS / LEN,
+NA dla 0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMS, LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMSTUD &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUD_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">czy w danym miesiącu był studentem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okienko, zdau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDPROC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 * NMSTUD / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oblicz_zdau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDPROG_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">czy w danym miesiącu był studentem na studiach identyfikowanych przez jego ID_ZDAU</t>
+  </si>
+  <si>
     <t xml:space="preserve">STUDYP</t>
   </si>
   <si>
@@ -1090,6 +1209,12 @@
   </si>
   <si>
     <t xml:space="preserve">ZILORAZD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZILO_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miesięczne ZILO (1-60 miesiąc po dyplomie)</t>
   </si>
   <si>
     <t xml:space="preserve">ZILOA</t>
@@ -1115,106 +1240,6 @@
   </si>
   <si>
     <t xml:space="preserve">GEZBAZYD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOSW_ES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typ doświadczenia pracy etatowej lub samozatrudnienia przed uzyskaniem dyplomu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oblicz_stale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pracował etatowo lub był samozatrudniony jeszcze przed miesiącem rozpoczęcia studiów</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nie pracował etatowo ani nie był samozatrudniony przed miesiącem rozpoczęcia studiów ale pracował etatowo lub był samozatrudniony w okresie od miesiące rozpoczęcia studiów (włącznie) do miesiąca uzyskania dyplomu (wyłącznie)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pozostałe przypadki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STUDPROC &gt; 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STUDPROC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procent miesięcy po uzyskaniu dyplomu, w których studiował na innym programie studiów</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oblicz_zdau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRACDPROC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 – MNPRD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETATDPROC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 – MNPRUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMODPROC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMS / LEN,
-NA dla 0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMS, LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EZARREKR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">średnie miesięczne zarobki w miesiącach przepracowanych w okresie przed miesiącem rozpoczęcia studiów</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EZARSTUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">średnie miesięczne zarobki w miesiącach przepracowanych w czasie studiów –  od miesiąca rozpoczęcia studiów (włącznie) do miesiąca uzyskania dyplomu (wyłącznie)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EZUREKR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">średnie miesięczne zarobki z pracy etatowej w miesiącach przepracowanych na etat w okresie przed miesiącem rozpoczęcia studiów</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EZUSTUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">średnie miesięczne zarobki z pracy etatowej w miesiącach przepracowanych na etat w czasie studiów –  od miesiąca rozpoczęcia studiów (włącznie) do miesiąca uzyskania dyplomu (wyłącznie)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BILODnn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miesiąc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miesięczny BILOD (1-60 miesiąc po dyplomie)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oblicz_zmienne_miesieczne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZILOnn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miesięczne ZILO (1-60 miesiąc po dyplomie)</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1256,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1254,20 +1278,17 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1338,7 +1359,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1392,18 +1413,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1488,31 +1497,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P120"/>
+  <dimension ref="A1:P123"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G106" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="G2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C111" activeCellId="0" sqref="C111"/>
+      <selection pane="bottomLeft" activeCell="B123" activeCellId="0" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="38.3367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="25.280612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="1" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.64285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="10.969387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="6.47959183673469"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1562,7 +1571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -1603,7 +1612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -1642,7 +1651,7 @@
       </c>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -1678,68 +1687,80 @@
       <c r="P4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="9" t="n">
         <f aca="false">E5=""</f>
         <v>1</v>
       </c>
-      <c r="P5" s="11"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="B6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="9" t="n">
         <f aca="false">E6=""</f>
         <v>1</v>
       </c>
-      <c r="P6" s="11"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1760,13 +1781,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1785,28 +1806,20 @@
       </c>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1816,32 +1829,24 @@
       <c r="N9" s="7"/>
       <c r="O9" s="9" t="n">
         <f aca="false">E9=""</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1851,25 +1856,25 @@
       <c r="N10" s="7"/>
       <c r="O10" s="9" t="n">
         <f aca="false">E10=""</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>21</v>
@@ -1890,21 +1895,21 @@
       </c>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>21</v>
@@ -1925,21 +1930,21 @@
       </c>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>21</v>
@@ -1960,21 +1965,21 @@
       </c>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>21</v>
@@ -1995,21 +2000,21 @@
       </c>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>21</v>
@@ -2030,21 +2035,21 @@
       </c>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>21</v>
@@ -2065,21 +2070,21 @@
       </c>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>21</v>
@@ -2098,68 +2103,62 @@
         <f aca="false">E17=""</f>
         <v>0</v>
       </c>
-      <c r="P17" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+      <c r="G18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
       <c r="O18" s="9" t="n">
         <f aca="false">E18=""</f>
         <v>0</v>
       </c>
-      <c r="P18" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -2174,27 +2173,27 @@
       </c>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -2208,114 +2207,96 @@
         <v>0</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="A21" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="B21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
       <c r="O21" s="9" t="n">
         <f aca="false">E21=""</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="11"/>
-    </row>
-    <row r="22" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
       <c r="O22" s="9" t="n">
         <f aca="false">E22=""</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="11"/>
-    </row>
-    <row r="23" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E23" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>99</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -2325,110 +2306,92 @@
         <v>0</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
       <c r="O24" s="9" t="n">
         <f aca="false">E24=""</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="11"/>
-    </row>
-    <row r="25" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="O25" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="9" t="n">
         <f aca="false">E25=""</f>
         <v>1</v>
       </c>
-      <c r="P25" s="11"/>
-    </row>
-    <row r="26" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="F26" s="8" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -2439,98 +2402,112 @@
       <c r="N26" s="7"/>
       <c r="O26" s="9" t="n">
         <f aca="false">E26=""</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27" s="12" t="s">
+    <row r="27" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="9" t="n">
+        <f aca="false">E27=""</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="11"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
+      <c r="F28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="9" t="n">
+        <f aca="false">E28=""</f>
+        <v>0</v>
+      </c>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -2540,38 +2517,36 @@
         <f aca="false">E29=""</f>
         <v>0</v>
       </c>
-      <c r="P29" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -2581,33 +2556,39 @@
         <f aca="false">E30=""</f>
         <v>0</v>
       </c>
-      <c r="P30" s="11"/>
-    </row>
-    <row r="31" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P30" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
@@ -2618,42 +2599,52 @@
       </c>
       <c r="P31" s="11"/>
     </row>
-    <row r="32" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="M32" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="N32" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="9" t="n">
+      <c r="O32" s="10" t="n">
         <f aca="false">E32=""</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="11"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
         <v>137</v>
       </c>
@@ -2664,14 +2655,12 @@
         <v>138</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="7"/>
+      <c r="F33" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -2682,140 +2671,140 @@
       <c r="N33" s="7"/>
       <c r="O33" s="9" t="n">
         <f aca="false">E33=""</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" s="11"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
+      <c r="B34" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="9" t="n">
-        <f aca="false">E34=""</f>
-        <v>1</v>
-      </c>
+      <c r="G34" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
       <c r="P34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8" t="s">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="9" t="n">
-        <f aca="false">E35=""</f>
-        <v>1</v>
-      </c>
+      <c r="G35" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
       <c r="P35" s="11"/>
     </row>
-    <row r="36" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="7"/>
+        <v>149</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="F36" s="8" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="9" t="n">
         <f aca="false">E36=""</f>
-        <v>1</v>
-      </c>
-      <c r="P36" s="11"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="I37" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="J37" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
@@ -2824,13 +2813,11 @@
         <f aca="false">E37=""</f>
         <v>0</v>
       </c>
-      <c r="P37" s="10" t="s">
+      <c r="P37" s="11"/>
+    </row>
+    <row r="38" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>17</v>
@@ -2841,12 +2828,14 @@
       <c r="D38" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="F38" s="8" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -2857,29 +2846,31 @@
       <c r="N38" s="7"/>
       <c r="O38" s="9" t="n">
         <f aca="false">E38=""</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="11"/>
     </row>
-    <row r="39" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="F39" s="8" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -2890,29 +2881,29 @@
       <c r="N39" s="7"/>
       <c r="O39" s="9" t="n">
         <f aca="false">E39=""</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="11"/>
     </row>
-    <row r="40" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="F40" s="8" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -2923,26 +2914,28 @@
       <c r="N40" s="7"/>
       <c r="O40" s="9" t="n">
         <f aca="false">E40=""</f>
-        <v>1</v>
-      </c>
-      <c r="P40" s="11"/>
-    </row>
-    <row r="41" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="8" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>17</v>
@@ -2960,25 +2953,25 @@
       </c>
       <c r="P41" s="11"/>
     </row>
-    <row r="42" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -2993,25 +2986,25 @@
       </c>
       <c r="P42" s="11"/>
     </row>
-    <row r="43" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="8" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -3026,21 +3019,21 @@
       </c>
       <c r="P43" s="11"/>
     </row>
-    <row r="44" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>21</v>
@@ -3048,8 +3041,12 @@
       <c r="G44" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -3059,24 +3056,26 @@
         <f aca="false">E44=""</f>
         <v>0</v>
       </c>
-      <c r="P44" s="11"/>
-    </row>
-    <row r="45" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P44" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="8" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>17</v>
@@ -3094,22 +3093,22 @@
       </c>
       <c r="P45" s="11"/>
     </row>
-    <row r="46" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="8" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>17</v>
@@ -3127,208 +3126,222 @@
       </c>
       <c r="P46" s="11"/>
     </row>
-    <row r="47" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>174</v>
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="12" t="s">
-        <v>116</v>
+        <v>179</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
       <c r="O47" s="9" t="n">
         <f aca="false">E47=""</f>
         <v>1</v>
       </c>
-      <c r="P47" s="10"/>
-    </row>
-    <row r="48" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>176</v>
+      <c r="P47" s="11"/>
+    </row>
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="12" t="s">
-        <v>116</v>
+        <v>181</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
       <c r="O48" s="9" t="n">
         <f aca="false">E48=""</f>
         <v>1</v>
       </c>
-      <c r="P48" s="10"/>
-    </row>
-    <row r="49" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>178</v>
+      <c r="P48" s="11"/>
+    </row>
+    <row r="49" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="12" t="s">
-        <v>116</v>
+        <v>183</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
+        <v>186</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
       <c r="O49" s="9" t="n">
         <f aca="false">E49=""</f>
         <v>1</v>
       </c>
-      <c r="P49" s="10"/>
-    </row>
-    <row r="50" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>180</v>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="12" t="s">
-        <v>116</v>
+        <v>188</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
+        <v>186</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
       <c r="O50" s="9" t="n">
         <f aca="false">E50=""</f>
         <v>1</v>
       </c>
-      <c r="P50" s="10"/>
-    </row>
-    <row r="51" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>182</v>
+      <c r="P50" s="11"/>
+    </row>
+    <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="12" t="s">
-        <v>116</v>
+        <v>190</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
       <c r="O51" s="9" t="n">
         <f aca="false">E51=""</f>
-        <v>1</v>
-      </c>
-      <c r="P51" s="10"/>
-    </row>
-    <row r="52" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>184</v>
+        <v>0</v>
+      </c>
+      <c r="P51" s="11"/>
+    </row>
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="12" t="s">
-        <v>116</v>
+        <v>193</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
       <c r="O52" s="9" t="n">
         <f aca="false">E52=""</f>
         <v>1</v>
       </c>
-      <c r="P52" s="10"/>
-    </row>
-    <row r="53" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P52" s="11"/>
+    </row>
+    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="8" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>17</v>
@@ -3346,53 +3359,51 @@
       </c>
       <c r="P53" s="11"/>
     </row>
-    <row r="54" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
-        <v>188</v>
+    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8" t="s">
-        <v>144</v>
+        <v>197</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
       <c r="O54" s="9" t="n">
         <f aca="false">E54=""</f>
         <v>1</v>
       </c>
-      <c r="P54" s="11"/>
-    </row>
-    <row r="55" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P54" s="10"/>
+    </row>
+    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="12" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>17</v>
@@ -3410,20 +3421,20 @@
       </c>
       <c r="P55" s="10"/>
     </row>
-    <row r="56" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="12" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>17</v>
@@ -3441,20 +3452,20 @@
       </c>
       <c r="P56" s="10"/>
     </row>
-    <row r="57" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="12" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>17</v>
@@ -3472,20 +3483,20 @@
       </c>
       <c r="P57" s="10"/>
     </row>
-    <row r="58" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="12" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>17</v>
@@ -3503,20 +3514,20 @@
       </c>
       <c r="P58" s="10"/>
     </row>
-    <row r="59" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="12" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>17</v>
@@ -3534,22 +3545,22 @@
       </c>
       <c r="P59" s="10"/>
     </row>
-    <row r="60" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="8" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>17</v>
@@ -3567,22 +3578,22 @@
       </c>
       <c r="P60" s="11"/>
     </row>
-    <row r="61" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="8" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>17</v>
@@ -3600,225 +3611,215 @@
       </c>
       <c r="P61" s="11"/>
     </row>
-    <row r="62" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D62" s="7" t="s">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="G62" s="12"/>
+      <c r="H62" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
       <c r="O62" s="9" t="n">
         <f aca="false">E62=""</f>
         <v>1</v>
       </c>
-      <c r="P62" s="11"/>
-    </row>
-    <row r="63" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
-        <v>208</v>
+      <c r="P62" s="10"/>
+    </row>
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>121</v>
+        <v>17</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
       <c r="O63" s="9" t="n">
         <f aca="false">E63=""</f>
-        <v>0</v>
-      </c>
-      <c r="P63" s="11"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
-        <v>210</v>
+        <v>1</v>
+      </c>
+      <c r="P63" s="10"/>
+    </row>
+    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>21</v>
+        <v>218</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
       <c r="O64" s="9" t="n">
         <f aca="false">E64=""</f>
-        <v>0</v>
-      </c>
-      <c r="P64" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
-        <v>213</v>
+        <v>1</v>
+      </c>
+      <c r="P64" s="10"/>
+    </row>
+    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>90</v>
+        <v>220</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
       <c r="O65" s="9" t="n">
         <f aca="false">E65=""</f>
-        <v>0</v>
-      </c>
-      <c r="P65" s="11"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
-        <v>215</v>
+        <v>1</v>
+      </c>
+      <c r="P65" s="10"/>
+    </row>
+    <row r="66" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G66" s="8"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
       <c r="O66" s="9" t="n">
         <f aca="false">E66=""</f>
         <v>1</v>
       </c>
       <c r="P66" s="10"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
-        <v>219</v>
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
+        <v>224</v>
+      </c>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
       <c r="O67" s="9" t="n">
         <f aca="false">E67=""</f>
         <v>1</v>
       </c>
       <c r="P67" s="10"/>
     </row>
-    <row r="68" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>133</v>
-      </c>
+      <c r="E68" s="7"/>
       <c r="F68" s="8" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -3829,31 +3830,29 @@
       <c r="N68" s="7"/>
       <c r="O68" s="9" t="n">
         <f aca="false">E68=""</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" s="11"/>
     </row>
-    <row r="69" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>133</v>
-      </c>
+      <c r="E69" s="7"/>
       <c r="F69" s="8" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
@@ -3864,290 +3863,294 @@
       <c r="N69" s="7"/>
       <c r="O69" s="9" t="n">
         <f aca="false">E69=""</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" s="11"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>225</v>
+    <row r="70" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D70" s="10"/>
-      <c r="E70" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>116</v>
+      <c r="C70" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
       <c r="O70" s="9" t="n">
         <f aca="false">E70=""</f>
-        <v>0</v>
-      </c>
-      <c r="P70" s="10"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>227</v>
+        <v>1</v>
+      </c>
+      <c r="P70" s="11"/>
+    </row>
+    <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="D71" s="10"/>
-      <c r="E71" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>116</v>
+        <v>45</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
+        <v>129</v>
+      </c>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
       <c r="O71" s="9" t="n">
         <f aca="false">E71=""</f>
         <v>0</v>
       </c>
-      <c r="P71" s="10"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>229</v>
+      <c r="P71" s="11"/>
+    </row>
+    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D72" s="10"/>
-      <c r="E72" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>116</v>
+      <c r="C72" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
       <c r="O72" s="9" t="n">
         <f aca="false">E72=""</f>
         <v>0</v>
       </c>
-      <c r="P72" s="10"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>231</v>
+      <c r="P72" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
+        <v>114</v>
+      </c>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
       <c r="O73" s="9" t="n">
         <f aca="false">E73=""</f>
         <v>0</v>
       </c>
-      <c r="P73" s="10"/>
+      <c r="P73" s="11"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>233</v>
+      <c r="A74" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D74" s="10"/>
-      <c r="E74" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G74" s="8"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
       <c r="O74" s="9" t="n">
         <f aca="false">E74=""</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>235</v>
+      <c r="A75" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D75" s="10"/>
-      <c r="E75" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G75" s="8"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
       <c r="O75" s="9" t="n">
         <f aca="false">E75=""</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" s="10"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>237</v>
+    <row r="76" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D76" s="10"/>
-      <c r="E76" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>116</v>
+      <c r="C76" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
       <c r="O76" s="9" t="n">
         <f aca="false">E76=""</f>
         <v>0</v>
       </c>
-      <c r="P76" s="10"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>239</v>
+      <c r="P76" s="11"/>
+    </row>
+    <row r="77" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>116</v>
+        <v>248</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
       <c r="O77" s="9" t="n">
         <f aca="false">E77=""</f>
         <v>0</v>
       </c>
-      <c r="P77" s="10"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P77" s="11"/>
+    </row>
+    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>242</v>
+      <c r="C78" s="10" t="s">
+        <v>250</v>
       </c>
       <c r="D78" s="10"/>
       <c r="E78" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>17</v>
@@ -4165,22 +4168,22 @@
       </c>
       <c r="P78" s="10"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D79" s="10"/>
       <c r="E79" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>17</v>
@@ -4198,22 +4201,22 @@
       </c>
       <c r="P79" s="10"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>246</v>
+      <c r="C80" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>17</v>
@@ -4231,132 +4234,124 @@
       </c>
       <c r="P80" s="10"/>
     </row>
-    <row r="81" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7" t="s">
-        <v>89</v>
+    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
       <c r="O81" s="9" t="n">
         <f aca="false">E81=""</f>
         <v>0</v>
       </c>
-      <c r="P81" s="11"/>
-    </row>
-    <row r="82" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7" t="s">
-        <v>248</v>
+      <c r="P81" s="10"/>
+    </row>
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>21</v>
+      <c r="C82" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D82" s="10"/>
+      <c r="E82" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
       <c r="O82" s="9" t="n">
         <f aca="false">E82=""</f>
         <v>0</v>
       </c>
-      <c r="P82" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7" t="s">
-        <v>252</v>
+      <c r="P82" s="10"/>
+    </row>
+    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>21</v>
+      <c r="C83" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D83" s="10"/>
+      <c r="E83" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
       <c r="O83" s="9" t="n">
         <f aca="false">E83=""</f>
         <v>0</v>
       </c>
-      <c r="P83" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>33</v>
+      <c r="P83" s="10"/>
+    </row>
+    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D84" s="10"/>
-      <c r="E84" s="10" t="s">
-        <v>120</v>
+      <c r="E84" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G84" s="12" t="s">
-        <v>106</v>
+        <v>139</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
@@ -4365,28 +4360,31 @@
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="11"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>259</v>
+      <c r="O84" s="9" t="n">
+        <f aca="false">E84=""</f>
+        <v>0</v>
+      </c>
+      <c r="P84" s="10"/>
+    </row>
+    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="D85" s="10"/>
-      <c r="E85" s="10" t="s">
-        <v>124</v>
+      <c r="E85" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G85" s="12" t="s">
-        <v>106</v>
+        <v>139</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
@@ -4395,235 +4393,198 @@
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="11"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7" t="s">
-        <v>260</v>
+      <c r="O85" s="9" t="n">
+        <f aca="false">E85=""</f>
+        <v>0</v>
+      </c>
+      <c r="P85" s="10"/>
+    </row>
+    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>21</v>
+        <v>266</v>
+      </c>
+      <c r="D86" s="10"/>
+      <c r="E86" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
       <c r="O86" s="9" t="n">
         <f aca="false">E86=""</f>
         <v>0</v>
       </c>
-      <c r="P86" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7" t="s">
-        <v>263</v>
+      <c r="P86" s="10"/>
+    </row>
+    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="8" t="s">
-        <v>105</v>
+        <v>17</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D87" s="10"/>
+      <c r="E87" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
       <c r="O87" s="9" t="n">
         <f aca="false">E87=""</f>
-        <v>1</v>
-      </c>
-      <c r="P87" s="11"/>
-    </row>
-    <row r="88" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7" t="s">
-        <v>265</v>
+        <v>0</v>
+      </c>
+      <c r="P87" s="10"/>
+    </row>
+    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="8" t="s">
-        <v>105</v>
+        <v>270</v>
+      </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K88" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L88" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M88" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="N88" s="7" t="s">
-        <v>113</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
       <c r="O88" s="9" t="n">
         <f aca="false">E88=""</f>
-        <v>1</v>
-      </c>
-      <c r="P88" s="11"/>
-    </row>
-    <row r="89" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="P88" s="10"/>
+    </row>
+    <row r="89" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>268</v>
+        <v>112</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
+      <c r="E89" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="F89" s="8" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K89" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L89" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M89" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="N89" s="7" t="s">
-        <v>113</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
       <c r="O89" s="9" t="n">
         <f aca="false">E89=""</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P89" s="11"/>
     </row>
-    <row r="90" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="I90" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K90" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L90" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M90" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="N90" s="7" t="s">
-        <v>113</v>
-      </c>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
       <c r="O90" s="9" t="n">
         <f aca="false">E90=""</f>
-        <v>1</v>
-      </c>
-      <c r="P90" s="11"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="P90" s="10"/>
+    </row>
+    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E91" s="7"/>
+      <c r="E91" s="7" t="s">
+        <v>276</v>
+      </c>
       <c r="F91" s="8" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
@@ -4634,29 +4595,33 @@
       <c r="N91" s="7"/>
       <c r="O91" s="9" t="n">
         <f aca="false">E91=""</f>
-        <v>1</v>
-      </c>
-      <c r="P91" s="11"/>
-    </row>
-    <row r="92" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="P91" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E92" s="7"/>
+      <c r="E92" s="7" t="s">
+        <v>280</v>
+      </c>
       <c r="F92" s="8" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
@@ -4667,100 +4632,100 @@
       <c r="N92" s="7"/>
       <c r="O92" s="9" t="n">
         <f aca="false">E92=""</f>
-        <v>1</v>
-      </c>
-      <c r="P92" s="11"/>
-    </row>
-    <row r="93" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D93" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P92" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="11"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="11"/>
+    </row>
+    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E93" s="7"/>
-      <c r="F93" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="9" t="n">
-        <f aca="false">E93=""</f>
-        <v>1</v>
-      </c>
-      <c r="P93" s="11"/>
-    </row>
-    <row r="94" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="9" t="n">
-        <f aca="false">E94=""</f>
-        <v>0</v>
-      </c>
-      <c r="P94" s="11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E95" s="7"/>
+      <c r="E95" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="F95" s="8" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
@@ -4768,206 +4733,198 @@
       <c r="N95" s="7"/>
       <c r="O95" s="9" t="n">
         <f aca="false">E95=""</f>
-        <v>1</v>
-      </c>
-      <c r="P95" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="P95" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
+        <v>290</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
       <c r="O96" s="9" t="n">
         <f aca="false">E96=""</f>
         <v>0</v>
       </c>
-      <c r="P96" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E97" s="7"/>
-      <c r="F97" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
+      <c r="P96" s="10"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
       <c r="O97" s="9" t="n">
         <f aca="false">E97=""</f>
-        <v>1</v>
-      </c>
-      <c r="P97" s="11" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B98" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P97" s="10"/>
+    </row>
+    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>140</v>
+        <v>295</v>
+      </c>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
+        <v>296</v>
+      </c>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
       <c r="O98" s="9" t="n">
         <f aca="false">E98=""</f>
-        <v>0</v>
-      </c>
-      <c r="P98" s="11" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>296</v>
+        <v>1</v>
+      </c>
+      <c r="P98" s="10"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
       <c r="O99" s="9" t="n">
         <f aca="false">E99=""</f>
-        <v>1</v>
-      </c>
-      <c r="P99" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B100" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P99" s="10"/>
+    </row>
+    <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F100" s="8" t="s">
-        <v>140</v>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="7"/>
+        <v>296</v>
+      </c>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
       <c r="O100" s="9" t="n">
         <f aca="false">E100=""</f>
-        <v>0</v>
-      </c>
-      <c r="P100" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P100" s="10"/>
+    </row>
+    <row r="101" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="7" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="B101" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="D101" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="8" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
@@ -4980,134 +4937,162 @@
         <f aca="false">E101=""</f>
         <v>1</v>
       </c>
-      <c r="P101" s="11" t="s">
+      <c r="P101" s="11"/>
+    </row>
+    <row r="102" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" s="7" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7" t="s">
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H102" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
-      <c r="N102" s="7"/>
+      <c r="I102" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L102" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M102" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N102" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="O102" s="9" t="n">
         <f aca="false">E102=""</f>
-        <v>0</v>
-      </c>
-      <c r="P102" s="11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="P102" s="11"/>
+    </row>
+    <row r="103" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="8" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L103" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M103" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N103" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="O103" s="9" t="n">
         <f aca="false">E103=""</f>
         <v>1</v>
       </c>
-      <c r="P103" s="11" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P103" s="11"/>
+    </row>
+    <row r="104" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D104" s="7"/>
-      <c r="E104" s="7" t="s">
-        <v>315</v>
-      </c>
+      <c r="E104" s="7"/>
       <c r="F104" s="8" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L104" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M104" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N104" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="O104" s="9" t="n">
         <f aca="false">E104=""</f>
-        <v>0</v>
-      </c>
-      <c r="P104" s="11" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="P104" s="11"/>
+    </row>
+    <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>318</v>
+        <v>19</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="8" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>280</v>
+        <v>17</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
@@ -5120,31 +5105,27 @@
         <f aca="false">E105=""</f>
         <v>1</v>
       </c>
-      <c r="P105" s="11" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P105" s="11"/>
+    </row>
+    <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E106" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="E106" s="7"/>
       <c r="F106" s="8" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
@@ -5155,33 +5136,29 @@
       <c r="N106" s="7"/>
       <c r="O106" s="9" t="n">
         <f aca="false">E106=""</f>
-        <v>0</v>
-      </c>
-      <c r="P106" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="P106" s="11"/>
+    </row>
+    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E107" s="7" t="s">
-        <v>326</v>
-      </c>
+      <c r="E107" s="7"/>
       <c r="F107" s="8" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
@@ -5192,33 +5169,29 @@
       <c r="N107" s="7"/>
       <c r="O107" s="9" t="n">
         <f aca="false">E107=""</f>
-        <v>0</v>
-      </c>
-      <c r="P107" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="P107" s="11"/>
+    </row>
+    <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="D108" s="7"/>
       <c r="E108" s="7" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>17</v>
+        <v>319</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
@@ -5231,400 +5204,537 @@
         <f aca="false">E108=""</f>
         <v>0</v>
       </c>
-      <c r="P108" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H109" s="11"/>
-      <c r="I109" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="J109" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="K109" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="10"/>
+      <c r="P108" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E109" s="7"/>
+      <c r="F109" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
       <c r="O109" s="9" t="n">
         <f aca="false">E109=""</f>
         <v>1</v>
       </c>
-      <c r="P109" s="10"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H110" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I110" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-      <c r="M110" s="10"/>
-      <c r="N110" s="10"/>
+      <c r="P109" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
       <c r="O110" s="9" t="n">
         <f aca="false">E110=""</f>
         <v>0</v>
       </c>
-      <c r="P110" s="10"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="G111" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
-      <c r="K111" s="10"/>
-      <c r="L111" s="10"/>
-      <c r="M111" s="10"/>
-      <c r="N111" s="10"/>
+      <c r="P110" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E111" s="7"/>
+      <c r="F111" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
       <c r="O111" s="9" t="n">
         <f aca="false">E111=""</f>
         <v>1</v>
       </c>
-      <c r="P111" s="10"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
-      <c r="L112" s="10"/>
-      <c r="M112" s="10"/>
-      <c r="N112" s="10"/>
+      <c r="P111" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
       <c r="O112" s="9" t="n">
         <f aca="false">E112=""</f>
         <v>0</v>
       </c>
-      <c r="P112" s="10"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10"/>
-      <c r="L113" s="10"/>
-      <c r="M113" s="10"/>
-      <c r="N113" s="10"/>
+      <c r="P112" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E113" s="7"/>
+      <c r="F113" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
       <c r="O113" s="9" t="n">
         <f aca="false">E113=""</f>
-        <v>0</v>
-      </c>
-      <c r="P113" s="10"/>
-    </row>
-    <row r="114" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10"/>
-      <c r="M114" s="10"/>
-      <c r="N114" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="P113" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
       <c r="O114" s="9" t="n">
         <f aca="false">E114=""</f>
         <v>0</v>
       </c>
-      <c r="P114" s="10"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="G115" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H115" s="10"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="10"/>
-      <c r="K115" s="10"/>
-      <c r="L115" s="10"/>
-      <c r="M115" s="10"/>
-      <c r="N115" s="10"/>
+      <c r="P114" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E115" s="7"/>
+      <c r="F115" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
       <c r="O115" s="9" t="n">
         <f aca="false">E115=""</f>
         <v>1</v>
       </c>
-      <c r="P115" s="10"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="G116" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H116" s="10"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="10"/>
-      <c r="K116" s="10"/>
-      <c r="L116" s="10"/>
-      <c r="M116" s="10"/>
-      <c r="N116" s="10"/>
+      <c r="P115" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
       <c r="O116" s="9" t="n">
         <f aca="false">E116=""</f>
-        <v>1</v>
-      </c>
-      <c r="P116" s="10"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="G117" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H117" s="10"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="10"/>
-      <c r="K117" s="10"/>
-      <c r="L117" s="10"/>
-      <c r="M117" s="10"/>
-      <c r="N117" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="P116" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E117" s="7"/>
+      <c r="F117" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
       <c r="O117" s="9" t="n">
         <f aca="false">E117=""</f>
         <v>1</v>
       </c>
-      <c r="P117" s="10"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="G118" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H118" s="10"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="10"/>
-      <c r="K118" s="10"/>
-      <c r="L118" s="10"/>
-      <c r="M118" s="10"/>
-      <c r="N118" s="10"/>
+      <c r="P117" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
       <c r="O118" s="9" t="n">
         <f aca="false">E118=""</f>
-        <v>1</v>
-      </c>
-      <c r="P118" s="10"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="G119" s="15"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="10"/>
-      <c r="K119" s="10"/>
-      <c r="L119" s="10"/>
-      <c r="M119" s="10"/>
-      <c r="N119" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="P118" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E119" s="7"/>
+      <c r="F119" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
       <c r="O119" s="9" t="n">
         <f aca="false">E119=""</f>
         <v>1</v>
       </c>
-      <c r="P119" s="10"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B120" s="10" t="s">
+      <c r="P119" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C120" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="12" t="s">
+      <c r="B120" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G120" s="15"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="10"/>
-      <c r="K120" s="10"/>
-      <c r="L120" s="10"/>
-      <c r="M120" s="10"/>
-      <c r="N120" s="10"/>
+      <c r="F120" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
       <c r="O120" s="9" t="n">
         <f aca="false">E120=""</f>
-        <v>1</v>
-      </c>
-      <c r="P120" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="P120" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G121" s="12"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+      <c r="O121" s="9" t="n">
+        <f aca="false">E121=""</f>
+        <v>1</v>
+      </c>
+      <c r="P121" s="10"/>
+    </row>
+    <row r="122" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="9" t="n">
+        <f aca="false">E122=""</f>
+        <v>0</v>
+      </c>
+      <c r="P122" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="9" t="n">
+        <f aca="false">E123=""</f>
+        <v>0</v>
+      </c>
+      <c r="P123" s="10" t="s">
+        <v>371</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P86"/>
+  <autoFilter ref="A1:P123"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/vignettes/definicje_zmiennych.xlsx
+++ b/vignettes/definicje_zmiennych.xlsx
@@ -19,11 +19,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">zmienne!$A$1:$P$193</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$193</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$193</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$139</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$193</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$139</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$193</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$139</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$193</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$139</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$193</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$139</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$193</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$139</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$139</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$139</definedName>
@@ -36,6 +36,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$139</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$139</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$139</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$139</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="644">
   <si>
     <t xml:space="preserve">zmienna</t>
   </si>
@@ -119,6 +120,9 @@
   </si>
   <si>
     <t xml:space="preserve">stara nazwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uwagi</t>
   </si>
   <si>
     <t xml:space="preserve">DOSW_ES</t>
@@ -436,28 +440,33 @@
     <t xml:space="preserve">EZPOW</t>
   </si>
   <si>
-    <t xml:space="preserve">(EZPOW_N + EZPOW_S) / LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EZPOW_N, EZPOW_S</t>
+    <t xml:space="preserve">Średnie miesięczne zarobki w powiecie zamieszkania absolwenta
+- W wypadku niejednoznacznego mapowania PNA na TERYT liczymy wartość dla PNA jako prostą średnią z powiatów-kandydatów.
+- W wypadku niejednoznacznego PNA dla danego okresu liczymy wartość dla okresu jako średnią z wartości PNA-kandydatów.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agreguj_do_miesiecy / agreguj_do_okresu</t>
   </si>
   <si>
     <t xml:space="preserve">GEZBAZYD_V2, GEZD</t>
   </si>
   <si>
+    <t xml:space="preserve">wbrew pozorom nie da się wyliczyć na poziomie agregacji do okresu z EZPOW_S i EZPOW_N</t>
+  </si>
+  <si>
     <t xml:space="preserve">EZPOW_E</t>
   </si>
   <si>
-    <t xml:space="preserve">(EZPOW_Z_N + EZPOW_Z_S) / NM_Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMZ = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EZPOW_Z_N, EZPOW_Z_S, NM_Z</t>
+    <t xml:space="preserve">jak EZPOW, ale tylko z pracy na etat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_Z = 0</t>
   </si>
   <si>
     <t xml:space="preserve">GEZBAZYD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wbrew pozorom nie da się wyliczyć na poziomie agregacji do okresu z EZPOW_E_S i EZPOW_E_N</t>
   </si>
   <si>
     <t xml:space="preserve">EZPOW_E_N</t>
@@ -466,13 +475,10 @@
     <t xml:space="preserve">Średnie miesięczne zarobki w powiecie zamieszkania absolwenta dla miesięcy przepracowanych na etacie (etat) danego okienka nie będąc studentem (!stud).
 - W wypadku niejednoznacznego mapowania PNA na TERYT liczymy wartość dla PNA jako prostą średnią z powiatów-kandydatów.
 - W wypadku niejednoznacznego PNA dla danego okresu liczymy wartość dla okresu jako średnią z wartości PNA-kandydatów.
-NA jeśli NMZ == 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMZ_N = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agreguj_do_miesiecy / agreguj_do_okresu</t>
+NA jeśli NM_Z == 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_Z_N = 0</t>
   </si>
   <si>
     <t xml:space="preserve">baza / okienko</t>
@@ -484,7 +490,7 @@
     <t xml:space="preserve">jak EZPOW_Z_N, tylko w trakcie studiów</t>
   </si>
   <si>
-    <t xml:space="preserve">NMZ_S = 0</t>
+    <t xml:space="preserve">NM_Z_S = 0</t>
   </si>
   <si>
     <t xml:space="preserve">EZPOW_N</t>
@@ -507,11 +513,10 @@
     <t xml:space="preserve">EZPOW_Z</t>
   </si>
   <si>
-    <t xml:space="preserve">(EZPOW_Z_N + EZPOW_Z_S) / NM_Z
-NA dla 0 / 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NM_Z = 0</t>
+    <t xml:space="preserve">jak EZPOW, tylko na etat|netat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wbrew pozorom nie da się wyliczyć na poziomie agregacji do okresu z EZPOW_Z_S i EZPOW_Z_N</t>
   </si>
   <si>
     <t xml:space="preserve">EZPOW_Z_N</t>
@@ -523,13 +528,7 @@
 NA jeśli NM_Z_N == 0</t>
   </si>
   <si>
-    <t xml:space="preserve">NM_Z_N = 0</t>
-  </si>
-  <si>
     <t xml:space="preserve">EZPOW_Z_S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NM_Z_S = 0</t>
   </si>
   <si>
     <t xml:space="preserve">IF_B</t>
@@ -1808,9 +1807,6 @@
     <t xml:space="preserve">EZ_E, EZPOW_E</t>
   </si>
   <si>
-    <t xml:space="preserve">ZILORAZD</t>
-  </si>
-  <si>
     <t xml:space="preserve">WZG_EZ_Z</t>
   </si>
   <si>
@@ -1819,6 +1815,9 @@
   </si>
   <si>
     <t xml:space="preserve">EZ_Z, EZPOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZILORAZD, ZILO</t>
   </si>
   <si>
     <t xml:space="preserve">WZG_EZ_Z_N</t>
@@ -2202,7 +2201,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2245,14 +2244,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2351,26 +2342,27 @@
   <dimension ref="A1:AMH193"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G44" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="G30" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E48" activeCellId="0" sqref="E48"/>
+      <selection pane="bottomLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="1" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1022" min="17" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="33.75"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.780612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1022" min="18" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2422,36 +2414,39 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -2461,21 +2456,22 @@
         <v>0</v>
       </c>
       <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="7"/>
@@ -2490,21 +2486,22 @@
         <v>1</v>
       </c>
       <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7"/>
@@ -2519,21 +2516,22 @@
         <v>1</v>
       </c>
       <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="7"/>
@@ -2548,21 +2546,22 @@
         <v>1</v>
       </c>
       <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="7"/>
@@ -2577,28 +2576,29 @@
         <v>1</v>
       </c>
       <c r="P6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -2612,30 +2612,31 @@
         <v>0</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="G8" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -2649,30 +2650,31 @@
         <v>0</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2686,30 +2688,31 @@
         <v>0</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -2723,30 +2726,31 @@
         <v>0</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -2760,30 +2764,31 @@
         <v>0</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -2797,30 +2802,31 @@
         <v>0</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -2834,28 +2840,29 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -2869,28 +2876,29 @@
         <v>0</v>
       </c>
       <c r="P14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -2904,26 +2912,27 @@
         <v>0</v>
       </c>
       <c r="P15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -2937,28 +2946,29 @@
         <v>0</v>
       </c>
       <c r="P16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -2972,26 +2982,27 @@
         <v>0</v>
       </c>
       <c r="P17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -3005,26 +3016,27 @@
         <v>0</v>
       </c>
       <c r="P18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -3038,26 +3050,27 @@
         <v>0</v>
       </c>
       <c r="P19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -3071,26 +3084,27 @@
         <v>0</v>
       </c>
       <c r="P20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -3104,28 +3118,29 @@
         <v>0</v>
       </c>
       <c r="P21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -3139,28 +3154,29 @@
         <v>0</v>
       </c>
       <c r="P22" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -3174,28 +3190,29 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -3209,28 +3226,29 @@
         <v>0</v>
       </c>
       <c r="P24" s="6"/>
-    </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -3244,28 +3262,29 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -3279,28 +3298,29 @@
         <v>0</v>
       </c>
       <c r="P26" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -3314,30 +3334,29 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>114</v>
+        <v>36</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>115</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="8" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3348,33 +3367,34 @@
       <c r="N28" s="7"/>
       <c r="O28" s="10" t="n">
         <f aca="false">E28=""</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="G29" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -3385,31 +3405,34 @@
       <c r="N29" s="7"/>
       <c r="O29" s="10" t="n">
         <f aca="false">E29=""</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -3423,26 +3446,27 @@
         <v>1</v>
       </c>
       <c r="P30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -3456,24 +3480,25 @@
         <v>1</v>
       </c>
       <c r="P31" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -3487,24 +3512,25 @@
         <v>1</v>
       </c>
       <c r="P32" s="6"/>
-    </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -3518,28 +3544,27 @@
         <v>1</v>
       </c>
       <c r="P33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>135</v>
+        <v>36</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>120</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E34" s="7"/>
       <c r="F34" s="8" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -3550,31 +3575,34 @@
       <c r="N34" s="7"/>
       <c r="O34" s="10" t="n">
         <f aca="false">E34=""</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -3588,26 +3616,27 @@
         <v>1</v>
       </c>
       <c r="P35" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -3621,34 +3650,35 @@
         <v>1</v>
       </c>
       <c r="P36" s="6"/>
-    </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" s="7" t="s">
+      <c r="I37" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -3660,36 +3690,37 @@
         <v>0</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
+      <c r="B38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="F38" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H38" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -3701,9 +3732,9 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q38" s="0"/>
+        <v>150</v>
+      </c>
+      <c r="Q38" s="6"/>
       <c r="R38" s="0"/>
       <c r="S38" s="0"/>
       <c r="T38" s="0"/>
@@ -4710,33 +4741,33 @@
       <c r="AMG38" s="0"/>
       <c r="AMH38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="7" t="s">
+      <c r="D39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -4748,30 +4779,31 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
+      <c r="B40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="F40" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -4785,28 +4817,29 @@
         <v>0</v>
       </c>
       <c r="P40" s="6"/>
-    </row>
-    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="D41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="F41" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -4820,26 +4853,27 @@
         <v>0</v>
       </c>
       <c r="P41" s="6"/>
-    </row>
-    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -4853,26 +4887,27 @@
         <v>0</v>
       </c>
       <c r="P42" s="6"/>
-    </row>
-    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -4886,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="6"/>
-      <c r="Q43" s="0"/>
+      <c r="Q43" s="6"/>
       <c r="R43" s="0"/>
       <c r="S43" s="0"/>
       <c r="T43" s="0"/>
@@ -5893,27 +5928,27 @@
       <c r="AMG43" s="0"/>
       <c r="AMH43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="7" t="s">
+      <c r="D44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="F44" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -5927,36 +5962,37 @@
         <v>0</v>
       </c>
       <c r="P44" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q44" s="6"/>
+    </row>
+    <row r="45" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
+      <c r="B45" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="F45" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H45" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -5968,36 +6004,37 @@
         <v>0</v>
       </c>
       <c r="P45" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q45" s="6"/>
+    </row>
+    <row r="46" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
+      <c r="B46" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="7" t="s">
+      <c r="D46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="F46" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H46" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
@@ -6009,36 +6046,37 @@
         <v>0</v>
       </c>
       <c r="P46" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q46" s="6"/>
+    </row>
+    <row r="47" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
+      <c r="B47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" s="6" t="s">
+      <c r="I47" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -6050,24 +6088,25 @@
         <v>0</v>
       </c>
       <c r="P47" s="6"/>
-    </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q47" s="6"/>
+    </row>
+    <row r="48" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="6"/>
       <c r="F48" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -6081,24 +6120,25 @@
         <v>1</v>
       </c>
       <c r="P48" s="6"/>
-    </row>
-    <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q48" s="6"/>
+    </row>
+    <row r="49" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="6"/>
       <c r="F49" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -6112,30 +6152,31 @@
         <v>1</v>
       </c>
       <c r="P49" s="6"/>
-    </row>
-    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q49" s="6"/>
+    </row>
+    <row r="50" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H50" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I50" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -6147,35 +6188,36 @@
         <v>1</v>
       </c>
       <c r="P50" s="6"/>
-    </row>
-    <row r="51" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q50" s="6"/>
+    </row>
+    <row r="51" customFormat="false" ht="192.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="G51" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="H51" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="J51" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
@@ -6186,35 +6228,36 @@
         <v>0</v>
       </c>
       <c r="P51" s="6"/>
-    </row>
-    <row r="52" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q51" s="6"/>
+    </row>
+    <row r="52" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F52" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="H52" s="7" t="s">
+      <c r="I52" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="J52" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
@@ -6225,37 +6268,38 @@
         <v>0</v>
       </c>
       <c r="P52" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q52" s="6"/>
+    </row>
+    <row r="53" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="7" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
+      <c r="B53" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F53" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="H53" s="7" t="s">
+      <c r="I53" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="J53" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
@@ -6266,69 +6310,71 @@
         <v>0</v>
       </c>
       <c r="P53" s="6"/>
-    </row>
-    <row r="54" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q53" s="6"/>
+    </row>
+    <row r="54" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="H54" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="I54" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="J54" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="K54" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="L54" s="7" t="s">
+      <c r="M54" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="M54" s="7" t="s">
+      <c r="N54" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="N54" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="O54" s="10" t="n">
         <f aca="false">E54=""</f>
         <v>1</v>
       </c>
       <c r="P54" s="6"/>
-    </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q54" s="6"/>
+    </row>
+    <row r="55" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -6342,26 +6388,27 @@
         <v>1</v>
       </c>
       <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="F56" s="8" t="s">
-        <v>231</v>
-      </c>
       <c r="G56" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -6375,26 +6422,27 @@
         <v>0</v>
       </c>
       <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -6408,35 +6456,36 @@
         <v>0</v>
       </c>
       <c r="P57" s="6"/>
-    </row>
-    <row r="58" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q57" s="6"/>
+    </row>
+    <row r="58" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F58" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G58" s="8" t="s">
-        <v>202</v>
-      </c>
       <c r="H58" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I58" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J58" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
@@ -6447,37 +6496,38 @@
         <v>0</v>
       </c>
       <c r="P58" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q58" s="6"/>
+    </row>
+    <row r="59" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="7" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
+      <c r="B59" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F59" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G59" s="8" t="s">
-        <v>202</v>
-      </c>
       <c r="H59" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I59" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J59" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
@@ -6488,26 +6538,27 @@
         <v>0</v>
       </c>
       <c r="P59" s="6"/>
-    </row>
-    <row r="60" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q59" s="6"/>
+    </row>
+    <row r="60" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -6521,28 +6572,29 @@
         <v>1</v>
       </c>
       <c r="P60" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q60" s="6"/>
+    </row>
+    <row r="61" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="D61" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -6556,28 +6608,29 @@
         <v>1</v>
       </c>
       <c r="P61" s="7"/>
-    </row>
-    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q61" s="6"/>
+    </row>
+    <row r="62" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="7" t="s">
+      <c r="D62" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="F62" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -6591,26 +6644,27 @@
         <v>0</v>
       </c>
       <c r="P62" s="7"/>
-    </row>
-    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q62" s="6"/>
+    </row>
+    <row r="63" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="D63" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
@@ -6624,28 +6678,29 @@
         <v>1</v>
       </c>
       <c r="P63" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q63" s="6"/>
+    </row>
+    <row r="64" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="s">
+      <c r="B64" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="D64" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
@@ -6659,30 +6714,31 @@
         <v>1</v>
       </c>
       <c r="P64" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q64" s="6"/>
+    </row>
+    <row r="65" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="s">
+      <c r="B65" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="7" t="s">
+      <c r="D65" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>255</v>
-      </c>
       <c r="F65" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
@@ -6696,26 +6752,27 @@
         <v>0</v>
       </c>
       <c r="P65" s="6"/>
-    </row>
-    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q65" s="6"/>
+    </row>
+    <row r="66" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="D66" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
@@ -6729,28 +6786,29 @@
         <v>1</v>
       </c>
       <c r="P66" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q66" s="6"/>
+    </row>
+    <row r="67" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="s">
+      <c r="B67" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="D67" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -6764,28 +6822,29 @@
         <v>1</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>261</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="Q67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -6799,28 +6858,29 @@
         <v>1</v>
       </c>
       <c r="P68" s="6"/>
-    </row>
-    <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q68" s="6"/>
+    </row>
+    <row r="69" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="F69" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
@@ -6834,24 +6894,25 @@
         <v>0</v>
       </c>
       <c r="P69" s="6"/>
-    </row>
-    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q69" s="6"/>
+    </row>
+    <row r="70" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -6865,26 +6926,27 @@
         <v>1</v>
       </c>
       <c r="P70" s="6"/>
-    </row>
-    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q70" s="6"/>
+    </row>
+    <row r="71" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
@@ -6898,26 +6960,27 @@
         <v>1</v>
       </c>
       <c r="P71" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q71" s="6"/>
+    </row>
+    <row r="72" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="7" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
+      <c r="B72" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -6931,26 +6994,27 @@
         <v>1</v>
       </c>
       <c r="P72" s="6"/>
-    </row>
-    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q72" s="6"/>
+    </row>
+    <row r="73" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
@@ -6964,30 +7028,31 @@
         <v>1</v>
       </c>
       <c r="P73" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q73" s="6"/>
+    </row>
+    <row r="74" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="s">
+      <c r="B74" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C74" s="7" t="s">
+      <c r="D74" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>276</v>
-      </c>
       <c r="F74" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
@@ -7001,26 +7066,27 @@
         <v>0</v>
       </c>
       <c r="P74" s="6"/>
-    </row>
-    <row r="75" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q74" s="6"/>
+    </row>
+    <row r="75" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="D75" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
@@ -7034,28 +7100,29 @@
         <v>1</v>
       </c>
       <c r="P75" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q75" s="6"/>
+    </row>
+    <row r="76" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="s">
+      <c r="B76" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="D76" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
@@ -7069,30 +7136,31 @@
         <v>1</v>
       </c>
       <c r="P76" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q76" s="6"/>
+    </row>
+    <row r="77" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="7" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
+      <c r="B77" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77" s="7" t="s">
+      <c r="D77" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>285</v>
-      </c>
       <c r="F77" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -7106,26 +7174,27 @@
         <v>0</v>
       </c>
       <c r="P77" s="6"/>
-    </row>
-    <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q77" s="6"/>
+    </row>
+    <row r="78" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="D78" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
@@ -7139,26 +7208,27 @@
         <v>1</v>
       </c>
       <c r="P78" s="6"/>
-    </row>
-    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q78" s="6"/>
+    </row>
+    <row r="79" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>289</v>
-      </c>
       <c r="D79" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
@@ -7172,24 +7242,25 @@
         <v>1</v>
       </c>
       <c r="P79" s="6"/>
-    </row>
-    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q79" s="6"/>
+    </row>
+    <row r="80" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
@@ -7203,28 +7274,29 @@
         <v>1</v>
       </c>
       <c r="P80" s="6"/>
-    </row>
-    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q80" s="6"/>
+    </row>
+    <row r="81" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C81" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="F81" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
@@ -7238,26 +7310,27 @@
         <v>0</v>
       </c>
       <c r="P81" s="6"/>
-    </row>
-    <row r="82" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q81" s="6"/>
+    </row>
+    <row r="82" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="D82" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
@@ -7271,26 +7344,27 @@
         <v>1</v>
       </c>
       <c r="P82" s="6"/>
-    </row>
-    <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q82" s="6"/>
+    </row>
+    <row r="83" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>297</v>
-      </c>
       <c r="D83" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -7304,26 +7378,27 @@
         <v>1</v>
       </c>
       <c r="P83" s="6"/>
-    </row>
-    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q83" s="6"/>
+    </row>
+    <row r="84" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="D84" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
@@ -7337,28 +7412,29 @@
         <v>1</v>
       </c>
       <c r="P84" s="6"/>
-    </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q84" s="6"/>
+    </row>
+    <row r="85" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C85" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="F85" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
@@ -7372,26 +7448,27 @@
         <v>0</v>
       </c>
       <c r="P85" s="6"/>
-    </row>
-    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q85" s="6"/>
+    </row>
+    <row r="86" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="D86" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
@@ -7405,28 +7482,29 @@
         <v>1</v>
       </c>
       <c r="P86" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q86" s="6"/>
+    </row>
+    <row r="87" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="6" t="s">
+      <c r="B87" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="D87" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
@@ -7440,30 +7518,31 @@
         <v>1</v>
       </c>
       <c r="P87" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q87" s="6"/>
+    </row>
+    <row r="88" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C88" s="7" t="s">
+      <c r="D88" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>309</v>
-      </c>
       <c r="F88" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
@@ -7477,26 +7556,27 @@
         <v>0</v>
       </c>
       <c r="P88" s="6"/>
-    </row>
-    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q88" s="6"/>
+    </row>
+    <row r="89" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>311</v>
-      </c>
       <c r="D89" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
@@ -7510,26 +7590,27 @@
         <v>1</v>
       </c>
       <c r="P89" s="6"/>
-    </row>
-    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q89" s="6"/>
+    </row>
+    <row r="90" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="D90" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
@@ -7543,28 +7624,29 @@
         <v>1</v>
       </c>
       <c r="P90" s="6"/>
-    </row>
-    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q90" s="6"/>
+    </row>
+    <row r="91" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C91" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>315</v>
-      </c>
       <c r="F91" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
@@ -7578,24 +7660,25 @@
         <v>0</v>
       </c>
       <c r="P91" s="6"/>
-    </row>
-    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q91" s="6"/>
+    </row>
+    <row r="92" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
@@ -7609,26 +7692,27 @@
         <v>1</v>
       </c>
       <c r="P92" s="6"/>
-    </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q92" s="6"/>
+    </row>
+    <row r="93" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="D93" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
@@ -7642,24 +7726,25 @@
         <v>1</v>
       </c>
       <c r="P93" s="6"/>
-    </row>
-    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q93" s="6"/>
+    </row>
+    <row r="94" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
@@ -7673,26 +7758,27 @@
         <v>1</v>
       </c>
       <c r="P94" s="6"/>
-    </row>
-    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q94" s="6"/>
+    </row>
+    <row r="95" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>323</v>
-      </c>
       <c r="D95" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
@@ -7706,26 +7792,27 @@
         <v>1</v>
       </c>
       <c r="P95" s="6"/>
-    </row>
-    <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q95" s="6"/>
+    </row>
+    <row r="96" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
@@ -7739,30 +7826,31 @@
         <v>1</v>
       </c>
       <c r="P96" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q96" s="6"/>
+    </row>
+    <row r="97" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="7" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7" t="s">
+      <c r="B97" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C97" s="7" t="s">
+      <c r="D97" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="F97" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
@@ -7776,24 +7864,25 @@
         <v>0</v>
       </c>
       <c r="P97" s="6"/>
-    </row>
-    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q97" s="6"/>
+    </row>
+    <row r="98" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
@@ -7807,26 +7896,27 @@
         <v>1</v>
       </c>
       <c r="P98" s="6"/>
-    </row>
-    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q98" s="6"/>
+    </row>
+    <row r="99" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B99" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="D99" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
@@ -7840,24 +7930,25 @@
         <v>1</v>
       </c>
       <c r="P99" s="6"/>
-    </row>
-    <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q99" s="6"/>
+    </row>
+    <row r="100" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
@@ -7871,26 +7962,27 @@
         <v>1</v>
       </c>
       <c r="P100" s="6"/>
-    </row>
-    <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q100" s="6"/>
+    </row>
+    <row r="101" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>336</v>
-      </c>
       <c r="D101" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
@@ -7904,26 +7996,27 @@
         <v>1</v>
       </c>
       <c r="P101" s="6"/>
-    </row>
-    <row r="102" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q101" s="6"/>
+    </row>
+    <row r="102" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="D102" s="13"/>
+      <c r="D102" s="11"/>
       <c r="E102" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
@@ -7937,26 +8030,27 @@
         <v>0</v>
       </c>
       <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>340</v>
-      </c>
       <c r="D103" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
@@ -7970,28 +8064,29 @@
         <v>1</v>
       </c>
       <c r="P103" s="7" t="s">
-        <v>341</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="Q103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="D104" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
@@ -8005,28 +8100,29 @@
         <v>1</v>
       </c>
       <c r="P104" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q104" s="6"/>
+    </row>
+    <row r="105" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="7" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7" t="s">
+      <c r="B105" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>346</v>
-      </c>
       <c r="D105" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
@@ -8040,28 +8136,29 @@
         <v>1</v>
       </c>
       <c r="P105" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q105" s="6"/>
+    </row>
+    <row r="106" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" s="7" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7" t="s">
+      <c r="D106" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
@@ -8075,28 +8172,29 @@
         <v>1</v>
       </c>
       <c r="P106" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q106" s="6"/>
+    </row>
+    <row r="107" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" s="7" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>350</v>
-      </c>
       <c r="D107" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
@@ -8110,28 +8208,29 @@
         <v>1</v>
       </c>
       <c r="P107" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q107" s="6"/>
+    </row>
+    <row r="108" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="7" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7" t="s">
+      <c r="B108" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C108" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F108" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G108" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
@@ -8145,21 +8244,22 @@
         <v>0</v>
       </c>
       <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="7"/>
@@ -8174,21 +8274,22 @@
         <v>1</v>
       </c>
       <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="7"/>
@@ -8203,28 +8304,29 @@
         <v>1</v>
       </c>
       <c r="P110" s="6"/>
-    </row>
-    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q110" s="6"/>
+    </row>
+    <row r="111" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C111" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>359</v>
-      </c>
       <c r="D111" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
@@ -8238,30 +8340,31 @@
         <v>0</v>
       </c>
       <c r="P111" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q111" s="6"/>
+    </row>
+    <row r="112" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="7" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="12" t="s">
+      <c r="B112" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C112" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="B112" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>362</v>
-      </c>
       <c r="D112" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
@@ -8275,30 +8378,31 @@
         <v>0</v>
       </c>
       <c r="P112" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q112" s="6"/>
+    </row>
+    <row r="113" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="6" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="6" t="s">
+      <c r="B113" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>365</v>
-      </c>
       <c r="D113" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
@@ -8312,28 +8416,29 @@
         <v>0</v>
       </c>
       <c r="P113" s="6"/>
-    </row>
-    <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q113" s="6"/>
+    </row>
+    <row r="114" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>367</v>
-      </c>
       <c r="D114" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
@@ -8347,28 +8452,29 @@
         <v>0</v>
       </c>
       <c r="P114" s="6"/>
-    </row>
-    <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q114" s="6"/>
+    </row>
+    <row r="115" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>369</v>
-      </c>
       <c r="D115" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
@@ -8382,28 +8488,29 @@
         <v>0</v>
       </c>
       <c r="P115" s="6"/>
-    </row>
-    <row r="116" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q115" s="6"/>
+    </row>
+    <row r="116" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C116" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B116" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>371</v>
-      </c>
       <c r="D116" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
@@ -8417,30 +8524,31 @@
         <v>0</v>
       </c>
       <c r="P116" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q116" s="6"/>
+    </row>
+    <row r="117" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="7" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="7" t="s">
+      <c r="B117" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C117" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B117" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>374</v>
-      </c>
       <c r="D117" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
@@ -8454,30 +8562,31 @@
         <v>0</v>
       </c>
       <c r="P117" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q117" s="6"/>
+    </row>
+    <row r="118" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="6" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="6" t="s">
+      <c r="B118" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>377</v>
-      </c>
       <c r="D118" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
@@ -8491,28 +8600,29 @@
         <v>0</v>
       </c>
       <c r="P118" s="6"/>
-    </row>
-    <row r="119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q118" s="6"/>
+    </row>
+    <row r="119" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B119" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>379</v>
-      </c>
       <c r="D119" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
@@ -8526,28 +8636,29 @@
         <v>0</v>
       </c>
       <c r="P119" s="6"/>
-    </row>
-    <row r="120" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q119" s="6"/>
+    </row>
+    <row r="120" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="B120" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>381</v>
-      </c>
       <c r="D120" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
@@ -8561,28 +8672,29 @@
         <v>0</v>
       </c>
       <c r="P120" s="6"/>
-    </row>
-    <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q120" s="6"/>
+    </row>
+    <row r="121" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>383</v>
-      </c>
       <c r="D121" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
@@ -8596,28 +8708,29 @@
         <v>0</v>
       </c>
       <c r="P121" s="6"/>
-    </row>
-    <row r="122" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q121" s="6"/>
+    </row>
+    <row r="122" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="D122" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
@@ -8631,28 +8744,29 @@
         <v>0</v>
       </c>
       <c r="P122" s="6"/>
-    </row>
-    <row r="123" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q122" s="6"/>
+    </row>
+    <row r="123" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="B123" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>387</v>
-      </c>
       <c r="D123" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
@@ -8666,28 +8780,29 @@
         <v>0</v>
       </c>
       <c r="P123" s="6"/>
-    </row>
-    <row r="124" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q123" s="6"/>
+    </row>
+    <row r="124" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>389</v>
-      </c>
       <c r="D124" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
@@ -8701,28 +8816,29 @@
         <v>0</v>
       </c>
       <c r="P124" s="6"/>
-    </row>
-    <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q124" s="6"/>
+    </row>
+    <row r="125" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B125" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>391</v>
-      </c>
       <c r="D125" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
@@ -8736,28 +8852,29 @@
         <v>0</v>
       </c>
       <c r="P125" s="6"/>
-    </row>
-    <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q125" s="6"/>
+    </row>
+    <row r="126" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="B126" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>393</v>
-      </c>
       <c r="D126" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
@@ -8771,28 +8888,29 @@
         <v>0</v>
       </c>
       <c r="P126" s="6"/>
-    </row>
-    <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q126" s="6"/>
+    </row>
+    <row r="127" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B127" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>395</v>
-      </c>
       <c r="D127" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
@@ -8806,28 +8924,29 @@
         <v>0</v>
       </c>
       <c r="P127" s="6"/>
-    </row>
-    <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q127" s="6"/>
+    </row>
+    <row r="128" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="B128" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>397</v>
-      </c>
       <c r="D128" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
@@ -8841,28 +8960,29 @@
         <v>0</v>
       </c>
       <c r="P128" s="6"/>
-    </row>
-    <row r="129" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q128" s="6"/>
+    </row>
+    <row r="129" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C129" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B129" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>399</v>
-      </c>
       <c r="D129" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
@@ -8876,28 +8996,29 @@
         <v>0</v>
       </c>
       <c r="P129" s="6"/>
-    </row>
-    <row r="130" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q129" s="6"/>
+    </row>
+    <row r="130" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B130" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>401</v>
-      </c>
       <c r="D130" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H130" s="6"/>
       <c r="I130" s="6"/>
@@ -8911,30 +9032,31 @@
         <v>0</v>
       </c>
       <c r="P130" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q130" s="6"/>
+    </row>
+    <row r="131" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="6" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="6" t="s">
+      <c r="B131" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>404</v>
-      </c>
       <c r="D131" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
@@ -8948,28 +9070,29 @@
         <v>0</v>
       </c>
       <c r="P131" s="6"/>
-    </row>
-    <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q131" s="6"/>
+    </row>
+    <row r="132" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>406</v>
-      </c>
       <c r="D132" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
@@ -8983,28 +9106,29 @@
         <v>0</v>
       </c>
       <c r="P132" s="6"/>
-    </row>
-    <row r="133" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q132" s="6"/>
+    </row>
+    <row r="133" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>408</v>
-      </c>
       <c r="D133" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
@@ -9018,28 +9142,29 @@
         <v>0</v>
       </c>
       <c r="P133" s="6"/>
-    </row>
-    <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q133" s="6"/>
+    </row>
+    <row r="134" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="D134" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
@@ -9053,28 +9178,29 @@
         <v>0</v>
       </c>
       <c r="P134" s="6"/>
-    </row>
-    <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q134" s="6"/>
+    </row>
+    <row r="135" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="B135" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>412</v>
-      </c>
       <c r="D135" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
@@ -9088,28 +9214,29 @@
         <v>0</v>
       </c>
       <c r="P135" s="6"/>
-    </row>
-    <row r="136" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q135" s="6"/>
+    </row>
+    <row r="136" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B136" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>414</v>
-      </c>
       <c r="D136" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
@@ -9123,28 +9250,29 @@
         <v>0</v>
       </c>
       <c r="P136" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q136" s="6"/>
+    </row>
+    <row r="137" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C137" s="7" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="D137" s="7"/>
       <c r="E137" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F137" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G137" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
@@ -9158,28 +9286,29 @@
         <v>0</v>
       </c>
       <c r="P137" s="6"/>
-    </row>
-    <row r="138" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q137" s="6"/>
+    </row>
+    <row r="138" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C138" s="7" t="s">
+      <c r="D138" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E138" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="D138" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>419</v>
-      </c>
       <c r="F138" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
@@ -9193,30 +9322,31 @@
         <v>0</v>
       </c>
       <c r="P138" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q138" s="6"/>
+    </row>
+    <row r="139" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="7" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="7" t="s">
+      <c r="B139" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C139" s="7" t="s">
+      <c r="D139" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E139" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="D139" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>423</v>
-      </c>
       <c r="F139" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
@@ -9230,28 +9360,29 @@
         <v>0</v>
       </c>
       <c r="P139" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q139" s="6"/>
+    </row>
+    <row r="140" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="7" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="7" t="s">
+      <c r="B140" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B140" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>426</v>
-      </c>
       <c r="D140" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
@@ -9265,28 +9396,29 @@
         <v>1</v>
       </c>
       <c r="P140" s="7" t="s">
-        <v>427</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="Q140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>429</v>
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F141" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="F141" s="8" t="s">
-        <v>231</v>
-      </c>
       <c r="G141" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
@@ -9300,26 +9432,27 @@
         <v>0</v>
       </c>
       <c r="P141" s="6"/>
+      <c r="Q141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>431</v>
       </c>
       <c r="D142" s="6"/>
       <c r="E142" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
@@ -9333,24 +9466,25 @@
         <v>0</v>
       </c>
       <c r="P142" s="6"/>
-    </row>
-    <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q142" s="6"/>
+    </row>
+    <row r="143" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
       <c r="F143" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G143" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
@@ -9364,163 +9498,167 @@
         <v>1</v>
       </c>
       <c r="P143" s="6"/>
-    </row>
-    <row r="144" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q143" s="6"/>
+    </row>
+    <row r="144" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
       <c r="F144" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G144" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="G144" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="H144" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I144" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="J144" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="J144" s="7" t="s">
+      <c r="K144" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K144" s="7" t="s">
+      <c r="L144" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="L144" s="7" t="s">
+      <c r="M144" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="M144" s="7" t="s">
+      <c r="N144" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="N144" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="O144" s="10" t="n">
         <f aca="false">E144=""</f>
         <v>1</v>
       </c>
       <c r="P144" s="6"/>
-    </row>
-    <row r="145" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q144" s="6"/>
+    </row>
+    <row r="145" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
       <c r="F145" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G145" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="G145" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="H145" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I145" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="J145" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="J145" s="7" t="s">
+      <c r="K145" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K145" s="7" t="s">
+      <c r="L145" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="L145" s="7" t="s">
+      <c r="M145" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="M145" s="7" t="s">
+      <c r="N145" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="N145" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="O145" s="10" t="n">
         <f aca="false">E145=""</f>
         <v>1</v>
       </c>
       <c r="P145" s="6"/>
-    </row>
-    <row r="146" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q145" s="6"/>
+    </row>
+    <row r="146" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
       <c r="F146" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G146" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="G146" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="H146" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I146" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="J146" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="J146" s="7" t="s">
+      <c r="K146" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K146" s="7" t="s">
+      <c r="L146" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="L146" s="7" t="s">
+      <c r="M146" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="M146" s="7" t="s">
+      <c r="N146" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="N146" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="O146" s="10" t="n">
         <f aca="false">E146=""</f>
         <v>1</v>
       </c>
       <c r="P146" s="6"/>
-    </row>
-    <row r="147" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q146" s="6"/>
+    </row>
+    <row r="147" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C147" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="B147" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C147" s="7" t="s">
+      <c r="D147" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E147" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="D147" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>443</v>
-      </c>
       <c r="F147" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H147" s="7"/>
       <c r="I147" s="7"/>
@@ -9534,24 +9672,25 @@
         <v>0</v>
       </c>
       <c r="P147" s="6"/>
-    </row>
-    <row r="148" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q147" s="6"/>
+    </row>
+    <row r="148" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
       <c r="F148" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H148" s="7"/>
       <c r="I148" s="7"/>
@@ -9565,26 +9704,27 @@
         <v>1</v>
       </c>
       <c r="P148" s="6"/>
-    </row>
-    <row r="149" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q148" s="6"/>
+    </row>
+    <row r="149" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C149" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="B149" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="D149" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
@@ -9598,24 +9738,25 @@
         <v>1</v>
       </c>
       <c r="P149" s="6"/>
-    </row>
-    <row r="150" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q149" s="6"/>
+    </row>
+    <row r="150" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
       <c r="F150" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
@@ -9629,26 +9770,27 @@
         <v>1</v>
       </c>
       <c r="P150" s="6"/>
-    </row>
-    <row r="151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q150" s="6"/>
+    </row>
+    <row r="151" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C151" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="B151" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>451</v>
-      </c>
       <c r="D151" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H151" s="7"/>
       <c r="I151" s="7"/>
@@ -9662,24 +9804,25 @@
         <v>1</v>
       </c>
       <c r="P151" s="6"/>
-    </row>
-    <row r="152" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q151" s="6"/>
+    </row>
+    <row r="152" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H152" s="7"/>
       <c r="I152" s="7"/>
@@ -9693,28 +9836,29 @@
         <v>1</v>
       </c>
       <c r="P152" s="6"/>
-    </row>
-    <row r="153" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q152" s="6"/>
+    </row>
+    <row r="153" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C153" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="B153" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C153" s="7" t="s">
+      <c r="D153" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E153" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="D153" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>456</v>
-      </c>
       <c r="F153" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H153" s="7"/>
       <c r="I153" s="7"/>
@@ -9728,26 +9872,27 @@
         <v>0</v>
       </c>
       <c r="P153" s="6"/>
-    </row>
-    <row r="154" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q153" s="6"/>
+    </row>
+    <row r="154" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C154" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="B154" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>458</v>
-      </c>
       <c r="D154" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
@@ -9761,26 +9906,27 @@
         <v>1</v>
       </c>
       <c r="P154" s="6"/>
-    </row>
-    <row r="155" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q154" s="6"/>
+    </row>
+    <row r="155" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C155" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="B155" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>460</v>
-      </c>
       <c r="D155" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H155" s="7"/>
       <c r="I155" s="7"/>
@@ -9794,28 +9940,29 @@
         <v>1</v>
       </c>
       <c r="P155" s="6"/>
-    </row>
-    <row r="156" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q155" s="6"/>
+    </row>
+    <row r="156" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="B156" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C156" s="7" t="s">
+      <c r="D156" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E156" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="D156" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>463</v>
-      </c>
       <c r="F156" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H156" s="7"/>
       <c r="I156" s="7"/>
@@ -9829,26 +9976,27 @@
         <v>0</v>
       </c>
       <c r="P156" s="6"/>
-    </row>
-    <row r="157" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q156" s="6"/>
+    </row>
+    <row r="157" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C157" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="B157" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>465</v>
-      </c>
       <c r="D157" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H157" s="7"/>
       <c r="I157" s="7"/>
@@ -9862,26 +10010,27 @@
         <v>1</v>
       </c>
       <c r="P157" s="6"/>
-    </row>
-    <row r="158" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q157" s="6"/>
+    </row>
+    <row r="158" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="B158" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>467</v>
-      </c>
       <c r="D158" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H158" s="7"/>
       <c r="I158" s="7"/>
@@ -9895,24 +10044,25 @@
         <v>1</v>
       </c>
       <c r="P158" s="6"/>
-    </row>
-    <row r="159" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q158" s="6"/>
+    </row>
+    <row r="159" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
       <c r="F159" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H159" s="7"/>
       <c r="I159" s="7"/>
@@ -9926,28 +10076,29 @@
         <v>1</v>
       </c>
       <c r="P159" s="6"/>
-    </row>
-    <row r="160" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q159" s="6"/>
+    </row>
+    <row r="160" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C160" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="B160" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C160" s="7" t="s">
+      <c r="D160" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E160" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="D160" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>472</v>
-      </c>
       <c r="F160" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H160" s="7"/>
       <c r="I160" s="7"/>
@@ -9961,24 +10112,25 @@
         <v>0</v>
       </c>
       <c r="P160" s="6"/>
-    </row>
-    <row r="161" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q160" s="6"/>
+    </row>
+    <row r="161" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
       <c r="F161" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H161" s="7"/>
       <c r="I161" s="7"/>
@@ -9992,26 +10144,27 @@
         <v>1</v>
       </c>
       <c r="P161" s="6"/>
-    </row>
-    <row r="162" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q161" s="6"/>
+    </row>
+    <row r="162" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C162" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="B162" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>476</v>
-      </c>
       <c r="D162" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H162" s="7"/>
       <c r="I162" s="7"/>
@@ -10025,24 +10178,25 @@
         <v>1</v>
       </c>
       <c r="P162" s="6"/>
-    </row>
-    <row r="163" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q162" s="6"/>
+    </row>
+    <row r="163" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
       <c r="F163" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H163" s="7"/>
       <c r="I163" s="7"/>
@@ -10056,26 +10210,27 @@
         <v>1</v>
       </c>
       <c r="P163" s="6"/>
-    </row>
-    <row r="164" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q163" s="6"/>
+    </row>
+    <row r="164" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C164" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B164" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>480</v>
-      </c>
       <c r="D164" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H164" s="7"/>
       <c r="I164" s="7"/>
@@ -10089,28 +10244,29 @@
         <v>1</v>
       </c>
       <c r="P164" s="6"/>
-    </row>
-    <row r="165" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q164" s="6"/>
+    </row>
+    <row r="165" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C165" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="B165" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C165" s="7" t="s">
+      <c r="D165" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E165" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D165" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>483</v>
-      </c>
       <c r="F165" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H165" s="7"/>
       <c r="I165" s="7"/>
@@ -10124,26 +10280,27 @@
         <v>0</v>
       </c>
       <c r="P165" s="6"/>
-    </row>
-    <row r="166" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q165" s="6"/>
+    </row>
+    <row r="166" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C166" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="B166" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>485</v>
-      </c>
       <c r="D166" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H166" s="7"/>
       <c r="I166" s="7"/>
@@ -10157,26 +10314,27 @@
         <v>1</v>
       </c>
       <c r="P166" s="6"/>
-    </row>
-    <row r="167" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q166" s="6"/>
+    </row>
+    <row r="167" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C167" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="B167" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>487</v>
-      </c>
       <c r="D167" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H167" s="7"/>
       <c r="I167" s="7"/>
@@ -10190,28 +10348,29 @@
         <v>1</v>
       </c>
       <c r="P167" s="6"/>
-    </row>
-    <row r="168" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q167" s="6"/>
+    </row>
+    <row r="168" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C168" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="B168" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C168" s="7" t="s">
+      <c r="D168" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E168" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="D168" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E168" s="7" t="s">
-        <v>490</v>
-      </c>
       <c r="F168" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H168" s="7"/>
       <c r="I168" s="7"/>
@@ -10225,24 +10384,25 @@
         <v>0</v>
       </c>
       <c r="P168" s="6"/>
-    </row>
-    <row r="169" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q168" s="6"/>
+    </row>
+    <row r="169" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
       <c r="F169" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H169" s="7"/>
       <c r="I169" s="7"/>
@@ -10256,24 +10416,25 @@
         <v>1</v>
       </c>
       <c r="P169" s="6"/>
-    </row>
-    <row r="170" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q169" s="6"/>
+    </row>
+    <row r="170" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H170" s="7"/>
       <c r="I170" s="7"/>
@@ -10287,26 +10448,27 @@
         <v>1</v>
       </c>
       <c r="P170" s="6"/>
-    </row>
-    <row r="171" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q170" s="6"/>
+    </row>
+    <row r="171" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C171" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="B171" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>494</v>
-      </c>
       <c r="D171" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E171" s="7"/>
       <c r="F171" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H171" s="7"/>
       <c r="I171" s="7"/>
@@ -10320,24 +10482,25 @@
         <v>1</v>
       </c>
       <c r="P171" s="6"/>
-    </row>
-    <row r="172" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q171" s="6"/>
+    </row>
+    <row r="172" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
       <c r="F172" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H172" s="7"/>
       <c r="I172" s="7"/>
@@ -10351,26 +10514,27 @@
         <v>1</v>
       </c>
       <c r="P172" s="6"/>
-    </row>
-    <row r="173" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q172" s="6"/>
+    </row>
+    <row r="173" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C173" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="B173" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>498</v>
-      </c>
       <c r="D173" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
@@ -10384,26 +10548,27 @@
         <v>1</v>
       </c>
       <c r="P173" s="6"/>
-    </row>
-    <row r="174" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q173" s="6"/>
+    </row>
+    <row r="174" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F174" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="F174" s="8" t="s">
+      <c r="G174" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="G174" s="8" t="s">
-        <v>503</v>
       </c>
       <c r="H174" s="7"/>
       <c r="I174" s="7"/>
@@ -10417,28 +10582,29 @@
         <v>0</v>
       </c>
       <c r="P174" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q174" s="6"/>
+    </row>
+    <row r="175" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" s="7" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="175" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C175" s="7" t="s">
+      <c r="D175" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="E175" s="7"/>
       <c r="F175" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="G175" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="G175" s="8" t="s">
-        <v>503</v>
       </c>
       <c r="H175" s="7"/>
       <c r="I175" s="7"/>
@@ -10452,28 +10618,29 @@
         <v>1</v>
       </c>
       <c r="P175" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q175" s="6"/>
+    </row>
+    <row r="176" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="7" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="176" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="7" t="s">
+      <c r="B176" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C176" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="D176" s="7"/>
       <c r="E176" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F176" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="G176" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="G176" s="8" t="s">
-        <v>503</v>
       </c>
       <c r="H176" s="7"/>
       <c r="I176" s="7"/>
@@ -10487,28 +10654,29 @@
         <v>0</v>
       </c>
       <c r="P176" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q176" s="6"/>
+    </row>
+    <row r="177" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177" s="7" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="177" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C177" s="7" t="s">
+      <c r="D177" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="E177" s="7"/>
       <c r="F177" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="G177" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="G177" s="8" t="s">
-        <v>503</v>
       </c>
       <c r="H177" s="7"/>
       <c r="I177" s="7"/>
@@ -10522,30 +10690,31 @@
         <v>1</v>
       </c>
       <c r="P177" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q177" s="6"/>
+    </row>
+    <row r="178" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="7" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="178" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="7" t="s">
+      <c r="B178" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C178" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="B178" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C178" s="7" t="s">
+      <c r="D178" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E178" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="D178" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>517</v>
-      </c>
       <c r="F178" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="G178" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="G178" s="8" t="s">
-        <v>503</v>
       </c>
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
@@ -10559,28 +10728,29 @@
         <v>0</v>
       </c>
       <c r="P178" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q178" s="6"/>
+    </row>
+    <row r="179" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" s="7" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="179" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C179" s="7" t="s">
+      <c r="D179" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="G179" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="G179" s="8" t="s">
-        <v>503</v>
       </c>
       <c r="H179" s="7"/>
       <c r="I179" s="7"/>
@@ -10594,28 +10764,29 @@
         <v>1</v>
       </c>
       <c r="P179" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q179" s="6"/>
+    </row>
+    <row r="180" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="7" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="180" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="7" t="s">
+      <c r="B180" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F180" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="G180" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="G180" s="8" t="s">
-        <v>503</v>
       </c>
       <c r="H180" s="7"/>
       <c r="I180" s="7"/>
@@ -10629,28 +10800,29 @@
         <v>0</v>
       </c>
       <c r="P180" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q180" s="6"/>
+    </row>
+    <row r="181" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181" s="7" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="181" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C181" s="7" t="s">
+      <c r="D181" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="E181" s="7"/>
       <c r="F181" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="G181" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="G181" s="8" t="s">
-        <v>503</v>
       </c>
       <c r="H181" s="7"/>
       <c r="I181" s="7"/>
@@ -10664,28 +10836,29 @@
         <v>1</v>
       </c>
       <c r="P181" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q181" s="6"/>
+    </row>
+    <row r="182" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="7" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="182" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="7" t="s">
+      <c r="B182" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F182" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="G182" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="G182" s="8" t="s">
-        <v>503</v>
       </c>
       <c r="H182" s="7"/>
       <c r="I182" s="7"/>
@@ -10699,28 +10872,29 @@
         <v>0</v>
       </c>
       <c r="P182" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q182" s="6"/>
+    </row>
+    <row r="183" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" s="7" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="183" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C183" s="7" t="s">
+      <c r="D183" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="E183" s="7"/>
       <c r="F183" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="G183" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="G183" s="8" t="s">
-        <v>503</v>
       </c>
       <c r="H183" s="7"/>
       <c r="I183" s="7"/>
@@ -10734,28 +10908,29 @@
         <v>1</v>
       </c>
       <c r="P183" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q183" s="6"/>
+    </row>
+    <row r="184" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="7" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="184" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="7" t="s">
+      <c r="B184" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="D184" s="7"/>
       <c r="E184" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F184" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="G184" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="G184" s="8" t="s">
-        <v>503</v>
       </c>
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
@@ -10769,28 +10944,29 @@
         <v>0</v>
       </c>
       <c r="P184" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q184" s="6"/>
+    </row>
+    <row r="185" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C185" s="7" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="185" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C185" s="7" t="s">
+      <c r="D185" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="D185" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="E185" s="7"/>
       <c r="F185" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="G185" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="G185" s="8" t="s">
-        <v>503</v>
       </c>
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
@@ -10804,28 +10980,29 @@
         <v>1</v>
       </c>
       <c r="P185" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q185" s="6"/>
+    </row>
+    <row r="186" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C186" s="7" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="186" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C186" s="7" t="s">
+      <c r="D186" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="E186" s="7"/>
       <c r="F186" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H186" s="7"/>
       <c r="I186" s="7"/>
@@ -10839,30 +11016,31 @@
         <v>1</v>
       </c>
       <c r="P186" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q186" s="6"/>
+    </row>
+    <row r="187" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C187" s="7" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="187" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C187" s="7" t="s">
+      <c r="D187" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E187" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="D187" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>548</v>
-      </c>
       <c r="F187" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H187" s="7"/>
       <c r="I187" s="7"/>
@@ -10876,28 +11054,29 @@
         <v>0</v>
       </c>
       <c r="P187" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q187" s="6"/>
+    </row>
+    <row r="188" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C188" s="7" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="188" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>550</v>
-      </c>
       <c r="D188" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E188" s="7"/>
       <c r="F188" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H188" s="7"/>
       <c r="I188" s="7"/>
@@ -10911,30 +11090,31 @@
         <v>1</v>
       </c>
       <c r="P188" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q188" s="6"/>
+    </row>
+    <row r="189" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="7" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="189" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="7" t="s">
+      <c r="B189" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C189" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="B189" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C189" s="7" t="s">
+      <c r="D189" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E189" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="D189" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E189" s="7" t="s">
-        <v>554</v>
-      </c>
       <c r="F189" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H189" s="7"/>
       <c r="I189" s="7"/>
@@ -10947,31 +11127,30 @@
         <f aca="false">E189=""</f>
         <v>0</v>
       </c>
-      <c r="P189" s="6" t="s">
+      <c r="P189" s="6"/>
+      <c r="Q189" s="6"/>
+    </row>
+    <row r="190" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C190" s="7" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="190" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="7" t="s">
+      <c r="D190" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E190" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="B190" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E190" s="7" t="s">
-        <v>558</v>
-      </c>
       <c r="F190" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H190" s="7"/>
       <c r="I190" s="7"/>
@@ -10984,29 +11163,32 @@
         <f aca="false">E190=""</f>
         <v>0</v>
       </c>
-      <c r="P190" s="6"/>
-    </row>
-    <row r="191" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P190" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q190" s="6"/>
+    </row>
+    <row r="191" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C191" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="B191" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C191" s="7" t="s">
+      <c r="D191" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E191" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D191" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E191" s="7" t="s">
-        <v>561</v>
-      </c>
       <c r="F191" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G191" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H191" s="7"/>
       <c r="I191" s="7"/>
@@ -11020,28 +11202,29 @@
         <v>0</v>
       </c>
       <c r="P191" s="6"/>
-    </row>
-    <row r="192" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q191" s="6"/>
+    </row>
+    <row r="192" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C192" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="B192" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C192" s="7" t="s">
+      <c r="D192" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E192" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="D192" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>564</v>
-      </c>
       <c r="F192" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G192" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H192" s="7"/>
       <c r="I192" s="7"/>
@@ -11055,28 +11238,29 @@
         <v>0</v>
       </c>
       <c r="P192" s="6"/>
-    </row>
-    <row r="193" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q192" s="6"/>
+    </row>
+    <row r="193" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C193" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="B193" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C193" s="7" t="s">
+      <c r="D193" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E193" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="D193" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E193" s="7" t="s">
-        <v>567</v>
-      </c>
       <c r="F193" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G193" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H193" s="7"/>
       <c r="I193" s="7"/>
@@ -11090,8 +11274,9 @@
         <v>0</v>
       </c>
       <c r="P193" s="6" t="s">
-        <v>568</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="Q193" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P193"/>
@@ -11123,414 +11308,414 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="L2" s="15"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="L3" s="15"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="13"/>
+      <c r="J4" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="15"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/vignettes/definicje_zmiennych.xlsx
+++ b/vignettes/definicje_zmiennych.xlsx
@@ -12,25 +12,25 @@
     <sheet name="schemat" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">zmienne!$A$1:$Q$222</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">zmienne!$A$1:$P$221</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">zmienne!$A$1:$Q$222</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">zmienne!$A$1:$P$221</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">zmienne!$A$1:$P$221</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">zmienne!$A$1:$Q$276</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">zmienne!$A$1:$P$236</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">zmienne!$A$1:$Q$276</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">zmienne!$A$1:$P$236</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$222</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$221</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$221</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$222</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$221</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$221</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$221</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$221</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$158</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$221</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$221</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$158</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$221</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$221</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$158</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$158</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$221</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$158</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$158</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$221</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$158</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$158</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$158</definedName>
@@ -40,6 +40,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$158</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$158</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$158</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$158</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$158</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$158</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$158</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -51,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="866">
   <si>
     <t xml:space="preserve">zmienna</t>
   </si>
@@ -102,6 +106,9 @@
   </si>
   <si>
     <t xml:space="preserve">uwagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doktoranci</t>
   </si>
   <si>
     <t xml:space="preserve">DOSW_ES</t>
@@ -811,12 +818,9 @@
     <t xml:space="preserve">JPDZAM</t>
   </si>
   <si>
-    <t xml:space="preserve">zamieszkanie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zgodność powiatów zamieszkania absolwenta i jednostki dydaktycznej, którą ukończył na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
+    <t xml:space="preserve">Zgodność powiatów zamieszkania absolwenta i jednostki dydaktycznej, którą ukończył na koniec danego okresu
 W wypadku niejednoznacznego mapowania PNA na powiaty jako TERYT odpowiadający danemu PNA przyjmowane jednoznacznie wyznaczane województwo, a gdy także województwo niejednoznaczne, Polska.
-W wypadku gdy wiele różnych JST dla danego okresu, wtedy zmienna liczona dla każdego JST z osobna, a następnie przypisywana najmniejsza uzyskana wartość.</t>
+W wypadku gdy wiele różnych JST dla danego okresu, wtedy zmienna liczona dla każdego JST z osobna, a następnie przypisywZNPN najmniejsza uzyskZNPN wartość.</t>
   </si>
   <si>
     <t xml:space="preserve">POWIAT</t>
@@ -840,8 +844,8 @@
     <t xml:space="preserve">KLASZ</t>
   </si>
   <si>
-    <t xml:space="preserve">Klasa wielkości miejscowości zamieszkania na koniec na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
-W wypadku niejednoznacznego mapowania PNA na powiaty przyjmowana minimalna wartość spośród powiatów-kandydatów.
+    <t xml:space="preserve">Klasa wielkości miejscowości zamieszkania na koniec na koniec danego okresu
+W wypadku niejednoznacznego mapowania PNA na powiaty przyjmowZNPN minimalna wartość spośród powiatów-kandydatów.
 W wypadku gdy wiele różnych PNA dla danego okresu, wtedy najmniejsza wartość spośród wartości PNA-kandydatów.</t>
   </si>
   <si>
@@ -863,7 +867,7 @@
     <t xml:space="preserve">KLASZAM</t>
   </si>
   <si>
-    <t xml:space="preserve">Klasa wielkości miejscowości zamieszkania na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
+    <t xml:space="preserve">Klasa wielkości miejscowości zamieszkania na koniec danego okresu
 W wypadku niejednoznacznego mapowania PNA na powiaty lub wiele wpisów dla tego samego okresu wskazuje na różne powiaty, wtedy NA.</t>
   </si>
   <si>
@@ -931,8 +935,8 @@
     <t xml:space="preserve">MIEJZ</t>
   </si>
   <si>
-    <t xml:space="preserve">Akademickość miejsca zamieszkania na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
-W wypadku niejednoznacznego mapowania PNA na powiaty przyjmowana minimalna wartość spośród powiatów-kandydatów.
+    <t xml:space="preserve">Akademickość miejsca zamieszkania na koniec danego okresu
+W wypadku niejednoznacznego mapowania PNA na powiaty przyjmowZNPN minimalna wartość spośród powiatów-kandydatów.
 W wypadku gdy wiele różnych PNA dla danego okresu, wtedy najmniejsza wartość spośród wartości PNA-kandydatów.</t>
   </si>
   <si>
@@ -945,7 +949,7 @@
     <t xml:space="preserve">MIEJZAM</t>
   </si>
   <si>
-    <t xml:space="preserve">Akademickość miejsca zamieszkania na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
+    <t xml:space="preserve">Akademickość miejsca zamieszkania na koniec danego okresu
 W wypadku niejednoznacznego mapowania PNA na powiaty lub wiele wpisów dla tego samego okresu wskazuje na różne powiaty, wtedy NA.</t>
   </si>
   <si>
@@ -1299,7 +1303,7 @@
     <t xml:space="preserve">NRWOJ</t>
   </si>
   <si>
-    <t xml:space="preserve">Identyfikator województwa zamieszkania na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
+    <t xml:space="preserve">Identyfikator województwa zamieszkania na koniec danego okresu
 W razie niejednoznaczności jednoznaczne województwo, a gdy także ono niejednoznaczne, Polska.</t>
   </si>
   <si>
@@ -1508,7 +1512,7 @@
     <t xml:space="preserve">100 * NM_X_N / LEN</t>
   </si>
   <si>
-    <t xml:space="preserve">Identyfikator powiatu zamieszkania na koniec okienka (wyjątek - w momencie uzyskania dyplomu dla okienka obejmującego cały okres od uzyskania dyplomu)
+    <t xml:space="preserve">Identyfikator powiatu zamieszkania na koniec danego okresu
 W razie niejednoznaczności jednoznaczne województwo, a gdy także ono niejednoznaczne, Polska.</t>
   </si>
   <si>
@@ -2069,13 +2073,434 @@
     <t xml:space="preserve">PM_B_N, PPOW_B_N</t>
   </si>
   <si>
+    <t xml:space="preserve">ETAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etap kariery naukowej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pozostałe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA_OD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kariera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data rozpoczęcia danego etapu kariery naukowej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oblicz_kariere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROK_OD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIES_OD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA_DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data zakończenia danego etapu kariery naukowej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROK_DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIES_DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIERUNEK_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dyscyplina danego etapu kariery naukowej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYSC_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DZIE_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dziedzina danego etapu kariery naukowej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBSZ_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obszar danego etapu kariery naukowej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCZELNIA_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uczelnia, na której odbywał się dany poziom kariery naukowej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEDNOSTKA_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jednostka, w której odbywał się dany poziom kariery naukowej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF_WTERMINIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">czy dany poziom studiów zakończony w terminie [do odczytania z informacji o kierunku studiów]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dotyczy tylko studiów (póki co tylko doktoranckich)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA_SKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data skreślenia z listy doktorantów
+zdau.data_do gdy zdau.typ == ‘S’ 
+Tylko dla doktorantów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POZIOM != 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">przygotuj_zdau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROK_SKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data skreślenia z listy studentów
+Tylko dla doktorantów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIES_SKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA_POW_DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data uzyskania doktoratu powiązanego (ta sama jednostka i kierunek) z pierwszymi rozpoczętymi studiami doktoranckimi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF_DR_PO_SDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">czy pierwszy stopień doktora uzyskany po  zakończeniu (zdau.typ == ‘A’) studiów doktoranckich na tym samym kierunku i w tej samej jednostce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dowolnych, czy na tej samej uczelni/jednostce albo kierunku/dziedzinie/dyscyplinie?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROK_POW_DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rok uzyskania doktoratu powiązanego z danym kierunkiem studiów doktoranckich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIES_POW_DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miesiąc uzyskania doktoratu powiązanego z danym kierunkiem studiów doktoranckich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPB_ZGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba zgłoszonych projektów badawczych, w których jest kierownikiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPB_FIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba projektów badawczych, które uzyskały finansowanie, w których jest kierownikiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPB_ROZP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba rozpoczętych projektów badawczych, w których jest kierownikiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFPB_ROZP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suma dofinansowania rozpoczętych projektów badawczych, w których jest kierownikiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPB_ZAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba zakończonych projektów badawczych, w których jest kierownikiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPB_ROZL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba rozliczonych projektów badawczych, w których jest kierownikiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPB_ZGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPB_ZGL / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPB_FIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPB_FIN / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPB_ROZP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPB_ROZP / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFPB_ROZP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFPB_ROZP / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPB_ZAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPB_ZAK / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPB_ROZL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPB_ROZL / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procent okienka, w jakim miał finansowanie z projektów badawczych
+(np. w jednym miesiącu miał z dwóch, a w kolejnym z żadnego = 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF_ZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_ZN &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_ZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_EN &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy zatrudnienia na uczelni lub w instytucie badawczym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy zatrudnienia na etacie na uczelni lub w instytucie badawczym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM_ZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_ZN / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_EN / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZ_ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ_ZN / NM_ZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_ZN, SZ_ZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZ_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ_EN / NM_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_EN, SZ_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ_ZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suma zarobków z zatrudnienia na uczelni lub w instytucie badawczym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suma zarobków  z etatu na uczelni lub w instytucie badawczym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP_ZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba pracodawców będących uczelnią lub instytutem badawczym </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba pracodawców na etat będących uczelnią lub instytutem badawczym </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPM_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba etatodawcomiesięcy w okienku  będących uczelnią lub instytutem naukowym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPM_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPM_EN / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF_TASAMA_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">czy zatrudnieni w tej samej jednostce/uczelni, w której uzyskali dany tytuł naukowy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiedykolwiek
+Oraz oddzielne zmienne
+W 1 roku po uzyskaniu tytułu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPM_NAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPM_E – NPM_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPM_E, NPM_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPM_NAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(NPM_E – NPM_EN) / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_ZNPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy zatrudnienia w nauce i poza nauką</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PN_ZNPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_ZNPN / LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF_ZNPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_ZNPN &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZY_PESEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_ZDAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absolwent/student
+(dla doktoratu/habilitacji/profesora zawsze A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUDZOZIEMIEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studia stacjonarne/niestacjonarne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POZIOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poziom studiów/uzyskany tytuł</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISM_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identyfikator „łącznika kierunków” przy indywidualnych studiach międzyobszarowych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROK_UR</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. człon – rodzaj zmiennej</t>
   </si>
   <si>
     <t xml:space="preserve">2. człon – sytuacja na rynku pracy</t>
   </si>
   <si>
-    <t xml:space="preserve">3. człon – studiowanie</t>
+    <t xml:space="preserve">3. człon – studiowanie/kariera naukowa</t>
   </si>
   <si>
     <t xml:space="preserve">4. człon – okienko czasu</t>
@@ -2093,9 +2518,6 @@
     <t xml:space="preserve">etat</t>
   </si>
   <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
     <t xml:space="preserve">dla miesięcy, w których studiował (wszystko jedno, czy na tym samym, czy innym kierunku studiów)</t>
   </si>
   <si>
@@ -2114,9 +2536,6 @@
     <t xml:space="preserve">samoz</t>
   </si>
   <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
     <t xml:space="preserve">dla miesięcy, w których nie studiował na żadnym kierunku studiów</t>
   </si>
   <si>
@@ -2192,6 +2611,9 @@
     <t xml:space="preserve">brak danych ZUS</t>
   </si>
   <si>
+    <t xml:space="preserve">okres ukończonych jako pierwsze studiów licencjackich</t>
+  </si>
+  <si>
     <t xml:space="preserve">IF</t>
   </si>
   <si>
@@ -2204,6 +2626,9 @@
     <t xml:space="preserve">macierzyński/tacierzyński</t>
   </si>
   <si>
+    <t xml:space="preserve">okres ukończonych jako pierwsze studiów magisterskich</t>
+  </si>
+  <si>
     <t xml:space="preserve">NP</t>
   </si>
   <si>
@@ -2216,6 +2641,9 @@
     <t xml:space="preserve">mundurowy</t>
   </si>
   <si>
+    <t xml:space="preserve">okres ukończonych jako pierwsze studiów doktoranckich</t>
+  </si>
+  <si>
     <t xml:space="preserve">NPN</t>
   </si>
   <si>
@@ -2228,6 +2656,9 @@
     <t xml:space="preserve">sędzia, itp.</t>
   </si>
   <si>
+    <t xml:space="preserve">okres od uzyskania pierwszego tytułu doktora do uzyskania pierwszego tytułu doktora habilitowanego</t>
+  </si>
+  <si>
     <t xml:space="preserve">EP</t>
   </si>
   <si>
@@ -2240,6 +2671,9 @@
     <t xml:space="preserve">bezrobocie wliczając brak danych ZUS</t>
   </si>
   <si>
+    <t xml:space="preserve">okres od uzyskania pierwszego tytułu doktora habilitowanego do uzyskania tytułu profesora</t>
+  </si>
+  <si>
     <t xml:space="preserve">PP</t>
   </si>
   <si>
@@ -2252,6 +2686,9 @@
     <t xml:space="preserve">bezrobocie pomijając braki danych ZUS</t>
   </si>
   <si>
+    <t xml:space="preserve">okres od uzyskania tytułu profesora</t>
+  </si>
+  <si>
     <t xml:space="preserve">EPM</t>
   </si>
   <si>
@@ -2295,6 +2732,30 @@
   </si>
   <si>
     <t xml:space="preserve">dowolna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etat/netat w nauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etat w nauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etat/netat jednocześnie w nauce i poza nauką</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etat/netat poza nauką</t>
   </si>
 </sst>
 </file>
@@ -2350,7 +2811,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2367,6 +2828,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2417,7 +2890,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2470,11 +2943,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2515,7 +3008,7 @@
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFCCFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -2559,30 +3052,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMH222"/>
+  <dimension ref="A1:AMH294"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G108" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="G221" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C113" activeCellId="0" sqref="C113"/>
+      <selection pane="bottomLeft" activeCell="A240" activeCellId="0" sqref="A240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.3979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="17.5510204081633"/>
     <col collapsed="false" hidden="false" max="1022" min="18" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="7.02040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2637,36 +3130,39 @@
       <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -2680,18 +3176,18 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="8"/>
@@ -2710,18 +3206,18 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8"/>
@@ -2740,18 +3236,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="8"/>
@@ -2770,18 +3266,18 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="8"/>
@@ -2800,25 +3296,25 @@
     </row>
     <row r="7" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -2832,31 +3328,31 @@
         <v>0</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2870,31 +3366,31 @@
         <v>0</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -2908,31 +3404,31 @@
         <v>0</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -2950,25 +3446,25 @@
     </row>
     <row r="11" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2986,25 +3482,25 @@
     </row>
     <row r="12" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3018,31 +3514,31 @@
         <v>0</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -3060,25 +3556,25 @@
     </row>
     <row r="14" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -3096,25 +3592,25 @@
     </row>
     <row r="15" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -3128,31 +3624,31 @@
         <v>0</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -3170,25 +3666,25 @@
     </row>
     <row r="17" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -3206,25 +3702,25 @@
     </row>
     <row r="18" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -3238,31 +3734,31 @@
         <v>0</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -3280,25 +3776,25 @@
     </row>
     <row r="20" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -3316,25 +3812,25 @@
     </row>
     <row r="21" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -3348,29 +3844,29 @@
         <v>0</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -3388,25 +3884,25 @@
     </row>
     <row r="23" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -3424,23 +3920,23 @@
     </row>
     <row r="24" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -3458,25 +3954,25 @@
     </row>
     <row r="25" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -3494,23 +3990,23 @@
     </row>
     <row r="26" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -3528,23 +4024,23 @@
     </row>
     <row r="27" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -3562,23 +4058,23 @@
     </row>
     <row r="28" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -3596,23 +4092,23 @@
     </row>
     <row r="29" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -3630,25 +4126,25 @@
     </row>
     <row r="30" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -3666,25 +4162,25 @@
     </row>
     <row r="31" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -3698,29 +4194,29 @@
         <v>0</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -3738,25 +4234,25 @@
     </row>
     <row r="33" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -3770,29 +4266,29 @@
         <v>0</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -3810,25 +4306,25 @@
     </row>
     <row r="35" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -3842,29 +4338,29 @@
         <v>0</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -3878,31 +4374,31 @@
         <v>1</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -3916,31 +4412,31 @@
         <v>1</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -3958,23 +4454,23 @@
     </row>
     <row r="39" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -3992,21 +4488,21 @@
     </row>
     <row r="40" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -4022,23 +4518,23 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -4056,23 +4552,23 @@
     </row>
     <row r="42" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -4086,31 +4582,31 @@
         <v>1</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -4128,23 +4624,23 @@
     </row>
     <row r="44" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -4162,31 +4658,31 @@
     </row>
     <row r="45" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -4198,27 +4694,27 @@
         <v>0</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="7"/>
       <c r="F46" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -4233,36 +4729,36 @@
       </c>
       <c r="P46" s="7"/>
       <c r="Q46" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -4274,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q47" s="7"/>
       <c r="R47" s="0"/>
@@ -5285,31 +5781,31 @@
     </row>
     <row r="48" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -5321,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q48" s="7"/>
       <c r="R48" s="0"/>
@@ -6332,25 +6828,25 @@
     </row>
     <row r="49" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -6368,25 +6864,25 @@
     </row>
     <row r="50" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -6404,23 +6900,23 @@
     </row>
     <row r="51" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -6438,23 +6934,23 @@
     </row>
     <row r="52" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -6472,25 +6968,25 @@
     </row>
     <row r="53" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -6504,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q53" s="7"/>
       <c r="R53" s="0"/>
@@ -7515,31 +8011,31 @@
     </row>
     <row r="54" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -7551,37 +8047,37 @@
         <v>0</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -7597,31 +8093,31 @@
     </row>
     <row r="56" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
@@ -7637,31 +8133,31 @@
     </row>
     <row r="57" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -7673,37 +8169,37 @@
         <v>0</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -7719,31 +8215,31 @@
     </row>
     <row r="59" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -7759,31 +8255,31 @@
     </row>
     <row r="60" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
@@ -7797,25 +8293,25 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -7831,23 +8327,23 @@
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
     </row>
-    <row r="62" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="7"/>
       <c r="F62" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -7865,31 +8361,31 @@
     </row>
     <row r="63" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -7905,27 +8401,27 @@
     </row>
     <row r="64" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -7939,12 +8435,12 @@
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" customFormat="false" ht="192.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>239</v>
@@ -7978,13 +8474,16 @@
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
-    </row>
-    <row r="66" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R65" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
         <v>246</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>247</v>
@@ -8020,13 +8519,16 @@
         <v>252</v>
       </c>
       <c r="Q66" s="7"/>
-    </row>
-    <row r="67" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R66" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
         <v>253</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>254</v>
@@ -8060,13 +8562,16 @@
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
+      <c r="R67" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="s">
         <v>255</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>256</v>
@@ -8112,7 +8617,7 @@
         <v>266</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>267</v>
@@ -8120,10 +8625,10 @@
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -8144,7 +8649,7 @@
         <v>268</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>269</v>
@@ -8178,7 +8683,7 @@
         <v>272</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>273</v>
@@ -8207,12 +8712,12 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
     </row>
-    <row r="72" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
         <v>275</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>276</v>
@@ -8248,13 +8753,16 @@
         <v>278</v>
       </c>
       <c r="Q72" s="7"/>
-    </row>
-    <row r="73" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R72" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
         <v>279</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>280</v>
@@ -8288,26 +8796,29 @@
       </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
+      <c r="R73" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>281</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
@@ -8327,23 +8838,23 @@
     </row>
     <row r="75" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>283</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -8364,22 +8875,22 @@
         <v>284</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>285</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>286</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
@@ -8395,25 +8906,25 @@
       <c r="P76" s="8"/>
       <c r="Q76" s="7"/>
     </row>
-    <row r="77" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
         <v>287</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>288</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -8436,20 +8947,20 @@
         <v>290</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>291</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
@@ -8472,22 +8983,22 @@
         <v>293</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>294</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>295</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
@@ -8503,25 +9014,25 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
     </row>
-    <row r="80" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
         <v>296</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>297</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
@@ -8539,25 +9050,25 @@
       </c>
       <c r="Q80" s="7"/>
     </row>
-    <row r="81" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>300</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
@@ -8577,20 +9088,20 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>302</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>303</v>
@@ -8611,25 +9122,25 @@
     </row>
     <row r="83" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>304</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>305</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
@@ -8650,7 +9161,7 @@
         <v>306</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>307</v>
@@ -8658,10 +9169,10 @@
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -8679,23 +9190,23 @@
     </row>
     <row r="85" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>308</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
@@ -8718,7 +9229,7 @@
         <v>310</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>311</v>
@@ -8726,10 +9237,10 @@
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
@@ -8747,23 +9258,23 @@
     </row>
     <row r="87" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>312</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
@@ -8786,22 +9297,22 @@
         <v>314</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>315</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>316</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
@@ -8822,20 +9333,20 @@
         <v>317</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>318</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
@@ -8858,20 +9369,20 @@
         <v>320</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>321</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
@@ -8894,22 +9405,22 @@
         <v>323</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>324</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>325</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
@@ -8930,20 +9441,20 @@
         <v>326</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>327</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
@@ -8964,20 +9475,20 @@
         <v>328</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>329</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
@@ -8993,12 +9504,12 @@
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
     </row>
-    <row r="94" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="s">
         <v>330</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>331</v>
@@ -9006,10 +9517,10 @@
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
@@ -9027,25 +9538,25 @@
     </row>
     <row r="95" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>332</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>333</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
@@ -9066,20 +9577,20 @@
         <v>334</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>335</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
@@ -9100,20 +9611,20 @@
         <v>336</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>337</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
@@ -9134,17 +9645,17 @@
         <v>338</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>339</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G98" s="9" t="s">
         <v>303</v>
@@ -9168,22 +9679,22 @@
         <v>338</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>340</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>341</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
@@ -9204,20 +9715,20 @@
         <v>342</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>343</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
@@ -9240,20 +9751,20 @@
         <v>345</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>346</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
@@ -9273,25 +9784,25 @@
     </row>
     <row r="102" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>348</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>349</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
@@ -9309,23 +9820,23 @@
     </row>
     <row r="103" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>350</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
@@ -9343,23 +9854,23 @@
     </row>
     <row r="104" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>351</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
@@ -9377,25 +9888,25 @@
     </row>
     <row r="105" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>352</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>353</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
@@ -9411,12 +9922,12 @@
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
     </row>
-    <row r="106" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="8" t="s">
         <v>354</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>355</v>
@@ -9424,10 +9935,10 @@
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
@@ -9445,23 +9956,23 @@
     </row>
     <row r="107" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>356</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
@@ -9477,12 +9988,12 @@
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
     </row>
-    <row r="108" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="8" t="s">
         <v>357</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>358</v>
@@ -9490,10 +10001,10 @@
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
@@ -9511,23 +10022,23 @@
     </row>
     <row r="109" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>359</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
@@ -9543,27 +10054,27 @@
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
     </row>
-    <row r="110" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>360</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
@@ -9579,27 +10090,27 @@
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
     </row>
-    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>361</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
@@ -9622,22 +10133,22 @@
         <v>363</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>364</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>365</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
@@ -9658,7 +10169,7 @@
         <v>366</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>367</v>
@@ -9666,10 +10177,10 @@
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
@@ -9690,20 +10201,20 @@
         <v>368</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>369</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
@@ -9719,12 +10230,12 @@
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
     </row>
-    <row r="115" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="8" t="s">
         <v>370</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>371</v>
@@ -9732,10 +10243,10 @@
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
@@ -9756,20 +10267,20 @@
         <v>372</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>373</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
@@ -9785,12 +10296,12 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
     </row>
-    <row r="117" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="8" t="s">
         <v>374</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>375</v>
@@ -9824,20 +10335,20 @@
         <v>376</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>377</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
@@ -9855,25 +10366,25 @@
       </c>
       <c r="Q118" s="7"/>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="8" t="s">
         <v>379</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>380</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
@@ -9891,25 +10402,25 @@
       </c>
       <c r="Q119" s="7"/>
     </row>
-    <row r="120" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="8" t="s">
         <v>382</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>383</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
@@ -9934,20 +10445,20 @@
         <v>386</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>387</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
@@ -9968,20 +10479,20 @@
         <v>388</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
@@ -9999,23 +10510,23 @@
     </row>
     <row r="123" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>390</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
@@ -10033,25 +10544,25 @@
       </c>
       <c r="Q123" s="7"/>
     </row>
-    <row r="124" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>392</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
@@ -10069,12 +10580,12 @@
       </c>
       <c r="Q124" s="7"/>
     </row>
-    <row r="125" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="8" t="s">
         <v>394</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>395</v>
@@ -10102,13 +10613,16 @@
       </c>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
+      <c r="R125" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="8" t="s">
         <v>396</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>397</v>
@@ -10116,7 +10630,7 @@
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="8"/>
@@ -10138,7 +10652,7 @@
         <v>398</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>399</v>
@@ -10146,7 +10660,7 @@
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="8"/>
@@ -10168,22 +10682,22 @@
         <v>400</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>401</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
@@ -10206,22 +10720,22 @@
         <v>403</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>404</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>405</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -10242,22 +10756,22 @@
         <v>406</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>407</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
@@ -10280,22 +10794,22 @@
         <v>409</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>410</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>284</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
@@ -10316,22 +10830,22 @@
         <v>411</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>412</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>287</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H132" s="7"/>
       <c r="I132" s="7"/>
@@ -10352,22 +10866,22 @@
         <v>413</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>414</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>290</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
@@ -10388,22 +10902,22 @@
         <v>415</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>416</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
@@ -10426,22 +10940,22 @@
         <v>418</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>419</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
@@ -10464,22 +10978,22 @@
         <v>421</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>422</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>293</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
@@ -10494,28 +11008,31 @@
       </c>
       <c r="P136" s="7"/>
       <c r="Q136" s="7"/>
+      <c r="R136" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="7" t="s">
         <v>423</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>424</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>296</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
@@ -10536,22 +11053,22 @@
         <v>425</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>426</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>299</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
@@ -10572,22 +11089,22 @@
         <v>427</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>428</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
@@ -10608,22 +11125,22 @@
         <v>429</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>430</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
@@ -10644,22 +11161,22 @@
         <v>431</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>432</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
@@ -10680,22 +11197,22 @@
         <v>433</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>434</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>314</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
@@ -10716,22 +11233,22 @@
         <v>435</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>436</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>317</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
@@ -10752,22 +11269,22 @@
         <v>437</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>438</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>320</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H144" s="7"/>
       <c r="I144" s="7"/>
@@ -10788,22 +11305,22 @@
         <v>439</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>440</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>338</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
@@ -10824,22 +11341,22 @@
         <v>441</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>442</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>342</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H146" s="7"/>
       <c r="I146" s="7"/>
@@ -10860,22 +11377,22 @@
         <v>443</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>444</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>345</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H147" s="7"/>
       <c r="I147" s="7"/>
@@ -10896,22 +11413,22 @@
         <v>445</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>446</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H148" s="7"/>
       <c r="I148" s="7"/>
@@ -10934,22 +11451,22 @@
         <v>448</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>449</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
@@ -10970,22 +11487,22 @@
         <v>450</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>451</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
@@ -11006,22 +11523,22 @@
         <v>452</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>453</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H151" s="7"/>
       <c r="I151" s="7"/>
@@ -11042,22 +11559,22 @@
         <v>454</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>455</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H152" s="7"/>
       <c r="I152" s="7"/>
@@ -11078,22 +11595,22 @@
         <v>456</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>457</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H153" s="7"/>
       <c r="I153" s="7"/>
@@ -11114,22 +11631,22 @@
         <v>458</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>459</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
@@ -11152,22 +11669,22 @@
         <v>461</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>462</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
@@ -11183,12 +11700,12 @@
       <c r="P155" s="8"/>
       <c r="Q155" s="7"/>
     </row>
-    <row r="156" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="8" t="s">
         <v>240</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>463</v>
@@ -11216,28 +11733,31 @@
       </c>
       <c r="P156" s="7"/>
       <c r="Q156" s="7"/>
+      <c r="R156" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="8" t="s">
         <v>464</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>465</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>466</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H157" s="8"/>
       <c r="I157" s="8"/>
@@ -11260,22 +11780,22 @@
         <v>468</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>469</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>470</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H158" s="8"/>
       <c r="I158" s="8"/>
@@ -11293,25 +11813,25 @@
       </c>
       <c r="Q158" s="7"/>
     </row>
-    <row r="159" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="170.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="8" t="s">
         <v>472</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>473</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E159" s="8"/>
       <c r="F159" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H159" s="8"/>
       <c r="I159" s="8"/>
@@ -11334,20 +11854,20 @@
         <v>475</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>476</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E160" s="8"/>
       <c r="F160" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
@@ -11370,7 +11890,7 @@
         <v>477</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>478</v>
@@ -11404,7 +11924,7 @@
         <v>479</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>480</v>
@@ -11438,7 +11958,7 @@
         <v>481</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>482</v>
@@ -11465,12 +11985,12 @@
       <c r="P163" s="7"/>
       <c r="Q163" s="7"/>
     </row>
-    <row r="164" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="8" t="s">
         <v>483</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>484</v>
@@ -11511,12 +12031,12 @@
       <c r="P164" s="7"/>
       <c r="Q164" s="7"/>
     </row>
-    <row r="165" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="8" t="s">
         <v>486</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>487</v>
@@ -11557,12 +12077,12 @@
       <c r="P165" s="7"/>
       <c r="Q165" s="7"/>
     </row>
-    <row r="166" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="8" t="s">
         <v>488</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>489</v>
@@ -11608,22 +12128,22 @@
         <v>490</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>491</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E167" s="8" t="s">
         <v>492</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H167" s="8"/>
       <c r="I167" s="8"/>
@@ -11644,7 +12164,7 @@
         <v>493</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>494</v>
@@ -11652,10 +12172,10 @@
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
       <c r="F168" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H168" s="8"/>
       <c r="I168" s="8"/>
@@ -11676,20 +12196,20 @@
         <v>495</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>496</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E169" s="8"/>
       <c r="F169" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H169" s="8"/>
       <c r="I169" s="8"/>
@@ -11710,7 +12230,7 @@
         <v>497</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>498</v>
@@ -11718,10 +12238,10 @@
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
       <c r="F170" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H170" s="8"/>
       <c r="I170" s="8"/>
@@ -11742,20 +12262,20 @@
         <v>499</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>500</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E171" s="8"/>
       <c r="F171" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="8"/>
@@ -11776,7 +12296,7 @@
         <v>501</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>502</v>
@@ -11784,10 +12304,10 @@
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
       <c r="F172" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H172" s="8"/>
       <c r="I172" s="8"/>
@@ -11808,22 +12328,22 @@
         <v>503</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>504</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E173" s="8" t="s">
         <v>505</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H173" s="8"/>
       <c r="I173" s="8"/>
@@ -11844,20 +12364,20 @@
         <v>506</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>507</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E174" s="8"/>
       <c r="F174" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H174" s="8"/>
       <c r="I174" s="8"/>
@@ -11878,20 +12398,20 @@
         <v>508</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>509</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E175" s="8"/>
       <c r="F175" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H175" s="8"/>
       <c r="I175" s="8"/>
@@ -11912,22 +12432,22 @@
         <v>510</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>511</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>512</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H176" s="8"/>
       <c r="I176" s="8"/>
@@ -11948,20 +12468,20 @@
         <v>513</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>514</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E177" s="8"/>
       <c r="F177" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H177" s="8"/>
       <c r="I177" s="8"/>
@@ -11982,20 +12502,20 @@
         <v>515</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>516</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E178" s="8"/>
       <c r="F178" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H178" s="8"/>
       <c r="I178" s="8"/>
@@ -12016,7 +12536,7 @@
         <v>517</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>518</v>
@@ -12024,10 +12544,10 @@
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
       <c r="F179" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H179" s="8"/>
       <c r="I179" s="8"/>
@@ -12048,22 +12568,22 @@
         <v>519</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>520</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E180" s="8" t="s">
         <v>521</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H180" s="8"/>
       <c r="I180" s="8"/>
@@ -12084,7 +12604,7 @@
         <v>522</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>523</v>
@@ -12092,10 +12612,10 @@
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
       <c r="F181" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H181" s="8"/>
       <c r="I181" s="8"/>
@@ -12116,20 +12636,20 @@
         <v>524</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>525</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E182" s="8"/>
       <c r="F182" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H182" s="8"/>
       <c r="I182" s="8"/>
@@ -12150,7 +12670,7 @@
         <v>526</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>527</v>
@@ -12158,10 +12678,10 @@
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
       <c r="F183" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H183" s="8"/>
       <c r="I183" s="8"/>
@@ -12177,25 +12697,25 @@
       <c r="P183" s="7"/>
       <c r="Q183" s="7"/>
     </row>
-    <row r="184" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="8" t="s">
         <v>528</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>529</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E184" s="8"/>
       <c r="F184" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H184" s="8"/>
       <c r="I184" s="8"/>
@@ -12216,22 +12736,22 @@
         <v>530</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>531</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E185" s="8" t="s">
         <v>532</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H185" s="8"/>
       <c r="I185" s="8"/>
@@ -12252,20 +12772,20 @@
         <v>533</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>534</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E186" s="8"/>
       <c r="F186" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H186" s="8"/>
       <c r="I186" s="8"/>
@@ -12286,20 +12806,20 @@
         <v>535</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>536</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E187" s="8"/>
       <c r="F187" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H187" s="8"/>
       <c r="I187" s="8"/>
@@ -12320,22 +12840,22 @@
         <v>537</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>538</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E188" s="8" t="s">
         <v>539</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H188" s="8"/>
       <c r="I188" s="8"/>
@@ -12356,7 +12876,7 @@
         <v>540</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>541</v>
@@ -12364,10 +12884,10 @@
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
       <c r="F189" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H189" s="8"/>
       <c r="I189" s="8"/>
@@ -12388,7 +12908,7 @@
         <v>540</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>541</v>
@@ -12396,10 +12916,10 @@
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
       <c r="F190" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H190" s="8"/>
       <c r="I190" s="8"/>
@@ -12415,25 +12935,25 @@
       <c r="P190" s="7"/>
       <c r="Q190" s="7"/>
     </row>
-    <row r="191" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="8" t="s">
         <v>542</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>543</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E191" s="8"/>
       <c r="F191" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H191" s="8"/>
       <c r="I191" s="8"/>
@@ -12454,7 +12974,7 @@
         <v>544</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>545</v>
@@ -12462,10 +12982,10 @@
       <c r="D192" s="8"/>
       <c r="E192" s="8"/>
       <c r="F192" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H192" s="8"/>
       <c r="I192" s="8"/>
@@ -12481,25 +13001,25 @@
       <c r="P192" s="7"/>
       <c r="Q192" s="7"/>
     </row>
-    <row r="193" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="8" t="s">
         <v>546</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>547</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E193" s="8"/>
       <c r="F193" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="8"/>
@@ -12520,7 +13040,7 @@
         <v>548</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>549</v>
@@ -12551,12 +13071,12 @@
       </c>
       <c r="Q194" s="7"/>
     </row>
-    <row r="195" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="8" t="s">
         <v>550</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>554</v>
@@ -12592,7 +13112,7 @@
         <v>557</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>558</v>
@@ -12623,12 +13143,12 @@
       </c>
       <c r="Q196" s="7"/>
     </row>
-    <row r="197" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="8" t="s">
         <v>559</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>561</v>
@@ -12664,13 +13184,13 @@
         <v>564</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>565</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>566</v>
@@ -12697,12 +13217,12 @@
       </c>
       <c r="Q198" s="7"/>
     </row>
-    <row r="199" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="8" t="s">
         <v>566</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>568</v>
@@ -12738,7 +13258,7 @@
         <v>571</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>572</v>
@@ -12769,12 +13289,12 @@
       </c>
       <c r="Q200" s="7"/>
     </row>
-    <row r="201" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="8" t="s">
         <v>573</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>575</v>
@@ -12810,7 +13330,7 @@
         <v>578</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>579</v>
@@ -12846,7 +13366,7 @@
         <v>580</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>582</v>
@@ -12882,7 +13402,7 @@
         <v>585</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>586</v>
@@ -12913,12 +13433,12 @@
       </c>
       <c r="Q204" s="7"/>
     </row>
-    <row r="205" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="8" t="s">
         <v>587</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>589</v>
@@ -12951,10 +13471,10 @@
     </row>
     <row r="206" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>592</v>
@@ -12966,7 +13486,7 @@
         <v>594</v>
       </c>
       <c r="F206" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G206" s="9" t="s">
         <v>595</v>
@@ -12992,7 +13512,7 @@
         <v>597</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>598</v>
@@ -13002,7 +13522,7 @@
       </c>
       <c r="E207" s="8"/>
       <c r="F207" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G207" s="9" t="s">
         <v>595</v>
@@ -13023,10 +13543,10 @@
     </row>
     <row r="208" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>600</v>
@@ -13036,7 +13556,7 @@
       </c>
       <c r="E208" s="8"/>
       <c r="F208" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G208" s="9" t="s">
         <v>595</v>
@@ -13057,22 +13577,22 @@
     </row>
     <row r="209" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>602</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>603</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G209" s="9" t="s">
         <v>595</v>
@@ -13095,22 +13615,22 @@
     </row>
     <row r="210" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>605</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>606</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G210" s="9" t="s">
         <v>595</v>
@@ -13131,22 +13651,22 @@
     </row>
     <row r="211" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>607</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E211" s="8" t="s">
         <v>608</v>
       </c>
       <c r="F211" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G211" s="9" t="s">
         <v>595</v>
@@ -13167,10 +13687,10 @@
     </row>
     <row r="212" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>609</v>
@@ -13182,7 +13702,7 @@
         <v>610</v>
       </c>
       <c r="F212" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G212" s="9" t="s">
         <v>595</v>
@@ -13205,10 +13725,10 @@
     </row>
     <row r="213" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>612</v>
@@ -13218,7 +13738,7 @@
       </c>
       <c r="E213" s="8"/>
       <c r="F213" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G213" s="9" t="s">
         <v>595</v>
@@ -13239,10 +13759,10 @@
     </row>
     <row r="214" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>613</v>
@@ -13252,7 +13772,7 @@
       </c>
       <c r="E214" s="8"/>
       <c r="F214" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G214" s="9" t="s">
         <v>595</v>
@@ -13276,22 +13796,22 @@
         <v>614</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>615</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>616</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G215" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H215" s="8"/>
       <c r="I215" s="8"/>
@@ -13312,22 +13832,22 @@
         <v>617</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>618</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>619</v>
       </c>
       <c r="F216" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G216" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H216" s="8"/>
       <c r="I216" s="8"/>
@@ -13348,22 +13868,22 @@
         <v>620</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>621</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>622</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G217" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H217" s="8"/>
       <c r="I217" s="8"/>
@@ -13384,22 +13904,22 @@
         <v>623</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>624</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E218" s="8" t="s">
         <v>625</v>
       </c>
       <c r="F218" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G218" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H218" s="8"/>
       <c r="I218" s="8"/>
@@ -13422,22 +13942,22 @@
         <v>627</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>628</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E219" s="8" t="s">
         <v>629</v>
       </c>
       <c r="F219" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G219" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H219" s="8"/>
       <c r="I219" s="8"/>
@@ -13458,22 +13978,22 @@
         <v>630</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>631</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E220" s="8" t="s">
         <v>632</v>
       </c>
       <c r="F220" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G220" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H220" s="8"/>
       <c r="I220" s="8"/>
@@ -13494,22 +14014,22 @@
         <v>633</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>634</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E221" s="8" t="s">
         <v>635</v>
       </c>
       <c r="F221" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G221" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H221" s="8"/>
       <c r="I221" s="8"/>
@@ -13532,22 +14052,22 @@
         <v>637</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C222" s="8" t="s">
         <v>638</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>639</v>
       </c>
       <c r="F222" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G222" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H222" s="8"/>
       <c r="I222" s="8"/>
@@ -13565,8 +14085,1159 @@
       </c>
       <c r="Q222" s="7"/>
     </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F223" s="0"/>
+      <c r="H223" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="K223" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="M223" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="N223" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="R223" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="R225" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="R226" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="R228" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="R229" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="R230" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="R231" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="R232" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="R233" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="R234" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="R235" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q236" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="R236" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C237" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q237" s="0"/>
+    </row>
+    <row r="238" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C238" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="R238" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C239" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="R239" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C240" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q241" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="R241" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="B242" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C242" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q242" s="0"/>
+      <c r="R242" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="B243" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C243" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q243" s="0"/>
+      <c r="R243" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="R244" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="R245" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="R246" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="R247" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="R248" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="R249" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D250" s="0"/>
+      <c r="E250" s="0"/>
+      <c r="R250" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D251" s="0"/>
+      <c r="E251" s="0"/>
+      <c r="R251" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D252" s="0"/>
+      <c r="E252" s="0"/>
+      <c r="R252" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D253" s="0"/>
+      <c r="E253" s="0"/>
+      <c r="R253" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D254" s="0"/>
+      <c r="E254" s="0"/>
+      <c r="R254" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D255" s="0"/>
+      <c r="E255" s="0"/>
+      <c r="R255" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C256" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="R256" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="R257" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="R258" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="R259" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="R260" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="R261" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="R262" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="R263" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="R264" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="R265" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="R266" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="R267" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="R268" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="R269" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="R270" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="Q271" s="16" t="s">
+        <v>748</v>
+      </c>
+      <c r="R271" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="R272" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="R273" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="R274" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="R275" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="R276" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C281" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="H285" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I285" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="K285" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L285" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="M285" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="N285" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q222"/>
+  <autoFilter ref="A1:Q276"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -13586,422 +15257,476 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.8673469387755"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.8673469387755"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.8673469387755"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>640</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="13" t="s">
-        <v>641</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="13" t="s">
-        <v>642</v>
-      </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="14"/>
+      <c r="A1" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>644</v>
+        <v>782</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="C2" s="14"/>
+        <v>783</v>
+      </c>
+      <c r="C2" s="18"/>
       <c r="D2" s="8" t="s">
-        <v>646</v>
+        <v>784</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="F2" s="14"/>
+        <v>785</v>
+      </c>
+      <c r="F2" s="18"/>
       <c r="G2" s="8" t="s">
-        <v>648</v>
+        <v>766</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="I2" s="14"/>
+        <v>786</v>
+      </c>
+      <c r="I2" s="18"/>
       <c r="J2" s="8" t="s">
-        <v>650</v>
+        <v>787</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="L2" s="14"/>
+        <v>788</v>
+      </c>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>652</v>
+        <v>789</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="C3" s="14"/>
+        <v>790</v>
+      </c>
+      <c r="C3" s="18"/>
       <c r="D3" s="8" t="s">
-        <v>648</v>
+        <v>766</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="F3" s="14"/>
+        <v>791</v>
+      </c>
+      <c r="F3" s="18"/>
       <c r="G3" s="8" t="s">
-        <v>655</v>
+        <v>770</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="I3" s="14"/>
+        <v>792</v>
+      </c>
+      <c r="I3" s="18"/>
       <c r="J3" s="8" t="s">
-        <v>657</v>
+        <v>793</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>794</v>
+      </c>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="C4" s="14"/>
+        <v>795</v>
+      </c>
+      <c r="C4" s="18"/>
       <c r="D4" s="8" t="s">
-        <v>655</v>
+        <v>770</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="F4" s="14"/>
+        <v>796</v>
+      </c>
+      <c r="F4" s="18"/>
       <c r="G4" s="8" t="s">
-        <v>661</v>
+        <v>797</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="I4" s="14"/>
+        <v>798</v>
+      </c>
+      <c r="I4" s="18"/>
       <c r="J4" s="8" t="s">
-        <v>663</v>
+        <v>799</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>800</v>
+      </c>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>665</v>
+        <v>801</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="C5" s="14"/>
+        <v>802</v>
+      </c>
+      <c r="C5" s="18"/>
       <c r="D5" s="8" t="s">
-        <v>667</v>
+        <v>803</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="F5" s="14"/>
+        <v>804</v>
+      </c>
+      <c r="F5" s="18"/>
       <c r="G5" s="8" t="s">
-        <v>669</v>
+        <v>805</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="14"/>
+        <v>806</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>671</v>
+        <v>807</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="C6" s="14"/>
+        <v>808</v>
+      </c>
+      <c r="C6" s="18"/>
       <c r="D6" s="8" t="s">
-        <v>673</v>
+        <v>809</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>674</v>
-      </c>
-      <c r="F6" s="14"/>
+        <v>810</v>
+      </c>
+      <c r="F6" s="18"/>
       <c r="G6" s="8" t="s">
-        <v>675</v>
+        <v>811</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>812</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>677</v>
+        <v>813</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="C7" s="14"/>
+        <v>814</v>
+      </c>
+      <c r="C7" s="18"/>
       <c r="D7" s="8" t="s">
-        <v>679</v>
+        <v>815</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+        <v>816</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>681</v>
+        <v>818</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="C8" s="14"/>
+        <v>819</v>
+      </c>
+      <c r="C8" s="18"/>
       <c r="D8" s="8" t="s">
-        <v>683</v>
+        <v>820</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>821</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>685</v>
+        <v>823</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="C9" s="14"/>
+        <v>824</v>
+      </c>
+      <c r="C9" s="18"/>
       <c r="D9" s="8" t="s">
-        <v>687</v>
+        <v>825</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>826</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>689</v>
+        <v>828</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="C10" s="14"/>
+        <v>829</v>
+      </c>
+      <c r="C10" s="18"/>
       <c r="D10" s="8" t="s">
-        <v>691</v>
+        <v>830</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>831</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>693</v>
+        <v>833</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="C11" s="14"/>
+        <v>834</v>
+      </c>
+      <c r="C11" s="18"/>
       <c r="D11" s="8" t="s">
-        <v>695</v>
+        <v>835</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+        <v>836</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>697</v>
+        <v>838</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="C12" s="14"/>
+        <v>839</v>
+      </c>
+      <c r="C12" s="18"/>
       <c r="D12" s="8" t="s">
-        <v>699</v>
+        <v>840</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+        <v>841</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>701</v>
+        <v>843</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="C13" s="14"/>
+        <v>844</v>
+      </c>
+      <c r="C13" s="18"/>
       <c r="D13" s="8" t="s">
-        <v>703</v>
+        <v>845</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+        <v>846</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>705</v>
+        <v>847</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="C14" s="14"/>
+        <v>848</v>
+      </c>
+      <c r="C14" s="18"/>
       <c r="D14" s="8" t="s">
-        <v>707</v>
+        <v>849</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+        <v>850</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>709</v>
+        <v>851</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="C15" s="14"/>
+        <v>852</v>
+      </c>
+      <c r="C15" s="18"/>
       <c r="D15" s="8" t="s">
-        <v>711</v>
+        <v>853</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+        <v>854</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="8" t="s">
-        <v>675</v>
+        <v>811</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+        <v>855</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="8" t="s">
-        <v>714</v>
+        <v>856</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+        <v>857</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>865</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/vignettes/definicje_zmiennych.xlsx
+++ b/vignettes/definicje_zmiennych.xlsx
@@ -5,17 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="zmienne" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="schemat" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="do MNiSW" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">zmienne!$A$1:$Q$276</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">zmienne!$A$1:$P$236</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">zmienne!$A$1:$Q$276</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">zmienne!$A$1:$P$236</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">zmienne!$A$1:$Q$273</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">zmienne!$A$1:$P$234</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">zmienne!$A$1:$Q$273</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">zmienne!$A$1:$P$234</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$222</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$221</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$222</definedName>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="1145">
   <si>
     <t xml:space="preserve">zmienna</t>
   </si>
@@ -2073,36 +2074,6 @@
     <t xml:space="preserve">PM_B_N, PPOW_B_N</t>
   </si>
   <si>
-    <t xml:space="preserve">ETAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etap kariery naukowej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pozostałe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMGR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROF</t>
-  </si>
-  <si>
     <t xml:space="preserve">DATA_OD</t>
   </si>
   <si>
@@ -2139,27 +2110,12 @@
     <t xml:space="preserve">dyscyplina danego etapu kariery naukowej</t>
   </si>
   <si>
-    <t xml:space="preserve">DYSC_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZIE_ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">dziedzina danego etapu kariery naukowej</t>
   </si>
   <si>
-    <t xml:space="preserve">OBSZ_ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">obszar danego etapu kariery naukowej</t>
   </si>
   <si>
-    <t xml:space="preserve">UCZELNIA_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uczelnia, na której odbywał się dany poziom kariery naukowej</t>
-  </si>
-  <si>
     <t xml:space="preserve">JEDNOSTKA_ID</t>
   </si>
   <si>
@@ -2169,7 +2125,8 @@
     <t xml:space="preserve">IF_WTERMINIE</t>
   </si>
   <si>
-    <t xml:space="preserve">czy dany poziom studiów zakończony w terminie [do odczytania z informacji o kierunku studiów]</t>
+    <t xml:space="preserve">czy dany poziom studiów zakończony w terminie
+Za terminowy uważamy „liczbaMiesiecyStudiow / 6 &lt; nominalnaLiczbaSemestrow + 1”</t>
   </si>
   <si>
     <t xml:space="preserve">dotyczy tylko studiów (póki co tylko doktoranckich)</t>
@@ -2211,9 +2168,6 @@
     <t xml:space="preserve">czy pierwszy stopień doktora uzyskany po  zakończeniu (zdau.typ == ‘A’) studiów doktoranckich na tym samym kierunku i w tej samej jednostce</t>
   </si>
   <si>
-    <t xml:space="preserve">dowolnych, czy na tej samej uczelni/jednostce albo kierunku/dziedzinie/dyscyplinie?</t>
-  </si>
-  <si>
     <t xml:space="preserve">ROK_POW_DR</t>
   </si>
   <si>
@@ -2226,55 +2180,58 @@
     <t xml:space="preserve">miesiąc uzyskania doktoratu powiązanego z danym kierunkiem studiów doktoranckich</t>
   </si>
   <si>
-    <t xml:space="preserve">NPB_ZGL</t>
+    <t xml:space="preserve">NPROJ_ZGL</t>
   </si>
   <si>
     <t xml:space="preserve">liczba zgłoszonych projektów badawczych, w których jest kierownikiem</t>
   </si>
   <si>
-    <t xml:space="preserve">NPB_FIN</t>
+    <t xml:space="preserve">oblicz_projekty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPROJ_FIN</t>
   </si>
   <si>
     <t xml:space="preserve">liczba projektów badawczych, które uzyskały finansowanie, w których jest kierownikiem</t>
   </si>
   <si>
-    <t xml:space="preserve">NPB_ROZP</t>
+    <t xml:space="preserve">NPROJ_ROZP</t>
   </si>
   <si>
     <t xml:space="preserve">liczba rozpoczętych projektów badawczych, w których jest kierownikiem</t>
   </si>
   <si>
-    <t xml:space="preserve">SFPB_ROZP</t>
+    <t xml:space="preserve">SFPROJ_ROZP</t>
   </si>
   <si>
     <t xml:space="preserve">suma dofinansowania rozpoczętych projektów badawczych, w których jest kierownikiem</t>
   </si>
   <si>
-    <t xml:space="preserve">NPB_ZAK</t>
+    <t xml:space="preserve">NPROJ_ZAK</t>
   </si>
   <si>
     <t xml:space="preserve">liczba zakończonych projektów badawczych, w których jest kierownikiem</t>
   </si>
   <si>
-    <t xml:space="preserve">NPB_ROZL</t>
+    <t xml:space="preserve">NPROJ_ROZL</t>
   </si>
   <si>
     <t xml:space="preserve">liczba rozliczonych projektów badawczych, w których jest kierownikiem</t>
   </si>
   <si>
-    <t xml:space="preserve">PPB_ZGL</t>
+    <t xml:space="preserve">EPROJ_ZGL</t>
   </si>
   <si>
     <t xml:space="preserve">NPB_ZGL / LEN</t>
   </si>
   <si>
-    <t xml:space="preserve">PPB_FIN</t>
+    <t xml:space="preserve">EPROJ_FIN</t>
   </si>
   <si>
     <t xml:space="preserve">NPB_FIN / LEN</t>
   </si>
   <si>
-    <t xml:space="preserve">PPB_ROZP</t>
+    <t xml:space="preserve">EPROJ_ROZP</t>
   </si>
   <si>
     <t xml:space="preserve">NPB_ROZP / LEN</t>
@@ -2286,19 +2243,19 @@
     <t xml:space="preserve">SFPB_ROZP / LEN</t>
   </si>
   <si>
-    <t xml:space="preserve">PPB_ZAK</t>
+    <t xml:space="preserve">EPROJ_ZAK</t>
   </si>
   <si>
     <t xml:space="preserve">NPB_ZAK / LEN</t>
   </si>
   <si>
-    <t xml:space="preserve">PPB_ROZL</t>
+    <t xml:space="preserve">EPROJ_ROZL</t>
   </si>
   <si>
     <t xml:space="preserve">NPB_ROZL / LEN</t>
   </si>
   <si>
-    <t xml:space="preserve">PFPB</t>
+    <t xml:space="preserve">PFPROJ</t>
   </si>
   <si>
     <t xml:space="preserve">procent okienka, w jakim miał finansowanie z projektów badawczych
@@ -2341,7 +2298,7 @@
     <t xml:space="preserve">NM_EN / LEN</t>
   </si>
   <si>
-    <t xml:space="preserve">EZ_ZA</t>
+    <t xml:space="preserve">EZ_ZN</t>
   </si>
   <si>
     <t xml:space="preserve">SZ_ZN / NM_ZN</t>
@@ -2406,7 +2363,7 @@
 W 1 roku po uzyskaniu tytułu</t>
   </si>
   <si>
-    <t xml:space="preserve">NPM_NAE</t>
+    <t xml:space="preserve">NPM_ENN</t>
   </si>
   <si>
     <t xml:space="preserve">NPM_E – NPM_EN</t>
@@ -2415,28 +2372,25 @@
     <t xml:space="preserve">NPM_E, NPM_EN</t>
   </si>
   <si>
-    <t xml:space="preserve">EPM_NAE</t>
+    <t xml:space="preserve">EPM_ENN</t>
   </si>
   <si>
     <t xml:space="preserve">(NPM_E – NPM_EN) / LEN</t>
   </si>
   <si>
+    <t xml:space="preserve">NM_ZNNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy zatrudnienia w nauce i poza nauką</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PN_ZNNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_ZNPN / LEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">NM_ZNPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liczba miesięcy zatrudnienia w nauce i poza nauką</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PN_ZNPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NM_ZNPN / LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF_ZNPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NM_ZNPN &gt; 0</t>
   </si>
   <si>
     <t xml:space="preserve">CZY_PESEL</t>
@@ -2482,6 +2436,15 @@
     <t xml:space="preserve">JM</t>
   </si>
   <si>
+    <t xml:space="preserve">DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROF</t>
+  </si>
+  <si>
     <t xml:space="preserve">ISM_ID</t>
   </si>
   <si>
@@ -2494,6 +2457,55 @@
     <t xml:space="preserve">ROK_UR</t>
   </si>
   <si>
+    <t xml:space="preserve">KIERUNEK_NAZWA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pełna nazwa kierunku do użycia w szablonie raportu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LICZBA_SEMESTROW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nominalna długość studiów w semestrach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUBL_ETAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publikacje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etap kariery naukowej odpowiadający momentowi wydania danej publikacji (SLIC/SMGR/SDR/DR/HB/PROF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">przygotuj_publikacje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POM_ETAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pomoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etap kariery naukowej odpowiadający rozpoczęciu przyjmowania danej pomocy socjalnej (SLIC/SMGR/SDR/DR/HB/PROF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">przygotuj_pomoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROJ_ETAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">projekty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etap kariery naukowej odpowiadający danemu projektowi (SLIC/SMGR/SDR/DR/HB/PROF)
+Obliczany na podstawie momentu rozpoczęcia projektu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">przygotuj_projekty</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. człon – rodzaj zmiennej</t>
   </si>
   <si>
@@ -2611,6 +2623,9 @@
     <t xml:space="preserve">brak danych ZUS</t>
   </si>
   <si>
+    <t xml:space="preserve">SLIC</t>
+  </si>
+  <si>
     <t xml:space="preserve">okres ukończonych jako pierwsze studiów licencjackich</t>
   </si>
   <si>
@@ -2626,6 +2641,9 @@
     <t xml:space="preserve">macierzyński/tacierzyński</t>
   </si>
   <si>
+    <t xml:space="preserve">SMGR</t>
+  </si>
+  <si>
     <t xml:space="preserve">okres ukończonych jako pierwsze studiów magisterskich</t>
   </si>
   <si>
@@ -2641,6 +2659,9 @@
     <t xml:space="preserve">mundurowy</t>
   </si>
   <si>
+    <t xml:space="preserve">SDR</t>
+  </si>
+  <si>
     <t xml:space="preserve">okres ukończonych jako pierwsze studiów doktoranckich</t>
   </si>
   <si>
@@ -2725,6 +2746,12 @@
     <t xml:space="preserve">bez etatu</t>
   </si>
   <si>
+    <t xml:space="preserve">NPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba etatodawcomiesięcy</t>
+  </si>
+  <si>
     <t xml:space="preserve">student</t>
   </si>
   <si>
@@ -2746,16 +2773,884 @@
     <t xml:space="preserve">etat w nauce</t>
   </si>
   <si>
-    <t xml:space="preserve">ZNPN</t>
+    <t xml:space="preserve">ZNNN</t>
   </si>
   <si>
     <t xml:space="preserve">etat/netat jednocześnie w nauce i poza nauką</t>
   </si>
   <si>
-    <t xml:space="preserve">ZPN</t>
+    <t xml:space="preserve">ZNN</t>
   </si>
   <si>
     <t xml:space="preserve">etat/netat poza nauką</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eta/samozatrudnienie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zmienna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wartość</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uwagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Znacznik informujący o tym, czy osoba jest cudzoziemcem.
+0: Osoba nie jest cudzoziemcem;
+1: Cudzoziemiec.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer 
+{0|1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zmienna określająca sposób identyfikowania osoby w zbiorze.
+0: Dokument tożsamości inny niż paszport. Brak PESEL;
+1: PESEL (wyłącznie);
+2: Paszport (wyłącznie);
+3: PESEL i paszport (równocześnie).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer 
+{0|1|2|3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data zakończenia danego etapu kariery naukowej w miesiącach
+(ROK_OD * 12 + MIES_OD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data rozpoczęcia danego etapu kariery naukowej w miesiącach
+(ROK_OD * 12 + MIES_OD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data uzyskania doktoratu w tej samej dziedzinie i jednostce w miesiącach
+(ROK_POR_DR * 12 + MIES_POW_DR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tylko gdy POZIOM=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data skreślenia ze studiów doktoranckich w miesiącach
+(ROK_SKR * 12 + MIES_SKR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doświadczenie pracy na etacie lub samozatrudnienia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer {0|1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numer identyfikacyjny dyscypliny uzyskanego stopnia lub tytułu naukowego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unikalny identyfikator dyscypliny.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kod dyscypliny, w której uzyskano dany tytuł naukowy (etapy DR, HAB, PROF) lub zakończono dane studia (etapy SLIC, SMGR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kariera,
+Brak danych dla etapu SDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kod dziedziny, w której uzyskano dany tytuł naukowy (etapy DR, HAB, PROF) lub zakończono dane studia (etapy SLIC, SMGR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia roczna suma finansowania projektów badawczych rozpoczętych w danym okresie/na danym etapie kariery, w których badany był kierownikiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia roczna liczba nowych pracodawców na etat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okienko, kariera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia roczna liczba nowych pracodawców na nieetat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia roczna liczba utrat pracy na etacie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia roczna liczba utrat pracy na etacie, gdzie płatnik składek uległ likwidacji w przeciągu kolejnych 6 miesięcy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia roczna liczba utrat pracy na etacie, gdzie płatnik składek nie uległ likwidacji w przeciągu kolejnych 6 miesięcy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia liczba pracodawców na etat w miesiącu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia miesięczna liczba pracoawców na etat będących instytucjami naukowymi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia miesięczna liczba pracodawców na etat niebędących instytucjami naukowymi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia roczna liczba projektów badawczych, w których badany był kierownikiem, a które uzyskały finansowanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia roczna liczba rozliczonych projektów badawczych, które rozpoczęły się w danym okresie/na danym etapie kariery, a których badany był kierownikiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia roczna liczba projektów badawczych rozpoczętych w danym okresie/na danym etapie kariery, w których badany był kierownikiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia roczna liczba zakończonych projektów badawczych, które rozpoczęły się w danym okresie/na danym etapie kariery, a których badany był kierownikiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia roczna liczba zgłoszonych projektów badawczych, w których badany był kierownikiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnie miesięczne zarobki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnie miesięczne zarobki z pracy na etacie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnie miesięczne zarobki na etacie w instytucjach naukowych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnie miesięczne zarobki z pracy na etacie bądź nieetacie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnie miesięczne zarobki na etacie i nieetacie w instytucjach naukowych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia miesięczna wysokość  pomocy materialnej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZPOM_DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia miesięczna wysokość stypendium doktorskiego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZPOM_NAJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia miesięczna wysokość stypendium dla najlepszych doktorantów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZPOM_NSPRAW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia miesięczna wysokość stypendium dla osób niepełnosprawnych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZPOM_SDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia miesięczna wysokość stypendium doktoranckiego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZPOM_STYPSOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia miesięczna wysokość stypendium socjalnego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZPOM_WYB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia miesięczna wysokość stypendium ministra za wybitne osiągnięcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZPOM_ZAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia miesięczna wysokość zapomogi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZPOM_ZSDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia miesięczna wysokość zwiększonego stypendium doktoranckiego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnie miesięczne zarobki w powiecie zamieszkania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnie miesięczne zarobki w powiecie zamieszkania obliczane tylko dla miesięcy, w których badany pracował na etacie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnie miesięczne zarobki w powiecie zamieszkania obliczane tylko dla miesięcy, w których badany pracował na etacie bądź nieetacie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kod identyfikacyjny formy studiów (wspólny klucz kodowy dla całej Polski).
+S: Studia stacjonarne;
+N: Studia niestacjonarne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text 
+{S|N}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kod osoby badanej (przekształcony PESEL albo rodzaj, numer i kraj wydania innego dokumentu tożsamości)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identyfikator rekordu w zbiorze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czy doświadczył bezrobocia
+(brak danych ZUS liczony jako bycie bezrobotnym)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czy doświadczył bezrobocia
+(brak danych ZUS nieliczony jako bycie bezrobotnym)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czy doktorat uzyskany po studiach doktoranckich w tej samej dziedzinie i jednostce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tylko gdy POZIOM=DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czy doświadczył pracy na etacie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czy doświadczył zatrudnienia na etat w instytucji naukowej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF_ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czy doświadczył pracy na etacie bądź samozatrudnienia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czy doświadczył pracy w służbach mundurowych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czy doświadczył pracy na etacie/nieetacie bądź samozatrudnienia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czy doświadczył samozatrudnienia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czy zatrudniony na etat w tej samej jednotce, w której uzyskał dany tytuł naukowy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czy studia ukończone w terminie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kariera,
+Brak danych dla etapów DR, HAB, PROF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czy doświadczył zatrudnienia na etat/nieetat w instytucji naukowej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identyfikator „łącznika kierunków” przy indywidualnych studiach międzyobszarowych.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numer identyfikacyjny jednostki prowadzącej studia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wewnętrzny, niezmienny numer jednostki.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kod obszaru, w której uzyskano dany tytuł naukowy (etapy DR, HAB, PROF) lub prowadzono dane studia (etapy SLIC, SMGR, SDR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numer identyfikacyjny kierunku studiów.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unikalny identyfikator kierunku studiów.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kod kierunku studiów odpowiadającego danemu etapowi kariery naukowej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kariera,
+Tylko dla etapów SLIC, SMGR, SDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Długość okresu/etapu kariery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miesiąc uzyskania dyplomu/stopnia/tytułu, gdy TYP = A, czyli absolwent.
+Gdy pole wypełnione, a TYP = S (student), oznacza to, że student został skreślony nie ukończywszy studiów.Integer [1-12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer 
+[1-12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miesiąc zakończenia danego etapu kariery naukowej w miesiącach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer [0-12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miesiąc rozpoczęcia studiów.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miesiąc rozpoczęcia danego etapu kariery naukowej w miesiącach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miesiąc uzyskania doktoratu w tej samej dziedzinie i jednostce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miesiąc skreślenia ze studiów doktoranckich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_ART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba opublikowanych artykułów recenzowanych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_ART_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba artykułów recenzowanych opublikowanych w pismach z listy A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_ART_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba artykułów recenzowanych opublikowanych w pismach z listy B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_ART_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba artykułów recenzowanych opublikowanych w pismach z listy C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_ART_SAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba opublikowanych samodzielnie artykułów recenzowanych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_ART_SAM_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba artykułów recenzowanych opublikowanych samodzielnie w pismach z listy A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_ART_SAM_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba artykułów recenzowanych opublikowanych samodzielnie w pismach z listy B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_ART_SAM_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba artykułów recenzowanych opublikowanych samodzielnie w pismach z listy C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba opublikowanych recenzowanych książek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_ROZDZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba opublikowanych recenzowanych rozdziałów w książkach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy bycia bezrobotnym
+(brak danych ZUS liczony jako bycie bezrobotnym)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy bycia bezrobotnym
+(brak danych ZUS nieliczony jako bycie bezrobotnym)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy na urlopie macierzyńskim/ojcowskim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy na etacie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy pracy na etacie w instytucjach naukowych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy z innym tytułem składek ZUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy pracy jako aplikant/sędzia/prokurator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy pracy w służbach mundurowych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy pracy na nieetacie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy pracy na etacie/nieetacie bądź samozatrudnienia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy samozatrudnienia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy pracy na etacie bądź nieetacie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy pracy na etacie/nieetacie w instytucjach naukowych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy pracy na etat/nieetat jednocześnie w instytucji naukowej i pracodawcy niebędącego instytucją naukową</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMPOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy otrzymywania jakiejkolwiek pomocy materialnej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMPOM_DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy otrzymywania stypendium doktorskiego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMPOM_NAJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy otrzymywania stypendium dla najlepszych doktorantów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMPOM_NSPRAW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy otrzymywania stypendium dla osób niepełnosprawnych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMPOM_SDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy otrzymywania stypendium doktoranckiego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMPOM_STYPSOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy otrzymywania stypendium socjalnego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMPOM_WYB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy otrzymywania stypendium ministra za wybitne osiągnięcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMPOM_ZAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy otrzymywania zapomogi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMPOM_ZSDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba miesięcy otrzymywania zwiększonego stypendium doktoranckiego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba pracodawców na etat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba pracodawców na etat będących instytucjami naukowymi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba pracodawców na nieetat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba pracodawców na etat i nieetat będących instytucjami naukowymi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba etatotodawcomiesięcy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba etatotodawcomiesięcy w instytucjach naukowych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba etatotodawcomiesięcy u pracodawców niebędących instytucjami naukowymi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba nowych pracodawców na etat
+(nowy to taki, który nie wystąpił przed momentem rozpoczęcia danego okresu / etapu kariery)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba nowych pracodawców na nieetat
+(nowy to taki, który nie wystąpił przed momentem rozpoczęcia danego okresu / etapu kariery)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba projektów badawczych, w których badany był kierownkiem, a które uzyskały finansowanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba rozliczonych projektów badawczych, które rozpoczęły się w danym okresie/na danym etapie kariery, a których badany był kierownikiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba projektów badawczych rozpoczętych w danym okresie/na danym etapie kariery, w których badany był kierownikiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba zakończonych projektów badawczych, które rozpoczęły się w danym okresie/na danym etapie kariery, a których badany był kierownikiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba zgłoszonych projektów badawczych, w których badany był kierownkiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kod obszaru, w której uzyskano dany tytuł naukowy (etapy DR, HAB, PROF) lub zakończono dane studia (etapy SLIC, SMGR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy, w których badany był finansowany z projektów badawczych, których był kierownikiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PKT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma punktów za wszystkie publikacje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PKT_ART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma punktów za opublikowane artykuły recenzowane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PKT_ART_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma punktów za artykuły recenzowane opublikowane w czasopismach z listy A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PKT_ART_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma punktów za artykuły recenzowane opublikowane w czasopismach z listy B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PKT_ART_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma punktów za artykuły recenzowane opublikowane w czasopismach z listy C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Płeć badanej osoby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text 
+{K|M}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy na bezrobociu
+(brak danych ZUS uznajemy za bezrobocie)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy na bezrobociu
+(braku danych ZUS nie uznajemy za bezrobocie)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy bez danych z ZUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy bez etatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy bez etatu/nieetatu i samozatrudnienia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy na urlopie macierzyńskim/ojcowskim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy na etacie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy pracy na etacie w instytucjach naukowych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy z inną składką ZUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy na nieetacie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy na etacie/nieetacie lub samozatrudnieniu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy na samozatrudnieniu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy pracy na etacie/nieetacie w instytucjach naukowych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMPOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy otrzymywania jakiejkolwiek pomocy materialnej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMPOM_DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy otrzymywania stypendium doktorskiego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMPOM_NAJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy otrzymywania stypendium dla najlepszych doktorantów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMPOM_NSPRAW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy otrzymywania stypendium dla osób niepełnosprawnych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMPOM_SDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy otrzymywania stypendium doktoranckiego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMPOM_STYPSOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy otrzymywania stypendium socjalnego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMPOM_WYB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy otrzymywania stypendium ministra za wybitne osiągnięcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMPOM_ZAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy otrzymywania zapomogi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMPOM_ZSDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy otrzymywania zwiększonego stypendium doktoranckiego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent miesięcy pracy na etat/nieetat jednocześnie w instytucji naukowej i pracodawcy niebędącego instytucją naukową</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numer identyfikacyjny poziomu studiów (wspólny klucz kodowy dla całej Polski).
+1: Poziom pierwszy;
+2: Poziom drugi;
+3: Poziom trzeci (studia doktoranckie)
+JM: Jednolite magisterskie;
+DR: Uzyskanie doktoratu
+HAB: Uzyskanie habilitacji
+PROF: Uzyskanie tytułu profesora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text 
+{1|2|3|JM|DR|HAB|PROF}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzyskanie stopnia doktora w wyniku studiów doktoranckich zapisywane jest w postaci dwóch rekordów:
+kod „3” – o fakcie studiowania na studiach doktoranckich;
+kod „DR” – o fakcie uzyskania stopnia doktora.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procent pracodawców, gdzie zatrudnieniem był etat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnia stopa bezrobocia w powiecie zamieszkania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROFIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numer identyfikacyjny profilu kształcenia (wspólny klucz kodowy dla całej Polski).
+P: Profil praktyczny;
+O: Profil ogólnoakademicki;
+N: Profil nieznany.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text
+{P|O|N}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rok uzyskania dyplomu/stopnia/tytułu, gdy TYP = A, czyli absolwent.
+Gdy pole wypełnione, a TYP = S (student), oznacza to, że student został skreślony nie ukończywszy studiów.Integer [1-12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rok zakończenia danego etapu kariery naukowej w miesiącach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rok rozpoczęcia studiów.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rok rozpoczęcia danego etapu kariery naukowej w miesiącach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rok uzyskania doktoratu w tej samej dziedzinie i jednostce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rok skreślenia ze studiów doktoranckich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rok urodzenia badanej osoby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma finansowania projektów badawczych rozpoczętych w danym okresie/na danym etapie kariery, w których badany był kierownikiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma zarobków</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma zarobków z pracy na etacie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma zarobów z etatu w instytucjach naukowych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma zarobków z pracy na etacie/nieetacie lub samozatrudnienia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma zarobków z samozatrudnienia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma zarobków z pracy na etacie/nieetacie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma zarobów z etatu i nieetatu w instytucjach naukowych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZPOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma otrzymanej pomocy materialnej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZPOM_DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma otrzymanego stypendium doktorskiego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZPOM_NAJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma otrzymanego stypendium dla najlepszych doktorantów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZPOM_NSPRAW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma otrzymanego stypendium dla osób niepełnosprawnych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZPOM_SDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma otrzymanego stypendium doktoranckiego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZPOM_STYPSOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma otrzymanego stypendium socjalnego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZPOM_WYB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma otrzymanego stypendium ministra za wybitne osiągnięcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZPOM_ZAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma otrzymanego zapomogi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZPOM_ZSDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma otrzymanego zwiększonego stypendium doktoranckiego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czas w miesiącach do podejęcia pierwszej pracy etatowej od zakończenia danych studiów/uzyskania danego tytułu naukowego.
+Wartość 0 tylko gdy utrzymał pracę o tym samym charakterze u tego samego pracodawcy w kolejnym miesiącu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max(0, TP_J2 – 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czas w miesiącach do podejęcia pierwszej pracy jako aplikant/sędzia/prokurator od zakończenia danych studiów/uzyskania danego tytułu naukowego.
+Wartość 0 tylko gdy utrzymał pracę o tym samym charakterze u tego samego pracodawcy w kolejnym miesiącu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czas w miesiącach do podejęcia pierwszej pracy w służbach mundurowych od zakończenia danych studiów/uzyskania danego tytułu naukowego.
+Wartość 0 tylko gdy utrzymał pracę o tym samym charakterze u tego samego pracodawcy w kolejnym miesiącu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czas w miesiącach do podejęcia pierwszej pracy na etat/netat lub samozatrudnienia od zakończenia danych studiów/uzyskania danego tytułu naukowego.
+Wartość 0 tylko gdy utrzymał pracę o tym samym charakterze u tego samego pracodawcy w kolejnym miesiącu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czas w miesiącach do podjęcia pierwszego samozatrudnienia od zakończenia danych studiów/uzyskania danego tytułu naukowego.
+Wartość 0 tylko gdy utrzymał samozatrudnienie w kolejnym miesiącu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czas w miesiącach do podejęcia pierwszej pracy na etat/netat od zakończenia danych studiów/uzyskania danego tytułu naukowego.
+Wartość 0 tylko gdy utrzymał pracę o tym samym charakterze u tego samego pracodawcy w kolejnym miesiącu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informacja, czy rekord wskazuje na absolwenta czy na studenta.
+A: Absolwent;
+S: Student.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text 
+{A|S}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dla POZIOM=”DR” lub „HAB” lub „PROF” – „A”
+Dla ukończonych studiów doktoranckich bez uzyskania stopnia doktora – „A”
+Dla nieukończonych studiów doktoranckich – „S”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba przypadków utraty pracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba przypadków utraty pracy, gdzie płatnik uległ likwidacji w okresie kolejnych 6 miesięcy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba przypadków utraty pracy, gdzie płatnik nie uległ likwidacji w okresie kolejnych 6 miesięcy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zarobki z pracy na etacie względem średnich zarobków w powiecie zamieszkania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zarobki z pracy na etat/netat względem średnich zarobków w powiecie zamieszkania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryzyko bezrobocia względem stopy bezrobocia w powiecie zamieszkania</t>
   </si>
 </sst>
 </file>
@@ -2766,13 +3661,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2795,23 +3689,27 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRoman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2834,6 +3732,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -2890,7 +3794,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2947,19 +3851,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2968,6 +3876,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3001,7 +3917,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFEEEEEE"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF99FFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -3052,12 +3968,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMH294"/>
+  <dimension ref="A1:AMH295"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G221" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="G218" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A240" activeCellId="0" sqref="A240"/>
+      <selection pane="bottomLeft" activeCell="A223" activeCellId="1" sqref="A1:D195 A223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14086,7 +15002,7 @@
       <c r="Q222" s="7"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="13" t="s">
         <v>640</v>
       </c>
       <c r="B223" s="1" t="s">
@@ -14095,55 +15011,36 @@
       <c r="C223" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="F223" s="0"/>
-      <c r="H223" s="1" t="s">
+      <c r="F223" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="I223" s="1" t="s">
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="14" t="s">
         <v>644</v>
       </c>
-      <c r="J223" s="1" t="s">
+      <c r="B224" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="R224" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="14" t="s">
         <v>645</v>
       </c>
-      <c r="K223" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="L223" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="M223" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="R223" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="13" t="s">
-        <v>650</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="B225" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>271</v>
@@ -14153,45 +15050,45 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
-        <v>655</v>
+      <c r="A226" s="13" t="s">
+        <v>646</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="F226" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F227" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="R226" s="1" t="n">
+      <c r="R227" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="13" t="s">
-        <v>656</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="s">
-        <v>658</v>
+      <c r="A228" s="14" t="s">
+        <v>649</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>271</v>
@@ -14201,17 +15098,17 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="s">
-        <v>659</v>
+      <c r="A229" s="13" t="s">
+        <v>650</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="F229" s="2" t="s">
-        <v>271</v>
+        <v>643</v>
       </c>
       <c r="R229" s="1" t="n">
         <v>1</v>
@@ -14219,287 +15116,288 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="13" t="s">
-        <v>660</v>
+        <v>30</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C230" s="1" t="s">
-        <v>661</v>
-      </c>
       <c r="F230" s="2" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="R230" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="s">
-        <v>662</v>
+      <c r="A231" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="R231" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="s">
-        <v>663</v>
+      <c r="A232" s="13" t="s">
+        <v>398</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="R232" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="s">
-        <v>665</v>
+      <c r="A233" s="13" t="s">
+        <v>654</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="R233" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="s">
-        <v>667</v>
+    <row r="234" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="13" t="s">
+        <v>656</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>668</v>
+        <v>641</v>
+      </c>
+      <c r="C234" s="15" t="s">
+        <v>657</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>653</v>
+        <v>643</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q234" s="1" t="s">
+        <v>658</v>
       </c>
       <c r="R234" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="13" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>670</v>
+        <v>19</v>
+      </c>
+      <c r="C235" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>646</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="R235" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>662</v>
+      </c>
+      <c r="Q235" s="0"/>
+    </row>
+    <row r="236" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>672</v>
+        <v>19</v>
+      </c>
+      <c r="C236" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>659</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="H236" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I236" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q236" s="1" t="s">
-        <v>673</v>
+        <v>271</v>
       </c>
       <c r="R236" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="13" t="s">
-        <v>674</v>
+    <row r="237" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="s">
+        <v>665</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C237" s="14" t="s">
-        <v>675</v>
+      <c r="C237" s="15" t="s">
+        <v>664</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="Q237" s="0"/>
-    </row>
-    <row r="238" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="s">
-        <v>678</v>
+        <v>271</v>
+      </c>
+      <c r="R237" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="13" t="s">
+        <v>666</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C238" s="14" t="s">
-        <v>679</v>
+      <c r="C238" s="15" t="s">
+        <v>667</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="R238" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1" t="s">
-        <v>680</v>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="13" t="s">
+        <v>668</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C239" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>674</v>
+      <c r="C239" s="1" t="s">
+        <v>669</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>271</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="Q239" s="0"/>
       <c r="R239" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="B240" s="1" t="s">
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="B240" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C240" s="14" t="s">
-        <v>682</v>
+      <c r="C240" s="16" t="s">
+        <v>671</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>653</v>
+        <v>271</v>
+      </c>
+      <c r="Q240" s="0"/>
+      <c r="R240" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="B241" s="1" t="s">
+      <c r="A241" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="B241" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C241" s="1" t="s">
-        <v>684</v>
+      <c r="C241" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q241" s="15" t="s">
-        <v>685</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="Q241" s="0"/>
       <c r="R241" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="15" t="s">
-        <v>686</v>
-      </c>
-      <c r="B242" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C242" s="15" t="s">
-        <v>687</v>
-      </c>
-      <c r="D242" s="1" t="s">
+      <c r="A242" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F242" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="F242" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q242" s="0"/>
       <c r="R242" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="15" t="s">
-        <v>688</v>
-      </c>
-      <c r="B243" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C243" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="D243" s="1" t="s">
+      <c r="A243" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="F243" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="F243" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q243" s="0"/>
       <c r="R243" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>691</v>
+        <v>680</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>676</v>
       </c>
       <c r="R244" s="1" t="n">
         <v>1</v>
@@ -14507,13 +15405,16 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C245" s="0" t="s">
-        <v>693</v>
+      <c r="C245" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>676</v>
       </c>
       <c r="R245" s="1" t="n">
         <v>1</v>
@@ -14521,13 +15422,16 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>695</v>
+        <v>684</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>676</v>
       </c>
       <c r="R246" s="1" t="n">
         <v>1</v>
@@ -14535,13 +15439,16 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>697</v>
+        <v>686</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>676</v>
       </c>
       <c r="R247" s="1" t="n">
         <v>1</v>
@@ -14549,13 +15456,18 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>699</v>
+        <v>688</v>
+      </c>
+      <c r="D248" s="0"/>
+      <c r="E248" s="0"/>
+      <c r="F248" s="2" t="s">
+        <v>676</v>
       </c>
       <c r="R248" s="1" t="n">
         <v>1</v>
@@ -14563,13 +15475,18 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>701</v>
+        <v>690</v>
+      </c>
+      <c r="D249" s="0"/>
+      <c r="E249" s="0"/>
+      <c r="F249" s="2" t="s">
+        <v>676</v>
       </c>
       <c r="R249" s="1" t="n">
         <v>1</v>
@@ -14577,109 +15494,123 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="D250" s="0"/>
       <c r="E250" s="0"/>
+      <c r="F250" s="2" t="s">
+        <v>676</v>
+      </c>
       <c r="R250" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="D251" s="0"/>
       <c r="E251" s="0"/>
+      <c r="F251" s="2" t="s">
+        <v>676</v>
+      </c>
       <c r="R251" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="D252" s="0"/>
       <c r="E252" s="0"/>
+      <c r="F252" s="2" t="s">
+        <v>676</v>
+      </c>
       <c r="R252" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="D253" s="0"/>
       <c r="E253" s="0"/>
+      <c r="F253" s="2" t="s">
+        <v>676</v>
+      </c>
       <c r="R253" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C254" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="D254" s="0"/>
-      <c r="E254" s="0"/>
+      <c r="C254" s="15" t="s">
+        <v>700</v>
+      </c>
       <c r="R254" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D255" s="0"/>
-      <c r="E255" s="0"/>
+        <v>702</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>703</v>
+      </c>
       <c r="R255" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C256" s="14" t="s">
-        <v>715</v>
+      <c r="C256" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>706</v>
       </c>
       <c r="R256" s="1" t="n">
         <v>1</v>
@@ -14687,16 +15618,13 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="R257" s="1" t="n">
         <v>1</v>
@@ -14704,16 +15632,13 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="R258" s="1" t="n">
         <v>1</v>
@@ -14721,13 +15646,16 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>722</v>
+        <v>710</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>703</v>
       </c>
       <c r="R259" s="1" t="n">
         <v>1</v>
@@ -14735,13 +15663,16 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>723</v>
+        <v>712</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>706</v>
       </c>
       <c r="R260" s="1" t="n">
         <v>1</v>
@@ -14749,16 +15680,16 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="R261" s="1" t="n">
         <v>1</v>
@@ -14766,16 +15697,16 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="R262" s="1" t="n">
         <v>1</v>
@@ -14783,16 +15714,13 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="R263" s="1" t="n">
         <v>1</v>
@@ -14800,16 +15728,13 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="R264" s="1" t="n">
         <v>1</v>
@@ -14817,13 +15742,13 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="R265" s="1" t="n">
         <v>1</v>
@@ -14831,13 +15756,13 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="R266" s="1" t="n">
         <v>1</v>
@@ -14845,13 +15770,13 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="R267" s="1" t="n">
         <v>1</v>
@@ -14859,27 +15784,30 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="R268" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>743</v>
+        <v>732</v>
+      </c>
+      <c r="Q269" s="17" t="s">
+        <v>733</v>
       </c>
       <c r="R269" s="1" t="n">
         <v>1</v>
@@ -14887,30 +15815,33 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>745</v>
+        <v>735</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="R270" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="Q271" s="16" t="s">
-        <v>748</v>
+        <v>738</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="R271" s="1" t="n">
         <v>1</v>
@@ -14918,16 +15849,13 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="R272" s="1" t="n">
         <v>1</v>
@@ -14935,309 +15863,334 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="R273" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1" t="s">
-        <v>754</v>
+      <c r="A274" s="13" t="s">
+        <v>744</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="R274" s="1" t="n">
-        <v>1</v>
+        <v>258</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="1" t="s">
-        <v>756</v>
+      <c r="A275" s="13" t="s">
+        <v>745</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="R275" s="1" t="n">
-        <v>1</v>
+        <v>258</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="s">
-        <v>758</v>
+      <c r="A276" s="13" t="s">
+        <v>746</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="R276" s="1" t="n">
-        <v>1</v>
+        <v>258</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="1" t="s">
-        <v>760</v>
+      <c r="A278" s="13" t="s">
+        <v>751</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>258</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>677</v>
+        <v>662</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="1" t="s">
-        <v>761</v>
+      <c r="A279" s="13" t="s">
+        <v>654</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>258</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="1" t="s">
-        <v>762</v>
+      <c r="A280" s="13" t="s">
+        <v>752</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>258</v>
       </c>
+      <c r="C280" s="1" t="s">
+        <v>753</v>
+      </c>
       <c r="F280" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1" t="s">
-        <v>763</v>
+        <v>662</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="13" t="s">
+        <v>755</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C281" s="14" t="s">
-        <v>764</v>
+      <c r="C281" s="1" t="s">
+        <v>756</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="H281" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="I281" s="1" t="s">
-        <v>766</v>
+        <v>662</v>
+      </c>
+      <c r="H281" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I281" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K281" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L281" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="M281" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="N281" s="1" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="1" t="s">
-        <v>767</v>
+      <c r="A282" s="13" t="s">
+        <v>761</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>258</v>
       </c>
+      <c r="C282" s="1" t="s">
+        <v>762</v>
+      </c>
       <c r="F282" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="H282" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I282" s="1" t="s">
-        <v>227</v>
+        <v>662</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="1" t="s">
-        <v>669</v>
+      <c r="A283" s="14" t="s">
+        <v>644</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>258</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>677</v>
+        <v>271</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="s">
-        <v>768</v>
+      <c r="A284" s="14" t="s">
+        <v>645</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C284" s="1" t="s">
-        <v>769</v>
-      </c>
       <c r="F284" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="H284" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="I284" s="1" t="s">
-        <v>770</v>
+        <v>271</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="1" t="s">
-        <v>771</v>
+      <c r="A285" s="14" t="s">
+        <v>648</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C285" s="1" t="s">
-        <v>772</v>
-      </c>
       <c r="F285" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="H285" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J285" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="K285" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L285" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="M285" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="N285" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="14" t="s">
         <v>649</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="1" t="s">
-        <v>774</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C286" s="1" t="s">
-        <v>775</v>
-      </c>
       <c r="F286" s="2" t="s">
-        <v>677</v>
+        <v>271</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="1" t="s">
-        <v>654</v>
+      <c r="A287" s="13" t="s">
+        <v>640</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>258</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>271</v>
+        <v>662</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="1" t="s">
-        <v>655</v>
+      <c r="A288" s="13" t="s">
+        <v>646</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>258</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>271</v>
+        <v>662</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="1" t="s">
-        <v>658</v>
+      <c r="A289" s="13" t="s">
+        <v>763</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>258</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>271</v>
+        <v>662</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="1" t="s">
-        <v>659</v>
+      <c r="A290" s="13" t="s">
+        <v>764</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>258</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>271</v>
+        <v>662</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="1" t="s">
-        <v>650</v>
+      <c r="A291" s="13" t="s">
+        <v>765</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>258</v>
+        <v>19</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>766</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>677</v>
+        <v>29</v>
+      </c>
+      <c r="R291" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="1" t="s">
-        <v>656</v>
+      <c r="A292" s="13" t="s">
+        <v>767</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>258</v>
+        <v>19</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>768</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>677</v>
+        <v>29</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>258</v>
+        <v>770</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>771</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>677</v>
+        <v>772</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>677</v>
+      <c r="B295" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C295" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q276"/>
+  <autoFilter ref="A1:Q273"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -15257,10 +16210,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="A1:D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15277,455 +16230,467 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>778</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="17" t="s">
-        <v>779</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
-        <v>780</v>
-      </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>781</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="18" t="s">
+        <v>782</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="18" t="s">
+        <v>783</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="C2" s="18"/>
+        <v>786</v>
+      </c>
+      <c r="C2" s="19"/>
       <c r="D2" s="8" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>785</v>
-      </c>
-      <c r="F2" s="18"/>
+        <v>788</v>
+      </c>
+      <c r="F2" s="19"/>
       <c r="G2" s="8" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>786</v>
-      </c>
-      <c r="I2" s="18"/>
+        <v>789</v>
+      </c>
+      <c r="I2" s="19"/>
       <c r="J2" s="8" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="L2" s="18"/>
+        <v>791</v>
+      </c>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="C3" s="18"/>
+        <v>793</v>
+      </c>
+      <c r="C3" s="19"/>
       <c r="D3" s="8" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="F3" s="18"/>
+        <v>794</v>
+      </c>
+      <c r="F3" s="19"/>
       <c r="G3" s="8" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="I3" s="18"/>
+        <v>795</v>
+      </c>
+      <c r="I3" s="19"/>
       <c r="J3" s="8" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="L3" s="18"/>
+        <v>797</v>
+      </c>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="C4" s="18"/>
+        <v>798</v>
+      </c>
+      <c r="C4" s="19"/>
       <c r="D4" s="8" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>796</v>
-      </c>
-      <c r="F4" s="18"/>
+        <v>799</v>
+      </c>
+      <c r="F4" s="19"/>
       <c r="G4" s="8" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>798</v>
-      </c>
-      <c r="I4" s="18"/>
+        <v>801</v>
+      </c>
+      <c r="I4" s="19"/>
       <c r="J4" s="8" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="L4" s="18"/>
+        <v>803</v>
+      </c>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="C5" s="18"/>
+        <v>805</v>
+      </c>
+      <c r="C5" s="19"/>
       <c r="D5" s="8" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="F5" s="18"/>
+        <v>807</v>
+      </c>
+      <c r="F5" s="19"/>
       <c r="G5" s="8" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>806</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="18"/>
+        <v>809</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="C6" s="18"/>
+        <v>811</v>
+      </c>
+      <c r="C6" s="19"/>
       <c r="D6" s="8" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="F6" s="18"/>
+        <v>813</v>
+      </c>
+      <c r="F6" s="19"/>
       <c r="G6" s="8" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+        <v>815</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="C7" s="18"/>
+        <v>817</v>
+      </c>
+      <c r="C7" s="19"/>
       <c r="D7" s="8" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="F7" s="18"/>
+        <v>819</v>
+      </c>
+      <c r="F7" s="19"/>
       <c r="G7" s="8" t="s">
-        <v>644</v>
+        <v>820</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="L7" s="18"/>
+        <v>821</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="C8" s="18"/>
+        <v>823</v>
+      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="8" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>821</v>
-      </c>
-      <c r="F8" s="18"/>
+        <v>825</v>
+      </c>
+      <c r="F8" s="19"/>
       <c r="G8" s="8" t="s">
-        <v>645</v>
+        <v>826</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+        <v>827</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>824</v>
-      </c>
-      <c r="C9" s="18"/>
+        <v>829</v>
+      </c>
+      <c r="C9" s="19"/>
       <c r="D9" s="8" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>826</v>
-      </c>
-      <c r="F9" s="18"/>
+        <v>831</v>
+      </c>
+      <c r="F9" s="19"/>
       <c r="G9" s="8" t="s">
-        <v>646</v>
+        <v>832</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>827</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+        <v>833</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="C10" s="18"/>
+        <v>835</v>
+      </c>
+      <c r="C10" s="19"/>
       <c r="D10" s="8" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="F10" s="18"/>
+        <v>837</v>
+      </c>
+      <c r="F10" s="19"/>
       <c r="G10" s="8" t="s">
-        <v>647</v>
+        <v>758</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>832</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+        <v>838</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="C11" s="18"/>
+        <v>840</v>
+      </c>
+      <c r="C11" s="19"/>
       <c r="D11" s="8" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="F11" s="18"/>
+        <v>842</v>
+      </c>
+      <c r="F11" s="19"/>
       <c r="G11" s="8" t="s">
-        <v>648</v>
+        <v>759</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>837</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+        <v>843</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>839</v>
-      </c>
-      <c r="C12" s="18"/>
+        <v>845</v>
+      </c>
+      <c r="C12" s="19"/>
       <c r="D12" s="8" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>841</v>
-      </c>
-      <c r="F12" s="18"/>
+        <v>847</v>
+      </c>
+      <c r="F12" s="19"/>
       <c r="G12" s="8" t="s">
-        <v>649</v>
+        <v>760</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+        <v>848</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>844</v>
-      </c>
-      <c r="C13" s="18"/>
+        <v>850</v>
+      </c>
+      <c r="C13" s="19"/>
       <c r="D13" s="8" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+        <v>852</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>848</v>
-      </c>
-      <c r="C14" s="18"/>
+        <v>854</v>
+      </c>
+      <c r="C14" s="19"/>
       <c r="D14" s="8" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>850</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
+        <v>856</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="C15" s="18"/>
+        <v>858</v>
+      </c>
+      <c r="C15" s="19"/>
       <c r="D15" s="8" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>854</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+        <v>860</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="C16" s="19"/>
       <c r="D16" s="8" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>855</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
+        <v>863</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>857</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
+        <v>865</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="7" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="7" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="7" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="7" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>865</v>
+        <v>873</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -15743,4 +16708,2713 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regularna"&amp;12Strona &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D195"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D195" activeCellId="0" sqref="A1:D195"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.984693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="21" t="s">
+        <v>876</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>877</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21" t="s">
+        <v>751</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>880</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>881</v>
+      </c>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" customFormat="false" ht="61.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="21" t="s">
+        <v>744</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>882</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>883</v>
+      </c>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>886</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="21" t="s">
+        <v>666</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>889</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>890</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>892</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>885</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>894</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>897</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>899</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>901</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>902</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>903</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>904</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>905</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>906</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21" t="s">
+        <v>737</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>907</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="21" t="s">
+        <v>689</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>908</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>909</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>910</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>911</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21" t="s">
+        <v>687</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>912</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>914</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>915</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>916</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="22" t="s">
+        <v>918</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>919</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="22" t="s">
+        <v>920</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>921</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="22" t="s">
+        <v>922</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>923</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>925</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>927</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="22" t="s">
+        <v>928</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="22" t="s">
+        <v>930</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>931</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="22" t="s">
+        <v>932</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>933</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="22" t="s">
+        <v>934</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>935</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>937</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>938</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="21" t="s">
+        <v>752</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>940</v>
+      </c>
+      <c r="D43" s="21"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="21" t="s">
+        <v>745</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>941</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>942</v>
+      </c>
+      <c r="D44" s="21"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="21" t="s">
+        <v>746</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>943</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>885</v>
+      </c>
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>944</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>948</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="21" t="s">
+        <v>704</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>949</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="21" t="s">
+        <v>950</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>951</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>952</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>953</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>954</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>955</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>956</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="21" t="s">
+        <v>701</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>958</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="21" t="s">
+        <v>761</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>959</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>885</v>
+      </c>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>960</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>885</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>962</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>963</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>885</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>965</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>967</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>968</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>969</v>
+      </c>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>970</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>971</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>972</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>969</v>
+      </c>
+      <c r="D67" s="21"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>973</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>971</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>974</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>971</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="21" t="s">
+        <v>665</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>975</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>971</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="22" t="s">
+        <v>976</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>977</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>979</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="22" t="s">
+        <v>982</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>983</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>985</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="22" t="s">
+        <v>986</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>987</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="22" t="s">
+        <v>988</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>989</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="22" t="s">
+        <v>990</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>991</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="22" t="s">
+        <v>992</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>993</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="22" t="s">
+        <v>994</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>995</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>996</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>998</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>999</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="21" t="s">
+        <v>706</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="21" t="s">
+        <v>703</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="22" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="22" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="22" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="22" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="22" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="22" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="22" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="21" t="s">
+        <v>725</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="21" t="s">
+        <v>723</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="B109" s="22" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="21" t="s">
+        <v>685</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="21" t="s">
+        <v>683</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="21" t="s">
+        <v>674</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="22" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="22" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D121" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="22" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B123" s="22" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="22" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D125" s="21"/>
+    </row>
+    <row r="126" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D126" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B131" s="22" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D131" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="B132" s="22" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="21" t="s">
+        <v>711</v>
+      </c>
+      <c r="B133" s="22" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="B137" s="22" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="21" t="s">
+        <v>709</v>
+      </c>
+      <c r="B138" s="22" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D138" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="22" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B139" s="22" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C139" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D139" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="22" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C140" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D140" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="22" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B141" s="22" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D141" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="22" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C142" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D142" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="22" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B143" s="22" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D143" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="22" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="22" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B145" s="22" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="22" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B146" s="22" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C146" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="22" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B147" s="22" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C147" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D147" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="21" t="s">
+        <v>741</v>
+      </c>
+      <c r="B148" s="22" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C148" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="97.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="B149" s="22" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C149" s="22" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D149" s="22" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C150" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="B151" s="22" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C151" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="21" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B152" s="22" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C152" s="22" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D152" s="21"/>
+    </row>
+    <row r="153" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="21" t="s">
+        <v>648</v>
+      </c>
+      <c r="B153" s="22" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>885</v>
+      </c>
+      <c r="D153" s="21"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="21" t="s">
+        <v>648</v>
+      </c>
+      <c r="B154" s="22" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C154" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D154" s="22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="B155" s="21" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>885</v>
+      </c>
+      <c r="D155" s="21"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="B156" s="22" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C156" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D156" s="22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="21" t="s">
+        <v>670</v>
+      </c>
+      <c r="B157" s="22" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C157" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D157" s="22" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="B158" s="22" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C158" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D158" s="22" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="B159" s="21" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C159" s="21" t="s">
+        <v>885</v>
+      </c>
+      <c r="D159" s="21"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="21" t="s">
+        <v>681</v>
+      </c>
+      <c r="B160" s="22" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C160" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D160" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B161" s="22" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C161" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D161" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="B162" s="22" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C162" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D162" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="21" t="s">
+        <v>721</v>
+      </c>
+      <c r="B163" s="22" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C163" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D163" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="B164" s="22" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C164" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D164" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="B165" s="22" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C165" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D165" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="B166" s="22" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C166" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D166" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="21" t="s">
+        <v>719</v>
+      </c>
+      <c r="B167" s="22" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C167" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D167" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="22" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B168" s="22" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C168" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D168" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="22" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B169" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C169" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D169" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="22" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B170" s="22" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C170" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D170" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="22" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B171" s="22" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C171" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D171" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="22" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B172" s="22" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C172" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D172" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="22" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B173" s="22" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C173" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D173" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="22" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B174" s="22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D174" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="22" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B175" s="22" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C175" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D175" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="22" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B176" s="22" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C176" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D176" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="B177" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="C177" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D177" s="22"/>
+    </row>
+    <row r="178" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="B178" s="22" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C178" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D178" s="22"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="B179" s="22" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C179" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D179" s="22"/>
+    </row>
+    <row r="180" customFormat="false" ht="121.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="B180" s="22" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C180" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D180" s="22"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="B181" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="C181" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D181" s="22"/>
+    </row>
+    <row r="182" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="B182" s="22" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C182" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D182" s="22"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="B183" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="C183" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D183" s="22"/>
+    </row>
+    <row r="184" customFormat="false" ht="121.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="B184" s="22" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C184" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D184" s="22"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="B185" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="C185" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D185" s="22"/>
+    </row>
+    <row r="186" customFormat="false" ht="97.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="B186" s="22" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C186" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D186" s="22"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="B187" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="C187" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D187" s="22"/>
+    </row>
+    <row r="188" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="B188" s="22" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C188" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D188" s="22"/>
+    </row>
+    <row r="189" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="21" t="s">
+        <v>747</v>
+      </c>
+      <c r="B189" s="22" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C189" s="22" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D189" s="22" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B190" s="22" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C190" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D190" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B191" s="22" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C191" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D191" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B192" s="22" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C192" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="D192" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="B193" s="22" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C193" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D193" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="B194" s="22" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C194" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D194" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="B195" s="22" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C195" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="D195" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CStrona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/vignettes/definicje_zmiennych.xlsx
+++ b/vignettes/definicje_zmiennych.xlsx
@@ -12,15 +12,15 @@
     <sheet name="schemat" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">zmienne!$A$1:$P$238</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">zmienne!$A$1:$Q$278</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">zmienne!$A$1:$P$238</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">zmienne!$A$1:$Q$278</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">zmienne!$A$1:$P$238</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$224</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$224</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">zmienne!$A$1:$Q$278</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">zmienne!$A$1:$P$238</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">zmienne!$A$1:$Q$278</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">zmienne!$A$1:$P$238</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$278</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$238</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$224</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$224</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
@@ -28,11 +28,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
@@ -45,6 +45,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="881">
   <si>
     <t xml:space="preserve">zmienna</t>
   </si>
@@ -699,7 +700,10 @@
     <t xml:space="preserve">NM_E_N &gt; 0</t>
   </si>
   <si>
-    <t xml:space="preserve">NM_E_N</t>
+    <t xml:space="preserve">NM_X_N = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_E_N, NM_X_N</t>
   </si>
   <si>
     <t xml:space="preserve">IF_E_S</t>
@@ -708,7 +712,10 @@
     <t xml:space="preserve">NM_E_S &gt; 0</t>
   </si>
   <si>
-    <t xml:space="preserve">NM_E_S</t>
+    <t xml:space="preserve">NM_X_S = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_E_S, NM_X_S</t>
   </si>
   <si>
     <t xml:space="preserve">IF_ES_K</t>
@@ -759,7 +766,7 @@
     <t xml:space="preserve">NM_P_N &gt; 0</t>
   </si>
   <si>
-    <t xml:space="preserve">NM_P_N</t>
+    <t xml:space="preserve">NM_P_N, NM_X_N</t>
   </si>
   <si>
     <t xml:space="preserve">IF_P_S</t>
@@ -768,7 +775,7 @@
     <t xml:space="preserve">NM_P_S &gt; 0</t>
   </si>
   <si>
-    <t xml:space="preserve">NM_P_S</t>
+    <t xml:space="preserve">NM_P_S, NM_X_S</t>
   </si>
   <si>
     <t xml:space="preserve">IF_S</t>
@@ -789,7 +796,7 @@
     <t xml:space="preserve">NM_S_N &gt; 0</t>
   </si>
   <si>
-    <t xml:space="preserve">NM_S_N</t>
+    <t xml:space="preserve">NM_S_N, NM_X_N</t>
   </si>
   <si>
     <t xml:space="preserve">IF_S_S</t>
@@ -798,7 +805,7 @@
     <t xml:space="preserve">NM_S_S &gt; 0</t>
   </si>
   <si>
-    <t xml:space="preserve">NM_S_S</t>
+    <t xml:space="preserve">NM_S_S, NM_X_S</t>
   </si>
   <si>
     <t xml:space="preserve">IF_X_S</t>
@@ -1067,6 +1074,9 @@
     <t xml:space="preserve">liczba miesięcy zatrudnienia na etat podczas studiów na danym kierunku</t>
   </si>
   <si>
+    <t xml:space="preserve">NM_E_N</t>
+  </si>
+  <si>
     <t xml:space="preserve">liczba miesięcy pracy na etacie (etat) i niestudiowania (student2)</t>
   </si>
   <si>
@@ -1079,6 +1089,9 @@
     <t xml:space="preserve">liczba miesięcy zatrudnienia na etat przed studiami na danym kierunku</t>
   </si>
   <si>
+    <t xml:space="preserve">NM_E_S</t>
+  </si>
+  <si>
     <t xml:space="preserve">liczba miesięcy pracy na etacie (etat) i studiowania (student2)</t>
   </si>
   <si>
@@ -1193,9 +1206,15 @@
     <t xml:space="preserve">NM_P_N, NM_P_S</t>
   </si>
   <si>
+    <t xml:space="preserve">NM_P_N</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liczba przepracowanych miesięcy (etat/netat/samoz) i niestudiowania</t>
   </si>
   <si>
+    <t xml:space="preserve">NM_P_S</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liczba przepracowanych miesięcy (etat/netat/samoz) i studiowania</t>
   </si>
   <si>
@@ -1211,6 +1230,9 @@
     <t xml:space="preserve">liczba miesięcy zatrudnienia na samoz podczas studiów na danym kierunku</t>
   </si>
   <si>
+    <t xml:space="preserve">NM_S_N</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liczba miesięcy bycia samozatrudnionym i niestudiowania (samoz)</t>
   </si>
   <si>
@@ -1218,6 +1240,9 @@
   </si>
   <si>
     <t xml:space="preserve">liczba miesięcy zatrudnienia na samoz przed studiami na danym kierunku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_S_S</t>
   </si>
   <si>
     <t xml:space="preserve">Liczba miesięcy bycia samozatrudnionym i studiowania (samoz)</t>
@@ -3084,7 +3109,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3131,6 +3156,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3264,15 +3297,13 @@
   </sheetPr>
   <dimension ref="A1:AMH296"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51:A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.34"/>
@@ -3280,7 +3311,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="1" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="1" width="8.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.55"/>
@@ -9118,8 +9149,8 @@
       <c r="AMG50" s="0"/>
       <c r="AMH50" s="0"/>
     </row>
-    <row r="51" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
+    <row r="51" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="s">
         <v>197</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -9129,10 +9160,10 @@
         <v>198</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>91</v>
@@ -9154,21 +9185,21 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
-        <v>200</v>
+    <row r="52" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>91</v>
@@ -9190,19 +9221,19 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
-        <v>203</v>
+    <row r="53" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>32</v>
@@ -9224,19 +9255,19 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
-        <v>206</v>
+    <row r="54" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>32</v>
@@ -9258,21 +9289,21 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
-        <v>209</v>
+    <row r="55" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>91</v>
@@ -9292,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q55" s="7"/>
       <c r="R55" s="0"/>
@@ -10301,21 +10332,21 @@
       <c r="AMG55" s="0"/>
       <c r="AMH55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="s">
-        <v>213</v>
+    <row r="56" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>91</v>
@@ -10339,25 +10370,25 @@
         <v>0</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
-        <v>217</v>
+    <row r="57" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>91</v>
@@ -10383,21 +10414,21 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
     </row>
-    <row r="58" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
-        <v>220</v>
+    <row r="58" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>91</v>
@@ -10423,21 +10454,21 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
-        <v>223</v>
+    <row r="59" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>91</v>
@@ -10461,25 +10492,25 @@
         <v>0</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
-        <v>227</v>
+    <row r="60" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>91</v>
@@ -10505,21 +10536,21 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="s">
-        <v>230</v>
+    <row r="61" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>91</v>
@@ -10547,19 +10578,19 @@
     </row>
     <row r="62" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>91</v>
@@ -10568,10 +10599,10 @@
         <v>92</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
@@ -10587,13 +10618,13 @@
     </row>
     <row r="63" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>182</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="7" t="s">
@@ -10621,21 +10652,21 @@
     </row>
     <row r="64" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>182</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="7"/>
       <c r="F64" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -10653,19 +10684,19 @@
     </row>
     <row r="65" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>91</v>
@@ -10693,13 +10724,13 @@
     </row>
     <row r="66" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
@@ -10710,10 +10741,10 @@
         <v>107</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
@@ -10729,32 +10760,32 @@
     </row>
     <row r="67" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
@@ -10772,32 +10803,32 @@
     </row>
     <row r="68" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
@@ -10808,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q68" s="7"/>
       <c r="R68" s="1" t="n">
@@ -10817,32 +10848,32 @@
     </row>
     <row r="69" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
@@ -10860,42 +10891,42 @@
     </row>
     <row r="70" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O70" s="9" t="n">
         <f aca="false">E70=""</f>
@@ -10906,13 +10937,13 @@
     </row>
     <row r="71" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
@@ -10938,23 +10969,23 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -10972,23 +11003,23 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
@@ -11006,32 +11037,32 @@
     </row>
     <row r="74" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K74" s="10"/>
       <c r="L74" s="10"/>
@@ -11042,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q74" s="7"/>
       <c r="R74" s="1" t="n">
@@ -11051,32 +11082,32 @@
     </row>
     <row r="75" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K75" s="10"/>
       <c r="L75" s="10"/>
@@ -11100,7 +11131,7 @@
         <v>47</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>49</v>
@@ -11124,7 +11155,7 @@
         <v>1</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q76" s="7"/>
     </row>
@@ -11136,7 +11167,7 @@
         <v>47</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>49</v>
@@ -11164,19 +11195,19 @@
     </row>
     <row r="78" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>91</v>
@@ -11200,13 +11231,13 @@
     </row>
     <row r="79" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>49</v>
@@ -11230,19 +11261,19 @@
         <v>1</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>49</v>
@@ -11266,25 +11297,25 @@
         <v>1</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>91</v>
@@ -11308,13 +11339,13 @@
     </row>
     <row r="82" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>49</v>
@@ -11338,19 +11369,19 @@
         <v>1</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>49</v>
@@ -11374,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q83" s="7"/>
     </row>
@@ -11386,7 +11417,7 @@
         <v>47</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>49</v>
@@ -11396,7 +11427,7 @@
         <v>51</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
@@ -11420,13 +11451,13 @@
         <v>47</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>91</v>
@@ -11450,13 +11481,13 @@
     </row>
     <row r="86" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
@@ -11482,13 +11513,13 @@
     </row>
     <row r="87" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>199</v>
+        <v>320</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>49</v>
@@ -11512,19 +11543,19 @@
         <v>1</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
@@ -11550,13 +11581,13 @@
     </row>
     <row r="89" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>202</v>
+        <v>325</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>49</v>
@@ -11580,25 +11611,25 @@
         <v>1</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>91</v>
@@ -11622,13 +11653,13 @@
     </row>
     <row r="91" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>49</v>
@@ -11652,19 +11683,19 @@
         <v>1</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>49</v>
@@ -11688,25 +11719,25 @@
         <v>1</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F93" s="8" t="s">
         <v>91</v>
@@ -11730,13 +11761,13 @@
     </row>
     <row r="94" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>49</v>
@@ -11764,13 +11795,13 @@
     </row>
     <row r="95" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="10" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>49</v>
@@ -11798,13 +11829,13 @@
     </row>
     <row r="96" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="10" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
@@ -11830,19 +11861,19 @@
     </row>
     <row r="97" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>91</v>
@@ -11866,13 +11897,13 @@
     </row>
     <row r="98" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>49</v>
@@ -11900,13 +11931,13 @@
     </row>
     <row r="99" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>49</v>
@@ -11934,13 +11965,13 @@
     </row>
     <row r="100" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>49</v>
@@ -11950,7 +11981,7 @@
         <v>51</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
@@ -11968,19 +11999,19 @@
     </row>
     <row r="101" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>91</v>
@@ -12004,13 +12035,13 @@
     </row>
     <row r="102" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>49</v>
@@ -12034,19 +12065,19 @@
         <v>1</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>49</v>
@@ -12070,25 +12101,25 @@
         <v>1</v>
       </c>
       <c r="P103" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q103" s="7"/>
     </row>
     <row r="104" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B104" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F104" s="8" t="s">
         <v>91</v>
@@ -12112,13 +12143,13 @@
     </row>
     <row r="105" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="10" t="s">
-        <v>219</v>
+        <v>364</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>49</v>
@@ -12146,13 +12177,13 @@
     </row>
     <row r="106" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="10" t="s">
-        <v>222</v>
+        <v>366</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>49</v>
@@ -12180,19 +12211,19 @@
     </row>
     <row r="107" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F107" s="8" t="s">
         <v>91</v>
@@ -12216,13 +12247,13 @@
     </row>
     <row r="108" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
@@ -12248,13 +12279,13 @@
     </row>
     <row r="109" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="10" t="s">
-        <v>229</v>
+        <v>372</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>49</v>
@@ -12282,13 +12313,13 @@
     </row>
     <row r="110" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D110" s="10"/>
       <c r="E110" s="10"/>
@@ -12314,13 +12345,13 @@
     </row>
     <row r="111" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="s">
-        <v>232</v>
+        <v>376</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>49</v>
@@ -12348,19 +12379,19 @@
     </row>
     <row r="112" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>151</v>
@@ -12384,19 +12415,19 @@
     </row>
     <row r="113" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F113" s="8" t="s">
         <v>151</v>
@@ -12416,25 +12447,25 @@
         <v>0</v>
       </c>
       <c r="P113" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="Q113" s="7"/>
     </row>
     <row r="114" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="F114" s="8" t="s">
         <v>91</v>
@@ -12458,13 +12489,13 @@
     </row>
     <row r="115" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D115" s="10"/>
       <c r="E115" s="10"/>
@@ -12490,13 +12521,13 @@
     </row>
     <row r="116" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>49</v>
@@ -12524,13 +12555,13 @@
     </row>
     <row r="117" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B117" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="D117" s="10"/>
       <c r="E117" s="10"/>
@@ -12556,13 +12587,13 @@
     </row>
     <row r="118" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>49</v>
@@ -12590,23 +12621,23 @@
     </row>
     <row r="119" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B119" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C119" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="D119" s="12"/>
+      <c r="C119" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="D119" s="14"/>
       <c r="E119" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
@@ -12624,13 +12655,13 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B120" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>49</v>
@@ -12654,19 +12685,19 @@
         <v>1</v>
       </c>
       <c r="P120" s="10" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="Q120" s="7"/>
     </row>
     <row r="121" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B121" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>49</v>
@@ -12690,19 +12721,19 @@
         <v>1</v>
       </c>
       <c r="P121" s="10" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="Q121" s="7"/>
     </row>
     <row r="122" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>49</v>
@@ -12726,21 +12757,21 @@
         <v>1</v>
       </c>
       <c r="P122" s="10" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Q122" s="10" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>49</v>
@@ -12768,13 +12799,13 @@
     </row>
     <row r="124" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B124" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>49</v>
@@ -12808,7 +12839,7 @@
         <v>47</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>49</v>
@@ -12832,7 +12863,7 @@
         <v>1</v>
       </c>
       <c r="P125" s="10" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="Q125" s="7"/>
     </row>
@@ -12844,7 +12875,7 @@
         <v>47</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>49</v>
@@ -12868,29 +12899,29 @@
         <v>1</v>
       </c>
       <c r="P126" s="10" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="Q126" s="7"/>
     </row>
     <row r="127" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="D127" s="10"/>
       <c r="E127" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H127" s="10"/>
       <c r="I127" s="10"/>
@@ -12911,13 +12942,13 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="10" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D128" s="10"/>
       <c r="E128" s="10"/>
@@ -12941,13 +12972,13 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="10" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="D129" s="10"/>
       <c r="E129" s="10"/>
@@ -12971,13 +13002,13 @@
     </row>
     <row r="130" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>49</v>
@@ -13003,25 +13034,25 @@
         <v>0</v>
       </c>
       <c r="P130" s="10" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="Q130" s="7"/>
     </row>
     <row r="131" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="10" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>91</v>
@@ -13045,13 +13076,13 @@
     </row>
     <row r="132" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="10" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>49</v>
@@ -13077,25 +13108,25 @@
         <v>0</v>
       </c>
       <c r="P132" s="10" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="Q132" s="7"/>
     </row>
     <row r="133" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F133" s="8" t="s">
         <v>91</v>
@@ -13119,19 +13150,19 @@
     </row>
     <row r="134" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F134" s="8" t="s">
         <v>91</v>
@@ -13155,19 +13186,19 @@
     </row>
     <row r="135" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F135" s="8" t="s">
         <v>91</v>
@@ -13191,13 +13222,13 @@
     </row>
     <row r="136" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="10" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>49</v>
@@ -13223,19 +13254,19 @@
         <v>0</v>
       </c>
       <c r="P136" s="10" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="Q136" s="7"/>
     </row>
     <row r="137" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="10" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>49</v>
@@ -13261,25 +13292,25 @@
         <v>0</v>
       </c>
       <c r="P137" s="10" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="Q137" s="7"/>
     </row>
     <row r="138" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F138" s="8" t="s">
         <v>91</v>
@@ -13306,19 +13337,19 @@
     </row>
     <row r="139" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F139" s="8" t="s">
         <v>91</v>
@@ -13342,19 +13373,19 @@
     </row>
     <row r="140" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F140" s="8" t="s">
         <v>91</v>
@@ -13378,13 +13409,13 @@
     </row>
     <row r="141" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>49</v>
@@ -13414,19 +13445,19 @@
     </row>
     <row r="142" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B142" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>199</v>
+        <v>320</v>
       </c>
       <c r="F142" s="8" t="s">
         <v>91</v>
@@ -13450,19 +13481,19 @@
     </row>
     <row r="143" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>202</v>
+        <v>325</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>91</v>
@@ -13486,19 +13517,19 @@
     </row>
     <row r="144" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F144" s="8" t="s">
         <v>91</v>
@@ -13522,19 +13553,19 @@
     </row>
     <row r="145" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F145" s="8" t="s">
         <v>91</v>
@@ -13558,19 +13589,19 @@
     </row>
     <row r="146" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F146" s="8" t="s">
         <v>91</v>
@@ -13594,19 +13625,19 @@
     </row>
     <row r="147" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B147" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F147" s="8" t="s">
         <v>91</v>
@@ -13630,19 +13661,19 @@
     </row>
     <row r="148" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F148" s="8" t="s">
         <v>91</v>
@@ -13666,19 +13697,19 @@
     </row>
     <row r="149" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="B149" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F149" s="8" t="s">
         <v>91</v>
@@ -13702,19 +13733,19 @@
     </row>
     <row r="150" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D150" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F150" s="8" t="s">
         <v>91</v>
@@ -13734,25 +13765,25 @@
         <v>0</v>
       </c>
       <c r="P150" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="Q150" s="7"/>
     </row>
     <row r="151" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>219</v>
+        <v>364</v>
       </c>
       <c r="F151" s="8" t="s">
         <v>91</v>
@@ -13776,19 +13807,19 @@
     </row>
     <row r="152" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>222</v>
+        <v>366</v>
       </c>
       <c r="F152" s="8" t="s">
         <v>91</v>
@@ -13812,19 +13843,19 @@
     </row>
     <row r="153" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F153" s="8" t="s">
         <v>91</v>
@@ -13848,19 +13879,19 @@
     </row>
     <row r="154" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>229</v>
+        <v>372</v>
       </c>
       <c r="F154" s="8" t="s">
         <v>91</v>
@@ -13884,19 +13915,19 @@
     </row>
     <row r="155" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>232</v>
+        <v>376</v>
       </c>
       <c r="F155" s="8" t="s">
         <v>91</v>
@@ -13920,19 +13951,19 @@
     </row>
     <row r="156" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F156" s="8" t="s">
         <v>91</v>
@@ -13952,25 +13983,25 @@
         <v>0</v>
       </c>
       <c r="P156" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="Q156" s="7"/>
     </row>
     <row r="157" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="10" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B157" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D157" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F157" s="8" t="s">
         <v>91</v>
@@ -13994,23 +14025,23 @@
     </row>
     <row r="158" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D158" s="10"/>
       <c r="E158" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H158" s="10"/>
       <c r="I158" s="10"/>
@@ -14031,19 +14062,19 @@
     </row>
     <row r="159" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="10" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B159" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="F159" s="8" t="s">
         <v>51</v>
@@ -14063,25 +14094,25 @@
         <v>0</v>
       </c>
       <c r="P159" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="Q159" s="7"/>
     </row>
     <row r="160" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="10" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="F160" s="8" t="s">
         <v>51</v>
@@ -14101,19 +14132,19 @@
         <v>0</v>
       </c>
       <c r="P160" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="Q160" s="7"/>
     </row>
     <row r="161" customFormat="false" ht="170.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="10" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>49</v>
@@ -14137,19 +14168,19 @@
         <v>1</v>
       </c>
       <c r="P161" s="10" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="Q161" s="7"/>
     </row>
     <row r="162" customFormat="false" ht="170.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="10" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B162" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>49</v>
@@ -14173,29 +14204,29 @@
         <v>1</v>
       </c>
       <c r="P162" s="10" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="Q162" s="7"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H163" s="7"/>
       <c r="I163" s="7"/>
@@ -14213,23 +14244,23 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D164" s="7"/>
       <c r="E164" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H164" s="7"/>
       <c r="I164" s="7"/>
@@ -14247,21 +14278,21 @@
     </row>
     <row r="165" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="10" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B165" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D165" s="10"/>
       <c r="E165" s="10"/>
       <c r="F165" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H165" s="10"/>
       <c r="I165" s="10"/>
@@ -14279,42 +14310,42 @@
     </row>
     <row r="166" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="10" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="D166" s="10"/>
       <c r="E166" s="10"/>
       <c r="F166" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H166" s="10" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="I166" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J166" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K166" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L166" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M166" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N166" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O166" s="9" t="n">
         <f aca="false">E166=""</f>
@@ -14325,42 +14356,42 @@
     </row>
     <row r="167" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="10" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="B167" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D167" s="10"/>
       <c r="E167" s="10"/>
       <c r="F167" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H167" s="10" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="I167" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J167" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K167" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L167" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M167" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N167" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O167" s="9" t="n">
         <f aca="false">E167=""</f>
@@ -14371,42 +14402,42 @@
     </row>
     <row r="168" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="10" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B168" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="D168" s="10"/>
       <c r="E168" s="10"/>
       <c r="F168" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H168" s="10" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="I168" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J168" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K168" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L168" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M168" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N168" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O168" s="9" t="n">
         <f aca="false">E168=""</f>
@@ -14417,19 +14448,19 @@
     </row>
     <row r="169" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="10" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="F169" s="8" t="s">
         <v>91</v>
@@ -14453,13 +14484,13 @@
     </row>
     <row r="170" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="10" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="B170" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="D170" s="10"/>
       <c r="E170" s="10"/>
@@ -14485,13 +14516,13 @@
     </row>
     <row r="171" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="10" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B171" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>49</v>
@@ -14519,13 +14550,13 @@
     </row>
     <row r="172" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="10" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="B172" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="D172" s="10"/>
       <c r="E172" s="10"/>
@@ -14551,13 +14582,13 @@
     </row>
     <row r="173" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="10" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B173" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>49</v>
@@ -14585,13 +14616,13 @@
     </row>
     <row r="174" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="10" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B174" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
@@ -14617,19 +14648,19 @@
     </row>
     <row r="175" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="10" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B175" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="D175" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="F175" s="8" t="s">
         <v>91</v>
@@ -14653,13 +14684,13 @@
     </row>
     <row r="176" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="10" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="D176" s="10" t="s">
         <v>49</v>
@@ -14687,13 +14718,13 @@
     </row>
     <row r="177" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="10" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>49</v>
@@ -14721,19 +14752,19 @@
     </row>
     <row r="178" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="10" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B178" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="F178" s="8" t="s">
         <v>91</v>
@@ -14757,13 +14788,13 @@
     </row>
     <row r="179" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="10" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B179" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>49</v>
@@ -14791,13 +14822,13 @@
     </row>
     <row r="180" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="10" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B180" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>49</v>
@@ -14825,13 +14856,13 @@
     </row>
     <row r="181" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="10" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B181" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D181" s="10"/>
       <c r="E181" s="10"/>
@@ -14857,19 +14888,19 @@
     </row>
     <row r="182" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="10" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="D182" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="F182" s="8" t="s">
         <v>91</v>
@@ -14893,13 +14924,13 @@
     </row>
     <row r="183" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="D183" s="10"/>
       <c r="E183" s="10"/>
@@ -14925,13 +14956,13 @@
     </row>
     <row r="184" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="10" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="D184" s="10" t="s">
         <v>49</v>
@@ -14959,13 +14990,13 @@
     </row>
     <row r="185" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="D185" s="10"/>
       <c r="E185" s="10"/>
@@ -14991,13 +15022,13 @@
     </row>
     <row r="186" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="10" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B186" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>49</v>
@@ -15025,19 +15056,19 @@
     </row>
     <row r="187" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="10" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="D187" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="F187" s="8" t="s">
         <v>91</v>
@@ -15061,13 +15092,13 @@
     </row>
     <row r="188" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="10" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D188" s="10" t="s">
         <v>49</v>
@@ -15095,13 +15126,13 @@
     </row>
     <row r="189" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="10" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="D189" s="10" t="s">
         <v>49</v>
@@ -15129,19 +15160,19 @@
     </row>
     <row r="190" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="10" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="B190" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="D190" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E190" s="10" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="F190" s="8" t="s">
         <v>91</v>
@@ -15165,13 +15196,13 @@
     </row>
     <row r="191" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="10" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D191" s="10"/>
       <c r="E191" s="10"/>
@@ -15197,13 +15228,13 @@
     </row>
     <row r="192" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="10" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="B192" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D192" s="10"/>
       <c r="E192" s="10"/>
@@ -15229,13 +15260,13 @@
     </row>
     <row r="193" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="10" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B193" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>49</v>
@@ -15263,13 +15294,13 @@
     </row>
     <row r="194" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="B194" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="D194" s="10"/>
       <c r="E194" s="10"/>
@@ -15295,13 +15326,13 @@
     </row>
     <row r="195" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="10" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="B195" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D195" s="10" t="s">
         <v>49</v>
@@ -15329,13 +15360,13 @@
     </row>
     <row r="196" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="10" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="B196" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="D196" s="10"/>
       <c r="E196" s="10" t="s">
@@ -15359,7 +15390,7 @@
         <v>0</v>
       </c>
       <c r="P196" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="Q196" s="7"/>
     </row>
@@ -15371,10 +15402,10 @@
         <v>19</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="E197" s="10"/>
       <c r="F197" s="8" t="s">
@@ -15395,23 +15426,23 @@
         <v>1</v>
       </c>
       <c r="P197" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="Q197" s="7"/>
     </row>
     <row r="198" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="10" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="B198" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="D198" s="10"/>
       <c r="E198" s="10" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="F198" s="8" t="s">
         <v>23</v>
@@ -15431,22 +15462,22 @@
         <v>0</v>
       </c>
       <c r="P198" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="Q198" s="7"/>
     </row>
     <row r="199" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="10" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B199" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="E199" s="10"/>
       <c r="F199" s="8" t="s">
@@ -15467,25 +15498,25 @@
         <v>1</v>
       </c>
       <c r="P199" s="7" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="Q199" s="7"/>
     </row>
     <row r="200" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="10" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="B200" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="D200" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="F200" s="8" t="s">
         <v>23</v>
@@ -15505,22 +15536,22 @@
         <v>0</v>
       </c>
       <c r="P200" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="Q200" s="7"/>
     </row>
     <row r="201" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="10" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="B201" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="E201" s="10"/>
       <c r="F201" s="8" t="s">
@@ -15541,23 +15572,23 @@
         <v>1</v>
       </c>
       <c r="P201" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="Q201" s="7"/>
     </row>
     <row r="202" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="10" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="B202" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="D202" s="10"/>
       <c r="E202" s="10" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="F202" s="8" t="s">
         <v>23</v>
@@ -15577,22 +15608,22 @@
         <v>0</v>
       </c>
       <c r="P202" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="Q202" s="7"/>
     </row>
     <row r="203" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="10" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="B203" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="E203" s="10"/>
       <c r="F203" s="8" t="s">
@@ -15613,23 +15644,23 @@
         <v>1</v>
       </c>
       <c r="P203" s="7" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="Q203" s="7"/>
     </row>
     <row r="204" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="10" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="B204" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="D204" s="10"/>
       <c r="E204" s="10" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="F204" s="8" t="s">
         <v>23</v>
@@ -15649,22 +15680,22 @@
         <v>0</v>
       </c>
       <c r="P204" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="Q204" s="7"/>
     </row>
     <row r="205" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="10" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B205" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="E205" s="10"/>
       <c r="F205" s="8" t="s">
@@ -15685,23 +15716,23 @@
         <v>1</v>
       </c>
       <c r="P205" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="Q205" s="7"/>
     </row>
     <row r="206" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="10" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="B206" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D206" s="10"/>
       <c r="E206" s="10" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="F206" s="8" t="s">
         <v>23</v>
@@ -15721,22 +15752,22 @@
         <v>0</v>
       </c>
       <c r="P206" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="Q206" s="7"/>
     </row>
     <row r="207" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="10" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="B207" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="E207" s="10"/>
       <c r="F207" s="8" t="s">
@@ -15757,7 +15788,7 @@
         <v>1</v>
       </c>
       <c r="P207" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="Q207" s="7"/>
     </row>
@@ -15769,19 +15800,19 @@
         <v>47</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="E208" s="10" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="F208" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G208" s="8" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="H208" s="10"/>
       <c r="I208" s="10"/>
@@ -15795,29 +15826,29 @@
         <v>0</v>
       </c>
       <c r="P208" s="10" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="Q208" s="7"/>
     </row>
     <row r="209" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="10" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B209" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="E209" s="10"/>
       <c r="F209" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="H209" s="10"/>
       <c r="I209" s="10"/>
@@ -15841,17 +15872,17 @@
         <v>47</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="E210" s="10"/>
       <c r="F210" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="H210" s="10"/>
       <c r="I210" s="10"/>
@@ -15875,19 +15906,19 @@
         <v>47</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="D211" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="F211" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G211" s="8" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="H211" s="10"/>
       <c r="I211" s="10"/>
@@ -15901,7 +15932,7 @@
         <v>0</v>
       </c>
       <c r="P211" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="Q211" s="7"/>
     </row>
@@ -15913,19 +15944,19 @@
         <v>47</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="D212" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="F212" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G212" s="8" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="H212" s="10"/>
       <c r="I212" s="10"/>
@@ -15949,19 +15980,19 @@
         <v>47</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="D213" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E213" s="10" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="F213" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G213" s="8" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="H213" s="10"/>
       <c r="I213" s="10"/>
@@ -15985,19 +16016,19 @@
         <v>47</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="F214" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G214" s="8" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="H214" s="10"/>
       <c r="I214" s="10"/>
@@ -16011,7 +16042,7 @@
         <v>0</v>
       </c>
       <c r="P214" s="10" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="Q214" s="7"/>
     </row>
@@ -16023,17 +16054,17 @@
         <v>47</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="E215" s="10"/>
       <c r="F215" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G215" s="8" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="H215" s="10"/>
       <c r="I215" s="10"/>
@@ -16057,17 +16088,17 @@
         <v>47</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="E216" s="10"/>
       <c r="F216" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G216" s="8" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="H216" s="10"/>
       <c r="I216" s="10"/>
@@ -16085,19 +16116,19 @@
     </row>
     <row r="217" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="10" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="B217" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="D217" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="F217" s="8" t="s">
         <v>91</v>
@@ -16121,19 +16152,19 @@
     </row>
     <row r="218" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="10" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="B218" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="D218" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E218" s="10" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="F218" s="8" t="s">
         <v>91</v>
@@ -16157,19 +16188,19 @@
     </row>
     <row r="219" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="10" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="B219" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="D219" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E219" s="10" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="F219" s="8" t="s">
         <v>91</v>
@@ -16193,19 +16224,19 @@
     </row>
     <row r="220" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="10" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="B220" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="D220" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="F220" s="8" t="s">
         <v>91</v>
@@ -16225,25 +16256,25 @@
         <v>0</v>
       </c>
       <c r="P220" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="Q220" s="7"/>
     </row>
     <row r="221" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="10" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="B221" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="D221" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E221" s="10" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="F221" s="8" t="s">
         <v>91</v>
@@ -16267,19 +16298,19 @@
     </row>
     <row r="222" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="10" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="B222" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="D222" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="F222" s="8" t="s">
         <v>91</v>
@@ -16303,19 +16334,19 @@
     </row>
     <row r="223" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="10" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="B223" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="D223" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="F223" s="8" t="s">
         <v>91</v>
@@ -16335,25 +16366,25 @@
         <v>0</v>
       </c>
       <c r="P223" s="7" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="Q223" s="7"/>
     </row>
     <row r="224" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="10" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="B224" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="D224" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="F224" s="8" t="s">
         <v>91</v>
@@ -16373,72 +16404,72 @@
         <v>0</v>
       </c>
       <c r="P224" s="7" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="Q224" s="7"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="F225" s="0"/>
       <c r="H225" s="1" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="M225" s="1" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="R225" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="13" t="s">
-        <v>657</v>
+      <c r="A226" s="15" t="s">
+        <v>665</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R227" s="1" t="n">
         <v>1</v>
@@ -16446,47 +16477,47 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R228" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="13" t="s">
-        <v>663</v>
+      <c r="A229" s="15" t="s">
+        <v>671</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R230" s="1" t="n">
         <v>1</v>
@@ -16494,33 +16525,33 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>658</v>
-      </c>
       <c r="C231" s="1" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R231" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="13" t="s">
-        <v>667</v>
+      <c r="A232" s="15" t="s">
+        <v>675</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="C232" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F232" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="R232" s="1" t="n">
         <v>1</v>
@@ -16528,16 +16559,16 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="C233" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F233" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="R233" s="1" t="n">
         <v>1</v>
@@ -16545,16 +16576,16 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="R234" s="1" t="n">
         <v>1</v>
@@ -16562,16 +16593,16 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="R235" s="1" t="n">
         <v>1</v>
@@ -16579,33 +16610,33 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="R236" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="13" t="s">
-        <v>676</v>
+      <c r="A237" s="15" t="s">
+        <v>684</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="R237" s="1" t="n">
         <v>1</v>
@@ -16613,69 +16644,69 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q238" s="1" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="R238" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="13" t="s">
-        <v>681</v>
+      <c r="A239" s="15" t="s">
+        <v>689</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C239" s="14" t="s">
-        <v>682</v>
+      <c r="C239" s="16" t="s">
+        <v>690</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="Q239" s="0"/>
     </row>
     <row r="240" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C240" s="14" t="s">
-        <v>686</v>
+      <c r="C240" s="16" t="s">
+        <v>694</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R240" s="1" t="n">
         <v>1</v>
@@ -16683,22 +16714,22 @@
     </row>
     <row r="241" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C241" s="14" t="s">
-        <v>686</v>
+      <c r="C241" s="16" t="s">
+        <v>694</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R241" s="1" t="n">
         <v>1</v>
@@ -16706,56 +16737,56 @@
     </row>
     <row r="242" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C242" s="14" t="s">
-        <v>689</v>
+      <c r="C242" s="16" t="s">
+        <v>697</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="Q243" s="15" t="s">
-        <v>692</v>
+        <v>668</v>
+      </c>
+      <c r="Q243" s="17" t="s">
+        <v>700</v>
       </c>
       <c r="R243" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="15" t="s">
-        <v>693</v>
-      </c>
-      <c r="B244" s="15" t="s">
+      <c r="A244" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="B244" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C244" s="15" t="s">
-        <v>694</v>
+      <c r="C244" s="17" t="s">
+        <v>702</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q244" s="0"/>
       <c r="R244" s="1" t="n">
@@ -16763,20 +16794,20 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="15" t="s">
-        <v>695</v>
-      </c>
-      <c r="B245" s="15" t="s">
+      <c r="A245" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="B245" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C245" s="15" t="s">
-        <v>696</v>
+      <c r="C245" s="17" t="s">
+        <v>704</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q245" s="0"/>
       <c r="R245" s="1" t="n">
@@ -16785,13 +16816,13 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="R246" s="1" t="n">
         <v>1</v>
@@ -16799,13 +16830,13 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="R247" s="1" t="n">
         <v>1</v>
@@ -16813,13 +16844,13 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="R248" s="1" t="n">
         <v>1</v>
@@ -16827,13 +16858,13 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="R249" s="1" t="n">
         <v>1</v>
@@ -16841,13 +16872,13 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="R250" s="1" t="n">
         <v>1</v>
@@ -16855,13 +16886,13 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="R251" s="1" t="n">
         <v>1</v>
@@ -16869,13 +16900,13 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="D252" s="0"/>
       <c r="E252" s="0"/>
@@ -16885,13 +16916,13 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="D253" s="0"/>
       <c r="E253" s="0"/>
@@ -16901,13 +16932,13 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="D254" s="0"/>
       <c r="E254" s="0"/>
@@ -16917,13 +16948,13 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="D255" s="0"/>
       <c r="E255" s="0"/>
@@ -16933,13 +16964,13 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="D256" s="0"/>
       <c r="E256" s="0"/>
@@ -16949,13 +16980,13 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="D257" s="0"/>
       <c r="E257" s="0"/>
@@ -16965,13 +16996,13 @@
     </row>
     <row r="258" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C258" s="14" t="s">
-        <v>722</v>
+      <c r="C258" s="16" t="s">
+        <v>730</v>
       </c>
       <c r="R258" s="1" t="n">
         <v>1</v>
@@ -16979,16 +17010,16 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="R259" s="1" t="n">
         <v>1</v>
@@ -16996,16 +17027,16 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="R260" s="1" t="n">
         <v>1</v>
@@ -17013,13 +17044,13 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="R261" s="1" t="n">
         <v>1</v>
@@ -17027,13 +17058,13 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="R262" s="1" t="n">
         <v>1</v>
@@ -17041,16 +17072,16 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="R263" s="1" t="n">
         <v>1</v>
@@ -17058,16 +17089,16 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="R264" s="1" t="n">
         <v>1</v>
@@ -17075,16 +17106,16 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="R265" s="1" t="n">
         <v>1</v>
@@ -17092,16 +17123,16 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="R266" s="1" t="n">
         <v>1</v>
@@ -17109,13 +17140,13 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="R267" s="1" t="n">
         <v>1</v>
@@ -17123,13 +17154,13 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="R268" s="1" t="n">
         <v>1</v>
@@ -17137,13 +17168,13 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="R269" s="1" t="n">
         <v>1</v>
@@ -17151,13 +17182,13 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="R270" s="1" t="n">
         <v>1</v>
@@ -17165,13 +17196,13 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="R271" s="1" t="n">
         <v>1</v>
@@ -17179,13 +17210,13 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="R272" s="1" t="n">
         <v>1</v>
@@ -17193,16 +17224,16 @@
     </row>
     <row r="273" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="Q273" s="16" t="s">
-        <v>755</v>
+        <v>762</v>
+      </c>
+      <c r="Q273" s="18" t="s">
+        <v>763</v>
       </c>
       <c r="R273" s="1" t="n">
         <v>1</v>
@@ -17210,16 +17241,16 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="R274" s="1" t="n">
         <v>1</v>
@@ -17227,16 +17258,16 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="R275" s="1" t="n">
         <v>1</v>
@@ -17244,13 +17275,13 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="R276" s="1" t="n">
         <v>1</v>
@@ -17258,16 +17289,16 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="R277" s="1" t="n">
         <v>1</v>
@@ -17275,16 +17306,16 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="R278" s="1" t="n">
         <v>1</v>
@@ -17292,117 +17323,117 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C283" s="14" t="s">
-        <v>771</v>
+        <v>270</v>
+      </c>
+      <c r="C283" s="16" t="s">
+        <v>779</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="H287" s="1" t="n">
         <v>1</v>
@@ -17411,125 +17442,125 @@
         <v>2</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="K287" s="1" t="n">
         <v>3</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="M287" s="1" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P238"/>
+  <autoFilter ref="A1:Q278"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -17552,7 +17583,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="1" sqref="A51:A61 H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17569,455 +17600,455 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>785</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="17" t="s">
-        <v>786</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
-        <v>787</v>
-      </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
+      <c r="A1" s="19" t="s">
+        <v>793</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="K1" s="19"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>790</v>
-      </c>
-      <c r="C2" s="18"/>
+        <v>798</v>
+      </c>
+      <c r="C2" s="20"/>
       <c r="D2" s="10" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>792</v>
-      </c>
-      <c r="F2" s="18"/>
+        <v>800</v>
+      </c>
+      <c r="F2" s="20"/>
       <c r="G2" s="10" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>793</v>
-      </c>
-      <c r="I2" s="18"/>
+        <v>801</v>
+      </c>
+      <c r="I2" s="20"/>
       <c r="J2" s="10" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="L2" s="18"/>
+        <v>803</v>
+      </c>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>797</v>
-      </c>
-      <c r="C3" s="18"/>
+        <v>805</v>
+      </c>
+      <c r="C3" s="20"/>
       <c r="D3" s="10" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>798</v>
-      </c>
-      <c r="F3" s="18"/>
+        <v>806</v>
+      </c>
+      <c r="F3" s="20"/>
       <c r="G3" s="10" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>799</v>
-      </c>
-      <c r="I3" s="18"/>
+        <v>807</v>
+      </c>
+      <c r="I3" s="20"/>
       <c r="J3" s="10" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>801</v>
-      </c>
-      <c r="L3" s="18"/>
+        <v>809</v>
+      </c>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>131</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>802</v>
-      </c>
-      <c r="C4" s="18"/>
+        <v>810</v>
+      </c>
+      <c r="C4" s="20"/>
       <c r="D4" s="10" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>803</v>
-      </c>
-      <c r="F4" s="18"/>
+        <v>811</v>
+      </c>
+      <c r="F4" s="20"/>
       <c r="G4" s="10" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="I4" s="18"/>
+        <v>813</v>
+      </c>
+      <c r="I4" s="20"/>
       <c r="J4" s="10" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="L4" s="18"/>
+        <v>815</v>
+      </c>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>809</v>
-      </c>
-      <c r="C5" s="18"/>
+        <v>817</v>
+      </c>
+      <c r="C5" s="20"/>
       <c r="D5" s="10" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>811</v>
-      </c>
-      <c r="F5" s="18"/>
+        <v>819</v>
+      </c>
+      <c r="F5" s="20"/>
       <c r="G5" s="10" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>813</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="18"/>
+        <v>821</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>815</v>
-      </c>
-      <c r="C6" s="18"/>
+        <v>823</v>
+      </c>
+      <c r="C6" s="20"/>
       <c r="D6" s="10" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>817</v>
-      </c>
-      <c r="F6" s="18"/>
+        <v>825</v>
+      </c>
+      <c r="F6" s="20"/>
       <c r="G6" s="10" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>819</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+        <v>827</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>821</v>
-      </c>
-      <c r="C7" s="18"/>
+        <v>829</v>
+      </c>
+      <c r="C7" s="20"/>
       <c r="D7" s="10" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>823</v>
-      </c>
-      <c r="F7" s="18"/>
+        <v>831</v>
+      </c>
+      <c r="F7" s="20"/>
       <c r="G7" s="10" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>824</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="L7" s="18"/>
+        <v>832</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>826</v>
-      </c>
-      <c r="C8" s="18"/>
+        <v>834</v>
+      </c>
+      <c r="C8" s="20"/>
       <c r="D8" s="10" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>828</v>
-      </c>
-      <c r="F8" s="18"/>
+        <v>836</v>
+      </c>
+      <c r="F8" s="20"/>
       <c r="G8" s="10" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>829</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+        <v>837</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>831</v>
-      </c>
-      <c r="C9" s="18"/>
+        <v>839</v>
+      </c>
+      <c r="C9" s="20"/>
       <c r="D9" s="10" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>833</v>
-      </c>
-      <c r="F9" s="18"/>
+        <v>841</v>
+      </c>
+      <c r="F9" s="20"/>
       <c r="G9" s="10" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+        <v>842</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>836</v>
-      </c>
-      <c r="C10" s="18"/>
+        <v>844</v>
+      </c>
+      <c r="C10" s="20"/>
       <c r="D10" s="10" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>838</v>
-      </c>
-      <c r="F10" s="18"/>
+        <v>846</v>
+      </c>
+      <c r="F10" s="20"/>
       <c r="G10" s="10" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>839</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+        <v>847</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>841</v>
-      </c>
-      <c r="C11" s="18"/>
+        <v>849</v>
+      </c>
+      <c r="C11" s="20"/>
       <c r="D11" s="10" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>843</v>
-      </c>
-      <c r="F11" s="18"/>
+        <v>851</v>
+      </c>
+      <c r="F11" s="20"/>
       <c r="G11" s="10" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>844</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+        <v>852</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="C12" s="18"/>
+        <v>854</v>
+      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="10" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>848</v>
-      </c>
-      <c r="F12" s="18"/>
+        <v>856</v>
+      </c>
+      <c r="F12" s="20"/>
       <c r="G12" s="10" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>849</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+        <v>857</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>851</v>
-      </c>
-      <c r="C13" s="18"/>
+        <v>859</v>
+      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="10" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>853</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+        <v>861</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>855</v>
-      </c>
-      <c r="C14" s="18"/>
+        <v>863</v>
+      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="10" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>857</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
+        <v>865</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>859</v>
-      </c>
-      <c r="C15" s="18"/>
+        <v>867</v>
+      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="10" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>861</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+        <v>869</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="10" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>862</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
+        <v>870</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="10" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>864</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
+        <v>872</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="7" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="7" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="7" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="7" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>

--- a/vignettes/definicje_zmiennych.xlsx
+++ b/vignettes/definicje_zmiennych.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="zmienne" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="schemat" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="nauka" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">zmienne!$A$1:$S$278</definedName>
@@ -17,29 +18,29 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">zmienne!$A$1:$S$278</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">zmienne!$A$1:$S$278</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">zmienne!$A$1:$S$278</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$278</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$238</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$278</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$278</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$278</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$238</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$278</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$238</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$224</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$278</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$238</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$224</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$224</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$223</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
@@ -51,6 +52,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$160</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -62,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="878">
   <si>
     <t xml:space="preserve">zmienna</t>
   </si>
@@ -1552,7 +1555,7 @@
     <t xml:space="preserve">PM_X_S</t>
   </si>
   <si>
-    <t xml:space="preserve">100 * NM_X_S / NM_X_S</t>
+    <t xml:space="preserve">100 * NM_X_S / LEN</t>
   </si>
   <si>
     <t xml:space="preserve">STUDPROC</t>
@@ -1561,7 +1564,7 @@
     <t xml:space="preserve">PM_X_N</t>
   </si>
   <si>
-    <t xml:space="preserve">100 * NM_X_N / NM_X_N</t>
+    <t xml:space="preserve">100 * NM_X_N / LEN</t>
   </si>
   <si>
     <t xml:space="preserve">Identyfikator powiatu zamieszkania na koniec danego okresu
@@ -2110,6 +2113,300 @@
     <t xml:space="preserve">PM_B_N, PPOW_B_N</t>
   </si>
   <si>
+    <t xml:space="preserve">1. człon – rodzaj zmiennej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. człon – sytuacja na rynku pracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. człon – studiowanie/kariera naukowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. człon – okienko czasu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dla miesięcy, w których studiował (wszystko jedno, czy na tym samym, czy innym kierunku studiów)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x-ty rok przed uzyskaniu dyplomu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procent miesięcy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dla miesięcy, w których nie studiował na żadnym kierunku studiów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x-ty rok po uzyskaniem dyplomu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suma zarobków</t>
+  </si>
+  <si>
+    <t xml:space="preserve">netat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dla miesięcy, w których studiował na danym (identyfikowanym przez ID_ZDAU) kierunku studiów – implikuje bycie stałą!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[brak]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okres od 1 miesiąca po uzyskaniu dyplomu do końca badanego okresu lub stała</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">średnie zarobki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etat/netat/samoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dla miesięcy przed rozpoczęciem danego (identyfikowanego przez ID_ZDAU) kierunku studiów – implikuje bycie stałą!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba miesięcy do uzyskania pierwszej pracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etat/netat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dla miesięcy, w których studiował – implikuje bycie stałą!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba utrat pracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etat/samoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okres ukończonych jako pierwsze studiów licencjackich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">należenie do pewnej podzbiorowości, np. IF_E – czy pracował na etacie, IF_ST czy był studentem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brak danych ZUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okres ukończonych jako pierwsze studiów magisterskich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba pracodawców</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">macierzyński/tacierzyński</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okres ukończonych jako pierwsze studiów doktoranckich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liczba nowych pracodawców</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mundurowy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okres od uzyskania pierwszego tytułu doktora do uzyskania pierwszego tytułu doktora habilitowanego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">średnia liczba pracodawców</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sędzia, itp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okres od uzyskania pierwszego tytułu doktora habilitowanego do uzyskania tytułu profesora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procent pracodawców</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bezrobocie wliczając brak danych ZUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okres od uzyskania tytułu profesora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">średnia liczba pracodawco-miesięcy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bezrobocie pomijając braki danych ZUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">średnia liczba nowych pracodawców (w przeliczeniu na 12 miesięcy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inny tytuł ubezpieczenia ZUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">średnia liczba utrat pracy (w przeliczeniu na 12 miesięcy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bez etat/netat/samoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bez etatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dowolna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etat/netat w nauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etat w nauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etat/netat jednocześnie w nauce i poza nauką</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etat/netat poza nauką</t>
+  </si>
+  <si>
     <t xml:space="preserve">ETAP</t>
   </si>
   <si>
@@ -2120,24 +2417,6 @@
   </si>
   <si>
     <t xml:space="preserve">pozostałe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMGR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROF</t>
   </si>
   <si>
     <t xml:space="preserve">DATA_OD</t>
@@ -2495,9 +2774,6 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
     <t xml:space="preserve">CUDZOZIEMIEC</t>
   </si>
   <si>
@@ -2507,9 +2783,6 @@
     <t xml:space="preserve">studia stacjonarne/niestacjonarne</t>
   </si>
   <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
     <t xml:space="preserve">POZIOM</t>
   </si>
   <si>
@@ -2529,276 +2802,6 @@
   </si>
   <si>
     <t xml:space="preserve">ROK_UR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. człon – rodzaj zmiennej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. człon – sytuacja na rynku pracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. człon – studiowanie/kariera naukowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. człon – okienko czasu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liczba miesięcy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dla miesięcy, w których studiował (wszystko jedno, czy na tym samym, czy innym kierunku studiów)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x-ty rok przed uzyskaniu dyplomu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procent miesięcy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dla miesięcy, w których nie studiował na żadnym kierunku studiów</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Px</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x-ty rok po uzyskaniem dyplomu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suma zarobków</t>
-  </si>
-  <si>
-    <t xml:space="preserve">netat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dla miesięcy, w których studiował na danym (identyfikowanym przez ID_ZDAU) kierunku studiów – implikuje bycie stałą!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[brak]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">okres od 1 miesiąca po uzyskaniu dyplomu do końca badanego okresu lub stała</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">średnie zarobki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etat/netat/samoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dla miesięcy przed rozpoczęciem danego (identyfikowanego przez ID_ZDAU) kierunku studiów – implikuje bycie stałą!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liczba miesięcy do uzyskania pierwszej pracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etat/netat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dla miesięcy, w których studiował – implikuje bycie stałą!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liczba utrat pracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etat/samoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">okres ukończonych jako pierwsze studiów licencjackich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">należenie do pewnej podzbiorowości, np. IF_E – czy pracował na etacie, IF_ST czy był studentem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brak danych ZUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">okres ukończonych jako pierwsze studiów magisterskich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liczba pracodawców</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">macierzyński/tacierzyński</t>
-  </si>
-  <si>
-    <t xml:space="preserve">okres ukończonych jako pierwsze studiów doktoranckich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liczba nowych pracodawców</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mundurowy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">okres od uzyskania pierwszego tytułu doktora do uzyskania pierwszego tytułu doktora habilitowanego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">średnia liczba pracodawców</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sędzia, itp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">okres od uzyskania pierwszego tytułu doktora habilitowanego do uzyskania tytułu profesora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">procent pracodawców</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bezrobocie wliczając brak danych ZUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">okres od uzyskania tytułu profesora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">średnia liczba pracodawco-miesięcy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bezrobocie pomijając braki danych ZUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">średnia liczba nowych pracodawców (w przeliczeniu na 12 miesięcy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inny tytuł ubezpieczenia ZUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">średnia liczba utrat pracy (w przeliczeniu na 12 miesięcy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bez etat/netat/samoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bez etatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dowolna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etat/netat w nauce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etat w nauce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZNPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etat/netat jednocześnie w nauce i poza nauką</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etat/netat poza nauką</t>
   </si>
 </sst>
 </file>
@@ -3168,6 +3171,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3181,18 +3196,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3293,12 +3296,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMH296"/>
+  <dimension ref="A1:AMH224"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F210" activeCellId="0" sqref="F210"/>
+      <selection pane="bottomLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6160,7 +6163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
         <v>103</v>
       </c>
@@ -14161,7 +14164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="10" t="s">
         <v>476</v>
       </c>
@@ -16638,1157 +16641,6 @@
         <v>646</v>
       </c>
       <c r="Q224" s="7"/>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="F225" s="0"/>
-      <c r="H225" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="I225" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="J225" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="K225" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="L225" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="M225" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="R225" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="14" t="s">
-        <v>660</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="R227" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="R228" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="14" t="s">
-        <v>666</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="R230" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="R231" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="14" t="s">
-        <v>670</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="R232" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="R233" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="R234" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="R235" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="R236" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="R237" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="H238" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I238" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q238" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="R238" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C239" s="15" t="s">
-        <v>685</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="Q239" s="0"/>
-    </row>
-    <row r="240" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C240" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="R240" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C241" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="R241" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C242" s="15" t="s">
-        <v>692</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="Q243" s="16" t="s">
-        <v>695</v>
-      </c>
-      <c r="R243" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="16" t="s">
-        <v>696</v>
-      </c>
-      <c r="B244" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C244" s="16" t="s">
-        <v>697</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q244" s="0"/>
-      <c r="R244" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="16" t="s">
-        <v>698</v>
-      </c>
-      <c r="B245" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C245" s="16" t="s">
-        <v>699</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q245" s="0"/>
-      <c r="R245" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="R246" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C247" s="0" t="s">
-        <v>703</v>
-      </c>
-      <c r="R247" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="R248" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="R249" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="R250" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="R251" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D252" s="0"/>
-      <c r="E252" s="0"/>
-      <c r="R252" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="D253" s="0"/>
-      <c r="E253" s="0"/>
-      <c r="R253" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="D254" s="0"/>
-      <c r="E254" s="0"/>
-      <c r="R254" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="D255" s="0"/>
-      <c r="E255" s="0"/>
-      <c r="R255" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="D256" s="0"/>
-      <c r="E256" s="0"/>
-      <c r="R256" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="D257" s="0"/>
-      <c r="E257" s="0"/>
-      <c r="R257" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C258" s="15" t="s">
-        <v>725</v>
-      </c>
-      <c r="R258" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="R259" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="R260" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="R261" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="R262" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="R263" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="R264" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="R265" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="R266" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="R267" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="R268" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="R269" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="R270" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="R271" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="R272" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="Q273" s="17" t="s">
-        <v>758</v>
-      </c>
-      <c r="R273" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="R274" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="R275" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="R276" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R277" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R278" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C283" s="15" t="s">
-        <v>774</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="H283" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="I283" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="H284" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I284" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="H286" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="I286" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="H287" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J287" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="K287" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L287" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="M287" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="N287" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F293" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>687</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S278"/>
@@ -17813,7 +16665,7 @@
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -17831,463 +16683,463 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>788</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="18" t="s">
-        <v>789</v>
-      </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="18" t="s">
-        <v>790</v>
-      </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="18" t="s">
-        <v>791</v>
-      </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
+      <c r="A1" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="K1" s="14"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>792</v>
+        <v>654</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>793</v>
-      </c>
-      <c r="C2" s="19"/>
+        <v>655</v>
+      </c>
+      <c r="C2" s="15"/>
       <c r="D2" s="10" t="s">
-        <v>794</v>
+        <v>656</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="F2" s="19"/>
+        <v>657</v>
+      </c>
+      <c r="F2" s="15"/>
       <c r="G2" s="10" t="s">
-        <v>776</v>
+        <v>658</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="I2" s="19"/>
+        <v>659</v>
+      </c>
+      <c r="I2" s="15"/>
       <c r="J2" s="10" t="s">
-        <v>797</v>
+        <v>660</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>798</v>
-      </c>
-      <c r="L2" s="19"/>
+        <v>661</v>
+      </c>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>799</v>
+        <v>662</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>800</v>
-      </c>
-      <c r="C3" s="19"/>
+        <v>663</v>
+      </c>
+      <c r="C3" s="15"/>
       <c r="D3" s="10" t="s">
-        <v>776</v>
+        <v>658</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>801</v>
-      </c>
-      <c r="F3" s="19"/>
+        <v>664</v>
+      </c>
+      <c r="F3" s="15"/>
       <c r="G3" s="10" t="s">
-        <v>780</v>
+        <v>665</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>802</v>
-      </c>
-      <c r="I3" s="19"/>
+        <v>666</v>
+      </c>
+      <c r="I3" s="15"/>
       <c r="J3" s="10" t="s">
-        <v>803</v>
+        <v>667</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>804</v>
-      </c>
-      <c r="L3" s="19"/>
+        <v>668</v>
+      </c>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="C4" s="19"/>
+        <v>669</v>
+      </c>
+      <c r="C4" s="15"/>
       <c r="D4" s="10" t="s">
-        <v>780</v>
+        <v>665</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>806</v>
-      </c>
-      <c r="F4" s="19"/>
+        <v>670</v>
+      </c>
+      <c r="F4" s="15"/>
       <c r="G4" s="10" t="s">
-        <v>807</v>
+        <v>671</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>808</v>
-      </c>
-      <c r="I4" s="19"/>
+        <v>672</v>
+      </c>
+      <c r="I4" s="15"/>
       <c r="J4" s="10" t="s">
-        <v>809</v>
+        <v>673</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>810</v>
-      </c>
-      <c r="L4" s="19"/>
+        <v>674</v>
+      </c>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>811</v>
+        <v>675</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>812</v>
-      </c>
-      <c r="C5" s="19"/>
+        <v>676</v>
+      </c>
+      <c r="C5" s="15"/>
       <c r="D5" s="10" t="s">
-        <v>813</v>
+        <v>677</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>814</v>
-      </c>
-      <c r="F5" s="19"/>
+        <v>678</v>
+      </c>
+      <c r="F5" s="15"/>
       <c r="G5" s="10" t="s">
-        <v>815</v>
+        <v>679</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>816</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="19"/>
-    </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>680</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>817</v>
+        <v>681</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>818</v>
-      </c>
-      <c r="C6" s="19"/>
+        <v>682</v>
+      </c>
+      <c r="C6" s="15"/>
       <c r="D6" s="10" t="s">
-        <v>819</v>
+        <v>683</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>820</v>
-      </c>
-      <c r="F6" s="19"/>
+        <v>684</v>
+      </c>
+      <c r="F6" s="15"/>
       <c r="G6" s="10" t="s">
-        <v>821</v>
+        <v>685</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>822</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+        <v>686</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>823</v>
+        <v>687</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>824</v>
-      </c>
-      <c r="C7" s="19"/>
+        <v>688</v>
+      </c>
+      <c r="C7" s="15"/>
       <c r="D7" s="7" t="s">
-        <v>825</v>
+        <v>689</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="F7" s="19"/>
+        <v>690</v>
+      </c>
+      <c r="F7" s="15"/>
       <c r="G7" s="10" t="s">
-        <v>654</v>
+        <v>691</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>827</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="L7" s="19"/>
+        <v>692</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>828</v>
+        <v>693</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>829</v>
-      </c>
-      <c r="C8" s="19"/>
+        <v>694</v>
+      </c>
+      <c r="C8" s="15"/>
       <c r="D8" s="10" t="s">
-        <v>830</v>
+        <v>695</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>831</v>
-      </c>
-      <c r="F8" s="19"/>
+        <v>696</v>
+      </c>
+      <c r="F8" s="15"/>
       <c r="G8" s="10" t="s">
-        <v>655</v>
+        <v>697</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>832</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+        <v>698</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>833</v>
+        <v>699</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="C9" s="19"/>
+        <v>700</v>
+      </c>
+      <c r="C9" s="15"/>
       <c r="D9" s="10" t="s">
-        <v>835</v>
+        <v>701</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>836</v>
-      </c>
-      <c r="F9" s="19"/>
+        <v>702</v>
+      </c>
+      <c r="F9" s="15"/>
       <c r="G9" s="10" t="s">
-        <v>656</v>
+        <v>703</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>837</v>
-      </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+        <v>704</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>838</v>
+        <v>705</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>839</v>
-      </c>
-      <c r="C10" s="19"/>
+        <v>706</v>
+      </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="10" t="s">
-        <v>840</v>
+        <v>707</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>841</v>
-      </c>
-      <c r="F10" s="19"/>
+        <v>708</v>
+      </c>
+      <c r="F10" s="15"/>
       <c r="G10" s="10" t="s">
-        <v>657</v>
+        <v>709</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>842</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+        <v>710</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>843</v>
+        <v>711</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>844</v>
-      </c>
-      <c r="C11" s="19"/>
+        <v>712</v>
+      </c>
+      <c r="C11" s="15"/>
       <c r="D11" s="10" t="s">
-        <v>845</v>
+        <v>713</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="F11" s="19"/>
+        <v>714</v>
+      </c>
+      <c r="F11" s="15"/>
       <c r="G11" s="10" t="s">
-        <v>658</v>
+        <v>715</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+        <v>716</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>848</v>
+        <v>717</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>849</v>
-      </c>
-      <c r="C12" s="19"/>
+        <v>718</v>
+      </c>
+      <c r="C12" s="15"/>
       <c r="D12" s="10" t="s">
-        <v>850</v>
+        <v>719</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>851</v>
-      </c>
-      <c r="F12" s="19"/>
+        <v>720</v>
+      </c>
+      <c r="F12" s="15"/>
       <c r="G12" s="10" t="s">
-        <v>659</v>
+        <v>721</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+        <v>722</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>853</v>
+        <v>723</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>854</v>
-      </c>
-      <c r="C13" s="19"/>
+        <v>724</v>
+      </c>
+      <c r="C13" s="15"/>
       <c r="D13" s="10" t="s">
-        <v>855</v>
+        <v>725</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+        <v>726</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>857</v>
+        <v>727</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="C14" s="19"/>
+        <v>728</v>
+      </c>
+      <c r="C14" s="15"/>
       <c r="D14" s="10" t="s">
-        <v>859</v>
+        <v>729</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>860</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+        <v>730</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>861</v>
+        <v>731</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>862</v>
-      </c>
-      <c r="C15" s="19"/>
+        <v>732</v>
+      </c>
+      <c r="C15" s="15"/>
       <c r="D15" s="10" t="s">
-        <v>863</v>
+        <v>733</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>864</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+        <v>734</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="10" t="s">
-        <v>865</v>
+        <v>735</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>866</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+        <v>736</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="10" t="s">
-        <v>821</v>
+        <v>685</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>867</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+        <v>737</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="10" t="s">
-        <v>868</v>
+        <v>738</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>869</v>
+        <v>739</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="7" t="s">
-        <v>870</v>
+        <v>740</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>871</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="7" t="s">
-        <v>872</v>
+        <v>742</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>873</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="7" t="s">
-        <v>874</v>
+        <v>744</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>875</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="7" t="s">
-        <v>876</v>
+        <v>746</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>877</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -18305,4 +17157,2176 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regularna"&amp;12Strona &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:S73"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
+        <v>752</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="118.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="R21" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="19" t="s">
+        <v>790</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="R22" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="20" t="s">
+        <v>850</v>
+      </c>
+      <c r="R50" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regularna"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regularna"&amp;12Strona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/vignettes/definicje_zmiennych.xlsx
+++ b/vignettes/definicje_zmiennych.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="zmienne" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,12 +13,12 @@
     <sheet name="nauka" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">zmienne!$A$1:$S$256</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">zmienne!$A$1:$S$256</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">zmienne!$A$1:$S$256</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">zmienne!$A$1:$S$256</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">zmienne!$A$1:$S$256</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$254</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">zmienne!$A$1:$S$257</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">zmienne!$A$1:$S$257</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">zmienne!$A$1:$S$257</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">zmienne!$A$1:$S$257</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">zmienne!$A$1:$S$257</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$257</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$254</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$254</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$254</definedName>
@@ -26,16 +26,16 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$254</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$254</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$254</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$254</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$254</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$254</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$254</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$254</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$254</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$254</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$254</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$253</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$254</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$254</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$254</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$254</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$254</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$254</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$254</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$254</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$253</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$254</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$253</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$253</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$253</definedName>
@@ -43,11 +43,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$253</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$253</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$190</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$190</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$253</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$190</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$253</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$190</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$253</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$190</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$253</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$190</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$190</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$190</definedName>
@@ -60,6 +60,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$190</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$190</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$190</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$190</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="953">
   <si>
     <t xml:space="preserve">zmienna</t>
   </si>
@@ -2297,16 +2298,22 @@
     <t xml:space="preserve">PM_B_N, PPOW_B_N</t>
   </si>
   <si>
+    <t xml:space="preserve">ROK_UR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rok urodzenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">przygotuj_zdau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zdu1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLEC</t>
   </si>
   <si>
     <t xml:space="preserve">płeć</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agreguj_do_miesiecy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zus</t>
   </si>
   <si>
     <t xml:space="preserve">STATUS</t>
@@ -2737,9 +2744,6 @@
     <t xml:space="preserve">POZIOM != 3</t>
   </si>
   <si>
-    <t xml:space="preserve">przygotuj_zdau</t>
-  </si>
-  <si>
     <t xml:space="preserve">ROK_SKR</t>
   </si>
   <si>
@@ -3031,9 +3035,6 @@
   </si>
   <si>
     <t xml:space="preserve">identyfikator „łącznika kierunków” przy indywidualnych studiach międzyobszarowych</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROK_UR</t>
   </si>
 </sst>
 </file>
@@ -3175,7 +3176,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3224,30 +3225,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3258,10 +3235,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3377,12 +3350,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ256"/>
+  <dimension ref="A1:AMH257"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I255" activeCellId="0" sqref="I255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8193,134 +8166,3146 @@
       <c r="AMG49" s="0"/>
       <c r="AMH49" s="0"/>
     </row>
-    <row r="50" s="16" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
+    <row r="50" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="I50" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="14" t="n">
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="9" t="n">
         <f aca="false">E50=""</f>
         <v>0</v>
       </c>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="S50" s="16" t="s">
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="0"/>
+      <c r="S50" s="0" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" s="16" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="s">
+      <c r="T50" s="0"/>
+      <c r="U50" s="0"/>
+      <c r="V50" s="0"/>
+      <c r="W50" s="0"/>
+      <c r="X50" s="0"/>
+      <c r="Y50" s="0"/>
+      <c r="Z50" s="0"/>
+      <c r="AA50" s="0"/>
+      <c r="AB50" s="0"/>
+      <c r="AC50" s="0"/>
+      <c r="AD50" s="0"/>
+      <c r="AE50" s="0"/>
+      <c r="AF50" s="0"/>
+      <c r="AG50" s="0"/>
+      <c r="AH50" s="0"/>
+      <c r="AI50" s="0"/>
+      <c r="AJ50" s="0"/>
+      <c r="AK50" s="0"/>
+      <c r="AL50" s="0"/>
+      <c r="AM50" s="0"/>
+      <c r="AN50" s="0"/>
+      <c r="AO50" s="0"/>
+      <c r="AP50" s="0"/>
+      <c r="AQ50" s="0"/>
+      <c r="AR50" s="0"/>
+      <c r="AS50" s="0"/>
+      <c r="AT50" s="0"/>
+      <c r="AU50" s="0"/>
+      <c r="AV50" s="0"/>
+      <c r="AW50" s="0"/>
+      <c r="AX50" s="0"/>
+      <c r="AY50" s="0"/>
+      <c r="AZ50" s="0"/>
+      <c r="BA50" s="0"/>
+      <c r="BB50" s="0"/>
+      <c r="BC50" s="0"/>
+      <c r="BD50" s="0"/>
+      <c r="BE50" s="0"/>
+      <c r="BF50" s="0"/>
+      <c r="BG50" s="0"/>
+      <c r="BH50" s="0"/>
+      <c r="BI50" s="0"/>
+      <c r="BJ50" s="0"/>
+      <c r="BK50" s="0"/>
+      <c r="BL50" s="0"/>
+      <c r="BM50" s="0"/>
+      <c r="BN50" s="0"/>
+      <c r="BO50" s="0"/>
+      <c r="BP50" s="0"/>
+      <c r="BQ50" s="0"/>
+      <c r="BR50" s="0"/>
+      <c r="BS50" s="0"/>
+      <c r="BT50" s="0"/>
+      <c r="BU50" s="0"/>
+      <c r="BV50" s="0"/>
+      <c r="BW50" s="0"/>
+      <c r="BX50" s="0"/>
+      <c r="BY50" s="0"/>
+      <c r="BZ50" s="0"/>
+      <c r="CA50" s="0"/>
+      <c r="CB50" s="0"/>
+      <c r="CC50" s="0"/>
+      <c r="CD50" s="0"/>
+      <c r="CE50" s="0"/>
+      <c r="CF50" s="0"/>
+      <c r="CG50" s="0"/>
+      <c r="CH50" s="0"/>
+      <c r="CI50" s="0"/>
+      <c r="CJ50" s="0"/>
+      <c r="CK50" s="0"/>
+      <c r="CL50" s="0"/>
+      <c r="CM50" s="0"/>
+      <c r="CN50" s="0"/>
+      <c r="CO50" s="0"/>
+      <c r="CP50" s="0"/>
+      <c r="CQ50" s="0"/>
+      <c r="CR50" s="0"/>
+      <c r="CS50" s="0"/>
+      <c r="CT50" s="0"/>
+      <c r="CU50" s="0"/>
+      <c r="CV50" s="0"/>
+      <c r="CW50" s="0"/>
+      <c r="CX50" s="0"/>
+      <c r="CY50" s="0"/>
+      <c r="CZ50" s="0"/>
+      <c r="DA50" s="0"/>
+      <c r="DB50" s="0"/>
+      <c r="DC50" s="0"/>
+      <c r="DD50" s="0"/>
+      <c r="DE50" s="0"/>
+      <c r="DF50" s="0"/>
+      <c r="DG50" s="0"/>
+      <c r="DH50" s="0"/>
+      <c r="DI50" s="0"/>
+      <c r="DJ50" s="0"/>
+      <c r="DK50" s="0"/>
+      <c r="DL50" s="0"/>
+      <c r="DM50" s="0"/>
+      <c r="DN50" s="0"/>
+      <c r="DO50" s="0"/>
+      <c r="DP50" s="0"/>
+      <c r="DQ50" s="0"/>
+      <c r="DR50" s="0"/>
+      <c r="DS50" s="0"/>
+      <c r="DT50" s="0"/>
+      <c r="DU50" s="0"/>
+      <c r="DV50" s="0"/>
+      <c r="DW50" s="0"/>
+      <c r="DX50" s="0"/>
+      <c r="DY50" s="0"/>
+      <c r="DZ50" s="0"/>
+      <c r="EA50" s="0"/>
+      <c r="EB50" s="0"/>
+      <c r="EC50" s="0"/>
+      <c r="ED50" s="0"/>
+      <c r="EE50" s="0"/>
+      <c r="EF50" s="0"/>
+      <c r="EG50" s="0"/>
+      <c r="EH50" s="0"/>
+      <c r="EI50" s="0"/>
+      <c r="EJ50" s="0"/>
+      <c r="EK50" s="0"/>
+      <c r="EL50" s="0"/>
+      <c r="EM50" s="0"/>
+      <c r="EN50" s="0"/>
+      <c r="EO50" s="0"/>
+      <c r="EP50" s="0"/>
+      <c r="EQ50" s="0"/>
+      <c r="ER50" s="0"/>
+      <c r="ES50" s="0"/>
+      <c r="ET50" s="0"/>
+      <c r="EU50" s="0"/>
+      <c r="EV50" s="0"/>
+      <c r="EW50" s="0"/>
+      <c r="EX50" s="0"/>
+      <c r="EY50" s="0"/>
+      <c r="EZ50" s="0"/>
+      <c r="FA50" s="0"/>
+      <c r="FB50" s="0"/>
+      <c r="FC50" s="0"/>
+      <c r="FD50" s="0"/>
+      <c r="FE50" s="0"/>
+      <c r="FF50" s="0"/>
+      <c r="FG50" s="0"/>
+      <c r="FH50" s="0"/>
+      <c r="FI50" s="0"/>
+      <c r="FJ50" s="0"/>
+      <c r="FK50" s="0"/>
+      <c r="FL50" s="0"/>
+      <c r="FM50" s="0"/>
+      <c r="FN50" s="0"/>
+      <c r="FO50" s="0"/>
+      <c r="FP50" s="0"/>
+      <c r="FQ50" s="0"/>
+      <c r="FR50" s="0"/>
+      <c r="FS50" s="0"/>
+      <c r="FT50" s="0"/>
+      <c r="FU50" s="0"/>
+      <c r="FV50" s="0"/>
+      <c r="FW50" s="0"/>
+      <c r="FX50" s="0"/>
+      <c r="FY50" s="0"/>
+      <c r="FZ50" s="0"/>
+      <c r="GA50" s="0"/>
+      <c r="GB50" s="0"/>
+      <c r="GC50" s="0"/>
+      <c r="GD50" s="0"/>
+      <c r="GE50" s="0"/>
+      <c r="GF50" s="0"/>
+      <c r="GG50" s="0"/>
+      <c r="GH50" s="0"/>
+      <c r="GI50" s="0"/>
+      <c r="GJ50" s="0"/>
+      <c r="GK50" s="0"/>
+      <c r="GL50" s="0"/>
+      <c r="GM50" s="0"/>
+      <c r="GN50" s="0"/>
+      <c r="GO50" s="0"/>
+      <c r="GP50" s="0"/>
+      <c r="GQ50" s="0"/>
+      <c r="GR50" s="0"/>
+      <c r="GS50" s="0"/>
+      <c r="GT50" s="0"/>
+      <c r="GU50" s="0"/>
+      <c r="GV50" s="0"/>
+      <c r="GW50" s="0"/>
+      <c r="GX50" s="0"/>
+      <c r="GY50" s="0"/>
+      <c r="GZ50" s="0"/>
+      <c r="HA50" s="0"/>
+      <c r="HB50" s="0"/>
+      <c r="HC50" s="0"/>
+      <c r="HD50" s="0"/>
+      <c r="HE50" s="0"/>
+      <c r="HF50" s="0"/>
+      <c r="HG50" s="0"/>
+      <c r="HH50" s="0"/>
+      <c r="HI50" s="0"/>
+      <c r="HJ50" s="0"/>
+      <c r="HK50" s="0"/>
+      <c r="HL50" s="0"/>
+      <c r="HM50" s="0"/>
+      <c r="HN50" s="0"/>
+      <c r="HO50" s="0"/>
+      <c r="HP50" s="0"/>
+      <c r="HQ50" s="0"/>
+      <c r="HR50" s="0"/>
+      <c r="HS50" s="0"/>
+      <c r="HT50" s="0"/>
+      <c r="HU50" s="0"/>
+      <c r="HV50" s="0"/>
+      <c r="HW50" s="0"/>
+      <c r="HX50" s="0"/>
+      <c r="HY50" s="0"/>
+      <c r="HZ50" s="0"/>
+      <c r="IA50" s="0"/>
+      <c r="IB50" s="0"/>
+      <c r="IC50" s="0"/>
+      <c r="ID50" s="0"/>
+      <c r="IE50" s="0"/>
+      <c r="IF50" s="0"/>
+      <c r="IG50" s="0"/>
+      <c r="IH50" s="0"/>
+      <c r="II50" s="0"/>
+      <c r="IJ50" s="0"/>
+      <c r="IK50" s="0"/>
+      <c r="IL50" s="0"/>
+      <c r="IM50" s="0"/>
+      <c r="IN50" s="0"/>
+      <c r="IO50" s="0"/>
+      <c r="IP50" s="0"/>
+      <c r="IQ50" s="0"/>
+      <c r="IR50" s="0"/>
+      <c r="IS50" s="0"/>
+      <c r="IT50" s="0"/>
+      <c r="IU50" s="0"/>
+      <c r="IV50" s="0"/>
+      <c r="IW50" s="0"/>
+      <c r="IX50" s="0"/>
+      <c r="IY50" s="0"/>
+      <c r="IZ50" s="0"/>
+      <c r="JA50" s="0"/>
+      <c r="JB50" s="0"/>
+      <c r="JC50" s="0"/>
+      <c r="JD50" s="0"/>
+      <c r="JE50" s="0"/>
+      <c r="JF50" s="0"/>
+      <c r="JG50" s="0"/>
+      <c r="JH50" s="0"/>
+      <c r="JI50" s="0"/>
+      <c r="JJ50" s="0"/>
+      <c r="JK50" s="0"/>
+      <c r="JL50" s="0"/>
+      <c r="JM50" s="0"/>
+      <c r="JN50" s="0"/>
+      <c r="JO50" s="0"/>
+      <c r="JP50" s="0"/>
+      <c r="JQ50" s="0"/>
+      <c r="JR50" s="0"/>
+      <c r="JS50" s="0"/>
+      <c r="JT50" s="0"/>
+      <c r="JU50" s="0"/>
+      <c r="JV50" s="0"/>
+      <c r="JW50" s="0"/>
+      <c r="JX50" s="0"/>
+      <c r="JY50" s="0"/>
+      <c r="JZ50" s="0"/>
+      <c r="KA50" s="0"/>
+      <c r="KB50" s="0"/>
+      <c r="KC50" s="0"/>
+      <c r="KD50" s="0"/>
+      <c r="KE50" s="0"/>
+      <c r="KF50" s="0"/>
+      <c r="KG50" s="0"/>
+      <c r="KH50" s="0"/>
+      <c r="KI50" s="0"/>
+      <c r="KJ50" s="0"/>
+      <c r="KK50" s="0"/>
+      <c r="KL50" s="0"/>
+      <c r="KM50" s="0"/>
+      <c r="KN50" s="0"/>
+      <c r="KO50" s="0"/>
+      <c r="KP50" s="0"/>
+      <c r="KQ50" s="0"/>
+      <c r="KR50" s="0"/>
+      <c r="KS50" s="0"/>
+      <c r="KT50" s="0"/>
+      <c r="KU50" s="0"/>
+      <c r="KV50" s="0"/>
+      <c r="KW50" s="0"/>
+      <c r="KX50" s="0"/>
+      <c r="KY50" s="0"/>
+      <c r="KZ50" s="0"/>
+      <c r="LA50" s="0"/>
+      <c r="LB50" s="0"/>
+      <c r="LC50" s="0"/>
+      <c r="LD50" s="0"/>
+      <c r="LE50" s="0"/>
+      <c r="LF50" s="0"/>
+      <c r="LG50" s="0"/>
+      <c r="LH50" s="0"/>
+      <c r="LI50" s="0"/>
+      <c r="LJ50" s="0"/>
+      <c r="LK50" s="0"/>
+      <c r="LL50" s="0"/>
+      <c r="LM50" s="0"/>
+      <c r="LN50" s="0"/>
+      <c r="LO50" s="0"/>
+      <c r="LP50" s="0"/>
+      <c r="LQ50" s="0"/>
+      <c r="LR50" s="0"/>
+      <c r="LS50" s="0"/>
+      <c r="LT50" s="0"/>
+      <c r="LU50" s="0"/>
+      <c r="LV50" s="0"/>
+      <c r="LW50" s="0"/>
+      <c r="LX50" s="0"/>
+      <c r="LY50" s="0"/>
+      <c r="LZ50" s="0"/>
+      <c r="MA50" s="0"/>
+      <c r="MB50" s="0"/>
+      <c r="MC50" s="0"/>
+      <c r="MD50" s="0"/>
+      <c r="ME50" s="0"/>
+      <c r="MF50" s="0"/>
+      <c r="MG50" s="0"/>
+      <c r="MH50" s="0"/>
+      <c r="MI50" s="0"/>
+      <c r="MJ50" s="0"/>
+      <c r="MK50" s="0"/>
+      <c r="ML50" s="0"/>
+      <c r="MM50" s="0"/>
+      <c r="MN50" s="0"/>
+      <c r="MO50" s="0"/>
+      <c r="MP50" s="0"/>
+      <c r="MQ50" s="0"/>
+      <c r="MR50" s="0"/>
+      <c r="MS50" s="0"/>
+      <c r="MT50" s="0"/>
+      <c r="MU50" s="0"/>
+      <c r="MV50" s="0"/>
+      <c r="MW50" s="0"/>
+      <c r="MX50" s="0"/>
+      <c r="MY50" s="0"/>
+      <c r="MZ50" s="0"/>
+      <c r="NA50" s="0"/>
+      <c r="NB50" s="0"/>
+      <c r="NC50" s="0"/>
+      <c r="ND50" s="0"/>
+      <c r="NE50" s="0"/>
+      <c r="NF50" s="0"/>
+      <c r="NG50" s="0"/>
+      <c r="NH50" s="0"/>
+      <c r="NI50" s="0"/>
+      <c r="NJ50" s="0"/>
+      <c r="NK50" s="0"/>
+      <c r="NL50" s="0"/>
+      <c r="NM50" s="0"/>
+      <c r="NN50" s="0"/>
+      <c r="NO50" s="0"/>
+      <c r="NP50" s="0"/>
+      <c r="NQ50" s="0"/>
+      <c r="NR50" s="0"/>
+      <c r="NS50" s="0"/>
+      <c r="NT50" s="0"/>
+      <c r="NU50" s="0"/>
+      <c r="NV50" s="0"/>
+      <c r="NW50" s="0"/>
+      <c r="NX50" s="0"/>
+      <c r="NY50" s="0"/>
+      <c r="NZ50" s="0"/>
+      <c r="OA50" s="0"/>
+      <c r="OB50" s="0"/>
+      <c r="OC50" s="0"/>
+      <c r="OD50" s="0"/>
+      <c r="OE50" s="0"/>
+      <c r="OF50" s="0"/>
+      <c r="OG50" s="0"/>
+      <c r="OH50" s="0"/>
+      <c r="OI50" s="0"/>
+      <c r="OJ50" s="0"/>
+      <c r="OK50" s="0"/>
+      <c r="OL50" s="0"/>
+      <c r="OM50" s="0"/>
+      <c r="ON50" s="0"/>
+      <c r="OO50" s="0"/>
+      <c r="OP50" s="0"/>
+      <c r="OQ50" s="0"/>
+      <c r="OR50" s="0"/>
+      <c r="OS50" s="0"/>
+      <c r="OT50" s="0"/>
+      <c r="OU50" s="0"/>
+      <c r="OV50" s="0"/>
+      <c r="OW50" s="0"/>
+      <c r="OX50" s="0"/>
+      <c r="OY50" s="0"/>
+      <c r="OZ50" s="0"/>
+      <c r="PA50" s="0"/>
+      <c r="PB50" s="0"/>
+      <c r="PC50" s="0"/>
+      <c r="PD50" s="0"/>
+      <c r="PE50" s="0"/>
+      <c r="PF50" s="0"/>
+      <c r="PG50" s="0"/>
+      <c r="PH50" s="0"/>
+      <c r="PI50" s="0"/>
+      <c r="PJ50" s="0"/>
+      <c r="PK50" s="0"/>
+      <c r="PL50" s="0"/>
+      <c r="PM50" s="0"/>
+      <c r="PN50" s="0"/>
+      <c r="PO50" s="0"/>
+      <c r="PP50" s="0"/>
+      <c r="PQ50" s="0"/>
+      <c r="PR50" s="0"/>
+      <c r="PS50" s="0"/>
+      <c r="PT50" s="0"/>
+      <c r="PU50" s="0"/>
+      <c r="PV50" s="0"/>
+      <c r="PW50" s="0"/>
+      <c r="PX50" s="0"/>
+      <c r="PY50" s="0"/>
+      <c r="PZ50" s="0"/>
+      <c r="QA50" s="0"/>
+      <c r="QB50" s="0"/>
+      <c r="QC50" s="0"/>
+      <c r="QD50" s="0"/>
+      <c r="QE50" s="0"/>
+      <c r="QF50" s="0"/>
+      <c r="QG50" s="0"/>
+      <c r="QH50" s="0"/>
+      <c r="QI50" s="0"/>
+      <c r="QJ50" s="0"/>
+      <c r="QK50" s="0"/>
+      <c r="QL50" s="0"/>
+      <c r="QM50" s="0"/>
+      <c r="QN50" s="0"/>
+      <c r="QO50" s="0"/>
+      <c r="QP50" s="0"/>
+      <c r="QQ50" s="0"/>
+      <c r="QR50" s="0"/>
+      <c r="QS50" s="0"/>
+      <c r="QT50" s="0"/>
+      <c r="QU50" s="0"/>
+      <c r="QV50" s="0"/>
+      <c r="QW50" s="0"/>
+      <c r="QX50" s="0"/>
+      <c r="QY50" s="0"/>
+      <c r="QZ50" s="0"/>
+      <c r="RA50" s="0"/>
+      <c r="RB50" s="0"/>
+      <c r="RC50" s="0"/>
+      <c r="RD50" s="0"/>
+      <c r="RE50" s="0"/>
+      <c r="RF50" s="0"/>
+      <c r="RG50" s="0"/>
+      <c r="RH50" s="0"/>
+      <c r="RI50" s="0"/>
+      <c r="RJ50" s="0"/>
+      <c r="RK50" s="0"/>
+      <c r="RL50" s="0"/>
+      <c r="RM50" s="0"/>
+      <c r="RN50" s="0"/>
+      <c r="RO50" s="0"/>
+      <c r="RP50" s="0"/>
+      <c r="RQ50" s="0"/>
+      <c r="RR50" s="0"/>
+      <c r="RS50" s="0"/>
+      <c r="RT50" s="0"/>
+      <c r="RU50" s="0"/>
+      <c r="RV50" s="0"/>
+      <c r="RW50" s="0"/>
+      <c r="RX50" s="0"/>
+      <c r="RY50" s="0"/>
+      <c r="RZ50" s="0"/>
+      <c r="SA50" s="0"/>
+      <c r="SB50" s="0"/>
+      <c r="SC50" s="0"/>
+      <c r="SD50" s="0"/>
+      <c r="SE50" s="0"/>
+      <c r="SF50" s="0"/>
+      <c r="SG50" s="0"/>
+      <c r="SH50" s="0"/>
+      <c r="SI50" s="0"/>
+      <c r="SJ50" s="0"/>
+      <c r="SK50" s="0"/>
+      <c r="SL50" s="0"/>
+      <c r="SM50" s="0"/>
+      <c r="SN50" s="0"/>
+      <c r="SO50" s="0"/>
+      <c r="SP50" s="0"/>
+      <c r="SQ50" s="0"/>
+      <c r="SR50" s="0"/>
+      <c r="SS50" s="0"/>
+      <c r="ST50" s="0"/>
+      <c r="SU50" s="0"/>
+      <c r="SV50" s="0"/>
+      <c r="SW50" s="0"/>
+      <c r="SX50" s="0"/>
+      <c r="SY50" s="0"/>
+      <c r="SZ50" s="0"/>
+      <c r="TA50" s="0"/>
+      <c r="TB50" s="0"/>
+      <c r="TC50" s="0"/>
+      <c r="TD50" s="0"/>
+      <c r="TE50" s="0"/>
+      <c r="TF50" s="0"/>
+      <c r="TG50" s="0"/>
+      <c r="TH50" s="0"/>
+      <c r="TI50" s="0"/>
+      <c r="TJ50" s="0"/>
+      <c r="TK50" s="0"/>
+      <c r="TL50" s="0"/>
+      <c r="TM50" s="0"/>
+      <c r="TN50" s="0"/>
+      <c r="TO50" s="0"/>
+      <c r="TP50" s="0"/>
+      <c r="TQ50" s="0"/>
+      <c r="TR50" s="0"/>
+      <c r="TS50" s="0"/>
+      <c r="TT50" s="0"/>
+      <c r="TU50" s="0"/>
+      <c r="TV50" s="0"/>
+      <c r="TW50" s="0"/>
+      <c r="TX50" s="0"/>
+      <c r="TY50" s="0"/>
+      <c r="TZ50" s="0"/>
+      <c r="UA50" s="0"/>
+      <c r="UB50" s="0"/>
+      <c r="UC50" s="0"/>
+      <c r="UD50" s="0"/>
+      <c r="UE50" s="0"/>
+      <c r="UF50" s="0"/>
+      <c r="UG50" s="0"/>
+      <c r="UH50" s="0"/>
+      <c r="UI50" s="0"/>
+      <c r="UJ50" s="0"/>
+      <c r="UK50" s="0"/>
+      <c r="UL50" s="0"/>
+      <c r="UM50" s="0"/>
+      <c r="UN50" s="0"/>
+      <c r="UO50" s="0"/>
+      <c r="UP50" s="0"/>
+      <c r="UQ50" s="0"/>
+      <c r="UR50" s="0"/>
+      <c r="US50" s="0"/>
+      <c r="UT50" s="0"/>
+      <c r="UU50" s="0"/>
+      <c r="UV50" s="0"/>
+      <c r="UW50" s="0"/>
+      <c r="UX50" s="0"/>
+      <c r="UY50" s="0"/>
+      <c r="UZ50" s="0"/>
+      <c r="VA50" s="0"/>
+      <c r="VB50" s="0"/>
+      <c r="VC50" s="0"/>
+      <c r="VD50" s="0"/>
+      <c r="VE50" s="0"/>
+      <c r="VF50" s="0"/>
+      <c r="VG50" s="0"/>
+      <c r="VH50" s="0"/>
+      <c r="VI50" s="0"/>
+      <c r="VJ50" s="0"/>
+      <c r="VK50" s="0"/>
+      <c r="VL50" s="0"/>
+      <c r="VM50" s="0"/>
+      <c r="VN50" s="0"/>
+      <c r="VO50" s="0"/>
+      <c r="VP50" s="0"/>
+      <c r="VQ50" s="0"/>
+      <c r="VR50" s="0"/>
+      <c r="VS50" s="0"/>
+      <c r="VT50" s="0"/>
+      <c r="VU50" s="0"/>
+      <c r="VV50" s="0"/>
+      <c r="VW50" s="0"/>
+      <c r="VX50" s="0"/>
+      <c r="VY50" s="0"/>
+      <c r="VZ50" s="0"/>
+      <c r="WA50" s="0"/>
+      <c r="WB50" s="0"/>
+      <c r="WC50" s="0"/>
+      <c r="WD50" s="0"/>
+      <c r="WE50" s="0"/>
+      <c r="WF50" s="0"/>
+      <c r="WG50" s="0"/>
+      <c r="WH50" s="0"/>
+      <c r="WI50" s="0"/>
+      <c r="WJ50" s="0"/>
+      <c r="WK50" s="0"/>
+      <c r="WL50" s="0"/>
+      <c r="WM50" s="0"/>
+      <c r="WN50" s="0"/>
+      <c r="WO50" s="0"/>
+      <c r="WP50" s="0"/>
+      <c r="WQ50" s="0"/>
+      <c r="WR50" s="0"/>
+      <c r="WS50" s="0"/>
+      <c r="WT50" s="0"/>
+      <c r="WU50" s="0"/>
+      <c r="WV50" s="0"/>
+      <c r="WW50" s="0"/>
+      <c r="WX50" s="0"/>
+      <c r="WY50" s="0"/>
+      <c r="WZ50" s="0"/>
+      <c r="XA50" s="0"/>
+      <c r="XB50" s="0"/>
+      <c r="XC50" s="0"/>
+      <c r="XD50" s="0"/>
+      <c r="XE50" s="0"/>
+      <c r="XF50" s="0"/>
+      <c r="XG50" s="0"/>
+      <c r="XH50" s="0"/>
+      <c r="XI50" s="0"/>
+      <c r="XJ50" s="0"/>
+      <c r="XK50" s="0"/>
+      <c r="XL50" s="0"/>
+      <c r="XM50" s="0"/>
+      <c r="XN50" s="0"/>
+      <c r="XO50" s="0"/>
+      <c r="XP50" s="0"/>
+      <c r="XQ50" s="0"/>
+      <c r="XR50" s="0"/>
+      <c r="XS50" s="0"/>
+      <c r="XT50" s="0"/>
+      <c r="XU50" s="0"/>
+      <c r="XV50" s="0"/>
+      <c r="XW50" s="0"/>
+      <c r="XX50" s="0"/>
+      <c r="XY50" s="0"/>
+      <c r="XZ50" s="0"/>
+      <c r="YA50" s="0"/>
+      <c r="YB50" s="0"/>
+      <c r="YC50" s="0"/>
+      <c r="YD50" s="0"/>
+      <c r="YE50" s="0"/>
+      <c r="YF50" s="0"/>
+      <c r="YG50" s="0"/>
+      <c r="YH50" s="0"/>
+      <c r="YI50" s="0"/>
+      <c r="YJ50" s="0"/>
+      <c r="YK50" s="0"/>
+      <c r="YL50" s="0"/>
+      <c r="YM50" s="0"/>
+      <c r="YN50" s="0"/>
+      <c r="YO50" s="0"/>
+      <c r="YP50" s="0"/>
+      <c r="YQ50" s="0"/>
+      <c r="YR50" s="0"/>
+      <c r="YS50" s="0"/>
+      <c r="YT50" s="0"/>
+      <c r="YU50" s="0"/>
+      <c r="YV50" s="0"/>
+      <c r="YW50" s="0"/>
+      <c r="YX50" s="0"/>
+      <c r="YY50" s="0"/>
+      <c r="YZ50" s="0"/>
+      <c r="ZA50" s="0"/>
+      <c r="ZB50" s="0"/>
+      <c r="ZC50" s="0"/>
+      <c r="ZD50" s="0"/>
+      <c r="ZE50" s="0"/>
+      <c r="ZF50" s="0"/>
+      <c r="ZG50" s="0"/>
+      <c r="ZH50" s="0"/>
+      <c r="ZI50" s="0"/>
+      <c r="ZJ50" s="0"/>
+      <c r="ZK50" s="0"/>
+      <c r="ZL50" s="0"/>
+      <c r="ZM50" s="0"/>
+      <c r="ZN50" s="0"/>
+      <c r="ZO50" s="0"/>
+      <c r="ZP50" s="0"/>
+      <c r="ZQ50" s="0"/>
+      <c r="ZR50" s="0"/>
+      <c r="ZS50" s="0"/>
+      <c r="ZT50" s="0"/>
+      <c r="ZU50" s="0"/>
+      <c r="ZV50" s="0"/>
+      <c r="ZW50" s="0"/>
+      <c r="ZX50" s="0"/>
+      <c r="ZY50" s="0"/>
+      <c r="ZZ50" s="0"/>
+      <c r="AAA50" s="0"/>
+      <c r="AAB50" s="0"/>
+      <c r="AAC50" s="0"/>
+      <c r="AAD50" s="0"/>
+      <c r="AAE50" s="0"/>
+      <c r="AAF50" s="0"/>
+      <c r="AAG50" s="0"/>
+      <c r="AAH50" s="0"/>
+      <c r="AAI50" s="0"/>
+      <c r="AAJ50" s="0"/>
+      <c r="AAK50" s="0"/>
+      <c r="AAL50" s="0"/>
+      <c r="AAM50" s="0"/>
+      <c r="AAN50" s="0"/>
+      <c r="AAO50" s="0"/>
+      <c r="AAP50" s="0"/>
+      <c r="AAQ50" s="0"/>
+      <c r="AAR50" s="0"/>
+      <c r="AAS50" s="0"/>
+      <c r="AAT50" s="0"/>
+      <c r="AAU50" s="0"/>
+      <c r="AAV50" s="0"/>
+      <c r="AAW50" s="0"/>
+      <c r="AAX50" s="0"/>
+      <c r="AAY50" s="0"/>
+      <c r="AAZ50" s="0"/>
+      <c r="ABA50" s="0"/>
+      <c r="ABB50" s="0"/>
+      <c r="ABC50" s="0"/>
+      <c r="ABD50" s="0"/>
+      <c r="ABE50" s="0"/>
+      <c r="ABF50" s="0"/>
+      <c r="ABG50" s="0"/>
+      <c r="ABH50" s="0"/>
+      <c r="ABI50" s="0"/>
+      <c r="ABJ50" s="0"/>
+      <c r="ABK50" s="0"/>
+      <c r="ABL50" s="0"/>
+      <c r="ABM50" s="0"/>
+      <c r="ABN50" s="0"/>
+      <c r="ABO50" s="0"/>
+      <c r="ABP50" s="0"/>
+      <c r="ABQ50" s="0"/>
+      <c r="ABR50" s="0"/>
+      <c r="ABS50" s="0"/>
+      <c r="ABT50" s="0"/>
+      <c r="ABU50" s="0"/>
+      <c r="ABV50" s="0"/>
+      <c r="ABW50" s="0"/>
+      <c r="ABX50" s="0"/>
+      <c r="ABY50" s="0"/>
+      <c r="ABZ50" s="0"/>
+      <c r="ACA50" s="0"/>
+      <c r="ACB50" s="0"/>
+      <c r="ACC50" s="0"/>
+      <c r="ACD50" s="0"/>
+      <c r="ACE50" s="0"/>
+      <c r="ACF50" s="0"/>
+      <c r="ACG50" s="0"/>
+      <c r="ACH50" s="0"/>
+      <c r="ACI50" s="0"/>
+      <c r="ACJ50" s="0"/>
+      <c r="ACK50" s="0"/>
+      <c r="ACL50" s="0"/>
+      <c r="ACM50" s="0"/>
+      <c r="ACN50" s="0"/>
+      <c r="ACO50" s="0"/>
+      <c r="ACP50" s="0"/>
+      <c r="ACQ50" s="0"/>
+      <c r="ACR50" s="0"/>
+      <c r="ACS50" s="0"/>
+      <c r="ACT50" s="0"/>
+      <c r="ACU50" s="0"/>
+      <c r="ACV50" s="0"/>
+      <c r="ACW50" s="0"/>
+      <c r="ACX50" s="0"/>
+      <c r="ACY50" s="0"/>
+      <c r="ACZ50" s="0"/>
+      <c r="ADA50" s="0"/>
+      <c r="ADB50" s="0"/>
+      <c r="ADC50" s="0"/>
+      <c r="ADD50" s="0"/>
+      <c r="ADE50" s="0"/>
+      <c r="ADF50" s="0"/>
+      <c r="ADG50" s="0"/>
+      <c r="ADH50" s="0"/>
+      <c r="ADI50" s="0"/>
+      <c r="ADJ50" s="0"/>
+      <c r="ADK50" s="0"/>
+      <c r="ADL50" s="0"/>
+      <c r="ADM50" s="0"/>
+      <c r="ADN50" s="0"/>
+      <c r="ADO50" s="0"/>
+      <c r="ADP50" s="0"/>
+      <c r="ADQ50" s="0"/>
+      <c r="ADR50" s="0"/>
+      <c r="ADS50" s="0"/>
+      <c r="ADT50" s="0"/>
+      <c r="ADU50" s="0"/>
+      <c r="ADV50" s="0"/>
+      <c r="ADW50" s="0"/>
+      <c r="ADX50" s="0"/>
+      <c r="ADY50" s="0"/>
+      <c r="ADZ50" s="0"/>
+      <c r="AEA50" s="0"/>
+      <c r="AEB50" s="0"/>
+      <c r="AEC50" s="0"/>
+      <c r="AED50" s="0"/>
+      <c r="AEE50" s="0"/>
+      <c r="AEF50" s="0"/>
+      <c r="AEG50" s="0"/>
+      <c r="AEH50" s="0"/>
+      <c r="AEI50" s="0"/>
+      <c r="AEJ50" s="0"/>
+      <c r="AEK50" s="0"/>
+      <c r="AEL50" s="0"/>
+      <c r="AEM50" s="0"/>
+      <c r="AEN50" s="0"/>
+      <c r="AEO50" s="0"/>
+      <c r="AEP50" s="0"/>
+      <c r="AEQ50" s="0"/>
+      <c r="AER50" s="0"/>
+      <c r="AES50" s="0"/>
+      <c r="AET50" s="0"/>
+      <c r="AEU50" s="0"/>
+      <c r="AEV50" s="0"/>
+      <c r="AEW50" s="0"/>
+      <c r="AEX50" s="0"/>
+      <c r="AEY50" s="0"/>
+      <c r="AEZ50" s="0"/>
+      <c r="AFA50" s="0"/>
+      <c r="AFB50" s="0"/>
+      <c r="AFC50" s="0"/>
+      <c r="AFD50" s="0"/>
+      <c r="AFE50" s="0"/>
+      <c r="AFF50" s="0"/>
+      <c r="AFG50" s="0"/>
+      <c r="AFH50" s="0"/>
+      <c r="AFI50" s="0"/>
+      <c r="AFJ50" s="0"/>
+      <c r="AFK50" s="0"/>
+      <c r="AFL50" s="0"/>
+      <c r="AFM50" s="0"/>
+      <c r="AFN50" s="0"/>
+      <c r="AFO50" s="0"/>
+      <c r="AFP50" s="0"/>
+      <c r="AFQ50" s="0"/>
+      <c r="AFR50" s="0"/>
+      <c r="AFS50" s="0"/>
+      <c r="AFT50" s="0"/>
+      <c r="AFU50" s="0"/>
+      <c r="AFV50" s="0"/>
+      <c r="AFW50" s="0"/>
+      <c r="AFX50" s="0"/>
+      <c r="AFY50" s="0"/>
+      <c r="AFZ50" s="0"/>
+      <c r="AGA50" s="0"/>
+      <c r="AGB50" s="0"/>
+      <c r="AGC50" s="0"/>
+      <c r="AGD50" s="0"/>
+      <c r="AGE50" s="0"/>
+      <c r="AGF50" s="0"/>
+      <c r="AGG50" s="0"/>
+      <c r="AGH50" s="0"/>
+      <c r="AGI50" s="0"/>
+      <c r="AGJ50" s="0"/>
+      <c r="AGK50" s="0"/>
+      <c r="AGL50" s="0"/>
+      <c r="AGM50" s="0"/>
+      <c r="AGN50" s="0"/>
+      <c r="AGO50" s="0"/>
+      <c r="AGP50" s="0"/>
+      <c r="AGQ50" s="0"/>
+      <c r="AGR50" s="0"/>
+      <c r="AGS50" s="0"/>
+      <c r="AGT50" s="0"/>
+      <c r="AGU50" s="0"/>
+      <c r="AGV50" s="0"/>
+      <c r="AGW50" s="0"/>
+      <c r="AGX50" s="0"/>
+      <c r="AGY50" s="0"/>
+      <c r="AGZ50" s="0"/>
+      <c r="AHA50" s="0"/>
+      <c r="AHB50" s="0"/>
+      <c r="AHC50" s="0"/>
+      <c r="AHD50" s="0"/>
+      <c r="AHE50" s="0"/>
+      <c r="AHF50" s="0"/>
+      <c r="AHG50" s="0"/>
+      <c r="AHH50" s="0"/>
+      <c r="AHI50" s="0"/>
+      <c r="AHJ50" s="0"/>
+      <c r="AHK50" s="0"/>
+      <c r="AHL50" s="0"/>
+      <c r="AHM50" s="0"/>
+      <c r="AHN50" s="0"/>
+      <c r="AHO50" s="0"/>
+      <c r="AHP50" s="0"/>
+      <c r="AHQ50" s="0"/>
+      <c r="AHR50" s="0"/>
+      <c r="AHS50" s="0"/>
+      <c r="AHT50" s="0"/>
+      <c r="AHU50" s="0"/>
+      <c r="AHV50" s="0"/>
+      <c r="AHW50" s="0"/>
+      <c r="AHX50" s="0"/>
+      <c r="AHY50" s="0"/>
+      <c r="AHZ50" s="0"/>
+      <c r="AIA50" s="0"/>
+      <c r="AIB50" s="0"/>
+      <c r="AIC50" s="0"/>
+      <c r="AID50" s="0"/>
+      <c r="AIE50" s="0"/>
+      <c r="AIF50" s="0"/>
+      <c r="AIG50" s="0"/>
+      <c r="AIH50" s="0"/>
+      <c r="AII50" s="0"/>
+      <c r="AIJ50" s="0"/>
+      <c r="AIK50" s="0"/>
+      <c r="AIL50" s="0"/>
+      <c r="AIM50" s="0"/>
+      <c r="AIN50" s="0"/>
+      <c r="AIO50" s="0"/>
+      <c r="AIP50" s="0"/>
+      <c r="AIQ50" s="0"/>
+      <c r="AIR50" s="0"/>
+      <c r="AIS50" s="0"/>
+      <c r="AIT50" s="0"/>
+      <c r="AIU50" s="0"/>
+      <c r="AIV50" s="0"/>
+      <c r="AIW50" s="0"/>
+      <c r="AIX50" s="0"/>
+      <c r="AIY50" s="0"/>
+      <c r="AIZ50" s="0"/>
+      <c r="AJA50" s="0"/>
+      <c r="AJB50" s="0"/>
+      <c r="AJC50" s="0"/>
+      <c r="AJD50" s="0"/>
+      <c r="AJE50" s="0"/>
+      <c r="AJF50" s="0"/>
+      <c r="AJG50" s="0"/>
+      <c r="AJH50" s="0"/>
+      <c r="AJI50" s="0"/>
+      <c r="AJJ50" s="0"/>
+      <c r="AJK50" s="0"/>
+      <c r="AJL50" s="0"/>
+      <c r="AJM50" s="0"/>
+      <c r="AJN50" s="0"/>
+      <c r="AJO50" s="0"/>
+      <c r="AJP50" s="0"/>
+      <c r="AJQ50" s="0"/>
+      <c r="AJR50" s="0"/>
+      <c r="AJS50" s="0"/>
+      <c r="AJT50" s="0"/>
+      <c r="AJU50" s="0"/>
+      <c r="AJV50" s="0"/>
+      <c r="AJW50" s="0"/>
+      <c r="AJX50" s="0"/>
+      <c r="AJY50" s="0"/>
+      <c r="AJZ50" s="0"/>
+      <c r="AKA50" s="0"/>
+      <c r="AKB50" s="0"/>
+      <c r="AKC50" s="0"/>
+      <c r="AKD50" s="0"/>
+      <c r="AKE50" s="0"/>
+      <c r="AKF50" s="0"/>
+      <c r="AKG50" s="0"/>
+      <c r="AKH50" s="0"/>
+      <c r="AKI50" s="0"/>
+      <c r="AKJ50" s="0"/>
+      <c r="AKK50" s="0"/>
+      <c r="AKL50" s="0"/>
+      <c r="AKM50" s="0"/>
+      <c r="AKN50" s="0"/>
+      <c r="AKO50" s="0"/>
+      <c r="AKP50" s="0"/>
+      <c r="AKQ50" s="0"/>
+      <c r="AKR50" s="0"/>
+      <c r="AKS50" s="0"/>
+      <c r="AKT50" s="0"/>
+      <c r="AKU50" s="0"/>
+      <c r="AKV50" s="0"/>
+      <c r="AKW50" s="0"/>
+      <c r="AKX50" s="0"/>
+      <c r="AKY50" s="0"/>
+      <c r="AKZ50" s="0"/>
+      <c r="ALA50" s="0"/>
+      <c r="ALB50" s="0"/>
+      <c r="ALC50" s="0"/>
+      <c r="ALD50" s="0"/>
+      <c r="ALE50" s="0"/>
+      <c r="ALF50" s="0"/>
+      <c r="ALG50" s="0"/>
+      <c r="ALH50" s="0"/>
+      <c r="ALI50" s="0"/>
+      <c r="ALJ50" s="0"/>
+      <c r="ALK50" s="0"/>
+      <c r="ALL50" s="0"/>
+      <c r="ALM50" s="0"/>
+      <c r="ALN50" s="0"/>
+      <c r="ALO50" s="0"/>
+      <c r="ALP50" s="0"/>
+      <c r="ALQ50" s="0"/>
+      <c r="ALR50" s="0"/>
+      <c r="ALS50" s="0"/>
+      <c r="ALT50" s="0"/>
+      <c r="ALU50" s="0"/>
+      <c r="ALV50" s="0"/>
+      <c r="ALW50" s="0"/>
+      <c r="ALX50" s="0"/>
+      <c r="ALY50" s="0"/>
+      <c r="ALZ50" s="0"/>
+      <c r="AMA50" s="0"/>
+      <c r="AMB50" s="0"/>
+      <c r="AMC50" s="0"/>
+      <c r="AMD50" s="0"/>
+      <c r="AME50" s="0"/>
+      <c r="AMF50" s="0"/>
+      <c r="AMG50" s="0"/>
+      <c r="AMH50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="H51" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="I51" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="14" t="n">
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="9" t="n">
         <f aca="false">E51=""</f>
         <v>0</v>
       </c>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="S51" s="16" t="s">
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="0"/>
+      <c r="S51" s="0" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" s="16" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
+      <c r="T51" s="0"/>
+      <c r="U51" s="0"/>
+      <c r="V51" s="0"/>
+      <c r="W51" s="0"/>
+      <c r="X51" s="0"/>
+      <c r="Y51" s="0"/>
+      <c r="Z51" s="0"/>
+      <c r="AA51" s="0"/>
+      <c r="AB51" s="0"/>
+      <c r="AC51" s="0"/>
+      <c r="AD51" s="0"/>
+      <c r="AE51" s="0"/>
+      <c r="AF51" s="0"/>
+      <c r="AG51" s="0"/>
+      <c r="AH51" s="0"/>
+      <c r="AI51" s="0"/>
+      <c r="AJ51" s="0"/>
+      <c r="AK51" s="0"/>
+      <c r="AL51" s="0"/>
+      <c r="AM51" s="0"/>
+      <c r="AN51" s="0"/>
+      <c r="AO51" s="0"/>
+      <c r="AP51" s="0"/>
+      <c r="AQ51" s="0"/>
+      <c r="AR51" s="0"/>
+      <c r="AS51" s="0"/>
+      <c r="AT51" s="0"/>
+      <c r="AU51" s="0"/>
+      <c r="AV51" s="0"/>
+      <c r="AW51" s="0"/>
+      <c r="AX51" s="0"/>
+      <c r="AY51" s="0"/>
+      <c r="AZ51" s="0"/>
+      <c r="BA51" s="0"/>
+      <c r="BB51" s="0"/>
+      <c r="BC51" s="0"/>
+      <c r="BD51" s="0"/>
+      <c r="BE51" s="0"/>
+      <c r="BF51" s="0"/>
+      <c r="BG51" s="0"/>
+      <c r="BH51" s="0"/>
+      <c r="BI51" s="0"/>
+      <c r="BJ51" s="0"/>
+      <c r="BK51" s="0"/>
+      <c r="BL51" s="0"/>
+      <c r="BM51" s="0"/>
+      <c r="BN51" s="0"/>
+      <c r="BO51" s="0"/>
+      <c r="BP51" s="0"/>
+      <c r="BQ51" s="0"/>
+      <c r="BR51" s="0"/>
+      <c r="BS51" s="0"/>
+      <c r="BT51" s="0"/>
+      <c r="BU51" s="0"/>
+      <c r="BV51" s="0"/>
+      <c r="BW51" s="0"/>
+      <c r="BX51" s="0"/>
+      <c r="BY51" s="0"/>
+      <c r="BZ51" s="0"/>
+      <c r="CA51" s="0"/>
+      <c r="CB51" s="0"/>
+      <c r="CC51" s="0"/>
+      <c r="CD51" s="0"/>
+      <c r="CE51" s="0"/>
+      <c r="CF51" s="0"/>
+      <c r="CG51" s="0"/>
+      <c r="CH51" s="0"/>
+      <c r="CI51" s="0"/>
+      <c r="CJ51" s="0"/>
+      <c r="CK51" s="0"/>
+      <c r="CL51" s="0"/>
+      <c r="CM51" s="0"/>
+      <c r="CN51" s="0"/>
+      <c r="CO51" s="0"/>
+      <c r="CP51" s="0"/>
+      <c r="CQ51" s="0"/>
+      <c r="CR51" s="0"/>
+      <c r="CS51" s="0"/>
+      <c r="CT51" s="0"/>
+      <c r="CU51" s="0"/>
+      <c r="CV51" s="0"/>
+      <c r="CW51" s="0"/>
+      <c r="CX51" s="0"/>
+      <c r="CY51" s="0"/>
+      <c r="CZ51" s="0"/>
+      <c r="DA51" s="0"/>
+      <c r="DB51" s="0"/>
+      <c r="DC51" s="0"/>
+      <c r="DD51" s="0"/>
+      <c r="DE51" s="0"/>
+      <c r="DF51" s="0"/>
+      <c r="DG51" s="0"/>
+      <c r="DH51" s="0"/>
+      <c r="DI51" s="0"/>
+      <c r="DJ51" s="0"/>
+      <c r="DK51" s="0"/>
+      <c r="DL51" s="0"/>
+      <c r="DM51" s="0"/>
+      <c r="DN51" s="0"/>
+      <c r="DO51" s="0"/>
+      <c r="DP51" s="0"/>
+      <c r="DQ51" s="0"/>
+      <c r="DR51" s="0"/>
+      <c r="DS51" s="0"/>
+      <c r="DT51" s="0"/>
+      <c r="DU51" s="0"/>
+      <c r="DV51" s="0"/>
+      <c r="DW51" s="0"/>
+      <c r="DX51" s="0"/>
+      <c r="DY51" s="0"/>
+      <c r="DZ51" s="0"/>
+      <c r="EA51" s="0"/>
+      <c r="EB51" s="0"/>
+      <c r="EC51" s="0"/>
+      <c r="ED51" s="0"/>
+      <c r="EE51" s="0"/>
+      <c r="EF51" s="0"/>
+      <c r="EG51" s="0"/>
+      <c r="EH51" s="0"/>
+      <c r="EI51" s="0"/>
+      <c r="EJ51" s="0"/>
+      <c r="EK51" s="0"/>
+      <c r="EL51" s="0"/>
+      <c r="EM51" s="0"/>
+      <c r="EN51" s="0"/>
+      <c r="EO51" s="0"/>
+      <c r="EP51" s="0"/>
+      <c r="EQ51" s="0"/>
+      <c r="ER51" s="0"/>
+      <c r="ES51" s="0"/>
+      <c r="ET51" s="0"/>
+      <c r="EU51" s="0"/>
+      <c r="EV51" s="0"/>
+      <c r="EW51" s="0"/>
+      <c r="EX51" s="0"/>
+      <c r="EY51" s="0"/>
+      <c r="EZ51" s="0"/>
+      <c r="FA51" s="0"/>
+      <c r="FB51" s="0"/>
+      <c r="FC51" s="0"/>
+      <c r="FD51" s="0"/>
+      <c r="FE51" s="0"/>
+      <c r="FF51" s="0"/>
+      <c r="FG51" s="0"/>
+      <c r="FH51" s="0"/>
+      <c r="FI51" s="0"/>
+      <c r="FJ51" s="0"/>
+      <c r="FK51" s="0"/>
+      <c r="FL51" s="0"/>
+      <c r="FM51" s="0"/>
+      <c r="FN51" s="0"/>
+      <c r="FO51" s="0"/>
+      <c r="FP51" s="0"/>
+      <c r="FQ51" s="0"/>
+      <c r="FR51" s="0"/>
+      <c r="FS51" s="0"/>
+      <c r="FT51" s="0"/>
+      <c r="FU51" s="0"/>
+      <c r="FV51" s="0"/>
+      <c r="FW51" s="0"/>
+      <c r="FX51" s="0"/>
+      <c r="FY51" s="0"/>
+      <c r="FZ51" s="0"/>
+      <c r="GA51" s="0"/>
+      <c r="GB51" s="0"/>
+      <c r="GC51" s="0"/>
+      <c r="GD51" s="0"/>
+      <c r="GE51" s="0"/>
+      <c r="GF51" s="0"/>
+      <c r="GG51" s="0"/>
+      <c r="GH51" s="0"/>
+      <c r="GI51" s="0"/>
+      <c r="GJ51" s="0"/>
+      <c r="GK51" s="0"/>
+      <c r="GL51" s="0"/>
+      <c r="GM51" s="0"/>
+      <c r="GN51" s="0"/>
+      <c r="GO51" s="0"/>
+      <c r="GP51" s="0"/>
+      <c r="GQ51" s="0"/>
+      <c r="GR51" s="0"/>
+      <c r="GS51" s="0"/>
+      <c r="GT51" s="0"/>
+      <c r="GU51" s="0"/>
+      <c r="GV51" s="0"/>
+      <c r="GW51" s="0"/>
+      <c r="GX51" s="0"/>
+      <c r="GY51" s="0"/>
+      <c r="GZ51" s="0"/>
+      <c r="HA51" s="0"/>
+      <c r="HB51" s="0"/>
+      <c r="HC51" s="0"/>
+      <c r="HD51" s="0"/>
+      <c r="HE51" s="0"/>
+      <c r="HF51" s="0"/>
+      <c r="HG51" s="0"/>
+      <c r="HH51" s="0"/>
+      <c r="HI51" s="0"/>
+      <c r="HJ51" s="0"/>
+      <c r="HK51" s="0"/>
+      <c r="HL51" s="0"/>
+      <c r="HM51" s="0"/>
+      <c r="HN51" s="0"/>
+      <c r="HO51" s="0"/>
+      <c r="HP51" s="0"/>
+      <c r="HQ51" s="0"/>
+      <c r="HR51" s="0"/>
+      <c r="HS51" s="0"/>
+      <c r="HT51" s="0"/>
+      <c r="HU51" s="0"/>
+      <c r="HV51" s="0"/>
+      <c r="HW51" s="0"/>
+      <c r="HX51" s="0"/>
+      <c r="HY51" s="0"/>
+      <c r="HZ51" s="0"/>
+      <c r="IA51" s="0"/>
+      <c r="IB51" s="0"/>
+      <c r="IC51" s="0"/>
+      <c r="ID51" s="0"/>
+      <c r="IE51" s="0"/>
+      <c r="IF51" s="0"/>
+      <c r="IG51" s="0"/>
+      <c r="IH51" s="0"/>
+      <c r="II51" s="0"/>
+      <c r="IJ51" s="0"/>
+      <c r="IK51" s="0"/>
+      <c r="IL51" s="0"/>
+      <c r="IM51" s="0"/>
+      <c r="IN51" s="0"/>
+      <c r="IO51" s="0"/>
+      <c r="IP51" s="0"/>
+      <c r="IQ51" s="0"/>
+      <c r="IR51" s="0"/>
+      <c r="IS51" s="0"/>
+      <c r="IT51" s="0"/>
+      <c r="IU51" s="0"/>
+      <c r="IV51" s="0"/>
+      <c r="IW51" s="0"/>
+      <c r="IX51" s="0"/>
+      <c r="IY51" s="0"/>
+      <c r="IZ51" s="0"/>
+      <c r="JA51" s="0"/>
+      <c r="JB51" s="0"/>
+      <c r="JC51" s="0"/>
+      <c r="JD51" s="0"/>
+      <c r="JE51" s="0"/>
+      <c r="JF51" s="0"/>
+      <c r="JG51" s="0"/>
+      <c r="JH51" s="0"/>
+      <c r="JI51" s="0"/>
+      <c r="JJ51" s="0"/>
+      <c r="JK51" s="0"/>
+      <c r="JL51" s="0"/>
+      <c r="JM51" s="0"/>
+      <c r="JN51" s="0"/>
+      <c r="JO51" s="0"/>
+      <c r="JP51" s="0"/>
+      <c r="JQ51" s="0"/>
+      <c r="JR51" s="0"/>
+      <c r="JS51" s="0"/>
+      <c r="JT51" s="0"/>
+      <c r="JU51" s="0"/>
+      <c r="JV51" s="0"/>
+      <c r="JW51" s="0"/>
+      <c r="JX51" s="0"/>
+      <c r="JY51" s="0"/>
+      <c r="JZ51" s="0"/>
+      <c r="KA51" s="0"/>
+      <c r="KB51" s="0"/>
+      <c r="KC51" s="0"/>
+      <c r="KD51" s="0"/>
+      <c r="KE51" s="0"/>
+      <c r="KF51" s="0"/>
+      <c r="KG51" s="0"/>
+      <c r="KH51" s="0"/>
+      <c r="KI51" s="0"/>
+      <c r="KJ51" s="0"/>
+      <c r="KK51" s="0"/>
+      <c r="KL51" s="0"/>
+      <c r="KM51" s="0"/>
+      <c r="KN51" s="0"/>
+      <c r="KO51" s="0"/>
+      <c r="KP51" s="0"/>
+      <c r="KQ51" s="0"/>
+      <c r="KR51" s="0"/>
+      <c r="KS51" s="0"/>
+      <c r="KT51" s="0"/>
+      <c r="KU51" s="0"/>
+      <c r="KV51" s="0"/>
+      <c r="KW51" s="0"/>
+      <c r="KX51" s="0"/>
+      <c r="KY51" s="0"/>
+      <c r="KZ51" s="0"/>
+      <c r="LA51" s="0"/>
+      <c r="LB51" s="0"/>
+      <c r="LC51" s="0"/>
+      <c r="LD51" s="0"/>
+      <c r="LE51" s="0"/>
+      <c r="LF51" s="0"/>
+      <c r="LG51" s="0"/>
+      <c r="LH51" s="0"/>
+      <c r="LI51" s="0"/>
+      <c r="LJ51" s="0"/>
+      <c r="LK51" s="0"/>
+      <c r="LL51" s="0"/>
+      <c r="LM51" s="0"/>
+      <c r="LN51" s="0"/>
+      <c r="LO51" s="0"/>
+      <c r="LP51" s="0"/>
+      <c r="LQ51" s="0"/>
+      <c r="LR51" s="0"/>
+      <c r="LS51" s="0"/>
+      <c r="LT51" s="0"/>
+      <c r="LU51" s="0"/>
+      <c r="LV51" s="0"/>
+      <c r="LW51" s="0"/>
+      <c r="LX51" s="0"/>
+      <c r="LY51" s="0"/>
+      <c r="LZ51" s="0"/>
+      <c r="MA51" s="0"/>
+      <c r="MB51" s="0"/>
+      <c r="MC51" s="0"/>
+      <c r="MD51" s="0"/>
+      <c r="ME51" s="0"/>
+      <c r="MF51" s="0"/>
+      <c r="MG51" s="0"/>
+      <c r="MH51" s="0"/>
+      <c r="MI51" s="0"/>
+      <c r="MJ51" s="0"/>
+      <c r="MK51" s="0"/>
+      <c r="ML51" s="0"/>
+      <c r="MM51" s="0"/>
+      <c r="MN51" s="0"/>
+      <c r="MO51" s="0"/>
+      <c r="MP51" s="0"/>
+      <c r="MQ51" s="0"/>
+      <c r="MR51" s="0"/>
+      <c r="MS51" s="0"/>
+      <c r="MT51" s="0"/>
+      <c r="MU51" s="0"/>
+      <c r="MV51" s="0"/>
+      <c r="MW51" s="0"/>
+      <c r="MX51" s="0"/>
+      <c r="MY51" s="0"/>
+      <c r="MZ51" s="0"/>
+      <c r="NA51" s="0"/>
+      <c r="NB51" s="0"/>
+      <c r="NC51" s="0"/>
+      <c r="ND51" s="0"/>
+      <c r="NE51" s="0"/>
+      <c r="NF51" s="0"/>
+      <c r="NG51" s="0"/>
+      <c r="NH51" s="0"/>
+      <c r="NI51" s="0"/>
+      <c r="NJ51" s="0"/>
+      <c r="NK51" s="0"/>
+      <c r="NL51" s="0"/>
+      <c r="NM51" s="0"/>
+      <c r="NN51" s="0"/>
+      <c r="NO51" s="0"/>
+      <c r="NP51" s="0"/>
+      <c r="NQ51" s="0"/>
+      <c r="NR51" s="0"/>
+      <c r="NS51" s="0"/>
+      <c r="NT51" s="0"/>
+      <c r="NU51" s="0"/>
+      <c r="NV51" s="0"/>
+      <c r="NW51" s="0"/>
+      <c r="NX51" s="0"/>
+      <c r="NY51" s="0"/>
+      <c r="NZ51" s="0"/>
+      <c r="OA51" s="0"/>
+      <c r="OB51" s="0"/>
+      <c r="OC51" s="0"/>
+      <c r="OD51" s="0"/>
+      <c r="OE51" s="0"/>
+      <c r="OF51" s="0"/>
+      <c r="OG51" s="0"/>
+      <c r="OH51" s="0"/>
+      <c r="OI51" s="0"/>
+      <c r="OJ51" s="0"/>
+      <c r="OK51" s="0"/>
+      <c r="OL51" s="0"/>
+      <c r="OM51" s="0"/>
+      <c r="ON51" s="0"/>
+      <c r="OO51" s="0"/>
+      <c r="OP51" s="0"/>
+      <c r="OQ51" s="0"/>
+      <c r="OR51" s="0"/>
+      <c r="OS51" s="0"/>
+      <c r="OT51" s="0"/>
+      <c r="OU51" s="0"/>
+      <c r="OV51" s="0"/>
+      <c r="OW51" s="0"/>
+      <c r="OX51" s="0"/>
+      <c r="OY51" s="0"/>
+      <c r="OZ51" s="0"/>
+      <c r="PA51" s="0"/>
+      <c r="PB51" s="0"/>
+      <c r="PC51" s="0"/>
+      <c r="PD51" s="0"/>
+      <c r="PE51" s="0"/>
+      <c r="PF51" s="0"/>
+      <c r="PG51" s="0"/>
+      <c r="PH51" s="0"/>
+      <c r="PI51" s="0"/>
+      <c r="PJ51" s="0"/>
+      <c r="PK51" s="0"/>
+      <c r="PL51" s="0"/>
+      <c r="PM51" s="0"/>
+      <c r="PN51" s="0"/>
+      <c r="PO51" s="0"/>
+      <c r="PP51" s="0"/>
+      <c r="PQ51" s="0"/>
+      <c r="PR51" s="0"/>
+      <c r="PS51" s="0"/>
+      <c r="PT51" s="0"/>
+      <c r="PU51" s="0"/>
+      <c r="PV51" s="0"/>
+      <c r="PW51" s="0"/>
+      <c r="PX51" s="0"/>
+      <c r="PY51" s="0"/>
+      <c r="PZ51" s="0"/>
+      <c r="QA51" s="0"/>
+      <c r="QB51" s="0"/>
+      <c r="QC51" s="0"/>
+      <c r="QD51" s="0"/>
+      <c r="QE51" s="0"/>
+      <c r="QF51" s="0"/>
+      <c r="QG51" s="0"/>
+      <c r="QH51" s="0"/>
+      <c r="QI51" s="0"/>
+      <c r="QJ51" s="0"/>
+      <c r="QK51" s="0"/>
+      <c r="QL51" s="0"/>
+      <c r="QM51" s="0"/>
+      <c r="QN51" s="0"/>
+      <c r="QO51" s="0"/>
+      <c r="QP51" s="0"/>
+      <c r="QQ51" s="0"/>
+      <c r="QR51" s="0"/>
+      <c r="QS51" s="0"/>
+      <c r="QT51" s="0"/>
+      <c r="QU51" s="0"/>
+      <c r="QV51" s="0"/>
+      <c r="QW51" s="0"/>
+      <c r="QX51" s="0"/>
+      <c r="QY51" s="0"/>
+      <c r="QZ51" s="0"/>
+      <c r="RA51" s="0"/>
+      <c r="RB51" s="0"/>
+      <c r="RC51" s="0"/>
+      <c r="RD51" s="0"/>
+      <c r="RE51" s="0"/>
+      <c r="RF51" s="0"/>
+      <c r="RG51" s="0"/>
+      <c r="RH51" s="0"/>
+      <c r="RI51" s="0"/>
+      <c r="RJ51" s="0"/>
+      <c r="RK51" s="0"/>
+      <c r="RL51" s="0"/>
+      <c r="RM51" s="0"/>
+      <c r="RN51" s="0"/>
+      <c r="RO51" s="0"/>
+      <c r="RP51" s="0"/>
+      <c r="RQ51" s="0"/>
+      <c r="RR51" s="0"/>
+      <c r="RS51" s="0"/>
+      <c r="RT51" s="0"/>
+      <c r="RU51" s="0"/>
+      <c r="RV51" s="0"/>
+      <c r="RW51" s="0"/>
+      <c r="RX51" s="0"/>
+      <c r="RY51" s="0"/>
+      <c r="RZ51" s="0"/>
+      <c r="SA51" s="0"/>
+      <c r="SB51" s="0"/>
+      <c r="SC51" s="0"/>
+      <c r="SD51" s="0"/>
+      <c r="SE51" s="0"/>
+      <c r="SF51" s="0"/>
+      <c r="SG51" s="0"/>
+      <c r="SH51" s="0"/>
+      <c r="SI51" s="0"/>
+      <c r="SJ51" s="0"/>
+      <c r="SK51" s="0"/>
+      <c r="SL51" s="0"/>
+      <c r="SM51" s="0"/>
+      <c r="SN51" s="0"/>
+      <c r="SO51" s="0"/>
+      <c r="SP51" s="0"/>
+      <c r="SQ51" s="0"/>
+      <c r="SR51" s="0"/>
+      <c r="SS51" s="0"/>
+      <c r="ST51" s="0"/>
+      <c r="SU51" s="0"/>
+      <c r="SV51" s="0"/>
+      <c r="SW51" s="0"/>
+      <c r="SX51" s="0"/>
+      <c r="SY51" s="0"/>
+      <c r="SZ51" s="0"/>
+      <c r="TA51" s="0"/>
+      <c r="TB51" s="0"/>
+      <c r="TC51" s="0"/>
+      <c r="TD51" s="0"/>
+      <c r="TE51" s="0"/>
+      <c r="TF51" s="0"/>
+      <c r="TG51" s="0"/>
+      <c r="TH51" s="0"/>
+      <c r="TI51" s="0"/>
+      <c r="TJ51" s="0"/>
+      <c r="TK51" s="0"/>
+      <c r="TL51" s="0"/>
+      <c r="TM51" s="0"/>
+      <c r="TN51" s="0"/>
+      <c r="TO51" s="0"/>
+      <c r="TP51" s="0"/>
+      <c r="TQ51" s="0"/>
+      <c r="TR51" s="0"/>
+      <c r="TS51" s="0"/>
+      <c r="TT51" s="0"/>
+      <c r="TU51" s="0"/>
+      <c r="TV51" s="0"/>
+      <c r="TW51" s="0"/>
+      <c r="TX51" s="0"/>
+      <c r="TY51" s="0"/>
+      <c r="TZ51" s="0"/>
+      <c r="UA51" s="0"/>
+      <c r="UB51" s="0"/>
+      <c r="UC51" s="0"/>
+      <c r="UD51" s="0"/>
+      <c r="UE51" s="0"/>
+      <c r="UF51" s="0"/>
+      <c r="UG51" s="0"/>
+      <c r="UH51" s="0"/>
+      <c r="UI51" s="0"/>
+      <c r="UJ51" s="0"/>
+      <c r="UK51" s="0"/>
+      <c r="UL51" s="0"/>
+      <c r="UM51" s="0"/>
+      <c r="UN51" s="0"/>
+      <c r="UO51" s="0"/>
+      <c r="UP51" s="0"/>
+      <c r="UQ51" s="0"/>
+      <c r="UR51" s="0"/>
+      <c r="US51" s="0"/>
+      <c r="UT51" s="0"/>
+      <c r="UU51" s="0"/>
+      <c r="UV51" s="0"/>
+      <c r="UW51" s="0"/>
+      <c r="UX51" s="0"/>
+      <c r="UY51" s="0"/>
+      <c r="UZ51" s="0"/>
+      <c r="VA51" s="0"/>
+      <c r="VB51" s="0"/>
+      <c r="VC51" s="0"/>
+      <c r="VD51" s="0"/>
+      <c r="VE51" s="0"/>
+      <c r="VF51" s="0"/>
+      <c r="VG51" s="0"/>
+      <c r="VH51" s="0"/>
+      <c r="VI51" s="0"/>
+      <c r="VJ51" s="0"/>
+      <c r="VK51" s="0"/>
+      <c r="VL51" s="0"/>
+      <c r="VM51" s="0"/>
+      <c r="VN51" s="0"/>
+      <c r="VO51" s="0"/>
+      <c r="VP51" s="0"/>
+      <c r="VQ51" s="0"/>
+      <c r="VR51" s="0"/>
+      <c r="VS51" s="0"/>
+      <c r="VT51" s="0"/>
+      <c r="VU51" s="0"/>
+      <c r="VV51" s="0"/>
+      <c r="VW51" s="0"/>
+      <c r="VX51" s="0"/>
+      <c r="VY51" s="0"/>
+      <c r="VZ51" s="0"/>
+      <c r="WA51" s="0"/>
+      <c r="WB51" s="0"/>
+      <c r="WC51" s="0"/>
+      <c r="WD51" s="0"/>
+      <c r="WE51" s="0"/>
+      <c r="WF51" s="0"/>
+      <c r="WG51" s="0"/>
+      <c r="WH51" s="0"/>
+      <c r="WI51" s="0"/>
+      <c r="WJ51" s="0"/>
+      <c r="WK51" s="0"/>
+      <c r="WL51" s="0"/>
+      <c r="WM51" s="0"/>
+      <c r="WN51" s="0"/>
+      <c r="WO51" s="0"/>
+      <c r="WP51" s="0"/>
+      <c r="WQ51" s="0"/>
+      <c r="WR51" s="0"/>
+      <c r="WS51" s="0"/>
+      <c r="WT51" s="0"/>
+      <c r="WU51" s="0"/>
+      <c r="WV51" s="0"/>
+      <c r="WW51" s="0"/>
+      <c r="WX51" s="0"/>
+      <c r="WY51" s="0"/>
+      <c r="WZ51" s="0"/>
+      <c r="XA51" s="0"/>
+      <c r="XB51" s="0"/>
+      <c r="XC51" s="0"/>
+      <c r="XD51" s="0"/>
+      <c r="XE51" s="0"/>
+      <c r="XF51" s="0"/>
+      <c r="XG51" s="0"/>
+      <c r="XH51" s="0"/>
+      <c r="XI51" s="0"/>
+      <c r="XJ51" s="0"/>
+      <c r="XK51" s="0"/>
+      <c r="XL51" s="0"/>
+      <c r="XM51" s="0"/>
+      <c r="XN51" s="0"/>
+      <c r="XO51" s="0"/>
+      <c r="XP51" s="0"/>
+      <c r="XQ51" s="0"/>
+      <c r="XR51" s="0"/>
+      <c r="XS51" s="0"/>
+      <c r="XT51" s="0"/>
+      <c r="XU51" s="0"/>
+      <c r="XV51" s="0"/>
+      <c r="XW51" s="0"/>
+      <c r="XX51" s="0"/>
+      <c r="XY51" s="0"/>
+      <c r="XZ51" s="0"/>
+      <c r="YA51" s="0"/>
+      <c r="YB51" s="0"/>
+      <c r="YC51" s="0"/>
+      <c r="YD51" s="0"/>
+      <c r="YE51" s="0"/>
+      <c r="YF51" s="0"/>
+      <c r="YG51" s="0"/>
+      <c r="YH51" s="0"/>
+      <c r="YI51" s="0"/>
+      <c r="YJ51" s="0"/>
+      <c r="YK51" s="0"/>
+      <c r="YL51" s="0"/>
+      <c r="YM51" s="0"/>
+      <c r="YN51" s="0"/>
+      <c r="YO51" s="0"/>
+      <c r="YP51" s="0"/>
+      <c r="YQ51" s="0"/>
+      <c r="YR51" s="0"/>
+      <c r="YS51" s="0"/>
+      <c r="YT51" s="0"/>
+      <c r="YU51" s="0"/>
+      <c r="YV51" s="0"/>
+      <c r="YW51" s="0"/>
+      <c r="YX51" s="0"/>
+      <c r="YY51" s="0"/>
+      <c r="YZ51" s="0"/>
+      <c r="ZA51" s="0"/>
+      <c r="ZB51" s="0"/>
+      <c r="ZC51" s="0"/>
+      <c r="ZD51" s="0"/>
+      <c r="ZE51" s="0"/>
+      <c r="ZF51" s="0"/>
+      <c r="ZG51" s="0"/>
+      <c r="ZH51" s="0"/>
+      <c r="ZI51" s="0"/>
+      <c r="ZJ51" s="0"/>
+      <c r="ZK51" s="0"/>
+      <c r="ZL51" s="0"/>
+      <c r="ZM51" s="0"/>
+      <c r="ZN51" s="0"/>
+      <c r="ZO51" s="0"/>
+      <c r="ZP51" s="0"/>
+      <c r="ZQ51" s="0"/>
+      <c r="ZR51" s="0"/>
+      <c r="ZS51" s="0"/>
+      <c r="ZT51" s="0"/>
+      <c r="ZU51" s="0"/>
+      <c r="ZV51" s="0"/>
+      <c r="ZW51" s="0"/>
+      <c r="ZX51" s="0"/>
+      <c r="ZY51" s="0"/>
+      <c r="ZZ51" s="0"/>
+      <c r="AAA51" s="0"/>
+      <c r="AAB51" s="0"/>
+      <c r="AAC51" s="0"/>
+      <c r="AAD51" s="0"/>
+      <c r="AAE51" s="0"/>
+      <c r="AAF51" s="0"/>
+      <c r="AAG51" s="0"/>
+      <c r="AAH51" s="0"/>
+      <c r="AAI51" s="0"/>
+      <c r="AAJ51" s="0"/>
+      <c r="AAK51" s="0"/>
+      <c r="AAL51" s="0"/>
+      <c r="AAM51" s="0"/>
+      <c r="AAN51" s="0"/>
+      <c r="AAO51" s="0"/>
+      <c r="AAP51" s="0"/>
+      <c r="AAQ51" s="0"/>
+      <c r="AAR51" s="0"/>
+      <c r="AAS51" s="0"/>
+      <c r="AAT51" s="0"/>
+      <c r="AAU51" s="0"/>
+      <c r="AAV51" s="0"/>
+      <c r="AAW51" s="0"/>
+      <c r="AAX51" s="0"/>
+      <c r="AAY51" s="0"/>
+      <c r="AAZ51" s="0"/>
+      <c r="ABA51" s="0"/>
+      <c r="ABB51" s="0"/>
+      <c r="ABC51" s="0"/>
+      <c r="ABD51" s="0"/>
+      <c r="ABE51" s="0"/>
+      <c r="ABF51" s="0"/>
+      <c r="ABG51" s="0"/>
+      <c r="ABH51" s="0"/>
+      <c r="ABI51" s="0"/>
+      <c r="ABJ51" s="0"/>
+      <c r="ABK51" s="0"/>
+      <c r="ABL51" s="0"/>
+      <c r="ABM51" s="0"/>
+      <c r="ABN51" s="0"/>
+      <c r="ABO51" s="0"/>
+      <c r="ABP51" s="0"/>
+      <c r="ABQ51" s="0"/>
+      <c r="ABR51" s="0"/>
+      <c r="ABS51" s="0"/>
+      <c r="ABT51" s="0"/>
+      <c r="ABU51" s="0"/>
+      <c r="ABV51" s="0"/>
+      <c r="ABW51" s="0"/>
+      <c r="ABX51" s="0"/>
+      <c r="ABY51" s="0"/>
+      <c r="ABZ51" s="0"/>
+      <c r="ACA51" s="0"/>
+      <c r="ACB51" s="0"/>
+      <c r="ACC51" s="0"/>
+      <c r="ACD51" s="0"/>
+      <c r="ACE51" s="0"/>
+      <c r="ACF51" s="0"/>
+      <c r="ACG51" s="0"/>
+      <c r="ACH51" s="0"/>
+      <c r="ACI51" s="0"/>
+      <c r="ACJ51" s="0"/>
+      <c r="ACK51" s="0"/>
+      <c r="ACL51" s="0"/>
+      <c r="ACM51" s="0"/>
+      <c r="ACN51" s="0"/>
+      <c r="ACO51" s="0"/>
+      <c r="ACP51" s="0"/>
+      <c r="ACQ51" s="0"/>
+      <c r="ACR51" s="0"/>
+      <c r="ACS51" s="0"/>
+      <c r="ACT51" s="0"/>
+      <c r="ACU51" s="0"/>
+      <c r="ACV51" s="0"/>
+      <c r="ACW51" s="0"/>
+      <c r="ACX51" s="0"/>
+      <c r="ACY51" s="0"/>
+      <c r="ACZ51" s="0"/>
+      <c r="ADA51" s="0"/>
+      <c r="ADB51" s="0"/>
+      <c r="ADC51" s="0"/>
+      <c r="ADD51" s="0"/>
+      <c r="ADE51" s="0"/>
+      <c r="ADF51" s="0"/>
+      <c r="ADG51" s="0"/>
+      <c r="ADH51" s="0"/>
+      <c r="ADI51" s="0"/>
+      <c r="ADJ51" s="0"/>
+      <c r="ADK51" s="0"/>
+      <c r="ADL51" s="0"/>
+      <c r="ADM51" s="0"/>
+      <c r="ADN51" s="0"/>
+      <c r="ADO51" s="0"/>
+      <c r="ADP51" s="0"/>
+      <c r="ADQ51" s="0"/>
+      <c r="ADR51" s="0"/>
+      <c r="ADS51" s="0"/>
+      <c r="ADT51" s="0"/>
+      <c r="ADU51" s="0"/>
+      <c r="ADV51" s="0"/>
+      <c r="ADW51" s="0"/>
+      <c r="ADX51" s="0"/>
+      <c r="ADY51" s="0"/>
+      <c r="ADZ51" s="0"/>
+      <c r="AEA51" s="0"/>
+      <c r="AEB51" s="0"/>
+      <c r="AEC51" s="0"/>
+      <c r="AED51" s="0"/>
+      <c r="AEE51" s="0"/>
+      <c r="AEF51" s="0"/>
+      <c r="AEG51" s="0"/>
+      <c r="AEH51" s="0"/>
+      <c r="AEI51" s="0"/>
+      <c r="AEJ51" s="0"/>
+      <c r="AEK51" s="0"/>
+      <c r="AEL51" s="0"/>
+      <c r="AEM51" s="0"/>
+      <c r="AEN51" s="0"/>
+      <c r="AEO51" s="0"/>
+      <c r="AEP51" s="0"/>
+      <c r="AEQ51" s="0"/>
+      <c r="AER51" s="0"/>
+      <c r="AES51" s="0"/>
+      <c r="AET51" s="0"/>
+      <c r="AEU51" s="0"/>
+      <c r="AEV51" s="0"/>
+      <c r="AEW51" s="0"/>
+      <c r="AEX51" s="0"/>
+      <c r="AEY51" s="0"/>
+      <c r="AEZ51" s="0"/>
+      <c r="AFA51" s="0"/>
+      <c r="AFB51" s="0"/>
+      <c r="AFC51" s="0"/>
+      <c r="AFD51" s="0"/>
+      <c r="AFE51" s="0"/>
+      <c r="AFF51" s="0"/>
+      <c r="AFG51" s="0"/>
+      <c r="AFH51" s="0"/>
+      <c r="AFI51" s="0"/>
+      <c r="AFJ51" s="0"/>
+      <c r="AFK51" s="0"/>
+      <c r="AFL51" s="0"/>
+      <c r="AFM51" s="0"/>
+      <c r="AFN51" s="0"/>
+      <c r="AFO51" s="0"/>
+      <c r="AFP51" s="0"/>
+      <c r="AFQ51" s="0"/>
+      <c r="AFR51" s="0"/>
+      <c r="AFS51" s="0"/>
+      <c r="AFT51" s="0"/>
+      <c r="AFU51" s="0"/>
+      <c r="AFV51" s="0"/>
+      <c r="AFW51" s="0"/>
+      <c r="AFX51" s="0"/>
+      <c r="AFY51" s="0"/>
+      <c r="AFZ51" s="0"/>
+      <c r="AGA51" s="0"/>
+      <c r="AGB51" s="0"/>
+      <c r="AGC51" s="0"/>
+      <c r="AGD51" s="0"/>
+      <c r="AGE51" s="0"/>
+      <c r="AGF51" s="0"/>
+      <c r="AGG51" s="0"/>
+      <c r="AGH51" s="0"/>
+      <c r="AGI51" s="0"/>
+      <c r="AGJ51" s="0"/>
+      <c r="AGK51" s="0"/>
+      <c r="AGL51" s="0"/>
+      <c r="AGM51" s="0"/>
+      <c r="AGN51" s="0"/>
+      <c r="AGO51" s="0"/>
+      <c r="AGP51" s="0"/>
+      <c r="AGQ51" s="0"/>
+      <c r="AGR51" s="0"/>
+      <c r="AGS51" s="0"/>
+      <c r="AGT51" s="0"/>
+      <c r="AGU51" s="0"/>
+      <c r="AGV51" s="0"/>
+      <c r="AGW51" s="0"/>
+      <c r="AGX51" s="0"/>
+      <c r="AGY51" s="0"/>
+      <c r="AGZ51" s="0"/>
+      <c r="AHA51" s="0"/>
+      <c r="AHB51" s="0"/>
+      <c r="AHC51" s="0"/>
+      <c r="AHD51" s="0"/>
+      <c r="AHE51" s="0"/>
+      <c r="AHF51" s="0"/>
+      <c r="AHG51" s="0"/>
+      <c r="AHH51" s="0"/>
+      <c r="AHI51" s="0"/>
+      <c r="AHJ51" s="0"/>
+      <c r="AHK51" s="0"/>
+      <c r="AHL51" s="0"/>
+      <c r="AHM51" s="0"/>
+      <c r="AHN51" s="0"/>
+      <c r="AHO51" s="0"/>
+      <c r="AHP51" s="0"/>
+      <c r="AHQ51" s="0"/>
+      <c r="AHR51" s="0"/>
+      <c r="AHS51" s="0"/>
+      <c r="AHT51" s="0"/>
+      <c r="AHU51" s="0"/>
+      <c r="AHV51" s="0"/>
+      <c r="AHW51" s="0"/>
+      <c r="AHX51" s="0"/>
+      <c r="AHY51" s="0"/>
+      <c r="AHZ51" s="0"/>
+      <c r="AIA51" s="0"/>
+      <c r="AIB51" s="0"/>
+      <c r="AIC51" s="0"/>
+      <c r="AID51" s="0"/>
+      <c r="AIE51" s="0"/>
+      <c r="AIF51" s="0"/>
+      <c r="AIG51" s="0"/>
+      <c r="AIH51" s="0"/>
+      <c r="AII51" s="0"/>
+      <c r="AIJ51" s="0"/>
+      <c r="AIK51" s="0"/>
+      <c r="AIL51" s="0"/>
+      <c r="AIM51" s="0"/>
+      <c r="AIN51" s="0"/>
+      <c r="AIO51" s="0"/>
+      <c r="AIP51" s="0"/>
+      <c r="AIQ51" s="0"/>
+      <c r="AIR51" s="0"/>
+      <c r="AIS51" s="0"/>
+      <c r="AIT51" s="0"/>
+      <c r="AIU51" s="0"/>
+      <c r="AIV51" s="0"/>
+      <c r="AIW51" s="0"/>
+      <c r="AIX51" s="0"/>
+      <c r="AIY51" s="0"/>
+      <c r="AIZ51" s="0"/>
+      <c r="AJA51" s="0"/>
+      <c r="AJB51" s="0"/>
+      <c r="AJC51" s="0"/>
+      <c r="AJD51" s="0"/>
+      <c r="AJE51" s="0"/>
+      <c r="AJF51" s="0"/>
+      <c r="AJG51" s="0"/>
+      <c r="AJH51" s="0"/>
+      <c r="AJI51" s="0"/>
+      <c r="AJJ51" s="0"/>
+      <c r="AJK51" s="0"/>
+      <c r="AJL51" s="0"/>
+      <c r="AJM51" s="0"/>
+      <c r="AJN51" s="0"/>
+      <c r="AJO51" s="0"/>
+      <c r="AJP51" s="0"/>
+      <c r="AJQ51" s="0"/>
+      <c r="AJR51" s="0"/>
+      <c r="AJS51" s="0"/>
+      <c r="AJT51" s="0"/>
+      <c r="AJU51" s="0"/>
+      <c r="AJV51" s="0"/>
+      <c r="AJW51" s="0"/>
+      <c r="AJX51" s="0"/>
+      <c r="AJY51" s="0"/>
+      <c r="AJZ51" s="0"/>
+      <c r="AKA51" s="0"/>
+      <c r="AKB51" s="0"/>
+      <c r="AKC51" s="0"/>
+      <c r="AKD51" s="0"/>
+      <c r="AKE51" s="0"/>
+      <c r="AKF51" s="0"/>
+      <c r="AKG51" s="0"/>
+      <c r="AKH51" s="0"/>
+      <c r="AKI51" s="0"/>
+      <c r="AKJ51" s="0"/>
+      <c r="AKK51" s="0"/>
+      <c r="AKL51" s="0"/>
+      <c r="AKM51" s="0"/>
+      <c r="AKN51" s="0"/>
+      <c r="AKO51" s="0"/>
+      <c r="AKP51" s="0"/>
+      <c r="AKQ51" s="0"/>
+      <c r="AKR51" s="0"/>
+      <c r="AKS51" s="0"/>
+      <c r="AKT51" s="0"/>
+      <c r="AKU51" s="0"/>
+      <c r="AKV51" s="0"/>
+      <c r="AKW51" s="0"/>
+      <c r="AKX51" s="0"/>
+      <c r="AKY51" s="0"/>
+      <c r="AKZ51" s="0"/>
+      <c r="ALA51" s="0"/>
+      <c r="ALB51" s="0"/>
+      <c r="ALC51" s="0"/>
+      <c r="ALD51" s="0"/>
+      <c r="ALE51" s="0"/>
+      <c r="ALF51" s="0"/>
+      <c r="ALG51" s="0"/>
+      <c r="ALH51" s="0"/>
+      <c r="ALI51" s="0"/>
+      <c r="ALJ51" s="0"/>
+      <c r="ALK51" s="0"/>
+      <c r="ALL51" s="0"/>
+      <c r="ALM51" s="0"/>
+      <c r="ALN51" s="0"/>
+      <c r="ALO51" s="0"/>
+      <c r="ALP51" s="0"/>
+      <c r="ALQ51" s="0"/>
+      <c r="ALR51" s="0"/>
+      <c r="ALS51" s="0"/>
+      <c r="ALT51" s="0"/>
+      <c r="ALU51" s="0"/>
+      <c r="ALV51" s="0"/>
+      <c r="ALW51" s="0"/>
+      <c r="ALX51" s="0"/>
+      <c r="ALY51" s="0"/>
+      <c r="ALZ51" s="0"/>
+      <c r="AMA51" s="0"/>
+      <c r="AMB51" s="0"/>
+      <c r="AMC51" s="0"/>
+      <c r="AMD51" s="0"/>
+      <c r="AME51" s="0"/>
+      <c r="AMF51" s="0"/>
+      <c r="AMG51" s="0"/>
+      <c r="AMH51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="H52" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="I52" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="14" t="n">
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="9" t="n">
         <f aca="false">E52=""</f>
         <v>0</v>
       </c>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="S52" s="16" t="s">
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="0"/>
+      <c r="S52" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="T52" s="0"/>
+      <c r="U52" s="0"/>
+      <c r="V52" s="0"/>
+      <c r="W52" s="0"/>
+      <c r="X52" s="0"/>
+      <c r="Y52" s="0"/>
+      <c r="Z52" s="0"/>
+      <c r="AA52" s="0"/>
+      <c r="AB52" s="0"/>
+      <c r="AC52" s="0"/>
+      <c r="AD52" s="0"/>
+      <c r="AE52" s="0"/>
+      <c r="AF52" s="0"/>
+      <c r="AG52" s="0"/>
+      <c r="AH52" s="0"/>
+      <c r="AI52" s="0"/>
+      <c r="AJ52" s="0"/>
+      <c r="AK52" s="0"/>
+      <c r="AL52" s="0"/>
+      <c r="AM52" s="0"/>
+      <c r="AN52" s="0"/>
+      <c r="AO52" s="0"/>
+      <c r="AP52" s="0"/>
+      <c r="AQ52" s="0"/>
+      <c r="AR52" s="0"/>
+      <c r="AS52" s="0"/>
+      <c r="AT52" s="0"/>
+      <c r="AU52" s="0"/>
+      <c r="AV52" s="0"/>
+      <c r="AW52" s="0"/>
+      <c r="AX52" s="0"/>
+      <c r="AY52" s="0"/>
+      <c r="AZ52" s="0"/>
+      <c r="BA52" s="0"/>
+      <c r="BB52" s="0"/>
+      <c r="BC52" s="0"/>
+      <c r="BD52" s="0"/>
+      <c r="BE52" s="0"/>
+      <c r="BF52" s="0"/>
+      <c r="BG52" s="0"/>
+      <c r="BH52" s="0"/>
+      <c r="BI52" s="0"/>
+      <c r="BJ52" s="0"/>
+      <c r="BK52" s="0"/>
+      <c r="BL52" s="0"/>
+      <c r="BM52" s="0"/>
+      <c r="BN52" s="0"/>
+      <c r="BO52" s="0"/>
+      <c r="BP52" s="0"/>
+      <c r="BQ52" s="0"/>
+      <c r="BR52" s="0"/>
+      <c r="BS52" s="0"/>
+      <c r="BT52" s="0"/>
+      <c r="BU52" s="0"/>
+      <c r="BV52" s="0"/>
+      <c r="BW52" s="0"/>
+      <c r="BX52" s="0"/>
+      <c r="BY52" s="0"/>
+      <c r="BZ52" s="0"/>
+      <c r="CA52" s="0"/>
+      <c r="CB52" s="0"/>
+      <c r="CC52" s="0"/>
+      <c r="CD52" s="0"/>
+      <c r="CE52" s="0"/>
+      <c r="CF52" s="0"/>
+      <c r="CG52" s="0"/>
+      <c r="CH52" s="0"/>
+      <c r="CI52" s="0"/>
+      <c r="CJ52" s="0"/>
+      <c r="CK52" s="0"/>
+      <c r="CL52" s="0"/>
+      <c r="CM52" s="0"/>
+      <c r="CN52" s="0"/>
+      <c r="CO52" s="0"/>
+      <c r="CP52" s="0"/>
+      <c r="CQ52" s="0"/>
+      <c r="CR52" s="0"/>
+      <c r="CS52" s="0"/>
+      <c r="CT52" s="0"/>
+      <c r="CU52" s="0"/>
+      <c r="CV52" s="0"/>
+      <c r="CW52" s="0"/>
+      <c r="CX52" s="0"/>
+      <c r="CY52" s="0"/>
+      <c r="CZ52" s="0"/>
+      <c r="DA52" s="0"/>
+      <c r="DB52" s="0"/>
+      <c r="DC52" s="0"/>
+      <c r="DD52" s="0"/>
+      <c r="DE52" s="0"/>
+      <c r="DF52" s="0"/>
+      <c r="DG52" s="0"/>
+      <c r="DH52" s="0"/>
+      <c r="DI52" s="0"/>
+      <c r="DJ52" s="0"/>
+      <c r="DK52" s="0"/>
+      <c r="DL52" s="0"/>
+      <c r="DM52" s="0"/>
+      <c r="DN52" s="0"/>
+      <c r="DO52" s="0"/>
+      <c r="DP52" s="0"/>
+      <c r="DQ52" s="0"/>
+      <c r="DR52" s="0"/>
+      <c r="DS52" s="0"/>
+      <c r="DT52" s="0"/>
+      <c r="DU52" s="0"/>
+      <c r="DV52" s="0"/>
+      <c r="DW52" s="0"/>
+      <c r="DX52" s="0"/>
+      <c r="DY52" s="0"/>
+      <c r="DZ52" s="0"/>
+      <c r="EA52" s="0"/>
+      <c r="EB52" s="0"/>
+      <c r="EC52" s="0"/>
+      <c r="ED52" s="0"/>
+      <c r="EE52" s="0"/>
+      <c r="EF52" s="0"/>
+      <c r="EG52" s="0"/>
+      <c r="EH52" s="0"/>
+      <c r="EI52" s="0"/>
+      <c r="EJ52" s="0"/>
+      <c r="EK52" s="0"/>
+      <c r="EL52" s="0"/>
+      <c r="EM52" s="0"/>
+      <c r="EN52" s="0"/>
+      <c r="EO52" s="0"/>
+      <c r="EP52" s="0"/>
+      <c r="EQ52" s="0"/>
+      <c r="ER52" s="0"/>
+      <c r="ES52" s="0"/>
+      <c r="ET52" s="0"/>
+      <c r="EU52" s="0"/>
+      <c r="EV52" s="0"/>
+      <c r="EW52" s="0"/>
+      <c r="EX52" s="0"/>
+      <c r="EY52" s="0"/>
+      <c r="EZ52" s="0"/>
+      <c r="FA52" s="0"/>
+      <c r="FB52" s="0"/>
+      <c r="FC52" s="0"/>
+      <c r="FD52" s="0"/>
+      <c r="FE52" s="0"/>
+      <c r="FF52" s="0"/>
+      <c r="FG52" s="0"/>
+      <c r="FH52" s="0"/>
+      <c r="FI52" s="0"/>
+      <c r="FJ52" s="0"/>
+      <c r="FK52" s="0"/>
+      <c r="FL52" s="0"/>
+      <c r="FM52" s="0"/>
+      <c r="FN52" s="0"/>
+      <c r="FO52" s="0"/>
+      <c r="FP52" s="0"/>
+      <c r="FQ52" s="0"/>
+      <c r="FR52" s="0"/>
+      <c r="FS52" s="0"/>
+      <c r="FT52" s="0"/>
+      <c r="FU52" s="0"/>
+      <c r="FV52" s="0"/>
+      <c r="FW52" s="0"/>
+      <c r="FX52" s="0"/>
+      <c r="FY52" s="0"/>
+      <c r="FZ52" s="0"/>
+      <c r="GA52" s="0"/>
+      <c r="GB52" s="0"/>
+      <c r="GC52" s="0"/>
+      <c r="GD52" s="0"/>
+      <c r="GE52" s="0"/>
+      <c r="GF52" s="0"/>
+      <c r="GG52" s="0"/>
+      <c r="GH52" s="0"/>
+      <c r="GI52" s="0"/>
+      <c r="GJ52" s="0"/>
+      <c r="GK52" s="0"/>
+      <c r="GL52" s="0"/>
+      <c r="GM52" s="0"/>
+      <c r="GN52" s="0"/>
+      <c r="GO52" s="0"/>
+      <c r="GP52" s="0"/>
+      <c r="GQ52" s="0"/>
+      <c r="GR52" s="0"/>
+      <c r="GS52" s="0"/>
+      <c r="GT52" s="0"/>
+      <c r="GU52" s="0"/>
+      <c r="GV52" s="0"/>
+      <c r="GW52" s="0"/>
+      <c r="GX52" s="0"/>
+      <c r="GY52" s="0"/>
+      <c r="GZ52" s="0"/>
+      <c r="HA52" s="0"/>
+      <c r="HB52" s="0"/>
+      <c r="HC52" s="0"/>
+      <c r="HD52" s="0"/>
+      <c r="HE52" s="0"/>
+      <c r="HF52" s="0"/>
+      <c r="HG52" s="0"/>
+      <c r="HH52" s="0"/>
+      <c r="HI52" s="0"/>
+      <c r="HJ52" s="0"/>
+      <c r="HK52" s="0"/>
+      <c r="HL52" s="0"/>
+      <c r="HM52" s="0"/>
+      <c r="HN52" s="0"/>
+      <c r="HO52" s="0"/>
+      <c r="HP52" s="0"/>
+      <c r="HQ52" s="0"/>
+      <c r="HR52" s="0"/>
+      <c r="HS52" s="0"/>
+      <c r="HT52" s="0"/>
+      <c r="HU52" s="0"/>
+      <c r="HV52" s="0"/>
+      <c r="HW52" s="0"/>
+      <c r="HX52" s="0"/>
+      <c r="HY52" s="0"/>
+      <c r="HZ52" s="0"/>
+      <c r="IA52" s="0"/>
+      <c r="IB52" s="0"/>
+      <c r="IC52" s="0"/>
+      <c r="ID52" s="0"/>
+      <c r="IE52" s="0"/>
+      <c r="IF52" s="0"/>
+      <c r="IG52" s="0"/>
+      <c r="IH52" s="0"/>
+      <c r="II52" s="0"/>
+      <c r="IJ52" s="0"/>
+      <c r="IK52" s="0"/>
+      <c r="IL52" s="0"/>
+      <c r="IM52" s="0"/>
+      <c r="IN52" s="0"/>
+      <c r="IO52" s="0"/>
+      <c r="IP52" s="0"/>
+      <c r="IQ52" s="0"/>
+      <c r="IR52" s="0"/>
+      <c r="IS52" s="0"/>
+      <c r="IT52" s="0"/>
+      <c r="IU52" s="0"/>
+      <c r="IV52" s="0"/>
+      <c r="IW52" s="0"/>
+      <c r="IX52" s="0"/>
+      <c r="IY52" s="0"/>
+      <c r="IZ52" s="0"/>
+      <c r="JA52" s="0"/>
+      <c r="JB52" s="0"/>
+      <c r="JC52" s="0"/>
+      <c r="JD52" s="0"/>
+      <c r="JE52" s="0"/>
+      <c r="JF52" s="0"/>
+      <c r="JG52" s="0"/>
+      <c r="JH52" s="0"/>
+      <c r="JI52" s="0"/>
+      <c r="JJ52" s="0"/>
+      <c r="JK52" s="0"/>
+      <c r="JL52" s="0"/>
+      <c r="JM52" s="0"/>
+      <c r="JN52" s="0"/>
+      <c r="JO52" s="0"/>
+      <c r="JP52" s="0"/>
+      <c r="JQ52" s="0"/>
+      <c r="JR52" s="0"/>
+      <c r="JS52" s="0"/>
+      <c r="JT52" s="0"/>
+      <c r="JU52" s="0"/>
+      <c r="JV52" s="0"/>
+      <c r="JW52" s="0"/>
+      <c r="JX52" s="0"/>
+      <c r="JY52" s="0"/>
+      <c r="JZ52" s="0"/>
+      <c r="KA52" s="0"/>
+      <c r="KB52" s="0"/>
+      <c r="KC52" s="0"/>
+      <c r="KD52" s="0"/>
+      <c r="KE52" s="0"/>
+      <c r="KF52" s="0"/>
+      <c r="KG52" s="0"/>
+      <c r="KH52" s="0"/>
+      <c r="KI52" s="0"/>
+      <c r="KJ52" s="0"/>
+      <c r="KK52" s="0"/>
+      <c r="KL52" s="0"/>
+      <c r="KM52" s="0"/>
+      <c r="KN52" s="0"/>
+      <c r="KO52" s="0"/>
+      <c r="KP52" s="0"/>
+      <c r="KQ52" s="0"/>
+      <c r="KR52" s="0"/>
+      <c r="KS52" s="0"/>
+      <c r="KT52" s="0"/>
+      <c r="KU52" s="0"/>
+      <c r="KV52" s="0"/>
+      <c r="KW52" s="0"/>
+      <c r="KX52" s="0"/>
+      <c r="KY52" s="0"/>
+      <c r="KZ52" s="0"/>
+      <c r="LA52" s="0"/>
+      <c r="LB52" s="0"/>
+      <c r="LC52" s="0"/>
+      <c r="LD52" s="0"/>
+      <c r="LE52" s="0"/>
+      <c r="LF52" s="0"/>
+      <c r="LG52" s="0"/>
+      <c r="LH52" s="0"/>
+      <c r="LI52" s="0"/>
+      <c r="LJ52" s="0"/>
+      <c r="LK52" s="0"/>
+      <c r="LL52" s="0"/>
+      <c r="LM52" s="0"/>
+      <c r="LN52" s="0"/>
+      <c r="LO52" s="0"/>
+      <c r="LP52" s="0"/>
+      <c r="LQ52" s="0"/>
+      <c r="LR52" s="0"/>
+      <c r="LS52" s="0"/>
+      <c r="LT52" s="0"/>
+      <c r="LU52" s="0"/>
+      <c r="LV52" s="0"/>
+      <c r="LW52" s="0"/>
+      <c r="LX52" s="0"/>
+      <c r="LY52" s="0"/>
+      <c r="LZ52" s="0"/>
+      <c r="MA52" s="0"/>
+      <c r="MB52" s="0"/>
+      <c r="MC52" s="0"/>
+      <c r="MD52" s="0"/>
+      <c r="ME52" s="0"/>
+      <c r="MF52" s="0"/>
+      <c r="MG52" s="0"/>
+      <c r="MH52" s="0"/>
+      <c r="MI52" s="0"/>
+      <c r="MJ52" s="0"/>
+      <c r="MK52" s="0"/>
+      <c r="ML52" s="0"/>
+      <c r="MM52" s="0"/>
+      <c r="MN52" s="0"/>
+      <c r="MO52" s="0"/>
+      <c r="MP52" s="0"/>
+      <c r="MQ52" s="0"/>
+      <c r="MR52" s="0"/>
+      <c r="MS52" s="0"/>
+      <c r="MT52" s="0"/>
+      <c r="MU52" s="0"/>
+      <c r="MV52" s="0"/>
+      <c r="MW52" s="0"/>
+      <c r="MX52" s="0"/>
+      <c r="MY52" s="0"/>
+      <c r="MZ52" s="0"/>
+      <c r="NA52" s="0"/>
+      <c r="NB52" s="0"/>
+      <c r="NC52" s="0"/>
+      <c r="ND52" s="0"/>
+      <c r="NE52" s="0"/>
+      <c r="NF52" s="0"/>
+      <c r="NG52" s="0"/>
+      <c r="NH52" s="0"/>
+      <c r="NI52" s="0"/>
+      <c r="NJ52" s="0"/>
+      <c r="NK52" s="0"/>
+      <c r="NL52" s="0"/>
+      <c r="NM52" s="0"/>
+      <c r="NN52" s="0"/>
+      <c r="NO52" s="0"/>
+      <c r="NP52" s="0"/>
+      <c r="NQ52" s="0"/>
+      <c r="NR52" s="0"/>
+      <c r="NS52" s="0"/>
+      <c r="NT52" s="0"/>
+      <c r="NU52" s="0"/>
+      <c r="NV52" s="0"/>
+      <c r="NW52" s="0"/>
+      <c r="NX52" s="0"/>
+      <c r="NY52" s="0"/>
+      <c r="NZ52" s="0"/>
+      <c r="OA52" s="0"/>
+      <c r="OB52" s="0"/>
+      <c r="OC52" s="0"/>
+      <c r="OD52" s="0"/>
+      <c r="OE52" s="0"/>
+      <c r="OF52" s="0"/>
+      <c r="OG52" s="0"/>
+      <c r="OH52" s="0"/>
+      <c r="OI52" s="0"/>
+      <c r="OJ52" s="0"/>
+      <c r="OK52" s="0"/>
+      <c r="OL52" s="0"/>
+      <c r="OM52" s="0"/>
+      <c r="ON52" s="0"/>
+      <c r="OO52" s="0"/>
+      <c r="OP52" s="0"/>
+      <c r="OQ52" s="0"/>
+      <c r="OR52" s="0"/>
+      <c r="OS52" s="0"/>
+      <c r="OT52" s="0"/>
+      <c r="OU52" s="0"/>
+      <c r="OV52" s="0"/>
+      <c r="OW52" s="0"/>
+      <c r="OX52" s="0"/>
+      <c r="OY52" s="0"/>
+      <c r="OZ52" s="0"/>
+      <c r="PA52" s="0"/>
+      <c r="PB52" s="0"/>
+      <c r="PC52" s="0"/>
+      <c r="PD52" s="0"/>
+      <c r="PE52" s="0"/>
+      <c r="PF52" s="0"/>
+      <c r="PG52" s="0"/>
+      <c r="PH52" s="0"/>
+      <c r="PI52" s="0"/>
+      <c r="PJ52" s="0"/>
+      <c r="PK52" s="0"/>
+      <c r="PL52" s="0"/>
+      <c r="PM52" s="0"/>
+      <c r="PN52" s="0"/>
+      <c r="PO52" s="0"/>
+      <c r="PP52" s="0"/>
+      <c r="PQ52" s="0"/>
+      <c r="PR52" s="0"/>
+      <c r="PS52" s="0"/>
+      <c r="PT52" s="0"/>
+      <c r="PU52" s="0"/>
+      <c r="PV52" s="0"/>
+      <c r="PW52" s="0"/>
+      <c r="PX52" s="0"/>
+      <c r="PY52" s="0"/>
+      <c r="PZ52" s="0"/>
+      <c r="QA52" s="0"/>
+      <c r="QB52" s="0"/>
+      <c r="QC52" s="0"/>
+      <c r="QD52" s="0"/>
+      <c r="QE52" s="0"/>
+      <c r="QF52" s="0"/>
+      <c r="QG52" s="0"/>
+      <c r="QH52" s="0"/>
+      <c r="QI52" s="0"/>
+      <c r="QJ52" s="0"/>
+      <c r="QK52" s="0"/>
+      <c r="QL52" s="0"/>
+      <c r="QM52" s="0"/>
+      <c r="QN52" s="0"/>
+      <c r="QO52" s="0"/>
+      <c r="QP52" s="0"/>
+      <c r="QQ52" s="0"/>
+      <c r="QR52" s="0"/>
+      <c r="QS52" s="0"/>
+      <c r="QT52" s="0"/>
+      <c r="QU52" s="0"/>
+      <c r="QV52" s="0"/>
+      <c r="QW52" s="0"/>
+      <c r="QX52" s="0"/>
+      <c r="QY52" s="0"/>
+      <c r="QZ52" s="0"/>
+      <c r="RA52" s="0"/>
+      <c r="RB52" s="0"/>
+      <c r="RC52" s="0"/>
+      <c r="RD52" s="0"/>
+      <c r="RE52" s="0"/>
+      <c r="RF52" s="0"/>
+      <c r="RG52" s="0"/>
+      <c r="RH52" s="0"/>
+      <c r="RI52" s="0"/>
+      <c r="RJ52" s="0"/>
+      <c r="RK52" s="0"/>
+      <c r="RL52" s="0"/>
+      <c r="RM52" s="0"/>
+      <c r="RN52" s="0"/>
+      <c r="RO52" s="0"/>
+      <c r="RP52" s="0"/>
+      <c r="RQ52" s="0"/>
+      <c r="RR52" s="0"/>
+      <c r="RS52" s="0"/>
+      <c r="RT52" s="0"/>
+      <c r="RU52" s="0"/>
+      <c r="RV52" s="0"/>
+      <c r="RW52" s="0"/>
+      <c r="RX52" s="0"/>
+      <c r="RY52" s="0"/>
+      <c r="RZ52" s="0"/>
+      <c r="SA52" s="0"/>
+      <c r="SB52" s="0"/>
+      <c r="SC52" s="0"/>
+      <c r="SD52" s="0"/>
+      <c r="SE52" s="0"/>
+      <c r="SF52" s="0"/>
+      <c r="SG52" s="0"/>
+      <c r="SH52" s="0"/>
+      <c r="SI52" s="0"/>
+      <c r="SJ52" s="0"/>
+      <c r="SK52" s="0"/>
+      <c r="SL52" s="0"/>
+      <c r="SM52" s="0"/>
+      <c r="SN52" s="0"/>
+      <c r="SO52" s="0"/>
+      <c r="SP52" s="0"/>
+      <c r="SQ52" s="0"/>
+      <c r="SR52" s="0"/>
+      <c r="SS52" s="0"/>
+      <c r="ST52" s="0"/>
+      <c r="SU52" s="0"/>
+      <c r="SV52" s="0"/>
+      <c r="SW52" s="0"/>
+      <c r="SX52" s="0"/>
+      <c r="SY52" s="0"/>
+      <c r="SZ52" s="0"/>
+      <c r="TA52" s="0"/>
+      <c r="TB52" s="0"/>
+      <c r="TC52" s="0"/>
+      <c r="TD52" s="0"/>
+      <c r="TE52" s="0"/>
+      <c r="TF52" s="0"/>
+      <c r="TG52" s="0"/>
+      <c r="TH52" s="0"/>
+      <c r="TI52" s="0"/>
+      <c r="TJ52" s="0"/>
+      <c r="TK52" s="0"/>
+      <c r="TL52" s="0"/>
+      <c r="TM52" s="0"/>
+      <c r="TN52" s="0"/>
+      <c r="TO52" s="0"/>
+      <c r="TP52" s="0"/>
+      <c r="TQ52" s="0"/>
+      <c r="TR52" s="0"/>
+      <c r="TS52" s="0"/>
+      <c r="TT52" s="0"/>
+      <c r="TU52" s="0"/>
+      <c r="TV52" s="0"/>
+      <c r="TW52" s="0"/>
+      <c r="TX52" s="0"/>
+      <c r="TY52" s="0"/>
+      <c r="TZ52" s="0"/>
+      <c r="UA52" s="0"/>
+      <c r="UB52" s="0"/>
+      <c r="UC52" s="0"/>
+      <c r="UD52" s="0"/>
+      <c r="UE52" s="0"/>
+      <c r="UF52" s="0"/>
+      <c r="UG52" s="0"/>
+      <c r="UH52" s="0"/>
+      <c r="UI52" s="0"/>
+      <c r="UJ52" s="0"/>
+      <c r="UK52" s="0"/>
+      <c r="UL52" s="0"/>
+      <c r="UM52" s="0"/>
+      <c r="UN52" s="0"/>
+      <c r="UO52" s="0"/>
+      <c r="UP52" s="0"/>
+      <c r="UQ52" s="0"/>
+      <c r="UR52" s="0"/>
+      <c r="US52" s="0"/>
+      <c r="UT52" s="0"/>
+      <c r="UU52" s="0"/>
+      <c r="UV52" s="0"/>
+      <c r="UW52" s="0"/>
+      <c r="UX52" s="0"/>
+      <c r="UY52" s="0"/>
+      <c r="UZ52" s="0"/>
+      <c r="VA52" s="0"/>
+      <c r="VB52" s="0"/>
+      <c r="VC52" s="0"/>
+      <c r="VD52" s="0"/>
+      <c r="VE52" s="0"/>
+      <c r="VF52" s="0"/>
+      <c r="VG52" s="0"/>
+      <c r="VH52" s="0"/>
+      <c r="VI52" s="0"/>
+      <c r="VJ52" s="0"/>
+      <c r="VK52" s="0"/>
+      <c r="VL52" s="0"/>
+      <c r="VM52" s="0"/>
+      <c r="VN52" s="0"/>
+      <c r="VO52" s="0"/>
+      <c r="VP52" s="0"/>
+      <c r="VQ52" s="0"/>
+      <c r="VR52" s="0"/>
+      <c r="VS52" s="0"/>
+      <c r="VT52" s="0"/>
+      <c r="VU52" s="0"/>
+      <c r="VV52" s="0"/>
+      <c r="VW52" s="0"/>
+      <c r="VX52" s="0"/>
+      <c r="VY52" s="0"/>
+      <c r="VZ52" s="0"/>
+      <c r="WA52" s="0"/>
+      <c r="WB52" s="0"/>
+      <c r="WC52" s="0"/>
+      <c r="WD52" s="0"/>
+      <c r="WE52" s="0"/>
+      <c r="WF52" s="0"/>
+      <c r="WG52" s="0"/>
+      <c r="WH52" s="0"/>
+      <c r="WI52" s="0"/>
+      <c r="WJ52" s="0"/>
+      <c r="WK52" s="0"/>
+      <c r="WL52" s="0"/>
+      <c r="WM52" s="0"/>
+      <c r="WN52" s="0"/>
+      <c r="WO52" s="0"/>
+      <c r="WP52" s="0"/>
+      <c r="WQ52" s="0"/>
+      <c r="WR52" s="0"/>
+      <c r="WS52" s="0"/>
+      <c r="WT52" s="0"/>
+      <c r="WU52" s="0"/>
+      <c r="WV52" s="0"/>
+      <c r="WW52" s="0"/>
+      <c r="WX52" s="0"/>
+      <c r="WY52" s="0"/>
+      <c r="WZ52" s="0"/>
+      <c r="XA52" s="0"/>
+      <c r="XB52" s="0"/>
+      <c r="XC52" s="0"/>
+      <c r="XD52" s="0"/>
+      <c r="XE52" s="0"/>
+      <c r="XF52" s="0"/>
+      <c r="XG52" s="0"/>
+      <c r="XH52" s="0"/>
+      <c r="XI52" s="0"/>
+      <c r="XJ52" s="0"/>
+      <c r="XK52" s="0"/>
+      <c r="XL52" s="0"/>
+      <c r="XM52" s="0"/>
+      <c r="XN52" s="0"/>
+      <c r="XO52" s="0"/>
+      <c r="XP52" s="0"/>
+      <c r="XQ52" s="0"/>
+      <c r="XR52" s="0"/>
+      <c r="XS52" s="0"/>
+      <c r="XT52" s="0"/>
+      <c r="XU52" s="0"/>
+      <c r="XV52" s="0"/>
+      <c r="XW52" s="0"/>
+      <c r="XX52" s="0"/>
+      <c r="XY52" s="0"/>
+      <c r="XZ52" s="0"/>
+      <c r="YA52" s="0"/>
+      <c r="YB52" s="0"/>
+      <c r="YC52" s="0"/>
+      <c r="YD52" s="0"/>
+      <c r="YE52" s="0"/>
+      <c r="YF52" s="0"/>
+      <c r="YG52" s="0"/>
+      <c r="YH52" s="0"/>
+      <c r="YI52" s="0"/>
+      <c r="YJ52" s="0"/>
+      <c r="YK52" s="0"/>
+      <c r="YL52" s="0"/>
+      <c r="YM52" s="0"/>
+      <c r="YN52" s="0"/>
+      <c r="YO52" s="0"/>
+      <c r="YP52" s="0"/>
+      <c r="YQ52" s="0"/>
+      <c r="YR52" s="0"/>
+      <c r="YS52" s="0"/>
+      <c r="YT52" s="0"/>
+      <c r="YU52" s="0"/>
+      <c r="YV52" s="0"/>
+      <c r="YW52" s="0"/>
+      <c r="YX52" s="0"/>
+      <c r="YY52" s="0"/>
+      <c r="YZ52" s="0"/>
+      <c r="ZA52" s="0"/>
+      <c r="ZB52" s="0"/>
+      <c r="ZC52" s="0"/>
+      <c r="ZD52" s="0"/>
+      <c r="ZE52" s="0"/>
+      <c r="ZF52" s="0"/>
+      <c r="ZG52" s="0"/>
+      <c r="ZH52" s="0"/>
+      <c r="ZI52" s="0"/>
+      <c r="ZJ52" s="0"/>
+      <c r="ZK52" s="0"/>
+      <c r="ZL52" s="0"/>
+      <c r="ZM52" s="0"/>
+      <c r="ZN52" s="0"/>
+      <c r="ZO52" s="0"/>
+      <c r="ZP52" s="0"/>
+      <c r="ZQ52" s="0"/>
+      <c r="ZR52" s="0"/>
+      <c r="ZS52" s="0"/>
+      <c r="ZT52" s="0"/>
+      <c r="ZU52" s="0"/>
+      <c r="ZV52" s="0"/>
+      <c r="ZW52" s="0"/>
+      <c r="ZX52" s="0"/>
+      <c r="ZY52" s="0"/>
+      <c r="ZZ52" s="0"/>
+      <c r="AAA52" s="0"/>
+      <c r="AAB52" s="0"/>
+      <c r="AAC52" s="0"/>
+      <c r="AAD52" s="0"/>
+      <c r="AAE52" s="0"/>
+      <c r="AAF52" s="0"/>
+      <c r="AAG52" s="0"/>
+      <c r="AAH52" s="0"/>
+      <c r="AAI52" s="0"/>
+      <c r="AAJ52" s="0"/>
+      <c r="AAK52" s="0"/>
+      <c r="AAL52" s="0"/>
+      <c r="AAM52" s="0"/>
+      <c r="AAN52" s="0"/>
+      <c r="AAO52" s="0"/>
+      <c r="AAP52" s="0"/>
+      <c r="AAQ52" s="0"/>
+      <c r="AAR52" s="0"/>
+      <c r="AAS52" s="0"/>
+      <c r="AAT52" s="0"/>
+      <c r="AAU52" s="0"/>
+      <c r="AAV52" s="0"/>
+      <c r="AAW52" s="0"/>
+      <c r="AAX52" s="0"/>
+      <c r="AAY52" s="0"/>
+      <c r="AAZ52" s="0"/>
+      <c r="ABA52" s="0"/>
+      <c r="ABB52" s="0"/>
+      <c r="ABC52" s="0"/>
+      <c r="ABD52" s="0"/>
+      <c r="ABE52" s="0"/>
+      <c r="ABF52" s="0"/>
+      <c r="ABG52" s="0"/>
+      <c r="ABH52" s="0"/>
+      <c r="ABI52" s="0"/>
+      <c r="ABJ52" s="0"/>
+      <c r="ABK52" s="0"/>
+      <c r="ABL52" s="0"/>
+      <c r="ABM52" s="0"/>
+      <c r="ABN52" s="0"/>
+      <c r="ABO52" s="0"/>
+      <c r="ABP52" s="0"/>
+      <c r="ABQ52" s="0"/>
+      <c r="ABR52" s="0"/>
+      <c r="ABS52" s="0"/>
+      <c r="ABT52" s="0"/>
+      <c r="ABU52" s="0"/>
+      <c r="ABV52" s="0"/>
+      <c r="ABW52" s="0"/>
+      <c r="ABX52" s="0"/>
+      <c r="ABY52" s="0"/>
+      <c r="ABZ52" s="0"/>
+      <c r="ACA52" s="0"/>
+      <c r="ACB52" s="0"/>
+      <c r="ACC52" s="0"/>
+      <c r="ACD52" s="0"/>
+      <c r="ACE52" s="0"/>
+      <c r="ACF52" s="0"/>
+      <c r="ACG52" s="0"/>
+      <c r="ACH52" s="0"/>
+      <c r="ACI52" s="0"/>
+      <c r="ACJ52" s="0"/>
+      <c r="ACK52" s="0"/>
+      <c r="ACL52" s="0"/>
+      <c r="ACM52" s="0"/>
+      <c r="ACN52" s="0"/>
+      <c r="ACO52" s="0"/>
+      <c r="ACP52" s="0"/>
+      <c r="ACQ52" s="0"/>
+      <c r="ACR52" s="0"/>
+      <c r="ACS52" s="0"/>
+      <c r="ACT52" s="0"/>
+      <c r="ACU52" s="0"/>
+      <c r="ACV52" s="0"/>
+      <c r="ACW52" s="0"/>
+      <c r="ACX52" s="0"/>
+      <c r="ACY52" s="0"/>
+      <c r="ACZ52" s="0"/>
+      <c r="ADA52" s="0"/>
+      <c r="ADB52" s="0"/>
+      <c r="ADC52" s="0"/>
+      <c r="ADD52" s="0"/>
+      <c r="ADE52" s="0"/>
+      <c r="ADF52" s="0"/>
+      <c r="ADG52" s="0"/>
+      <c r="ADH52" s="0"/>
+      <c r="ADI52" s="0"/>
+      <c r="ADJ52" s="0"/>
+      <c r="ADK52" s="0"/>
+      <c r="ADL52" s="0"/>
+      <c r="ADM52" s="0"/>
+      <c r="ADN52" s="0"/>
+      <c r="ADO52" s="0"/>
+      <c r="ADP52" s="0"/>
+      <c r="ADQ52" s="0"/>
+      <c r="ADR52" s="0"/>
+      <c r="ADS52" s="0"/>
+      <c r="ADT52" s="0"/>
+      <c r="ADU52" s="0"/>
+      <c r="ADV52" s="0"/>
+      <c r="ADW52" s="0"/>
+      <c r="ADX52" s="0"/>
+      <c r="ADY52" s="0"/>
+      <c r="ADZ52" s="0"/>
+      <c r="AEA52" s="0"/>
+      <c r="AEB52" s="0"/>
+      <c r="AEC52" s="0"/>
+      <c r="AED52" s="0"/>
+      <c r="AEE52" s="0"/>
+      <c r="AEF52" s="0"/>
+      <c r="AEG52" s="0"/>
+      <c r="AEH52" s="0"/>
+      <c r="AEI52" s="0"/>
+      <c r="AEJ52" s="0"/>
+      <c r="AEK52" s="0"/>
+      <c r="AEL52" s="0"/>
+      <c r="AEM52" s="0"/>
+      <c r="AEN52" s="0"/>
+      <c r="AEO52" s="0"/>
+      <c r="AEP52" s="0"/>
+      <c r="AEQ52" s="0"/>
+      <c r="AER52" s="0"/>
+      <c r="AES52" s="0"/>
+      <c r="AET52" s="0"/>
+      <c r="AEU52" s="0"/>
+      <c r="AEV52" s="0"/>
+      <c r="AEW52" s="0"/>
+      <c r="AEX52" s="0"/>
+      <c r="AEY52" s="0"/>
+      <c r="AEZ52" s="0"/>
+      <c r="AFA52" s="0"/>
+      <c r="AFB52" s="0"/>
+      <c r="AFC52" s="0"/>
+      <c r="AFD52" s="0"/>
+      <c r="AFE52" s="0"/>
+      <c r="AFF52" s="0"/>
+      <c r="AFG52" s="0"/>
+      <c r="AFH52" s="0"/>
+      <c r="AFI52" s="0"/>
+      <c r="AFJ52" s="0"/>
+      <c r="AFK52" s="0"/>
+      <c r="AFL52" s="0"/>
+      <c r="AFM52" s="0"/>
+      <c r="AFN52" s="0"/>
+      <c r="AFO52" s="0"/>
+      <c r="AFP52" s="0"/>
+      <c r="AFQ52" s="0"/>
+      <c r="AFR52" s="0"/>
+      <c r="AFS52" s="0"/>
+      <c r="AFT52" s="0"/>
+      <c r="AFU52" s="0"/>
+      <c r="AFV52" s="0"/>
+      <c r="AFW52" s="0"/>
+      <c r="AFX52" s="0"/>
+      <c r="AFY52" s="0"/>
+      <c r="AFZ52" s="0"/>
+      <c r="AGA52" s="0"/>
+      <c r="AGB52" s="0"/>
+      <c r="AGC52" s="0"/>
+      <c r="AGD52" s="0"/>
+      <c r="AGE52" s="0"/>
+      <c r="AGF52" s="0"/>
+      <c r="AGG52" s="0"/>
+      <c r="AGH52" s="0"/>
+      <c r="AGI52" s="0"/>
+      <c r="AGJ52" s="0"/>
+      <c r="AGK52" s="0"/>
+      <c r="AGL52" s="0"/>
+      <c r="AGM52" s="0"/>
+      <c r="AGN52" s="0"/>
+      <c r="AGO52" s="0"/>
+      <c r="AGP52" s="0"/>
+      <c r="AGQ52" s="0"/>
+      <c r="AGR52" s="0"/>
+      <c r="AGS52" s="0"/>
+      <c r="AGT52" s="0"/>
+      <c r="AGU52" s="0"/>
+      <c r="AGV52" s="0"/>
+      <c r="AGW52" s="0"/>
+      <c r="AGX52" s="0"/>
+      <c r="AGY52" s="0"/>
+      <c r="AGZ52" s="0"/>
+      <c r="AHA52" s="0"/>
+      <c r="AHB52" s="0"/>
+      <c r="AHC52" s="0"/>
+      <c r="AHD52" s="0"/>
+      <c r="AHE52" s="0"/>
+      <c r="AHF52" s="0"/>
+      <c r="AHG52" s="0"/>
+      <c r="AHH52" s="0"/>
+      <c r="AHI52" s="0"/>
+      <c r="AHJ52" s="0"/>
+      <c r="AHK52" s="0"/>
+      <c r="AHL52" s="0"/>
+      <c r="AHM52" s="0"/>
+      <c r="AHN52" s="0"/>
+      <c r="AHO52" s="0"/>
+      <c r="AHP52" s="0"/>
+      <c r="AHQ52" s="0"/>
+      <c r="AHR52" s="0"/>
+      <c r="AHS52" s="0"/>
+      <c r="AHT52" s="0"/>
+      <c r="AHU52" s="0"/>
+      <c r="AHV52" s="0"/>
+      <c r="AHW52" s="0"/>
+      <c r="AHX52" s="0"/>
+      <c r="AHY52" s="0"/>
+      <c r="AHZ52" s="0"/>
+      <c r="AIA52" s="0"/>
+      <c r="AIB52" s="0"/>
+      <c r="AIC52" s="0"/>
+      <c r="AID52" s="0"/>
+      <c r="AIE52" s="0"/>
+      <c r="AIF52" s="0"/>
+      <c r="AIG52" s="0"/>
+      <c r="AIH52" s="0"/>
+      <c r="AII52" s="0"/>
+      <c r="AIJ52" s="0"/>
+      <c r="AIK52" s="0"/>
+      <c r="AIL52" s="0"/>
+      <c r="AIM52" s="0"/>
+      <c r="AIN52" s="0"/>
+      <c r="AIO52" s="0"/>
+      <c r="AIP52" s="0"/>
+      <c r="AIQ52" s="0"/>
+      <c r="AIR52" s="0"/>
+      <c r="AIS52" s="0"/>
+      <c r="AIT52" s="0"/>
+      <c r="AIU52" s="0"/>
+      <c r="AIV52" s="0"/>
+      <c r="AIW52" s="0"/>
+      <c r="AIX52" s="0"/>
+      <c r="AIY52" s="0"/>
+      <c r="AIZ52" s="0"/>
+      <c r="AJA52" s="0"/>
+      <c r="AJB52" s="0"/>
+      <c r="AJC52" s="0"/>
+      <c r="AJD52" s="0"/>
+      <c r="AJE52" s="0"/>
+      <c r="AJF52" s="0"/>
+      <c r="AJG52" s="0"/>
+      <c r="AJH52" s="0"/>
+      <c r="AJI52" s="0"/>
+      <c r="AJJ52" s="0"/>
+      <c r="AJK52" s="0"/>
+      <c r="AJL52" s="0"/>
+      <c r="AJM52" s="0"/>
+      <c r="AJN52" s="0"/>
+      <c r="AJO52" s="0"/>
+      <c r="AJP52" s="0"/>
+      <c r="AJQ52" s="0"/>
+      <c r="AJR52" s="0"/>
+      <c r="AJS52" s="0"/>
+      <c r="AJT52" s="0"/>
+      <c r="AJU52" s="0"/>
+      <c r="AJV52" s="0"/>
+      <c r="AJW52" s="0"/>
+      <c r="AJX52" s="0"/>
+      <c r="AJY52" s="0"/>
+      <c r="AJZ52" s="0"/>
+      <c r="AKA52" s="0"/>
+      <c r="AKB52" s="0"/>
+      <c r="AKC52" s="0"/>
+      <c r="AKD52" s="0"/>
+      <c r="AKE52" s="0"/>
+      <c r="AKF52" s="0"/>
+      <c r="AKG52" s="0"/>
+      <c r="AKH52" s="0"/>
+      <c r="AKI52" s="0"/>
+      <c r="AKJ52" s="0"/>
+      <c r="AKK52" s="0"/>
+      <c r="AKL52" s="0"/>
+      <c r="AKM52" s="0"/>
+      <c r="AKN52" s="0"/>
+      <c r="AKO52" s="0"/>
+      <c r="AKP52" s="0"/>
+      <c r="AKQ52" s="0"/>
+      <c r="AKR52" s="0"/>
+      <c r="AKS52" s="0"/>
+      <c r="AKT52" s="0"/>
+      <c r="AKU52" s="0"/>
+      <c r="AKV52" s="0"/>
+      <c r="AKW52" s="0"/>
+      <c r="AKX52" s="0"/>
+      <c r="AKY52" s="0"/>
+      <c r="AKZ52" s="0"/>
+      <c r="ALA52" s="0"/>
+      <c r="ALB52" s="0"/>
+      <c r="ALC52" s="0"/>
+      <c r="ALD52" s="0"/>
+      <c r="ALE52" s="0"/>
+      <c r="ALF52" s="0"/>
+      <c r="ALG52" s="0"/>
+      <c r="ALH52" s="0"/>
+      <c r="ALI52" s="0"/>
+      <c r="ALJ52" s="0"/>
+      <c r="ALK52" s="0"/>
+      <c r="ALL52" s="0"/>
+      <c r="ALM52" s="0"/>
+      <c r="ALN52" s="0"/>
+      <c r="ALO52" s="0"/>
+      <c r="ALP52" s="0"/>
+      <c r="ALQ52" s="0"/>
+      <c r="ALR52" s="0"/>
+      <c r="ALS52" s="0"/>
+      <c r="ALT52" s="0"/>
+      <c r="ALU52" s="0"/>
+      <c r="ALV52" s="0"/>
+      <c r="ALW52" s="0"/>
+      <c r="ALX52" s="0"/>
+      <c r="ALY52" s="0"/>
+      <c r="ALZ52" s="0"/>
+      <c r="AMA52" s="0"/>
+      <c r="AMB52" s="0"/>
+      <c r="AMC52" s="0"/>
+      <c r="AMD52" s="0"/>
+      <c r="AME52" s="0"/>
+      <c r="AMF52" s="0"/>
+      <c r="AMG52" s="0"/>
+      <c r="AMH52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
@@ -9449,269 +12434,257 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" s="17" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="s">
+    <row r="56" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="H56" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="I56" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="14" t="n">
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="S56" s="17" t="s">
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="S56" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI56" s="16"/>
-      <c r="AMJ56" s="16"/>
-    </row>
-    <row r="57" s="17" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="H57" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="I57" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="14" t="n">
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="S57" s="17" t="s">
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="S57" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI57" s="16"/>
-      <c r="AMJ57" s="16"/>
-    </row>
-    <row r="58" s="17" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="H58" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="I58" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="14" t="n">
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="S58" s="17" t="s">
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="S58" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI58" s="16"/>
-      <c r="AMJ58" s="16"/>
-    </row>
-    <row r="59" s="17" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="H59" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="I59" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="14" t="n">
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="S59" s="17" t="s">
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="S59" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI59" s="16"/>
-      <c r="AMJ59" s="16"/>
-    </row>
-    <row r="60" s="17" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G60" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H60" s="12" t="s">
+      <c r="H60" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I60" s="12" t="s">
+      <c r="I60" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="14" t="n">
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="S60" s="17" t="s">
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="S60" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI60" s="16"/>
-      <c r="AMJ60" s="16"/>
-    </row>
-    <row r="61" s="17" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="G61" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H61" s="12" t="s">
+      <c r="H61" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I61" s="12" t="s">
+      <c r="I61" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="14" t="n">
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="S61" s="17" t="s">
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="S61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI61" s="16"/>
-      <c r="AMJ61" s="16"/>
     </row>
     <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
@@ -9789,95 +12762,91 @@
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" s="17" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="15" t="s">
+    <row r="64" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H64" s="12" t="s">
+      <c r="H64" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I64" s="12" t="s">
+      <c r="I64" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="14" t="n">
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="9" t="n">
         <f aca="false">E64=""</f>
         <v>0</v>
       </c>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="S64" s="17" t="s">
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="S64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI64" s="16"/>
-      <c r="AMJ64" s="16"/>
-    </row>
-    <row r="65" s="17" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="15" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G65" s="13" t="s">
+      <c r="G65" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H65" s="12" t="s">
+      <c r="H65" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="I65" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="14" t="n">
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="9" t="n">
         <f aca="false">E65=""</f>
         <v>0</v>
       </c>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="S65" s="17" t="s">
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="S65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI65" s="16"/>
-      <c r="AMJ65" s="16"/>
     </row>
     <row r="66" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
@@ -10926,48 +13895,1052 @@
       <c r="AMG66" s="0"/>
       <c r="AMH66" s="0"/>
     </row>
-    <row r="67" s="16" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12" t="s">
+    <row r="67" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G67" s="13" t="s">
+      <c r="G67" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H67" s="12" t="s">
+      <c r="H67" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I67" s="12" t="s">
+      <c r="I67" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="14" t="n">
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="9" t="n">
         <f aca="false">E67=""</f>
         <v>0</v>
       </c>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="S67" s="16" t="s">
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="0"/>
+      <c r="S67" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="T67" s="0"/>
+      <c r="U67" s="0"/>
+      <c r="V67" s="0"/>
+      <c r="W67" s="0"/>
+      <c r="X67" s="0"/>
+      <c r="Y67" s="0"/>
+      <c r="Z67" s="0"/>
+      <c r="AA67" s="0"/>
+      <c r="AB67" s="0"/>
+      <c r="AC67" s="0"/>
+      <c r="AD67" s="0"/>
+      <c r="AE67" s="0"/>
+      <c r="AF67" s="0"/>
+      <c r="AG67" s="0"/>
+      <c r="AH67" s="0"/>
+      <c r="AI67" s="0"/>
+      <c r="AJ67" s="0"/>
+      <c r="AK67" s="0"/>
+      <c r="AL67" s="0"/>
+      <c r="AM67" s="0"/>
+      <c r="AN67" s="0"/>
+      <c r="AO67" s="0"/>
+      <c r="AP67" s="0"/>
+      <c r="AQ67" s="0"/>
+      <c r="AR67" s="0"/>
+      <c r="AS67" s="0"/>
+      <c r="AT67" s="0"/>
+      <c r="AU67" s="0"/>
+      <c r="AV67" s="0"/>
+      <c r="AW67" s="0"/>
+      <c r="AX67" s="0"/>
+      <c r="AY67" s="0"/>
+      <c r="AZ67" s="0"/>
+      <c r="BA67" s="0"/>
+      <c r="BB67" s="0"/>
+      <c r="BC67" s="0"/>
+      <c r="BD67" s="0"/>
+      <c r="BE67" s="0"/>
+      <c r="BF67" s="0"/>
+      <c r="BG67" s="0"/>
+      <c r="BH67" s="0"/>
+      <c r="BI67" s="0"/>
+      <c r="BJ67" s="0"/>
+      <c r="BK67" s="0"/>
+      <c r="BL67" s="0"/>
+      <c r="BM67" s="0"/>
+      <c r="BN67" s="0"/>
+      <c r="BO67" s="0"/>
+      <c r="BP67" s="0"/>
+      <c r="BQ67" s="0"/>
+      <c r="BR67" s="0"/>
+      <c r="BS67" s="0"/>
+      <c r="BT67" s="0"/>
+      <c r="BU67" s="0"/>
+      <c r="BV67" s="0"/>
+      <c r="BW67" s="0"/>
+      <c r="BX67" s="0"/>
+      <c r="BY67" s="0"/>
+      <c r="BZ67" s="0"/>
+      <c r="CA67" s="0"/>
+      <c r="CB67" s="0"/>
+      <c r="CC67" s="0"/>
+      <c r="CD67" s="0"/>
+      <c r="CE67" s="0"/>
+      <c r="CF67" s="0"/>
+      <c r="CG67" s="0"/>
+      <c r="CH67" s="0"/>
+      <c r="CI67" s="0"/>
+      <c r="CJ67" s="0"/>
+      <c r="CK67" s="0"/>
+      <c r="CL67" s="0"/>
+      <c r="CM67" s="0"/>
+      <c r="CN67" s="0"/>
+      <c r="CO67" s="0"/>
+      <c r="CP67" s="0"/>
+      <c r="CQ67" s="0"/>
+      <c r="CR67" s="0"/>
+      <c r="CS67" s="0"/>
+      <c r="CT67" s="0"/>
+      <c r="CU67" s="0"/>
+      <c r="CV67" s="0"/>
+      <c r="CW67" s="0"/>
+      <c r="CX67" s="0"/>
+      <c r="CY67" s="0"/>
+      <c r="CZ67" s="0"/>
+      <c r="DA67" s="0"/>
+      <c r="DB67" s="0"/>
+      <c r="DC67" s="0"/>
+      <c r="DD67" s="0"/>
+      <c r="DE67" s="0"/>
+      <c r="DF67" s="0"/>
+      <c r="DG67" s="0"/>
+      <c r="DH67" s="0"/>
+      <c r="DI67" s="0"/>
+      <c r="DJ67" s="0"/>
+      <c r="DK67" s="0"/>
+      <c r="DL67" s="0"/>
+      <c r="DM67" s="0"/>
+      <c r="DN67" s="0"/>
+      <c r="DO67" s="0"/>
+      <c r="DP67" s="0"/>
+      <c r="DQ67" s="0"/>
+      <c r="DR67" s="0"/>
+      <c r="DS67" s="0"/>
+      <c r="DT67" s="0"/>
+      <c r="DU67" s="0"/>
+      <c r="DV67" s="0"/>
+      <c r="DW67" s="0"/>
+      <c r="DX67" s="0"/>
+      <c r="DY67" s="0"/>
+      <c r="DZ67" s="0"/>
+      <c r="EA67" s="0"/>
+      <c r="EB67" s="0"/>
+      <c r="EC67" s="0"/>
+      <c r="ED67" s="0"/>
+      <c r="EE67" s="0"/>
+      <c r="EF67" s="0"/>
+      <c r="EG67" s="0"/>
+      <c r="EH67" s="0"/>
+      <c r="EI67" s="0"/>
+      <c r="EJ67" s="0"/>
+      <c r="EK67" s="0"/>
+      <c r="EL67" s="0"/>
+      <c r="EM67" s="0"/>
+      <c r="EN67" s="0"/>
+      <c r="EO67" s="0"/>
+      <c r="EP67" s="0"/>
+      <c r="EQ67" s="0"/>
+      <c r="ER67" s="0"/>
+      <c r="ES67" s="0"/>
+      <c r="ET67" s="0"/>
+      <c r="EU67" s="0"/>
+      <c r="EV67" s="0"/>
+      <c r="EW67" s="0"/>
+      <c r="EX67" s="0"/>
+      <c r="EY67" s="0"/>
+      <c r="EZ67" s="0"/>
+      <c r="FA67" s="0"/>
+      <c r="FB67" s="0"/>
+      <c r="FC67" s="0"/>
+      <c r="FD67" s="0"/>
+      <c r="FE67" s="0"/>
+      <c r="FF67" s="0"/>
+      <c r="FG67" s="0"/>
+      <c r="FH67" s="0"/>
+      <c r="FI67" s="0"/>
+      <c r="FJ67" s="0"/>
+      <c r="FK67" s="0"/>
+      <c r="FL67" s="0"/>
+      <c r="FM67" s="0"/>
+      <c r="FN67" s="0"/>
+      <c r="FO67" s="0"/>
+      <c r="FP67" s="0"/>
+      <c r="FQ67" s="0"/>
+      <c r="FR67" s="0"/>
+      <c r="FS67" s="0"/>
+      <c r="FT67" s="0"/>
+      <c r="FU67" s="0"/>
+      <c r="FV67" s="0"/>
+      <c r="FW67" s="0"/>
+      <c r="FX67" s="0"/>
+      <c r="FY67" s="0"/>
+      <c r="FZ67" s="0"/>
+      <c r="GA67" s="0"/>
+      <c r="GB67" s="0"/>
+      <c r="GC67" s="0"/>
+      <c r="GD67" s="0"/>
+      <c r="GE67" s="0"/>
+      <c r="GF67" s="0"/>
+      <c r="GG67" s="0"/>
+      <c r="GH67" s="0"/>
+      <c r="GI67" s="0"/>
+      <c r="GJ67" s="0"/>
+      <c r="GK67" s="0"/>
+      <c r="GL67" s="0"/>
+      <c r="GM67" s="0"/>
+      <c r="GN67" s="0"/>
+      <c r="GO67" s="0"/>
+      <c r="GP67" s="0"/>
+      <c r="GQ67" s="0"/>
+      <c r="GR67" s="0"/>
+      <c r="GS67" s="0"/>
+      <c r="GT67" s="0"/>
+      <c r="GU67" s="0"/>
+      <c r="GV67" s="0"/>
+      <c r="GW67" s="0"/>
+      <c r="GX67" s="0"/>
+      <c r="GY67" s="0"/>
+      <c r="GZ67" s="0"/>
+      <c r="HA67" s="0"/>
+      <c r="HB67" s="0"/>
+      <c r="HC67" s="0"/>
+      <c r="HD67" s="0"/>
+      <c r="HE67" s="0"/>
+      <c r="HF67" s="0"/>
+      <c r="HG67" s="0"/>
+      <c r="HH67" s="0"/>
+      <c r="HI67" s="0"/>
+      <c r="HJ67" s="0"/>
+      <c r="HK67" s="0"/>
+      <c r="HL67" s="0"/>
+      <c r="HM67" s="0"/>
+      <c r="HN67" s="0"/>
+      <c r="HO67" s="0"/>
+      <c r="HP67" s="0"/>
+      <c r="HQ67" s="0"/>
+      <c r="HR67" s="0"/>
+      <c r="HS67" s="0"/>
+      <c r="HT67" s="0"/>
+      <c r="HU67" s="0"/>
+      <c r="HV67" s="0"/>
+      <c r="HW67" s="0"/>
+      <c r="HX67" s="0"/>
+      <c r="HY67" s="0"/>
+      <c r="HZ67" s="0"/>
+      <c r="IA67" s="0"/>
+      <c r="IB67" s="0"/>
+      <c r="IC67" s="0"/>
+      <c r="ID67" s="0"/>
+      <c r="IE67" s="0"/>
+      <c r="IF67" s="0"/>
+      <c r="IG67" s="0"/>
+      <c r="IH67" s="0"/>
+      <c r="II67" s="0"/>
+      <c r="IJ67" s="0"/>
+      <c r="IK67" s="0"/>
+      <c r="IL67" s="0"/>
+      <c r="IM67" s="0"/>
+      <c r="IN67" s="0"/>
+      <c r="IO67" s="0"/>
+      <c r="IP67" s="0"/>
+      <c r="IQ67" s="0"/>
+      <c r="IR67" s="0"/>
+      <c r="IS67" s="0"/>
+      <c r="IT67" s="0"/>
+      <c r="IU67" s="0"/>
+      <c r="IV67" s="0"/>
+      <c r="IW67" s="0"/>
+      <c r="IX67" s="0"/>
+      <c r="IY67" s="0"/>
+      <c r="IZ67" s="0"/>
+      <c r="JA67" s="0"/>
+      <c r="JB67" s="0"/>
+      <c r="JC67" s="0"/>
+      <c r="JD67" s="0"/>
+      <c r="JE67" s="0"/>
+      <c r="JF67" s="0"/>
+      <c r="JG67" s="0"/>
+      <c r="JH67" s="0"/>
+      <c r="JI67" s="0"/>
+      <c r="JJ67" s="0"/>
+      <c r="JK67" s="0"/>
+      <c r="JL67" s="0"/>
+      <c r="JM67" s="0"/>
+      <c r="JN67" s="0"/>
+      <c r="JO67" s="0"/>
+      <c r="JP67" s="0"/>
+      <c r="JQ67" s="0"/>
+      <c r="JR67" s="0"/>
+      <c r="JS67" s="0"/>
+      <c r="JT67" s="0"/>
+      <c r="JU67" s="0"/>
+      <c r="JV67" s="0"/>
+      <c r="JW67" s="0"/>
+      <c r="JX67" s="0"/>
+      <c r="JY67" s="0"/>
+      <c r="JZ67" s="0"/>
+      <c r="KA67" s="0"/>
+      <c r="KB67" s="0"/>
+      <c r="KC67" s="0"/>
+      <c r="KD67" s="0"/>
+      <c r="KE67" s="0"/>
+      <c r="KF67" s="0"/>
+      <c r="KG67" s="0"/>
+      <c r="KH67" s="0"/>
+      <c r="KI67" s="0"/>
+      <c r="KJ67" s="0"/>
+      <c r="KK67" s="0"/>
+      <c r="KL67" s="0"/>
+      <c r="KM67" s="0"/>
+      <c r="KN67" s="0"/>
+      <c r="KO67" s="0"/>
+      <c r="KP67" s="0"/>
+      <c r="KQ67" s="0"/>
+      <c r="KR67" s="0"/>
+      <c r="KS67" s="0"/>
+      <c r="KT67" s="0"/>
+      <c r="KU67" s="0"/>
+      <c r="KV67" s="0"/>
+      <c r="KW67" s="0"/>
+      <c r="KX67" s="0"/>
+      <c r="KY67" s="0"/>
+      <c r="KZ67" s="0"/>
+      <c r="LA67" s="0"/>
+      <c r="LB67" s="0"/>
+      <c r="LC67" s="0"/>
+      <c r="LD67" s="0"/>
+      <c r="LE67" s="0"/>
+      <c r="LF67" s="0"/>
+      <c r="LG67" s="0"/>
+      <c r="LH67" s="0"/>
+      <c r="LI67" s="0"/>
+      <c r="LJ67" s="0"/>
+      <c r="LK67" s="0"/>
+      <c r="LL67" s="0"/>
+      <c r="LM67" s="0"/>
+      <c r="LN67" s="0"/>
+      <c r="LO67" s="0"/>
+      <c r="LP67" s="0"/>
+      <c r="LQ67" s="0"/>
+      <c r="LR67" s="0"/>
+      <c r="LS67" s="0"/>
+      <c r="LT67" s="0"/>
+      <c r="LU67" s="0"/>
+      <c r="LV67" s="0"/>
+      <c r="LW67" s="0"/>
+      <c r="LX67" s="0"/>
+      <c r="LY67" s="0"/>
+      <c r="LZ67" s="0"/>
+      <c r="MA67" s="0"/>
+      <c r="MB67" s="0"/>
+      <c r="MC67" s="0"/>
+      <c r="MD67" s="0"/>
+      <c r="ME67" s="0"/>
+      <c r="MF67" s="0"/>
+      <c r="MG67" s="0"/>
+      <c r="MH67" s="0"/>
+      <c r="MI67" s="0"/>
+      <c r="MJ67" s="0"/>
+      <c r="MK67" s="0"/>
+      <c r="ML67" s="0"/>
+      <c r="MM67" s="0"/>
+      <c r="MN67" s="0"/>
+      <c r="MO67" s="0"/>
+      <c r="MP67" s="0"/>
+      <c r="MQ67" s="0"/>
+      <c r="MR67" s="0"/>
+      <c r="MS67" s="0"/>
+      <c r="MT67" s="0"/>
+      <c r="MU67" s="0"/>
+      <c r="MV67" s="0"/>
+      <c r="MW67" s="0"/>
+      <c r="MX67" s="0"/>
+      <c r="MY67" s="0"/>
+      <c r="MZ67" s="0"/>
+      <c r="NA67" s="0"/>
+      <c r="NB67" s="0"/>
+      <c r="NC67" s="0"/>
+      <c r="ND67" s="0"/>
+      <c r="NE67" s="0"/>
+      <c r="NF67" s="0"/>
+      <c r="NG67" s="0"/>
+      <c r="NH67" s="0"/>
+      <c r="NI67" s="0"/>
+      <c r="NJ67" s="0"/>
+      <c r="NK67" s="0"/>
+      <c r="NL67" s="0"/>
+      <c r="NM67" s="0"/>
+      <c r="NN67" s="0"/>
+      <c r="NO67" s="0"/>
+      <c r="NP67" s="0"/>
+      <c r="NQ67" s="0"/>
+      <c r="NR67" s="0"/>
+      <c r="NS67" s="0"/>
+      <c r="NT67" s="0"/>
+      <c r="NU67" s="0"/>
+      <c r="NV67" s="0"/>
+      <c r="NW67" s="0"/>
+      <c r="NX67" s="0"/>
+      <c r="NY67" s="0"/>
+      <c r="NZ67" s="0"/>
+      <c r="OA67" s="0"/>
+      <c r="OB67" s="0"/>
+      <c r="OC67" s="0"/>
+      <c r="OD67" s="0"/>
+      <c r="OE67" s="0"/>
+      <c r="OF67" s="0"/>
+      <c r="OG67" s="0"/>
+      <c r="OH67" s="0"/>
+      <c r="OI67" s="0"/>
+      <c r="OJ67" s="0"/>
+      <c r="OK67" s="0"/>
+      <c r="OL67" s="0"/>
+      <c r="OM67" s="0"/>
+      <c r="ON67" s="0"/>
+      <c r="OO67" s="0"/>
+      <c r="OP67" s="0"/>
+      <c r="OQ67" s="0"/>
+      <c r="OR67" s="0"/>
+      <c r="OS67" s="0"/>
+      <c r="OT67" s="0"/>
+      <c r="OU67" s="0"/>
+      <c r="OV67" s="0"/>
+      <c r="OW67" s="0"/>
+      <c r="OX67" s="0"/>
+      <c r="OY67" s="0"/>
+      <c r="OZ67" s="0"/>
+      <c r="PA67" s="0"/>
+      <c r="PB67" s="0"/>
+      <c r="PC67" s="0"/>
+      <c r="PD67" s="0"/>
+      <c r="PE67" s="0"/>
+      <c r="PF67" s="0"/>
+      <c r="PG67" s="0"/>
+      <c r="PH67" s="0"/>
+      <c r="PI67" s="0"/>
+      <c r="PJ67" s="0"/>
+      <c r="PK67" s="0"/>
+      <c r="PL67" s="0"/>
+      <c r="PM67" s="0"/>
+      <c r="PN67" s="0"/>
+      <c r="PO67" s="0"/>
+      <c r="PP67" s="0"/>
+      <c r="PQ67" s="0"/>
+      <c r="PR67" s="0"/>
+      <c r="PS67" s="0"/>
+      <c r="PT67" s="0"/>
+      <c r="PU67" s="0"/>
+      <c r="PV67" s="0"/>
+      <c r="PW67" s="0"/>
+      <c r="PX67" s="0"/>
+      <c r="PY67" s="0"/>
+      <c r="PZ67" s="0"/>
+      <c r="QA67" s="0"/>
+      <c r="QB67" s="0"/>
+      <c r="QC67" s="0"/>
+      <c r="QD67" s="0"/>
+      <c r="QE67" s="0"/>
+      <c r="QF67" s="0"/>
+      <c r="QG67" s="0"/>
+      <c r="QH67" s="0"/>
+      <c r="QI67" s="0"/>
+      <c r="QJ67" s="0"/>
+      <c r="QK67" s="0"/>
+      <c r="QL67" s="0"/>
+      <c r="QM67" s="0"/>
+      <c r="QN67" s="0"/>
+      <c r="QO67" s="0"/>
+      <c r="QP67" s="0"/>
+      <c r="QQ67" s="0"/>
+      <c r="QR67" s="0"/>
+      <c r="QS67" s="0"/>
+      <c r="QT67" s="0"/>
+      <c r="QU67" s="0"/>
+      <c r="QV67" s="0"/>
+      <c r="QW67" s="0"/>
+      <c r="QX67" s="0"/>
+      <c r="QY67" s="0"/>
+      <c r="QZ67" s="0"/>
+      <c r="RA67" s="0"/>
+      <c r="RB67" s="0"/>
+      <c r="RC67" s="0"/>
+      <c r="RD67" s="0"/>
+      <c r="RE67" s="0"/>
+      <c r="RF67" s="0"/>
+      <c r="RG67" s="0"/>
+      <c r="RH67" s="0"/>
+      <c r="RI67" s="0"/>
+      <c r="RJ67" s="0"/>
+      <c r="RK67" s="0"/>
+      <c r="RL67" s="0"/>
+      <c r="RM67" s="0"/>
+      <c r="RN67" s="0"/>
+      <c r="RO67" s="0"/>
+      <c r="RP67" s="0"/>
+      <c r="RQ67" s="0"/>
+      <c r="RR67" s="0"/>
+      <c r="RS67" s="0"/>
+      <c r="RT67" s="0"/>
+      <c r="RU67" s="0"/>
+      <c r="RV67" s="0"/>
+      <c r="RW67" s="0"/>
+      <c r="RX67" s="0"/>
+      <c r="RY67" s="0"/>
+      <c r="RZ67" s="0"/>
+      <c r="SA67" s="0"/>
+      <c r="SB67" s="0"/>
+      <c r="SC67" s="0"/>
+      <c r="SD67" s="0"/>
+      <c r="SE67" s="0"/>
+      <c r="SF67" s="0"/>
+      <c r="SG67" s="0"/>
+      <c r="SH67" s="0"/>
+      <c r="SI67" s="0"/>
+      <c r="SJ67" s="0"/>
+      <c r="SK67" s="0"/>
+      <c r="SL67" s="0"/>
+      <c r="SM67" s="0"/>
+      <c r="SN67" s="0"/>
+      <c r="SO67" s="0"/>
+      <c r="SP67" s="0"/>
+      <c r="SQ67" s="0"/>
+      <c r="SR67" s="0"/>
+      <c r="SS67" s="0"/>
+      <c r="ST67" s="0"/>
+      <c r="SU67" s="0"/>
+      <c r="SV67" s="0"/>
+      <c r="SW67" s="0"/>
+      <c r="SX67" s="0"/>
+      <c r="SY67" s="0"/>
+      <c r="SZ67" s="0"/>
+      <c r="TA67" s="0"/>
+      <c r="TB67" s="0"/>
+      <c r="TC67" s="0"/>
+      <c r="TD67" s="0"/>
+      <c r="TE67" s="0"/>
+      <c r="TF67" s="0"/>
+      <c r="TG67" s="0"/>
+      <c r="TH67" s="0"/>
+      <c r="TI67" s="0"/>
+      <c r="TJ67" s="0"/>
+      <c r="TK67" s="0"/>
+      <c r="TL67" s="0"/>
+      <c r="TM67" s="0"/>
+      <c r="TN67" s="0"/>
+      <c r="TO67" s="0"/>
+      <c r="TP67" s="0"/>
+      <c r="TQ67" s="0"/>
+      <c r="TR67" s="0"/>
+      <c r="TS67" s="0"/>
+      <c r="TT67" s="0"/>
+      <c r="TU67" s="0"/>
+      <c r="TV67" s="0"/>
+      <c r="TW67" s="0"/>
+      <c r="TX67" s="0"/>
+      <c r="TY67" s="0"/>
+      <c r="TZ67" s="0"/>
+      <c r="UA67" s="0"/>
+      <c r="UB67" s="0"/>
+      <c r="UC67" s="0"/>
+      <c r="UD67" s="0"/>
+      <c r="UE67" s="0"/>
+      <c r="UF67" s="0"/>
+      <c r="UG67" s="0"/>
+      <c r="UH67" s="0"/>
+      <c r="UI67" s="0"/>
+      <c r="UJ67" s="0"/>
+      <c r="UK67" s="0"/>
+      <c r="UL67" s="0"/>
+      <c r="UM67" s="0"/>
+      <c r="UN67" s="0"/>
+      <c r="UO67" s="0"/>
+      <c r="UP67" s="0"/>
+      <c r="UQ67" s="0"/>
+      <c r="UR67" s="0"/>
+      <c r="US67" s="0"/>
+      <c r="UT67" s="0"/>
+      <c r="UU67" s="0"/>
+      <c r="UV67" s="0"/>
+      <c r="UW67" s="0"/>
+      <c r="UX67" s="0"/>
+      <c r="UY67" s="0"/>
+      <c r="UZ67" s="0"/>
+      <c r="VA67" s="0"/>
+      <c r="VB67" s="0"/>
+      <c r="VC67" s="0"/>
+      <c r="VD67" s="0"/>
+      <c r="VE67" s="0"/>
+      <c r="VF67" s="0"/>
+      <c r="VG67" s="0"/>
+      <c r="VH67" s="0"/>
+      <c r="VI67" s="0"/>
+      <c r="VJ67" s="0"/>
+      <c r="VK67" s="0"/>
+      <c r="VL67" s="0"/>
+      <c r="VM67" s="0"/>
+      <c r="VN67" s="0"/>
+      <c r="VO67" s="0"/>
+      <c r="VP67" s="0"/>
+      <c r="VQ67" s="0"/>
+      <c r="VR67" s="0"/>
+      <c r="VS67" s="0"/>
+      <c r="VT67" s="0"/>
+      <c r="VU67" s="0"/>
+      <c r="VV67" s="0"/>
+      <c r="VW67" s="0"/>
+      <c r="VX67" s="0"/>
+      <c r="VY67" s="0"/>
+      <c r="VZ67" s="0"/>
+      <c r="WA67" s="0"/>
+      <c r="WB67" s="0"/>
+      <c r="WC67" s="0"/>
+      <c r="WD67" s="0"/>
+      <c r="WE67" s="0"/>
+      <c r="WF67" s="0"/>
+      <c r="WG67" s="0"/>
+      <c r="WH67" s="0"/>
+      <c r="WI67" s="0"/>
+      <c r="WJ67" s="0"/>
+      <c r="WK67" s="0"/>
+      <c r="WL67" s="0"/>
+      <c r="WM67" s="0"/>
+      <c r="WN67" s="0"/>
+      <c r="WO67" s="0"/>
+      <c r="WP67" s="0"/>
+      <c r="WQ67" s="0"/>
+      <c r="WR67" s="0"/>
+      <c r="WS67" s="0"/>
+      <c r="WT67" s="0"/>
+      <c r="WU67" s="0"/>
+      <c r="WV67" s="0"/>
+      <c r="WW67" s="0"/>
+      <c r="WX67" s="0"/>
+      <c r="WY67" s="0"/>
+      <c r="WZ67" s="0"/>
+      <c r="XA67" s="0"/>
+      <c r="XB67" s="0"/>
+      <c r="XC67" s="0"/>
+      <c r="XD67" s="0"/>
+      <c r="XE67" s="0"/>
+      <c r="XF67" s="0"/>
+      <c r="XG67" s="0"/>
+      <c r="XH67" s="0"/>
+      <c r="XI67" s="0"/>
+      <c r="XJ67" s="0"/>
+      <c r="XK67" s="0"/>
+      <c r="XL67" s="0"/>
+      <c r="XM67" s="0"/>
+      <c r="XN67" s="0"/>
+      <c r="XO67" s="0"/>
+      <c r="XP67" s="0"/>
+      <c r="XQ67" s="0"/>
+      <c r="XR67" s="0"/>
+      <c r="XS67" s="0"/>
+      <c r="XT67" s="0"/>
+      <c r="XU67" s="0"/>
+      <c r="XV67" s="0"/>
+      <c r="XW67" s="0"/>
+      <c r="XX67" s="0"/>
+      <c r="XY67" s="0"/>
+      <c r="XZ67" s="0"/>
+      <c r="YA67" s="0"/>
+      <c r="YB67" s="0"/>
+      <c r="YC67" s="0"/>
+      <c r="YD67" s="0"/>
+      <c r="YE67" s="0"/>
+      <c r="YF67" s="0"/>
+      <c r="YG67" s="0"/>
+      <c r="YH67" s="0"/>
+      <c r="YI67" s="0"/>
+      <c r="YJ67" s="0"/>
+      <c r="YK67" s="0"/>
+      <c r="YL67" s="0"/>
+      <c r="YM67" s="0"/>
+      <c r="YN67" s="0"/>
+      <c r="YO67" s="0"/>
+      <c r="YP67" s="0"/>
+      <c r="YQ67" s="0"/>
+      <c r="YR67" s="0"/>
+      <c r="YS67" s="0"/>
+      <c r="YT67" s="0"/>
+      <c r="YU67" s="0"/>
+      <c r="YV67" s="0"/>
+      <c r="YW67" s="0"/>
+      <c r="YX67" s="0"/>
+      <c r="YY67" s="0"/>
+      <c r="YZ67" s="0"/>
+      <c r="ZA67" s="0"/>
+      <c r="ZB67" s="0"/>
+      <c r="ZC67" s="0"/>
+      <c r="ZD67" s="0"/>
+      <c r="ZE67" s="0"/>
+      <c r="ZF67" s="0"/>
+      <c r="ZG67" s="0"/>
+      <c r="ZH67" s="0"/>
+      <c r="ZI67" s="0"/>
+      <c r="ZJ67" s="0"/>
+      <c r="ZK67" s="0"/>
+      <c r="ZL67" s="0"/>
+      <c r="ZM67" s="0"/>
+      <c r="ZN67" s="0"/>
+      <c r="ZO67" s="0"/>
+      <c r="ZP67" s="0"/>
+      <c r="ZQ67" s="0"/>
+      <c r="ZR67" s="0"/>
+      <c r="ZS67" s="0"/>
+      <c r="ZT67" s="0"/>
+      <c r="ZU67" s="0"/>
+      <c r="ZV67" s="0"/>
+      <c r="ZW67" s="0"/>
+      <c r="ZX67" s="0"/>
+      <c r="ZY67" s="0"/>
+      <c r="ZZ67" s="0"/>
+      <c r="AAA67" s="0"/>
+      <c r="AAB67" s="0"/>
+      <c r="AAC67" s="0"/>
+      <c r="AAD67" s="0"/>
+      <c r="AAE67" s="0"/>
+      <c r="AAF67" s="0"/>
+      <c r="AAG67" s="0"/>
+      <c r="AAH67" s="0"/>
+      <c r="AAI67" s="0"/>
+      <c r="AAJ67" s="0"/>
+      <c r="AAK67" s="0"/>
+      <c r="AAL67" s="0"/>
+      <c r="AAM67" s="0"/>
+      <c r="AAN67" s="0"/>
+      <c r="AAO67" s="0"/>
+      <c r="AAP67" s="0"/>
+      <c r="AAQ67" s="0"/>
+      <c r="AAR67" s="0"/>
+      <c r="AAS67" s="0"/>
+      <c r="AAT67" s="0"/>
+      <c r="AAU67" s="0"/>
+      <c r="AAV67" s="0"/>
+      <c r="AAW67" s="0"/>
+      <c r="AAX67" s="0"/>
+      <c r="AAY67" s="0"/>
+      <c r="AAZ67" s="0"/>
+      <c r="ABA67" s="0"/>
+      <c r="ABB67" s="0"/>
+      <c r="ABC67" s="0"/>
+      <c r="ABD67" s="0"/>
+      <c r="ABE67" s="0"/>
+      <c r="ABF67" s="0"/>
+      <c r="ABG67" s="0"/>
+      <c r="ABH67" s="0"/>
+      <c r="ABI67" s="0"/>
+      <c r="ABJ67" s="0"/>
+      <c r="ABK67" s="0"/>
+      <c r="ABL67" s="0"/>
+      <c r="ABM67" s="0"/>
+      <c r="ABN67" s="0"/>
+      <c r="ABO67" s="0"/>
+      <c r="ABP67" s="0"/>
+      <c r="ABQ67" s="0"/>
+      <c r="ABR67" s="0"/>
+      <c r="ABS67" s="0"/>
+      <c r="ABT67" s="0"/>
+      <c r="ABU67" s="0"/>
+      <c r="ABV67" s="0"/>
+      <c r="ABW67" s="0"/>
+      <c r="ABX67" s="0"/>
+      <c r="ABY67" s="0"/>
+      <c r="ABZ67" s="0"/>
+      <c r="ACA67" s="0"/>
+      <c r="ACB67" s="0"/>
+      <c r="ACC67" s="0"/>
+      <c r="ACD67" s="0"/>
+      <c r="ACE67" s="0"/>
+      <c r="ACF67" s="0"/>
+      <c r="ACG67" s="0"/>
+      <c r="ACH67" s="0"/>
+      <c r="ACI67" s="0"/>
+      <c r="ACJ67" s="0"/>
+      <c r="ACK67" s="0"/>
+      <c r="ACL67" s="0"/>
+      <c r="ACM67" s="0"/>
+      <c r="ACN67" s="0"/>
+      <c r="ACO67" s="0"/>
+      <c r="ACP67" s="0"/>
+      <c r="ACQ67" s="0"/>
+      <c r="ACR67" s="0"/>
+      <c r="ACS67" s="0"/>
+      <c r="ACT67" s="0"/>
+      <c r="ACU67" s="0"/>
+      <c r="ACV67" s="0"/>
+      <c r="ACW67" s="0"/>
+      <c r="ACX67" s="0"/>
+      <c r="ACY67" s="0"/>
+      <c r="ACZ67" s="0"/>
+      <c r="ADA67" s="0"/>
+      <c r="ADB67" s="0"/>
+      <c r="ADC67" s="0"/>
+      <c r="ADD67" s="0"/>
+      <c r="ADE67" s="0"/>
+      <c r="ADF67" s="0"/>
+      <c r="ADG67" s="0"/>
+      <c r="ADH67" s="0"/>
+      <c r="ADI67" s="0"/>
+      <c r="ADJ67" s="0"/>
+      <c r="ADK67" s="0"/>
+      <c r="ADL67" s="0"/>
+      <c r="ADM67" s="0"/>
+      <c r="ADN67" s="0"/>
+      <c r="ADO67" s="0"/>
+      <c r="ADP67" s="0"/>
+      <c r="ADQ67" s="0"/>
+      <c r="ADR67" s="0"/>
+      <c r="ADS67" s="0"/>
+      <c r="ADT67" s="0"/>
+      <c r="ADU67" s="0"/>
+      <c r="ADV67" s="0"/>
+      <c r="ADW67" s="0"/>
+      <c r="ADX67" s="0"/>
+      <c r="ADY67" s="0"/>
+      <c r="ADZ67" s="0"/>
+      <c r="AEA67" s="0"/>
+      <c r="AEB67" s="0"/>
+      <c r="AEC67" s="0"/>
+      <c r="AED67" s="0"/>
+      <c r="AEE67" s="0"/>
+      <c r="AEF67" s="0"/>
+      <c r="AEG67" s="0"/>
+      <c r="AEH67" s="0"/>
+      <c r="AEI67" s="0"/>
+      <c r="AEJ67" s="0"/>
+      <c r="AEK67" s="0"/>
+      <c r="AEL67" s="0"/>
+      <c r="AEM67" s="0"/>
+      <c r="AEN67" s="0"/>
+      <c r="AEO67" s="0"/>
+      <c r="AEP67" s="0"/>
+      <c r="AEQ67" s="0"/>
+      <c r="AER67" s="0"/>
+      <c r="AES67" s="0"/>
+      <c r="AET67" s="0"/>
+      <c r="AEU67" s="0"/>
+      <c r="AEV67" s="0"/>
+      <c r="AEW67" s="0"/>
+      <c r="AEX67" s="0"/>
+      <c r="AEY67" s="0"/>
+      <c r="AEZ67" s="0"/>
+      <c r="AFA67" s="0"/>
+      <c r="AFB67" s="0"/>
+      <c r="AFC67" s="0"/>
+      <c r="AFD67" s="0"/>
+      <c r="AFE67" s="0"/>
+      <c r="AFF67" s="0"/>
+      <c r="AFG67" s="0"/>
+      <c r="AFH67" s="0"/>
+      <c r="AFI67" s="0"/>
+      <c r="AFJ67" s="0"/>
+      <c r="AFK67" s="0"/>
+      <c r="AFL67" s="0"/>
+      <c r="AFM67" s="0"/>
+      <c r="AFN67" s="0"/>
+      <c r="AFO67" s="0"/>
+      <c r="AFP67" s="0"/>
+      <c r="AFQ67" s="0"/>
+      <c r="AFR67" s="0"/>
+      <c r="AFS67" s="0"/>
+      <c r="AFT67" s="0"/>
+      <c r="AFU67" s="0"/>
+      <c r="AFV67" s="0"/>
+      <c r="AFW67" s="0"/>
+      <c r="AFX67" s="0"/>
+      <c r="AFY67" s="0"/>
+      <c r="AFZ67" s="0"/>
+      <c r="AGA67" s="0"/>
+      <c r="AGB67" s="0"/>
+      <c r="AGC67" s="0"/>
+      <c r="AGD67" s="0"/>
+      <c r="AGE67" s="0"/>
+      <c r="AGF67" s="0"/>
+      <c r="AGG67" s="0"/>
+      <c r="AGH67" s="0"/>
+      <c r="AGI67" s="0"/>
+      <c r="AGJ67" s="0"/>
+      <c r="AGK67" s="0"/>
+      <c r="AGL67" s="0"/>
+      <c r="AGM67" s="0"/>
+      <c r="AGN67" s="0"/>
+      <c r="AGO67" s="0"/>
+      <c r="AGP67" s="0"/>
+      <c r="AGQ67" s="0"/>
+      <c r="AGR67" s="0"/>
+      <c r="AGS67" s="0"/>
+      <c r="AGT67" s="0"/>
+      <c r="AGU67" s="0"/>
+      <c r="AGV67" s="0"/>
+      <c r="AGW67" s="0"/>
+      <c r="AGX67" s="0"/>
+      <c r="AGY67" s="0"/>
+      <c r="AGZ67" s="0"/>
+      <c r="AHA67" s="0"/>
+      <c r="AHB67" s="0"/>
+      <c r="AHC67" s="0"/>
+      <c r="AHD67" s="0"/>
+      <c r="AHE67" s="0"/>
+      <c r="AHF67" s="0"/>
+      <c r="AHG67" s="0"/>
+      <c r="AHH67" s="0"/>
+      <c r="AHI67" s="0"/>
+      <c r="AHJ67" s="0"/>
+      <c r="AHK67" s="0"/>
+      <c r="AHL67" s="0"/>
+      <c r="AHM67" s="0"/>
+      <c r="AHN67" s="0"/>
+      <c r="AHO67" s="0"/>
+      <c r="AHP67" s="0"/>
+      <c r="AHQ67" s="0"/>
+      <c r="AHR67" s="0"/>
+      <c r="AHS67" s="0"/>
+      <c r="AHT67" s="0"/>
+      <c r="AHU67" s="0"/>
+      <c r="AHV67" s="0"/>
+      <c r="AHW67" s="0"/>
+      <c r="AHX67" s="0"/>
+      <c r="AHY67" s="0"/>
+      <c r="AHZ67" s="0"/>
+      <c r="AIA67" s="0"/>
+      <c r="AIB67" s="0"/>
+      <c r="AIC67" s="0"/>
+      <c r="AID67" s="0"/>
+      <c r="AIE67" s="0"/>
+      <c r="AIF67" s="0"/>
+      <c r="AIG67" s="0"/>
+      <c r="AIH67" s="0"/>
+      <c r="AII67" s="0"/>
+      <c r="AIJ67" s="0"/>
+      <c r="AIK67" s="0"/>
+      <c r="AIL67" s="0"/>
+      <c r="AIM67" s="0"/>
+      <c r="AIN67" s="0"/>
+      <c r="AIO67" s="0"/>
+      <c r="AIP67" s="0"/>
+      <c r="AIQ67" s="0"/>
+      <c r="AIR67" s="0"/>
+      <c r="AIS67" s="0"/>
+      <c r="AIT67" s="0"/>
+      <c r="AIU67" s="0"/>
+      <c r="AIV67" s="0"/>
+      <c r="AIW67" s="0"/>
+      <c r="AIX67" s="0"/>
+      <c r="AIY67" s="0"/>
+      <c r="AIZ67" s="0"/>
+      <c r="AJA67" s="0"/>
+      <c r="AJB67" s="0"/>
+      <c r="AJC67" s="0"/>
+      <c r="AJD67" s="0"/>
+      <c r="AJE67" s="0"/>
+      <c r="AJF67" s="0"/>
+      <c r="AJG67" s="0"/>
+      <c r="AJH67" s="0"/>
+      <c r="AJI67" s="0"/>
+      <c r="AJJ67" s="0"/>
+      <c r="AJK67" s="0"/>
+      <c r="AJL67" s="0"/>
+      <c r="AJM67" s="0"/>
+      <c r="AJN67" s="0"/>
+      <c r="AJO67" s="0"/>
+      <c r="AJP67" s="0"/>
+      <c r="AJQ67" s="0"/>
+      <c r="AJR67" s="0"/>
+      <c r="AJS67" s="0"/>
+      <c r="AJT67" s="0"/>
+      <c r="AJU67" s="0"/>
+      <c r="AJV67" s="0"/>
+      <c r="AJW67" s="0"/>
+      <c r="AJX67" s="0"/>
+      <c r="AJY67" s="0"/>
+      <c r="AJZ67" s="0"/>
+      <c r="AKA67" s="0"/>
+      <c r="AKB67" s="0"/>
+      <c r="AKC67" s="0"/>
+      <c r="AKD67" s="0"/>
+      <c r="AKE67" s="0"/>
+      <c r="AKF67" s="0"/>
+      <c r="AKG67" s="0"/>
+      <c r="AKH67" s="0"/>
+      <c r="AKI67" s="0"/>
+      <c r="AKJ67" s="0"/>
+      <c r="AKK67" s="0"/>
+      <c r="AKL67" s="0"/>
+      <c r="AKM67" s="0"/>
+      <c r="AKN67" s="0"/>
+      <c r="AKO67" s="0"/>
+      <c r="AKP67" s="0"/>
+      <c r="AKQ67" s="0"/>
+      <c r="AKR67" s="0"/>
+      <c r="AKS67" s="0"/>
+      <c r="AKT67" s="0"/>
+      <c r="AKU67" s="0"/>
+      <c r="AKV67" s="0"/>
+      <c r="AKW67" s="0"/>
+      <c r="AKX67" s="0"/>
+      <c r="AKY67" s="0"/>
+      <c r="AKZ67" s="0"/>
+      <c r="ALA67" s="0"/>
+      <c r="ALB67" s="0"/>
+      <c r="ALC67" s="0"/>
+      <c r="ALD67" s="0"/>
+      <c r="ALE67" s="0"/>
+      <c r="ALF67" s="0"/>
+      <c r="ALG67" s="0"/>
+      <c r="ALH67" s="0"/>
+      <c r="ALI67" s="0"/>
+      <c r="ALJ67" s="0"/>
+      <c r="ALK67" s="0"/>
+      <c r="ALL67" s="0"/>
+      <c r="ALM67" s="0"/>
+      <c r="ALN67" s="0"/>
+      <c r="ALO67" s="0"/>
+      <c r="ALP67" s="0"/>
+      <c r="ALQ67" s="0"/>
+      <c r="ALR67" s="0"/>
+      <c r="ALS67" s="0"/>
+      <c r="ALT67" s="0"/>
+      <c r="ALU67" s="0"/>
+      <c r="ALV67" s="0"/>
+      <c r="ALW67" s="0"/>
+      <c r="ALX67" s="0"/>
+      <c r="ALY67" s="0"/>
+      <c r="ALZ67" s="0"/>
+      <c r="AMA67" s="0"/>
+      <c r="AMB67" s="0"/>
+      <c r="AMC67" s="0"/>
+      <c r="AMD67" s="0"/>
+      <c r="AME67" s="0"/>
+      <c r="AMF67" s="0"/>
+      <c r="AMG67" s="0"/>
+      <c r="AMH67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
@@ -12260,197 +16233,185 @@
       </c>
       <c r="Q101" s="7"/>
     </row>
-    <row r="102" s="17" customFormat="true" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="15" t="s">
+    <row r="102" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C102" s="12" t="s">
+      <c r="C102" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="D102" s="12"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="13" t="s">
+      <c r="D102" s="10"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G102" s="13"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="15"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
-      <c r="S102" s="17" t="s">
+      <c r="G102" s="8"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="S102" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI102" s="16"/>
-      <c r="AMJ102" s="16"/>
-    </row>
-    <row r="103" s="17" customFormat="true" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="15" t="s">
+    </row>
+    <row r="103" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C103" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D103" s="12"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="13" t="s">
+      <c r="D103" s="10"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G103" s="13"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="15"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="15"/>
-      <c r="Q103" s="15"/>
-      <c r="S103" s="17" t="s">
+      <c r="G103" s="8"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="S103" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI103" s="16"/>
-      <c r="AMJ103" s="16"/>
-    </row>
-    <row r="104" s="17" customFormat="true" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="15" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="C104" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="D104" s="12"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="13" t="s">
+      <c r="D104" s="10"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G104" s="13"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="15"/>
-      <c r="L104" s="15"/>
-      <c r="M104" s="15"/>
-      <c r="N104" s="15"/>
-      <c r="O104" s="14"/>
-      <c r="P104" s="15"/>
-      <c r="Q104" s="15"/>
-      <c r="S104" s="17" t="s">
+      <c r="G104" s="8"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7"/>
+      <c r="S104" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI104" s="16"/>
-      <c r="AMJ104" s="16"/>
-    </row>
-    <row r="105" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="15" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D105" s="12"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="13" t="s">
+      <c r="D105" s="10"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G105" s="13"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="14"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="S105" s="17" t="s">
+      <c r="G105" s="8"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="S105" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI105" s="16"/>
-      <c r="AMJ105" s="16"/>
-    </row>
-    <row r="106" s="17" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="15" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D106" s="12"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="13" t="s">
+      <c r="D106" s="10"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G106" s="13"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="15"/>
-      <c r="L106" s="15"/>
-      <c r="M106" s="15"/>
-      <c r="N106" s="15"/>
-      <c r="O106" s="14"/>
-      <c r="P106" s="15"/>
-      <c r="Q106" s="15"/>
-      <c r="S106" s="17" t="s">
+      <c r="G106" s="8"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7"/>
+      <c r="S106" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI106" s="16"/>
-      <c r="AMJ106" s="16"/>
-    </row>
-    <row r="107" s="17" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="15" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="C107" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="D107" s="12"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="13" t="s">
+      <c r="D107" s="10"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G107" s="13"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="15"/>
-      <c r="L107" s="15"/>
-      <c r="M107" s="15"/>
-      <c r="N107" s="15"/>
-      <c r="O107" s="14"/>
-      <c r="P107" s="15"/>
-      <c r="Q107" s="15"/>
-      <c r="S107" s="17" t="s">
+      <c r="G107" s="8"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="S107" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI107" s="16"/>
-      <c r="AMJ107" s="16"/>
     </row>
     <row r="108" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
@@ -12560,122 +16521,116 @@
       </c>
       <c r="Q110" s="7"/>
     </row>
-    <row r="111" s="17" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="15" t="s">
+    <row r="111" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C111" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="D111" s="12" t="s">
+      <c r="D111" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E111" s="12" t="s">
+      <c r="E111" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="F111" s="13" t="s">
+      <c r="F111" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G111" s="13" t="s">
+      <c r="G111" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="15"/>
-      <c r="L111" s="15"/>
-      <c r="M111" s="15"/>
-      <c r="N111" s="15"/>
-      <c r="O111" s="14" t="n">
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="9" t="n">
         <f aca="false">E111=""</f>
         <v>0</v>
       </c>
-      <c r="P111" s="15"/>
-      <c r="Q111" s="15"/>
-      <c r="S111" s="17" t="s">
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="S111" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI111" s="16"/>
-      <c r="AMJ111" s="16"/>
-    </row>
-    <row r="112" s="17" customFormat="true" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="15" t="s">
+    </row>
+    <row r="112" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C112" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="D112" s="12" t="s">
+      <c r="D112" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E112" s="15"/>
-      <c r="F112" s="13" t="s">
+      <c r="E112" s="7"/>
+      <c r="F112" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G112" s="13" t="s">
+      <c r="G112" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="15"/>
-      <c r="L112" s="15"/>
-      <c r="M112" s="15"/>
-      <c r="N112" s="15"/>
-      <c r="O112" s="14" t="n">
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="P112" s="15"/>
-      <c r="Q112" s="15"/>
-      <c r="S112" s="17" t="s">
+      <c r="P112" s="7"/>
+      <c r="Q112" s="7"/>
+      <c r="S112" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI112" s="16"/>
-      <c r="AMJ112" s="16"/>
-    </row>
-    <row r="113" s="17" customFormat="true" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="15" t="s">
+    </row>
+    <row r="113" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D113" s="12" t="s">
+      <c r="D113" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E113" s="15"/>
-      <c r="F113" s="13" t="s">
+      <c r="E113" s="7"/>
+      <c r="F113" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G113" s="13" t="s">
+      <c r="G113" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="15"/>
-      <c r="K113" s="15"/>
-      <c r="L113" s="15"/>
-      <c r="M113" s="15"/>
-      <c r="N113" s="15"/>
-      <c r="O113" s="14" t="n">
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="P113" s="15"/>
-      <c r="Q113" s="15"/>
-      <c r="S113" s="17" t="s">
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
+      <c r="S113" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI113" s="16"/>
-      <c r="AMJ113" s="16"/>
     </row>
     <row r="114" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="s">
@@ -13332,7 +17287,7 @@
       <c r="Q132" s="7"/>
     </row>
     <row r="133" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="18" t="s">
+      <c r="A133" s="12" t="s">
         <v>282</v>
       </c>
       <c r="B133" s="10" t="s">
@@ -13368,7 +17323,7 @@
       <c r="Q133" s="7"/>
     </row>
     <row r="134" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="18" t="s">
+      <c r="A134" s="12" t="s">
         <v>274</v>
       </c>
       <c r="B134" s="10" t="s">
@@ -13580,10 +17535,10 @@
       <c r="B140" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C140" s="19" t="s">
+      <c r="C140" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="D140" s="19"/>
+      <c r="D140" s="13"/>
       <c r="E140" s="10" t="s">
         <v>321</v>
       </c>
@@ -14469,245 +18424,233 @@
       <c r="P164" s="7"/>
       <c r="Q164" s="7"/>
     </row>
-    <row r="165" s="17" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="12" t="s">
+    <row r="165" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B165" s="12" t="s">
+      <c r="B165" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C165" s="12" t="s">
+      <c r="C165" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="D165" s="12" t="s">
+      <c r="D165" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E165" s="12" t="s">
+      <c r="E165" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F165" s="13" t="s">
+      <c r="F165" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G165" s="13" t="s">
+      <c r="G165" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H165" s="12"/>
-      <c r="I165" s="12"/>
-      <c r="J165" s="12"/>
-      <c r="K165" s="12"/>
-      <c r="L165" s="12"/>
-      <c r="M165" s="12"/>
-      <c r="N165" s="12"/>
-      <c r="O165" s="20" t="s">
+      <c r="H165" s="10"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="10"/>
+      <c r="K165" s="10"/>
+      <c r="L165" s="10"/>
+      <c r="M165" s="10"/>
+      <c r="N165" s="10"/>
+      <c r="O165" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="P165" s="15"/>
-      <c r="Q165" s="15"/>
-      <c r="S165" s="17" t="s">
+      <c r="P165" s="7"/>
+      <c r="Q165" s="7"/>
+      <c r="S165" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI165" s="16"/>
-      <c r="AMJ165" s="16"/>
-    </row>
-    <row r="166" s="17" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="12" t="s">
+    </row>
+    <row r="166" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="B166" s="12" t="s">
+      <c r="B166" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C166" s="12" t="s">
+      <c r="C166" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="D166" s="12" t="s">
+      <c r="D166" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E166" s="12" t="s">
+      <c r="E166" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F166" s="13" t="s">
+      <c r="F166" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G166" s="13" t="s">
+      <c r="G166" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H166" s="12"/>
-      <c r="I166" s="12"/>
-      <c r="J166" s="12"/>
-      <c r="K166" s="12"/>
-      <c r="L166" s="12"/>
-      <c r="M166" s="12"/>
-      <c r="N166" s="12"/>
-      <c r="O166" s="20" t="s">
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="10"/>
+      <c r="K166" s="10"/>
+      <c r="L166" s="10"/>
+      <c r="M166" s="10"/>
+      <c r="N166" s="10"/>
+      <c r="O166" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="P166" s="15"/>
-      <c r="Q166" s="15"/>
-      <c r="S166" s="17" t="s">
+      <c r="P166" s="7"/>
+      <c r="Q166" s="7"/>
+      <c r="S166" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI166" s="16"/>
-      <c r="AMJ166" s="16"/>
-    </row>
-    <row r="167" s="17" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="12" t="s">
+    </row>
+    <row r="167" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="B167" s="12" t="s">
+      <c r="B167" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C167" s="12" t="s">
+      <c r="C167" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="D167" s="12" t="s">
+      <c r="D167" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E167" s="12" t="s">
+      <c r="E167" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F167" s="13" t="s">
+      <c r="F167" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G167" s="13" t="s">
+      <c r="G167" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H167" s="12"/>
-      <c r="I167" s="12"/>
-      <c r="J167" s="12"/>
-      <c r="K167" s="12"/>
-      <c r="L167" s="12"/>
-      <c r="M167" s="12"/>
-      <c r="N167" s="12"/>
-      <c r="O167" s="20" t="s">
+      <c r="H167" s="10"/>
+      <c r="I167" s="10"/>
+      <c r="J167" s="10"/>
+      <c r="K167" s="10"/>
+      <c r="L167" s="10"/>
+      <c r="M167" s="10"/>
+      <c r="N167" s="10"/>
+      <c r="O167" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="P167" s="15"/>
-      <c r="Q167" s="15"/>
-      <c r="S167" s="17" t="s">
+      <c r="P167" s="7"/>
+      <c r="Q167" s="7"/>
+      <c r="S167" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI167" s="16"/>
-      <c r="AMJ167" s="16"/>
-    </row>
-    <row r="168" s="17" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="12" t="s">
+    </row>
+    <row r="168" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="B168" s="12" t="s">
+      <c r="B168" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C168" s="12" t="s">
+      <c r="C168" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="D168" s="12" t="s">
+      <c r="D168" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E168" s="12" t="s">
+      <c r="E168" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F168" s="13" t="s">
+      <c r="F168" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G168" s="13" t="s">
+      <c r="G168" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H168" s="12"/>
-      <c r="I168" s="12"/>
-      <c r="J168" s="12"/>
-      <c r="K168" s="12"/>
-      <c r="L168" s="12"/>
-      <c r="M168" s="12"/>
-      <c r="N168" s="12"/>
-      <c r="O168" s="20" t="s">
+      <c r="H168" s="10"/>
+      <c r="I168" s="10"/>
+      <c r="J168" s="10"/>
+      <c r="K168" s="10"/>
+      <c r="L168" s="10"/>
+      <c r="M168" s="10"/>
+      <c r="N168" s="10"/>
+      <c r="O168" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="P168" s="15"/>
-      <c r="Q168" s="15"/>
-      <c r="S168" s="17" t="s">
+      <c r="P168" s="7"/>
+      <c r="Q168" s="7"/>
+      <c r="S168" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI168" s="16"/>
-      <c r="AMJ168" s="16"/>
-    </row>
-    <row r="169" s="17" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="12" t="s">
+    </row>
+    <row r="169" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B169" s="12" t="s">
+      <c r="B169" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C169" s="12" t="s">
+      <c r="C169" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="D169" s="12" t="s">
+      <c r="D169" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E169" s="12" t="s">
+      <c r="E169" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F169" s="13" t="s">
+      <c r="F169" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G169" s="13" t="s">
+      <c r="G169" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H169" s="12"/>
-      <c r="I169" s="12"/>
-      <c r="J169" s="12"/>
-      <c r="K169" s="12"/>
-      <c r="L169" s="12"/>
-      <c r="M169" s="12"/>
-      <c r="N169" s="12"/>
-      <c r="O169" s="20" t="s">
+      <c r="H169" s="10"/>
+      <c r="I169" s="10"/>
+      <c r="J169" s="10"/>
+      <c r="K169" s="10"/>
+      <c r="L169" s="10"/>
+      <c r="M169" s="10"/>
+      <c r="N169" s="10"/>
+      <c r="O169" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="P169" s="15"/>
-      <c r="Q169" s="15"/>
-      <c r="S169" s="17" t="s">
+      <c r="P169" s="7"/>
+      <c r="Q169" s="7"/>
+      <c r="S169" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI169" s="16"/>
-      <c r="AMJ169" s="16"/>
-    </row>
-    <row r="170" s="17" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="12" t="s">
+    </row>
+    <row r="170" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="B170" s="12" t="s">
+      <c r="B170" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C170" s="12" t="s">
+      <c r="C170" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="D170" s="12" t="s">
+      <c r="D170" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E170" s="12" t="s">
+      <c r="E170" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F170" s="13" t="s">
+      <c r="F170" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G170" s="13" t="s">
+      <c r="G170" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H170" s="12"/>
-      <c r="I170" s="12"/>
-      <c r="J170" s="12"/>
-      <c r="K170" s="12"/>
-      <c r="L170" s="12"/>
-      <c r="M170" s="12"/>
-      <c r="N170" s="12"/>
-      <c r="O170" s="20" t="s">
+      <c r="H170" s="10"/>
+      <c r="I170" s="10"/>
+      <c r="J170" s="10"/>
+      <c r="K170" s="10"/>
+      <c r="L170" s="10"/>
+      <c r="M170" s="10"/>
+      <c r="N170" s="10"/>
+      <c r="O170" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="P170" s="15"/>
-      <c r="Q170" s="15"/>
-      <c r="S170" s="17" t="s">
+      <c r="P170" s="7"/>
+      <c r="Q170" s="7"/>
+      <c r="S170" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI170" s="16"/>
-      <c r="AMJ170" s="16"/>
     </row>
     <row r="171" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="s">
@@ -14817,128 +18760,122 @@
       <c r="P173" s="7"/>
       <c r="Q173" s="7"/>
     </row>
-    <row r="174" s="17" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="15" t="s">
+    <row r="174" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="B174" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C174" s="15" t="s">
+      <c r="C174" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="D174" s="12" t="s">
+      <c r="D174" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E174" s="15" t="s">
+      <c r="E174" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F174" s="13" t="s">
+      <c r="F174" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G174" s="13" t="s">
+      <c r="G174" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H174" s="15"/>
-      <c r="I174" s="15"/>
-      <c r="J174" s="15"/>
-      <c r="K174" s="15"/>
-      <c r="L174" s="15"/>
-      <c r="M174" s="15"/>
-      <c r="N174" s="15"/>
-      <c r="O174" s="14" t="n">
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
+      <c r="L174" s="7"/>
+      <c r="M174" s="7"/>
+      <c r="N174" s="7"/>
+      <c r="O174" s="9" t="n">
         <f aca="false">E174=""</f>
         <v>0</v>
       </c>
-      <c r="P174" s="15"/>
-      <c r="Q174" s="15"/>
-      <c r="S174" s="17" t="s">
+      <c r="P174" s="7"/>
+      <c r="Q174" s="7"/>
+      <c r="S174" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI174" s="16"/>
-      <c r="AMJ174" s="16"/>
-    </row>
-    <row r="175" s="17" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="15" t="s">
+    </row>
+    <row r="175" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B175" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C175" s="15" t="s">
+      <c r="C175" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="D175" s="12" t="s">
+      <c r="D175" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E175" s="15" t="s">
+      <c r="E175" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F175" s="13" t="s">
+      <c r="F175" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G175" s="13" t="s">
+      <c r="G175" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H175" s="15"/>
-      <c r="I175" s="15"/>
-      <c r="J175" s="15"/>
-      <c r="K175" s="15"/>
-      <c r="L175" s="15"/>
-      <c r="M175" s="15"/>
-      <c r="N175" s="15"/>
-      <c r="O175" s="14" t="n">
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="7"/>
+      <c r="M175" s="7"/>
+      <c r="N175" s="7"/>
+      <c r="O175" s="9" t="n">
         <f aca="false">E175=""</f>
         <v>0</v>
       </c>
-      <c r="P175" s="15"/>
-      <c r="Q175" s="15"/>
-      <c r="S175" s="17" t="s">
+      <c r="P175" s="7"/>
+      <c r="Q175" s="7"/>
+      <c r="S175" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI175" s="16"/>
-      <c r="AMJ175" s="16"/>
-    </row>
-    <row r="176" s="17" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="15" t="s">
+    </row>
+    <row r="176" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="B176" s="12" t="s">
+      <c r="B176" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C176" s="15" t="s">
+      <c r="C176" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="D176" s="12" t="s">
+      <c r="D176" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E176" s="15" t="s">
+      <c r="E176" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F176" s="13" t="s">
+      <c r="F176" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G176" s="13" t="s">
+      <c r="G176" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H176" s="15"/>
-      <c r="I176" s="15"/>
-      <c r="J176" s="15"/>
-      <c r="K176" s="15"/>
-      <c r="L176" s="15"/>
-      <c r="M176" s="15"/>
-      <c r="N176" s="15"/>
-      <c r="O176" s="14" t="n">
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="7"/>
+      <c r="L176" s="7"/>
+      <c r="M176" s="7"/>
+      <c r="N176" s="7"/>
+      <c r="O176" s="9" t="n">
         <f aca="false">E176=""</f>
         <v>0</v>
       </c>
-      <c r="P176" s="15"/>
-      <c r="Q176" s="15"/>
-      <c r="S176" s="17" t="s">
+      <c r="P176" s="7"/>
+      <c r="Q176" s="7"/>
+      <c r="S176" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI176" s="16"/>
-      <c r="AMJ176" s="16"/>
     </row>
     <row r="177" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="s">
@@ -17725,86 +21662,114 @@
       </c>
       <c r="Q254" s="7"/>
     </row>
-    <row r="255" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="15" t="s">
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="B255" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C255" s="15" t="s">
+      <c r="B255" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C255" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="D255" s="15"/>
-      <c r="E255" s="15"/>
-      <c r="F255" s="13" t="s">
+      <c r="D255" s="10"/>
+      <c r="E255" s="10"/>
+      <c r="F255" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="G255" s="21" t="s">
+      <c r="G255" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="H255" s="15"/>
-      <c r="I255" s="15"/>
-      <c r="J255" s="15"/>
-      <c r="K255" s="15"/>
-      <c r="L255" s="15"/>
-      <c r="M255" s="15"/>
-      <c r="N255" s="15"/>
-      <c r="O255" s="14" t="n">
+      <c r="H255" s="10"/>
+      <c r="I255" s="10"/>
+      <c r="J255" s="10"/>
+      <c r="K255" s="10"/>
+      <c r="L255" s="10"/>
+      <c r="M255" s="10"/>
+      <c r="N255" s="10"/>
+      <c r="O255" s="9" t="n">
         <f aca="false">E255=""</f>
         <v>1</v>
       </c>
-      <c r="P255" s="15"/>
-      <c r="Q255" s="15"/>
-      <c r="S255" s="17" t="s">
+      <c r="P255" s="7"/>
+      <c r="Q255" s="7"/>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="D256" s="7"/>
+      <c r="E256" s="7"/>
+      <c r="F256" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="G256" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="H256" s="7"/>
+      <c r="I256" s="7"/>
+      <c r="J256" s="7"/>
+      <c r="K256" s="7"/>
+      <c r="L256" s="7"/>
+      <c r="M256" s="7"/>
+      <c r="N256" s="7"/>
+      <c r="O256" s="9" t="n">
+        <f aca="false">E256=""</f>
+        <v>1</v>
+      </c>
+      <c r="P256" s="7"/>
+      <c r="Q256" s="7"/>
+      <c r="S256" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI255" s="16"/>
-      <c r="AMJ255" s="16"/>
-    </row>
-    <row r="256" s="17" customFormat="true" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="B256" s="15" t="s">
+    </row>
+    <row r="257" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="B257" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C256" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="D256" s="15" t="s">
+      <c r="C257" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="D257" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E256" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="F256" s="21" t="s">
+      <c r="E257" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="F257" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G256" s="21" t="s">
-        <v>716</v>
-      </c>
-      <c r="H256" s="15"/>
-      <c r="I256" s="15"/>
-      <c r="J256" s="15"/>
-      <c r="K256" s="15"/>
-      <c r="L256" s="15"/>
-      <c r="M256" s="15"/>
-      <c r="N256" s="15"/>
-      <c r="O256" s="14" t="n">
-        <f aca="false">E256=""</f>
+      <c r="G257" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="H257" s="7"/>
+      <c r="I257" s="7"/>
+      <c r="J257" s="7"/>
+      <c r="K257" s="7"/>
+      <c r="L257" s="7"/>
+      <c r="M257" s="7"/>
+      <c r="N257" s="7"/>
+      <c r="O257" s="9" t="n">
+        <f aca="false">E257=""</f>
         <v>0</v>
       </c>
-      <c r="P256" s="15"/>
-      <c r="Q256" s="15"/>
-      <c r="S256" s="17" t="s">
+      <c r="P257" s="7"/>
+      <c r="Q257" s="7"/>
+      <c r="S257" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AMI256" s="16"/>
-      <c r="AMJ256" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S256"/>
+  <autoFilter ref="A1:S257"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -17826,8 +21791,8 @@
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17844,503 +21809,503 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
-        <v>717</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="22" t="s">
-        <v>718</v>
-      </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="22" t="s">
+      <c r="A1" s="15" t="s">
         <v>719</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="22" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15" t="s">
         <v>720</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="C2" s="23"/>
+        <v>724</v>
+      </c>
+      <c r="C2" s="16"/>
       <c r="D2" s="10" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>724</v>
-      </c>
-      <c r="F2" s="23"/>
+        <v>726</v>
+      </c>
+      <c r="F2" s="16"/>
       <c r="G2" s="10" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>726</v>
-      </c>
-      <c r="I2" s="23"/>
+        <v>728</v>
+      </c>
+      <c r="I2" s="16"/>
       <c r="J2" s="10" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>728</v>
-      </c>
-      <c r="L2" s="23"/>
+        <v>730</v>
+      </c>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>730</v>
-      </c>
-      <c r="C3" s="23"/>
+        <v>732</v>
+      </c>
+      <c r="C3" s="16"/>
       <c r="D3" s="10" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>731</v>
-      </c>
-      <c r="F3" s="23"/>
+        <v>733</v>
+      </c>
+      <c r="F3" s="16"/>
       <c r="G3" s="10" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>733</v>
-      </c>
-      <c r="I3" s="23"/>
+        <v>735</v>
+      </c>
+      <c r="I3" s="16"/>
       <c r="J3" s="10" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="L3" s="23"/>
-    </row>
-    <row r="4" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>737</v>
+      </c>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="C4" s="23"/>
+        <v>738</v>
+      </c>
+      <c r="C4" s="16"/>
       <c r="D4" s="10" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="F4" s="23"/>
+        <v>739</v>
+      </c>
+      <c r="F4" s="16"/>
       <c r="G4" s="10" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>739</v>
-      </c>
-      <c r="I4" s="23"/>
+        <v>741</v>
+      </c>
+      <c r="I4" s="16"/>
       <c r="J4" s="10" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="L4" s="23"/>
+        <v>743</v>
+      </c>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>743</v>
-      </c>
-      <c r="C5" s="23"/>
+        <v>745</v>
+      </c>
+      <c r="C5" s="16"/>
       <c r="D5" s="10" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="F5" s="23"/>
+        <v>747</v>
+      </c>
+      <c r="F5" s="16"/>
       <c r="G5" s="10" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="23"/>
+        <v>749</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>749</v>
-      </c>
-      <c r="C6" s="23"/>
+        <v>751</v>
+      </c>
+      <c r="C6" s="16"/>
       <c r="D6" s="10" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>751</v>
-      </c>
-      <c r="F6" s="23"/>
+        <v>753</v>
+      </c>
+      <c r="F6" s="16"/>
       <c r="G6" s="10" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>753</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+        <v>755</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>755</v>
-      </c>
-      <c r="C7" s="23"/>
+        <v>757</v>
+      </c>
+      <c r="C7" s="16"/>
       <c r="D7" s="7" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>757</v>
-      </c>
-      <c r="F7" s="23"/>
+        <v>759</v>
+      </c>
+      <c r="F7" s="16"/>
       <c r="G7" s="10" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>759</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="L7" s="23"/>
+        <v>761</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>761</v>
-      </c>
-      <c r="C8" s="23"/>
+        <v>763</v>
+      </c>
+      <c r="C8" s="16"/>
       <c r="D8" s="10" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>763</v>
-      </c>
-      <c r="F8" s="23"/>
+        <v>765</v>
+      </c>
+      <c r="F8" s="16"/>
       <c r="G8" s="10" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>765</v>
-      </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+        <v>767</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>767</v>
-      </c>
-      <c r="C9" s="23"/>
+        <v>769</v>
+      </c>
+      <c r="C9" s="16"/>
       <c r="D9" s="10" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>769</v>
-      </c>
-      <c r="F9" s="23"/>
+        <v>771</v>
+      </c>
+      <c r="F9" s="16"/>
       <c r="G9" s="10" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>771</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+        <v>773</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>773</v>
-      </c>
-      <c r="C10" s="23"/>
+        <v>775</v>
+      </c>
+      <c r="C10" s="16"/>
       <c r="D10" s="10" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="F10" s="23"/>
+        <v>777</v>
+      </c>
+      <c r="F10" s="16"/>
       <c r="G10" s="10" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>777</v>
-      </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+        <v>779</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>779</v>
-      </c>
-      <c r="C11" s="23"/>
+        <v>781</v>
+      </c>
+      <c r="C11" s="16"/>
       <c r="D11" s="10" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>781</v>
-      </c>
-      <c r="F11" s="23"/>
+        <v>783</v>
+      </c>
+      <c r="F11" s="16"/>
       <c r="G11" s="10" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>783</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+        <v>785</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="C12" s="23"/>
+        <v>787</v>
+      </c>
+      <c r="C12" s="16"/>
       <c r="D12" s="10" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>787</v>
-      </c>
-      <c r="F12" s="23"/>
+        <v>789</v>
+      </c>
+      <c r="F12" s="16"/>
       <c r="G12" s="10" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>789</v>
-      </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+        <v>791</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>791</v>
-      </c>
-      <c r="C13" s="23"/>
+        <v>793</v>
+      </c>
+      <c r="C13" s="16"/>
       <c r="D13" s="10" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>793</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+        <v>795</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="C14" s="23"/>
+        <v>797</v>
+      </c>
+      <c r="C14" s="16"/>
       <c r="D14" s="10" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>797</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
+        <v>799</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>799</v>
-      </c>
-      <c r="C15" s="23"/>
+        <v>801</v>
+      </c>
+      <c r="C15" s="16"/>
       <c r="D15" s="7" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>801</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+        <v>803</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="10" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>803</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
+        <v>805</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="10" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
+        <v>807</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="10" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="10" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="7" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="7" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="7" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="7" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="7" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="7" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="7" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="7" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -18437,38 +22402,38 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="7" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -18476,24 +22441,24 @@
       <c r="R2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S2" s="25"/>
+      <c r="S2" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
-        <v>828</v>
+      <c r="A3" s="20" t="s">
+        <v>830</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="G3" s="26"/>
+        <v>833</v>
+      </c>
+      <c r="G3" s="19"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -18505,24 +22470,24 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="25"/>
+      <c r="S3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>832</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>830</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -18536,24 +22501,24 @@
       <c r="R4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S4" s="25"/>
+      <c r="S4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
-        <v>833</v>
+      <c r="A5" s="18" t="s">
+        <v>835</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="G5" s="26"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -18567,24 +22532,24 @@
       <c r="R5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S5" s="25"/>
+      <c r="S5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
-        <v>834</v>
+      <c r="A6" s="20" t="s">
+        <v>836</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="G6" s="26"/>
+        <v>833</v>
+      </c>
+      <c r="G6" s="19"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -18596,24 +22561,24 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="25"/>
+      <c r="S6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="G7" s="26"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -18627,24 +22592,24 @@
       <c r="R7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S7" s="25"/>
+      <c r="S7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>837</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>835</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -18658,24 +22623,24 @@
       <c r="R8" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S8" s="25"/>
+      <c r="S8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="s">
-        <v>838</v>
+      <c r="A9" s="20" t="s">
+        <v>840</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="G9" s="26"/>
+        <v>833</v>
+      </c>
+      <c r="G9" s="19"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -18689,24 +22654,24 @@
       <c r="R9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S9" s="25"/>
+      <c r="S9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="G10" s="26"/>
+        <v>833</v>
+      </c>
+      <c r="G10" s="19"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -18720,24 +22685,24 @@
       <c r="R10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S10" s="25"/>
+      <c r="S10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="G11" s="26"/>
+        <v>833</v>
+      </c>
+      <c r="G11" s="19"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -18751,24 +22716,24 @@
       <c r="R11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S11" s="25"/>
+      <c r="S11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="G12" s="26"/>
+        <v>833</v>
+      </c>
+      <c r="G12" s="19"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -18782,24 +22747,24 @@
       <c r="R12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S12" s="25"/>
+      <c r="S12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="G13" s="26"/>
+        <v>833</v>
+      </c>
+      <c r="G13" s="19"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -18813,24 +22778,24 @@
       <c r="R13" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S13" s="25"/>
+      <c r="S13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="s">
-        <v>847</v>
+      <c r="A14" s="20" t="s">
+        <v>849</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="G14" s="26"/>
+        <v>833</v>
+      </c>
+      <c r="G14" s="19"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -18844,24 +22809,24 @@
       <c r="R14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S14" s="25"/>
+      <c r="S14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="G15" s="26"/>
+        <v>833</v>
+      </c>
+      <c r="G15" s="19"/>
       <c r="H15" s="7" t="s">
         <v>182</v>
       </c>
@@ -18876,33 +22841,33 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="R15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S15" s="25"/>
+      <c r="S15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27" t="s">
-        <v>852</v>
+      <c r="A16" s="20" t="s">
+        <v>854</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="G16" s="26"/>
+        <v>711</v>
+      </c>
+      <c r="G16" s="19"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -18912,30 +22877,30 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="25"/>
+      <c r="Q16" s="18"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="25"/>
+      <c r="S16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>854</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>852</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="G17" s="26"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -18949,28 +22914,28 @@
       <c r="R17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S17" s="25"/>
+      <c r="S17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>854</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>852</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="G18" s="26"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -18984,26 +22949,26 @@
       <c r="R18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S18" s="25"/>
+      <c r="S18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="118.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="G19" s="26"/>
+        <v>833</v>
+      </c>
+      <c r="G19" s="19"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -19015,24 +22980,24 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="25"/>
+      <c r="S19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="G20" s="26"/>
+        <v>833</v>
+      </c>
+      <c r="G20" s="19"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -19042,32 +23007,32 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="28" t="s">
-        <v>863</v>
+      <c r="Q20" s="21" t="s">
+        <v>864</v>
       </c>
       <c r="R20" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S20" s="25"/>
+      <c r="S20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
-        <v>864</v>
-      </c>
-      <c r="B21" s="28" t="s">
+      <c r="A21" s="21" t="s">
+        <v>865</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>865</v>
+      <c r="C21" s="21" t="s">
+        <v>866</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="G21" s="26"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -19077,30 +23042,30 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="25"/>
+      <c r="Q21" s="18"/>
       <c r="R21" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S21" s="25"/>
+      <c r="S21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28" t="s">
-        <v>866</v>
-      </c>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="21" t="s">
+        <v>867</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>867</v>
+      <c r="C22" s="21" t="s">
+        <v>868</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="G22" s="26"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -19110,26 +23075,26 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="25"/>
+      <c r="Q22" s="18"/>
       <c r="R22" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S22" s="25"/>
+      <c r="S22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -19143,22 +23108,22 @@
       <c r="R23" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S23" s="25"/>
+      <c r="S23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>871</v>
+      <c r="C24" s="18" t="s">
+        <v>872</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="26"/>
+      <c r="G24" s="19"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -19172,22 +23137,22 @@
       <c r="R24" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S24" s="25"/>
+      <c r="S24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="26"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -19201,22 +23166,22 @@
       <c r="R25" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S25" s="25"/>
+      <c r="S25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="26"/>
+      <c r="G26" s="19"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -19230,22 +23195,22 @@
       <c r="R26" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S26" s="25"/>
+      <c r="S26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="26"/>
+      <c r="G27" s="19"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -19259,22 +23224,22 @@
       <c r="R27" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S27" s="25"/>
+      <c r="S27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="26"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -19288,22 +23253,22 @@
       <c r="R28" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S28" s="25"/>
+      <c r="S28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>881</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+        <v>882</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="26"/>
+      <c r="G29" s="19"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -19317,22 +23282,22 @@
       <c r="R29" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S29" s="25"/>
+      <c r="S29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>883</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+        <v>884</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="26"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -19346,22 +23311,22 @@
       <c r="R30" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S30" s="25"/>
+      <c r="S30" s="18"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>885</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+        <v>886</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="26"/>
+      <c r="G31" s="19"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -19375,22 +23340,22 @@
       <c r="R31" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S31" s="25"/>
+      <c r="S31" s="18"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>887</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+        <v>888</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="26"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -19404,22 +23369,22 @@
       <c r="R32" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S32" s="25"/>
+      <c r="S32" s="18"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>889</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+        <v>890</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="26"/>
+      <c r="G33" s="19"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -19433,22 +23398,22 @@
       <c r="R33" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S33" s="25"/>
+      <c r="S33" s="18"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>891</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+        <v>892</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="26"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -19462,22 +23427,22 @@
       <c r="R34" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S34" s="25"/>
+      <c r="S34" s="18"/>
     </row>
     <row r="35" customFormat="false" ht="138" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="26"/>
+      <c r="G35" s="19"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -19491,24 +23456,24 @@
       <c r="R35" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S35" s="25"/>
+      <c r="S35" s="18"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F36" s="11"/>
-      <c r="G36" s="26"/>
+      <c r="G36" s="19"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -19522,24 +23487,24 @@
       <c r="R36" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S36" s="25"/>
+      <c r="S36" s="18"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F37" s="11"/>
-      <c r="G37" s="26"/>
+      <c r="G37" s="19"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -19553,22 +23518,22 @@
       <c r="R37" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S37" s="25"/>
+      <c r="S37" s="18"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="26"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -19582,22 +23547,22 @@
       <c r="R38" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S38" s="25"/>
+      <c r="S38" s="18"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="26"/>
+      <c r="G39" s="19"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -19611,24 +23576,24 @@
       <c r="R39" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S39" s="25"/>
+      <c r="S39" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F40" s="11"/>
-      <c r="G40" s="26"/>
+      <c r="G40" s="19"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -19642,24 +23607,24 @@
       <c r="R40" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S40" s="25"/>
+      <c r="S40" s="18"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F41" s="11"/>
-      <c r="G41" s="26"/>
+      <c r="G41" s="19"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -19673,24 +23638,24 @@
       <c r="R41" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S41" s="25"/>
+      <c r="S41" s="18"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F42" s="11"/>
-      <c r="G42" s="26"/>
+      <c r="G42" s="19"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -19704,24 +23669,24 @@
       <c r="R42" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S42" s="25"/>
+      <c r="S42" s="18"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F43" s="11"/>
-      <c r="G43" s="26"/>
+      <c r="G43" s="19"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -19735,22 +23700,22 @@
       <c r="R43" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S43" s="25"/>
+      <c r="S43" s="18"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="26"/>
+      <c r="G44" s="19"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -19764,22 +23729,22 @@
       <c r="R44" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S44" s="25"/>
+      <c r="S44" s="18"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="26"/>
+      <c r="G45" s="19"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -19793,22 +23758,22 @@
       <c r="R45" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S45" s="25"/>
+      <c r="S45" s="18"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="26"/>
+      <c r="G46" s="19"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -19822,22 +23787,22 @@
       <c r="R46" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S46" s="25"/>
+      <c r="S46" s="18"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="26"/>
+      <c r="G47" s="19"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -19851,22 +23816,22 @@
       <c r="R47" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S47" s="25"/>
+      <c r="S47" s="18"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="26"/>
+      <c r="G48" s="19"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -19880,22 +23845,22 @@
       <c r="R48" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S48" s="25"/>
+      <c r="S48" s="18"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="26"/>
+      <c r="G49" s="19"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -19909,22 +23874,22 @@
       <c r="R49" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S49" s="25"/>
+      <c r="S49" s="18"/>
     </row>
     <row r="50" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="26"/>
+      <c r="G50" s="19"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -19934,30 +23899,30 @@
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
-      <c r="Q50" s="29" t="s">
-        <v>926</v>
+      <c r="Q50" s="22" t="s">
+        <v>927</v>
       </c>
       <c r="R50" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S50" s="25"/>
+      <c r="S50" s="18"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="F51" s="11"/>
-      <c r="G51" s="26"/>
+      <c r="G51" s="19"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -19971,24 +23936,24 @@
       <c r="R51" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S51" s="25"/>
+      <c r="S51" s="18"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="F52" s="11"/>
-      <c r="G52" s="26"/>
+      <c r="G52" s="19"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -20002,22 +23967,22 @@
       <c r="R52" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S52" s="25"/>
+      <c r="S52" s="18"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="26"/>
+      <c r="G53" s="19"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -20031,24 +23996,24 @@
       <c r="R53" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S53" s="25"/>
+      <c r="S53" s="18"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F54" s="11"/>
-      <c r="G54" s="26"/>
+      <c r="G54" s="19"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -20062,24 +24027,24 @@
       <c r="R54" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S54" s="25"/>
+      <c r="S54" s="18"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F55" s="11"/>
-      <c r="G55" s="26"/>
+      <c r="G55" s="19"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -20093,7 +24058,7 @@
       <c r="R55" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S55" s="25"/>
+      <c r="S55" s="18"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7"/>
@@ -20102,7 +24067,7 @@
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="26"/>
+      <c r="G56" s="19"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -20114,11 +24079,11 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="25"/>
+      <c r="S56" s="18"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>305</v>
@@ -20127,9 +24092,9 @@
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="G57" s="26"/>
+        <v>711</v>
+      </c>
+      <c r="G57" s="19"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -20141,11 +24106,11 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="25"/>
+      <c r="S57" s="18"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>305</v>
@@ -20154,9 +24119,9 @@
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="G58" s="26"/>
+        <v>711</v>
+      </c>
+      <c r="G58" s="19"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -20168,11 +24133,11 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="25"/>
+      <c r="S58" s="18"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>305</v>
@@ -20181,9 +24146,9 @@
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="G59" s="26"/>
+        <v>711</v>
+      </c>
+      <c r="G59" s="19"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -20195,29 +24160,29 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="25"/>
+      <c r="S59" s="18"/>
     </row>
     <row r="60" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>305</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="G60" s="26"/>
+        <v>711</v>
+      </c>
+      <c r="G60" s="19"/>
       <c r="H60" s="7" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
@@ -20228,11 +24193,11 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="25"/>
+      <c r="S60" s="18"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>305</v>
@@ -20241,9 +24206,9 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="G61" s="26"/>
+        <v>711</v>
+      </c>
+      <c r="G61" s="19"/>
       <c r="H61" s="7" t="s">
         <v>182</v>
       </c>
@@ -20259,11 +24224,11 @@
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="25"/>
+      <c r="S61" s="18"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>305</v>
@@ -20272,9 +24237,9 @@
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="G62" s="26"/>
+        <v>711</v>
+      </c>
+      <c r="G62" s="19"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -20286,29 +24251,29 @@
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="25"/>
+      <c r="S62" s="18"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>305</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="G63" s="26"/>
+        <v>711</v>
+      </c>
+      <c r="G63" s="19"/>
       <c r="H63" s="7" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
@@ -20319,24 +24284,24 @@
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="25"/>
+      <c r="S63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>305</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="G64" s="26"/>
+        <v>711</v>
+      </c>
+      <c r="G64" s="19"/>
       <c r="H64" s="7" t="n">
         <v>1</v>
       </c>
@@ -20344,42 +24309,42 @@
         <v>2</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="K64" s="7" t="n">
         <v>3</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="O64" s="7"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="25"/>
+      <c r="S64" s="18"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>305</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="G65" s="26"/>
+        <v>711</v>
+      </c>
+      <c r="G65" s="19"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -20391,11 +24356,11 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="25"/>
+      <c r="S65" s="18"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>305</v>
@@ -20406,7 +24371,7 @@
       <c r="F66" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="G66" s="26"/>
+      <c r="G66" s="19"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -20418,11 +24383,11 @@
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="25"/>
+      <c r="S66" s="18"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>305</v>
@@ -20433,7 +24398,7 @@
       <c r="F67" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="G67" s="26"/>
+      <c r="G67" s="19"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -20445,11 +24410,11 @@
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="25"/>
+      <c r="S67" s="18"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>305</v>
@@ -20460,7 +24425,7 @@
       <c r="F68" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="G68" s="26"/>
+      <c r="G68" s="19"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
@@ -20472,11 +24437,11 @@
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="25"/>
+      <c r="S68" s="18"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>305</v>
@@ -20487,7 +24452,7 @@
       <c r="F69" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="G69" s="26"/>
+      <c r="G69" s="19"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
@@ -20499,11 +24464,11 @@
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="25"/>
+      <c r="S69" s="18"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>305</v>
@@ -20512,9 +24477,9 @@
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="G70" s="26"/>
+        <v>711</v>
+      </c>
+      <c r="G70" s="19"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
@@ -20526,11 +24491,11 @@
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="25"/>
+      <c r="S70" s="18"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>305</v>
@@ -20539,9 +24504,9 @@
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="G71" s="26"/>
+        <v>711</v>
+      </c>
+      <c r="G71" s="19"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -20553,11 +24518,11 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
-      <c r="S71" s="25"/>
+      <c r="S71" s="18"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>305</v>
@@ -20566,9 +24531,9 @@
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="G72" s="26"/>
+        <v>711</v>
+      </c>
+      <c r="G72" s="19"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
@@ -20580,11 +24545,11 @@
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
-      <c r="S72" s="25"/>
+      <c r="S72" s="18"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>952</v>
+        <v>709</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>305</v>
@@ -20593,9 +24558,9 @@
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="G73" s="26"/>
+        <v>711</v>
+      </c>
+      <c r="G73" s="19"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
@@ -20607,7 +24572,7 @@
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="25"/>
+      <c r="S73" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/vignettes/definicje_zmiennych.xlsx
+++ b/vignettes/definicje_zmiennych.xlsx
@@ -13,49 +13,49 @@
     <sheet name="nauka" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">zmienne!$A$1:$S$261</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$258</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$258</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$258</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$258</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$258</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$258</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$258</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$258</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$258</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$258</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$258</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$258</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$258</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$258</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$258</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$257</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$258</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$257</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$257</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$257</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$257</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$257</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$257</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$257</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$257</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$257</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$257</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$194</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$194</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">zmienne!$A$1:$S$262</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$S$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$258</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$Q$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$258</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$258</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$258</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$258</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$258</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$258</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$258</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$258</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$195</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$258</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$195</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$258</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$195</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$195</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$195</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$195</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$195</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$195</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$195</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$195</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$195</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$195</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$195</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$195</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">zmienne!$A$1:$P$195</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="968">
   <si>
     <t xml:space="preserve">zmienna</t>
   </si>
@@ -973,7 +973,7 @@
   <si>
     <t xml:space="preserve">Zgodność powiatów zamieszkania absolwenta i jednostki dydaktycznej, którą ukończył na koniec danego okresu
 W wypadku niejednoznacznego mapowania PNA na powiaty jako TERYT odpowiadający danemu PNA przyjmowane jednoznacznie wyznaczane województwo, a gdy także województwo niejednoznaczne, Polska.
-W wypadku gdy wiele różnych JST dla danego okresu, wtedy zmienna liczona dla każdego JST z osobna, a następnie przypisywZNPN najmniejsza uzyskZNPN wartość.</t>
+W wypadku gdy wiele różnych JST dla danego okresu, wtedy zmienna liczona dla każdego JST z osobna, a następnie przypisywana najmniejsza uzyskana wartość.</t>
   </si>
   <si>
     <t xml:space="preserve">POWIAT</t>
@@ -992,6 +992,17 @@
   </si>
   <si>
     <t xml:space="preserve">inne województwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPDZAM_V2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zgodność powiatów zamieszkania absolwenta i jednostki dydaktycznej, którą ukończył na koniec danego okresu
+W wypadku niejednoznacznego mapowania PNA na powiaty jako TERYT odpowiadający danemu PNA przyjmowane jednoznacznie wyznaczane województwo, a gdy także województwo niejednoznaczne, Polska.
+W wypadku gdy wiele różnych JST dla danego okresu, wtedy brak danych.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`</t>
   </si>
   <si>
     <t xml:space="preserve">KLASZ</t>
@@ -3206,7 +3217,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3255,8 +3266,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3277,10 +3288,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3380,12 +3387,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMH261"/>
+  <dimension ref="A1:AMH262"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F85" activeCellId="0" sqref="F85"/>
+      <selection pane="bottomLeft" activeCell="H79" activeCellId="0" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15412,7 +15419,7 @@
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
     </row>
-    <row r="79" customFormat="false" ht="144.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
         <v>285</v>
       </c>
@@ -15432,16 +15439,16 @@
       <c r="G79" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H79" s="10" t="s">
+      <c r="H79" s="12"/>
+      <c r="I79" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="I79" s="10" t="s">
+      <c r="J79" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="J79" s="10" t="s">
+      <c r="K79" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="K79" s="10"/>
       <c r="L79" s="10"/>
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
@@ -15455,7 +15462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="99.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="127.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
         <v>293</v>
       </c>
@@ -15467,7 +15474,7 @@
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="10" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>288</v>
@@ -15475,44 +15482,44 @@
       <c r="G80" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H80" s="10" t="s">
-        <v>296</v>
-      </c>
+      <c r="H80" s="12"/>
       <c r="I80" s="10" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="K80" s="10"/>
+        <v>291</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>292</v>
+      </c>
       <c r="L80" s="10"/>
       <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
+      <c r="N80" s="10" t="s">
+        <v>295</v>
+      </c>
       <c r="O80" s="9" t="n">
         <f aca="false">G80=""</f>
         <v>0</v>
       </c>
-      <c r="P80" s="7" t="s">
-        <v>299</v>
-      </c>
+      <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="99.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>288</v>
@@ -15521,13 +15528,13 @@
         <v>289</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
@@ -15537,39 +15544,43 @@
         <f aca="false">G81=""</f>
         <v>0</v>
       </c>
-      <c r="P81" s="7"/>
+      <c r="P81" s="7" t="s">
+        <v>302</v>
+      </c>
       <c r="Q81" s="7"/>
       <c r="R81" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="12" t="s">
-        <v>302</v>
+    <row r="82" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="10" t="s">
+        <v>303</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="D82" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="E82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10" t="s">
+        <v>298</v>
+      </c>
       <c r="F82" s="8" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>182</v>
+        <v>299</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="J82" s="10"/>
+        <v>300</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>301</v>
+      </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
       <c r="M82" s="10"/>
@@ -15580,130 +15591,133 @@
       </c>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
-    </row>
-    <row r="83" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12" t="s">
-        <v>307</v>
+      <c r="R82" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="10" t="s">
+        <v>305</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>309</v>
+        <v>182</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="J83" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="K83" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="L83" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="M83" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="N83" s="10" t="s">
-        <v>315</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
       <c r="O83" s="9" t="n">
         <f aca="false">G83=""</f>
         <v>0</v>
       </c>
-      <c r="P83" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="s">
-        <v>317</v>
+      <c r="A84" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I84" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="J84" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="L84" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M84" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="N84" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="J84" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="K84" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="L84" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
       <c r="O84" s="9" t="n">
         <f aca="false">G84=""</f>
         <v>0</v>
       </c>
-      <c r="P84" s="7"/>
+      <c r="P84" s="7" t="s">
+        <v>319</v>
+      </c>
       <c r="Q84" s="7"/>
     </row>
-    <row r="85" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12" t="s">
-        <v>322</v>
+    <row r="85" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="10" t="s">
+        <v>320</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>182</v>
+        <v>312</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
+        <v>321</v>
+      </c>
+      <c r="J85" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="L85" s="10" t="s">
+        <v>324</v>
+      </c>
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
       <c r="O85" s="9" t="n">
@@ -15713,23 +15727,25 @@
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
     </row>
-    <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="12" t="s">
-        <v>324</v>
+    <row r="86" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="10" t="s">
+        <v>325</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="D86" s="10"/>
+        <v>326</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>307</v>
+      </c>
       <c r="E86" s="10"/>
       <c r="F86" s="8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H86" s="10" t="s">
         <v>182</v>
@@ -15751,24 +15767,28 @@
     </row>
     <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
       <c r="F87" s="8" t="s">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
+        <v>309</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I87" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
@@ -15781,33 +15801,31 @@
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C88" s="7" t="s">
+    <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7" t="s">
+      <c r="B88" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" s="10" t="s">
         <v>330</v>
       </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
       <c r="F88" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
       <c r="O88" s="9" t="n">
         <f aca="false">G88=""</f>
         <v>0</v>
@@ -15817,23 +15835,23 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F89" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="F89" s="8" t="s">
-        <v>331</v>
-      </c>
       <c r="G89" s="11" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
@@ -15849,64 +15867,53 @@
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
     </row>
-    <row r="90" customFormat="false" ht="99.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="10" t="s">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C90" s="10" t="s">
+      <c r="B90" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10" t="s">
-        <v>295</v>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="I90" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="J90" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="10"/>
+        <v>334</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
       <c r="O90" s="9" t="n">
         <f aca="false">G90=""</f>
         <v>0</v>
       </c>
-      <c r="P90" s="7" t="s">
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+    </row>
+    <row r="91" customFormat="false" ht="99.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D91" s="10"/>
       <c r="E91" s="10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>288</v>
@@ -15915,13 +15922,13 @@
         <v>289</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
@@ -15931,103 +15938,112 @@
         <f aca="false">G91=""</f>
         <v>0</v>
       </c>
-      <c r="P91" s="7"/>
+      <c r="P91" s="7" t="s">
+        <v>341</v>
+      </c>
       <c r="Q91" s="7"/>
       <c r="R91" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="s">
-        <v>181</v>
+      <c r="A92" s="10" t="s">
+        <v>342</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E92" s="7"/>
+        <v>343</v>
+      </c>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10" t="s">
+        <v>298</v>
+      </c>
       <c r="F92" s="8" t="s">
-        <v>154</v>
+        <v>288</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
+        <v>289</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
       <c r="O92" s="9" t="n">
         <f aca="false">G92=""</f>
         <v>0</v>
       </c>
-      <c r="P92" s="7" t="s">
-        <v>342</v>
-      </c>
+      <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
-    </row>
-    <row r="93" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="10" t="s">
-        <v>192</v>
+      <c r="R92" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E93" s="10"/>
+      <c r="E93" s="7"/>
       <c r="F93" s="8" t="s">
         <v>154</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="10"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
       <c r="O93" s="9" t="n">
         <f aca="false">G93=""</f>
         <v>0</v>
       </c>
-      <c r="P93" s="10"/>
+      <c r="P93" s="7" t="s">
+        <v>345</v>
+      </c>
       <c r="Q93" s="7"/>
     </row>
-    <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="s">
-        <v>344</v>
+        <v>192</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E94" s="10" t="s">
-        <v>346</v>
-      </c>
+      <c r="E94" s="10"/>
       <c r="F94" s="8" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
@@ -16043,8 +16059,8 @@
       <c r="P94" s="10"/>
       <c r="Q94" s="7"/>
     </row>
-    <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7" t="s">
+    <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="10" t="s">
         <v>347</v>
       </c>
       <c r="B95" s="10" t="s">
@@ -16054,29 +16070,29 @@
         <v>348</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E95" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="F95" s="8" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
       <c r="O95" s="9" t="n">
         <f aca="false">G95=""</f>
         <v>0</v>
       </c>
-      <c r="P95" s="7" t="s">
-        <v>349</v>
-      </c>
+      <c r="P95" s="10"/>
       <c r="Q95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16090,7 +16106,7 @@
         <v>351</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="8" t="s">
@@ -16115,27 +16131,25 @@
       </c>
       <c r="Q96" s="7"/>
     </row>
-    <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>196</v>
+        <v>353</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>354</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E97" s="7"/>
       <c r="F97" s="8" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
@@ -16148,28 +16162,32 @@
         <f aca="false">G97=""</f>
         <v>0</v>
       </c>
-      <c r="P97" s="7"/>
+      <c r="P97" s="7" t="s">
+        <v>355</v>
+      </c>
       <c r="Q97" s="7"/>
     </row>
-    <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E98" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>357</v>
+      </c>
       <c r="F98" s="8" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
@@ -16182,23 +16200,21 @@
         <f aca="false">G98=""</f>
         <v>0</v>
       </c>
-      <c r="P98" s="7" t="s">
-        <v>356</v>
-      </c>
+      <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="8" t="s">
@@ -16219,45 +16235,47 @@
         <v>0</v>
       </c>
       <c r="P99" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q99" s="7"/>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="10" t="s">
-        <v>205</v>
+    <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E100" s="10"/>
+        <v>213</v>
+      </c>
+      <c r="E100" s="7"/>
       <c r="F100" s="8" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
       <c r="O100" s="9" t="n">
         <f aca="false">G100=""</f>
         <v>0</v>
       </c>
-      <c r="P100" s="7"/>
+      <c r="P100" s="7" t="s">
+        <v>361</v>
+      </c>
       <c r="Q100" s="7"/>
     </row>
-    <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="s">
         <v>205</v>
       </c>
@@ -16265,19 +16283,17 @@
         <v>48</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E101" s="10" t="s">
-        <v>362</v>
-      </c>
+      <c r="E101" s="10"/>
       <c r="F101" s="8" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>95</v>
+        <v>363</v>
       </c>
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
@@ -16295,21 +16311,25 @@
     </row>
     <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="s">
-        <v>363</v>
+        <v>205</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
+      <c r="D102" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>365</v>
+      </c>
       <c r="F102" s="8" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
@@ -16326,125 +16346,125 @@
       <c r="Q102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="s">
-        <v>210</v>
+      <c r="A103" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E103" s="7"/>
+        <v>367</v>
+      </c>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
       <c r="F103" s="8" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
       <c r="O103" s="9" t="n">
         <f aca="false">G103=""</f>
         <v>0</v>
       </c>
-      <c r="P103" s="7" t="s">
-        <v>366</v>
-      </c>
+      <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
     </row>
     <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="10" t="s">
-        <v>367</v>
+      <c r="A104" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
+      <c r="D104" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E104" s="7"/>
       <c r="F104" s="8" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10"/>
-      <c r="N104" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
       <c r="O104" s="9" t="n">
         <f aca="false">G104=""</f>
         <v>0</v>
       </c>
-      <c r="P104" s="7"/>
+      <c r="P104" s="7" t="s">
+        <v>369</v>
+      </c>
       <c r="Q104" s="7"/>
     </row>
     <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7" t="s">
-        <v>214</v>
+      <c r="A105" s="10" t="s">
+        <v>370</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E105" s="7"/>
+        <v>371</v>
+      </c>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
       <c r="F105" s="8" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
-      <c r="L105" s="7"/>
-      <c r="M105" s="7"/>
-      <c r="N105" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
       <c r="O105" s="9" t="n">
         <f aca="false">G105=""</f>
         <v>0</v>
       </c>
-      <c r="P105" s="7" t="s">
-        <v>370</v>
-      </c>
+      <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
     </row>
-    <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="D106" s="10"/>
+        <v>372</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="E106" s="7"/>
       <c r="F106" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G106" s="8"/>
+      <c r="G106" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
@@ -16454,23 +16474,22 @@
       <c r="N106" s="7"/>
       <c r="O106" s="9" t="n">
         <f aca="false">G106=""</f>
-        <v>1</v>
-      </c>
-      <c r="P106" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="P106" s="7" t="s">
+        <v>373</v>
+      </c>
       <c r="Q106" s="7"/>
-      <c r="S106" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D107" s="10"/>
       <c r="E107" s="7"/>
@@ -16497,13 +16516,13 @@
     </row>
     <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D108" s="10"/>
       <c r="E108" s="7"/>
@@ -16528,20 +16547,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>374</v>
+        <v>223</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D109" s="10"/>
       <c r="E109" s="7"/>
       <c r="F109" s="8" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="7"/>
@@ -16561,20 +16580,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>229</v>
+        <v>377</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D110" s="10"/>
       <c r="E110" s="7"/>
       <c r="F110" s="8" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="7"/>
@@ -16596,13 +16615,13 @@
     </row>
     <row r="111" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D111" s="10"/>
       <c r="E111" s="7"/>
@@ -16627,28 +16646,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>379</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="D112" s="10"/>
+      <c r="E112" s="7"/>
       <c r="F112" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>95</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G112" s="8"/>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
@@ -16658,14 +16671,17 @@
       <c r="N112" s="7"/>
       <c r="O112" s="9" t="n">
         <f aca="false">G112=""</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
-    </row>
-    <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S112" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
-        <v>380</v>
+        <v>241</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>48</v>
@@ -16674,14 +16690,16 @@
         <v>381</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E113" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>382</v>
+      </c>
       <c r="F113" s="8" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
@@ -16694,9 +16712,7 @@
         <f aca="false">G113=""</f>
         <v>0</v>
       </c>
-      <c r="P113" s="7" t="s">
-        <v>382</v>
-      </c>
+      <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16710,7 +16726,7 @@
         <v>384</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="8" t="s">
@@ -16735,27 +16751,25 @@
       </c>
       <c r="Q114" s="7"/>
     </row>
-    <row r="115" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>244</v>
+        <v>386</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>387</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E115" s="7"/>
       <c r="F115" s="8" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
@@ -16768,15 +16782,14 @@
         <f aca="false">G115=""</f>
         <v>0</v>
       </c>
-      <c r="P115" s="7"/>
+      <c r="P115" s="7" t="s">
+        <v>388</v>
+      </c>
       <c r="Q115" s="7"/>
-      <c r="S115" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>388</v>
+        <v>244</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>48</v>
@@ -16785,14 +16798,16 @@
         <v>389</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E116" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>390</v>
+      </c>
       <c r="F116" s="8" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
@@ -16813,16 +16828,16 @@
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B117" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="8" t="s">
@@ -16848,43 +16863,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10" t="s">
-        <v>392</v>
+    <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="7" t="s">
+        <v>393</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>394</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E118" s="7"/>
       <c r="F118" s="8" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H118" s="10"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="10"/>
-      <c r="K118" s="10"/>
-      <c r="L118" s="10"/>
-      <c r="M118" s="10"/>
-      <c r="N118" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
       <c r="O118" s="9" t="n">
         <f aca="false">G118=""</f>
         <v>0</v>
       </c>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
-    </row>
-    <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S118" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="s">
         <v>395</v>
       </c>
@@ -16895,14 +16911,16 @@
         <v>396</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E119" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>397</v>
+      </c>
       <c r="F119" s="8" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
@@ -16920,16 +16938,16 @@
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B120" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="8" t="s">
@@ -16954,21 +16972,23 @@
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="D121" s="10"/>
+        <v>401</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="E121" s="10"/>
       <c r="F121" s="8" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="H121" s="10"/>
       <c r="I121" s="10"/>
@@ -16984,27 +17004,23 @@
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
     </row>
-    <row r="122" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="s">
-        <v>247</v>
+        <v>402</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>402</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
       <c r="F122" s="8" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="H122" s="10"/>
       <c r="I122" s="10"/>
@@ -17020,9 +17036,9 @@
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
     </row>
-    <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="s">
-        <v>403</v>
+        <v>247</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>48</v>
@@ -17031,14 +17047,16 @@
         <v>404</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E123" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>405</v>
+      </c>
       <c r="F123" s="8" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="H123" s="10"/>
       <c r="I123" s="10"/>
@@ -17056,16 +17074,16 @@
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B124" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="8" t="s">
@@ -17088,25 +17106,25 @@
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
     </row>
-    <row r="125" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="8" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>360</v>
+        <v>165</v>
       </c>
       <c r="H125" s="10"/>
       <c r="I125" s="10"/>
@@ -17130,19 +17148,17 @@
         <v>48</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E126" s="10" t="s">
-        <v>409</v>
-      </c>
+      <c r="E126" s="10"/>
       <c r="F126" s="8" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>95</v>
+        <v>363</v>
       </c>
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
@@ -17158,9 +17174,9 @@
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
     </row>
-    <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="7" t="s">
-        <v>410</v>
+    <row r="127" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>48</v>
@@ -17169,32 +17185,32 @@
         <v>411</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E127" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>412</v>
+      </c>
       <c r="F127" s="8" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="7"/>
-      <c r="L127" s="7"/>
-      <c r="M127" s="7"/>
-      <c r="N127" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
       <c r="O127" s="9" t="n">
         <f aca="false">G127=""</f>
         <v>0</v>
       </c>
-      <c r="P127" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
     </row>
-    <row r="128" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
         <v>413</v>
       </c>
@@ -17205,7 +17221,7 @@
         <v>414</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="8" t="s">
@@ -17231,60 +17247,62 @@
       <c r="Q128" s="7"/>
     </row>
     <row r="129" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="10" t="s">
-        <v>254</v>
+      <c r="A129" s="7" t="s">
+        <v>416</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>417</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E129" s="7"/>
       <c r="F129" s="8" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10"/>
-      <c r="L129" s="10"/>
-      <c r="M129" s="10"/>
-      <c r="N129" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7"/>
       <c r="O129" s="9" t="n">
         <f aca="false">G129=""</f>
         <v>0</v>
       </c>
-      <c r="P129" s="7"/>
+      <c r="P129" s="7" t="s">
+        <v>418</v>
+      </c>
       <c r="Q129" s="7"/>
     </row>
     <row r="130" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E130" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>420</v>
+      </c>
       <c r="F130" s="8" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="H130" s="10"/>
       <c r="I130" s="10"/>
@@ -17302,16 +17320,16 @@
     </row>
     <row r="131" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="8" t="s">
@@ -17336,25 +17354,23 @@
     </row>
     <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>421</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E132" s="10"/>
       <c r="F132" s="8" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="H132" s="10"/>
       <c r="I132" s="10"/>
@@ -17370,23 +17386,27 @@
       <c r="P132" s="7"/>
       <c r="Q132" s="7"/>
     </row>
-    <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="10" t="s">
-        <v>422</v>
+        <v>264</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C133" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
+      <c r="D133" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>424</v>
+      </c>
       <c r="F133" s="8" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="H133" s="10"/>
       <c r="I133" s="10"/>
@@ -17404,23 +17424,21 @@
     </row>
     <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="10" t="s">
-        <v>268</v>
+        <v>425</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>209</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="D134" s="10"/>
       <c r="E134" s="10"/>
       <c r="F134" s="8" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="H134" s="10"/>
       <c r="I134" s="10"/>
@@ -17438,21 +17456,23 @@
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="10" t="s">
-        <v>425</v>
+        <v>268</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="D135" s="10"/>
+        <v>427</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>209</v>
+      </c>
       <c r="E135" s="10"/>
       <c r="F135" s="8" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="H135" s="10"/>
       <c r="I135" s="10"/>
@@ -17470,23 +17490,21 @@
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="10" t="s">
-        <v>271</v>
+        <v>428</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>213</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="D136" s="10"/>
       <c r="E136" s="10"/>
       <c r="F136" s="8" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
@@ -17502,22 +17520,20 @@
       <c r="P136" s="7"/>
       <c r="Q136" s="7"/>
     </row>
-    <row r="137" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="13" t="s">
-        <v>282</v>
+    <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="10" t="s">
+        <v>271</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>274</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E137" s="10"/>
       <c r="F137" s="8" t="s">
         <v>154</v>
       </c>
@@ -17540,19 +17556,19 @@
     </row>
     <row r="138" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="13" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="D138" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D138" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E138" s="7" t="s">
-        <v>272</v>
+      <c r="E138" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="F138" s="8" t="s">
         <v>154</v>
@@ -17560,25 +17576,23 @@
       <c r="G138" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
-      <c r="K138" s="7"/>
-      <c r="L138" s="7"/>
-      <c r="M138" s="7"/>
-      <c r="N138" s="7"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="10"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="10"/>
+      <c r="N138" s="10"/>
       <c r="O138" s="9" t="n">
         <f aca="false">G138=""</f>
         <v>0</v>
       </c>
-      <c r="P138" s="7" t="s">
-        <v>430</v>
-      </c>
+      <c r="P138" s="7"/>
       <c r="Q138" s="7"/>
     </row>
     <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="10" t="s">
-        <v>431</v>
+      <c r="A139" s="13" t="s">
+        <v>274</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>48</v>
@@ -17586,49 +17600,55 @@
       <c r="C139" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="D139" s="10" t="s">
+      <c r="D139" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E139" s="10" t="s">
-        <v>433</v>
+      <c r="E139" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H139" s="10"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="10"/>
-      <c r="K139" s="10"/>
-      <c r="L139" s="10"/>
-      <c r="M139" s="10"/>
-      <c r="N139" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="7"/>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
+      <c r="M139" s="7"/>
+      <c r="N139" s="7"/>
       <c r="O139" s="9" t="n">
         <f aca="false">G139=""</f>
         <v>0</v>
       </c>
-      <c r="P139" s="7"/>
+      <c r="P139" s="7" t="s">
+        <v>433</v>
+      </c>
       <c r="Q139" s="7"/>
     </row>
-    <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="10" t="s">
         <v>434</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
+      <c r="D140" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>436</v>
+      </c>
       <c r="F140" s="8" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="H140" s="10"/>
       <c r="I140" s="10"/>
@@ -17644,25 +17664,23 @@
       <c r="P140" s="7"/>
       <c r="Q140" s="7"/>
     </row>
-    <row r="141" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>209</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="D141" s="10"/>
       <c r="E141" s="10"/>
       <c r="F141" s="8" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="H141" s="10"/>
       <c r="I141" s="10"/>
@@ -17678,23 +17696,25 @@
       <c r="P141" s="7"/>
       <c r="Q141" s="7"/>
     </row>
-    <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="D142" s="10"/>
+        <v>440</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>209</v>
+      </c>
       <c r="E142" s="10"/>
       <c r="F142" s="8" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="H142" s="10"/>
       <c r="I142" s="10"/>
@@ -17710,25 +17730,23 @@
       <c r="P142" s="7"/>
       <c r="Q142" s="7"/>
     </row>
-    <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>213</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="D143" s="10"/>
       <c r="E143" s="10"/>
       <c r="F143" s="8" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="H143" s="10"/>
       <c r="I143" s="10"/>
@@ -17744,25 +17762,25 @@
       <c r="P143" s="7"/>
       <c r="Q143" s="7"/>
     </row>
-    <row r="144" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="D144" s="14"/>
-      <c r="E144" s="10" t="s">
-        <v>334</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E144" s="10"/>
       <c r="F144" s="8" t="s">
-        <v>331</v>
+        <v>154</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>306</v>
+        <v>165</v>
       </c>
       <c r="H144" s="10"/>
       <c r="I144" s="10"/>
@@ -17778,25 +17796,25 @@
       <c r="P144" s="7"/>
       <c r="Q144" s="7"/>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E145" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="D145" s="14"/>
+      <c r="E145" s="10" t="s">
+        <v>337</v>
+      </c>
       <c r="F145" s="8" t="s">
-        <v>52</v>
+        <v>334</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>48</v>
+        <v>309</v>
       </c>
       <c r="H145" s="10"/>
       <c r="I145" s="10"/>
@@ -17809,12 +17827,10 @@
         <f aca="false">G145=""</f>
         <v>0</v>
       </c>
-      <c r="P145" s="10" t="s">
-        <v>446</v>
-      </c>
+      <c r="P145" s="7"/>
       <c r="Q145" s="7"/>
     </row>
-    <row r="146" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="10" t="s">
         <v>447</v>
       </c>
@@ -17850,7 +17866,7 @@
       </c>
       <c r="Q146" s="7"/>
     </row>
-    <row r="147" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="10" t="s">
         <v>450</v>
       </c>
@@ -17865,10 +17881,10 @@
       </c>
       <c r="E147" s="10"/>
       <c r="F147" s="8" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="H147" s="10"/>
       <c r="I147" s="10"/>
@@ -17884,22 +17900,20 @@
       <c r="P147" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="Q147" s="10" t="s">
-        <v>453</v>
-      </c>
+      <c r="Q147" s="7"/>
     </row>
     <row r="148" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="8" t="s">
@@ -17919,21 +17933,25 @@
         <f aca="false">G148=""</f>
         <v>0</v>
       </c>
-      <c r="P148" s="10"/>
-      <c r="Q148" s="7"/>
+      <c r="P148" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q148" s="10" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B149" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="8" t="s">
@@ -17956,25 +17974,25 @@
       <c r="P149" s="10"/>
       <c r="Q149" s="7"/>
     </row>
-    <row r="150" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="10" t="s">
-        <v>51</v>
+        <v>459</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="E150" s="10"/>
       <c r="F150" s="8" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="H150" s="10"/>
       <c r="I150" s="10"/>
@@ -17987,20 +18005,18 @@
         <f aca="false">G150=""</f>
         <v>0</v>
       </c>
-      <c r="P150" s="10" t="s">
-        <v>459</v>
-      </c>
+      <c r="P150" s="10"/>
       <c r="Q150" s="7"/>
     </row>
-    <row r="151" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>50</v>
@@ -18024,13 +18040,13 @@
         <v>0</v>
       </c>
       <c r="P151" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q151" s="7"/>
     </row>
-    <row r="152" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="10" t="s">
-        <v>462</v>
+        <v>56</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>48</v>
@@ -18038,15 +18054,15 @@
       <c r="C152" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10" t="s">
-        <v>295</v>
-      </c>
+      <c r="D152" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E152" s="10"/>
       <c r="F152" s="8" t="s">
-        <v>288</v>
+        <v>52</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>289</v>
+        <v>48</v>
       </c>
       <c r="H152" s="10"/>
       <c r="I152" s="10"/>
@@ -18059,28 +18075,31 @@
         <f aca="false">G152=""</f>
         <v>0</v>
       </c>
-      <c r="P152" s="7"/>
+      <c r="P152" s="10" t="s">
+        <v>464</v>
+      </c>
       <c r="Q152" s="7"/>
-      <c r="R152" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="153" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>20</v>
+        <v>465</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
+      <c r="E153" s="10" t="s">
+        <v>298</v>
+      </c>
       <c r="F153" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G153" s="8"/>
+        <v>288</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>289</v>
+      </c>
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
       <c r="J153" s="10"/>
@@ -18090,20 +18109,23 @@
       <c r="N153" s="10"/>
       <c r="O153" s="9" t="n">
         <f aca="false">G153=""</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P153" s="7"/>
       <c r="Q153" s="7"/>
+      <c r="R153" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D154" s="10"/>
       <c r="E154" s="10"/>
@@ -18125,28 +18147,22 @@
       <c r="P154" s="7"/>
       <c r="Q154" s="7"/>
     </row>
-    <row r="155" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>48</v>
+        <v>469</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E155" s="10" t="s">
-        <v>181</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
       <c r="F155" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G155" s="8" t="s">
-        <v>95</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G155" s="8"/>
       <c r="H155" s="10"/>
       <c r="I155" s="10"/>
       <c r="J155" s="10"/>
@@ -18156,11 +18172,9 @@
       <c r="N155" s="10"/>
       <c r="O155" s="9" t="n">
         <f aca="false">G155=""</f>
-        <v>0</v>
-      </c>
-      <c r="P155" s="10" t="s">
-        <v>470</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P155" s="7"/>
       <c r="Q155" s="7"/>
     </row>
     <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18177,7 +18191,7 @@
         <v>50</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>473</v>
+        <v>181</v>
       </c>
       <c r="F156" s="8" t="s">
         <v>94</v>
@@ -18196,7 +18210,9 @@
         <f aca="false">G156=""</f>
         <v>0</v>
       </c>
-      <c r="P156" s="10"/>
+      <c r="P156" s="10" t="s">
+        <v>473</v>
+      </c>
       <c r="Q156" s="7"/>
     </row>
     <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18213,7 +18229,7 @@
         <v>50</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>192</v>
+        <v>476</v>
       </c>
       <c r="F157" s="8" t="s">
         <v>94</v>
@@ -18232,26 +18248,24 @@
         <f aca="false">G157=""</f>
         <v>0</v>
       </c>
-      <c r="P157" s="10" t="s">
-        <v>476</v>
-      </c>
+      <c r="P157" s="10"/>
       <c r="Q157" s="7"/>
     </row>
     <row r="158" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="10" t="s">
         <v>477</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C158" s="10" t="s">
         <v>478</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E158" s="7" t="s">
-        <v>344</v>
+      <c r="E158" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="F158" s="8" t="s">
         <v>94</v>
@@ -18259,32 +18273,34 @@
       <c r="G158" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H158" s="7"/>
-      <c r="I158" s="7"/>
-      <c r="J158" s="7"/>
-      <c r="K158" s="7"/>
-      <c r="L158" s="7"/>
-      <c r="M158" s="7"/>
-      <c r="N158" s="7"/>
+      <c r="H158" s="10"/>
+      <c r="I158" s="10"/>
+      <c r="J158" s="10"/>
+      <c r="K158" s="10"/>
+      <c r="L158" s="10"/>
+      <c r="M158" s="10"/>
+      <c r="N158" s="10"/>
       <c r="O158" s="9" t="n">
         <f aca="false">G158=""</f>
         <v>0</v>
       </c>
-      <c r="P158" s="7"/>
+      <c r="P158" s="10" t="s">
+        <v>479</v>
+      </c>
       <c r="Q158" s="7"/>
     </row>
     <row r="159" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B159" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="E159" s="7" t="s">
         <v>347</v>
@@ -18311,16 +18327,16 @@
     </row>
     <row r="160" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E160" s="7" t="s">
         <v>350</v>
@@ -18345,21 +18361,21 @@
       <c r="P160" s="7"/>
       <c r="Q160" s="7"/>
     </row>
-    <row r="161" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="10" t="s">
-        <v>483</v>
+    <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="7" t="s">
+        <v>484</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C161" s="10" t="s">
-        <v>484</v>
+      <c r="C161" s="7" t="s">
+        <v>485</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E161" s="10" t="s">
-        <v>205</v>
+        <v>213</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>353</v>
       </c>
       <c r="F161" s="8" t="s">
         <v>94</v>
@@ -18367,20 +18383,18 @@
       <c r="G161" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H161" s="10"/>
-      <c r="I161" s="10"/>
-      <c r="J161" s="10"/>
-      <c r="K161" s="10"/>
-      <c r="L161" s="10"/>
-      <c r="M161" s="10"/>
-      <c r="N161" s="10"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="7"/>
+      <c r="N161" s="7"/>
       <c r="O161" s="9" t="n">
         <f aca="false">G161=""</f>
         <v>0</v>
       </c>
-      <c r="P161" s="10" t="s">
-        <v>485</v>
-      </c>
+      <c r="P161" s="7"/>
       <c r="Q161" s="7"/>
     </row>
     <row r="162" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18397,7 +18411,7 @@
         <v>50</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="F162" s="8" t="s">
         <v>94</v>
@@ -18421,21 +18435,21 @@
       </c>
       <c r="Q162" s="7"/>
     </row>
-    <row r="163" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="7" t="s">
+    <row r="163" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="10" t="s">
         <v>489</v>
       </c>
       <c r="B163" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C163" s="10" t="s">
         <v>490</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E163" s="7" t="s">
-        <v>196</v>
+      <c r="E163" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="F163" s="8" t="s">
         <v>94</v>
@@ -18443,38 +18457,37 @@
       <c r="G163" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H163" s="7"/>
-      <c r="I163" s="7"/>
-      <c r="J163" s="7"/>
-      <c r="K163" s="7"/>
-      <c r="L163" s="7"/>
-      <c r="M163" s="7"/>
-      <c r="N163" s="7"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="10"/>
+      <c r="K163" s="10"/>
+      <c r="L163" s="10"/>
+      <c r="M163" s="10"/>
+      <c r="N163" s="10"/>
       <c r="O163" s="9" t="n">
         <f aca="false">G163=""</f>
         <v>0</v>
       </c>
-      <c r="P163" s="7"/>
+      <c r="P163" s="10" t="s">
+        <v>491</v>
+      </c>
       <c r="Q163" s="7"/>
-      <c r="R163" s="1" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="164" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B164" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F164" s="8" t="s">
         <v>94</v>
@@ -18495,22 +18508,25 @@
       </c>
       <c r="P164" s="7"/>
       <c r="Q164" s="7"/>
+      <c r="R164" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B165" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F165" s="8" t="s">
         <v>94</v>
@@ -18534,19 +18550,19 @@
     </row>
     <row r="166" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F166" s="8" t="s">
         <v>94</v>
@@ -18570,19 +18586,19 @@
     </row>
     <row r="167" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B167" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F167" s="8" t="s">
         <v>94</v>
@@ -18606,19 +18622,19 @@
     </row>
     <row r="168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B168" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F168" s="8" t="s">
         <v>94</v>
@@ -18641,20 +18657,20 @@
       <c r="Q168" s="7"/>
     </row>
     <row r="169" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="10" t="s">
-        <v>501</v>
+      <c r="A169" s="7" t="s">
+        <v>502</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C169" s="10" t="s">
-        <v>502</v>
+      <c r="C169" s="7" t="s">
+        <v>503</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E169" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="F169" s="8" t="s">
         <v>94</v>
@@ -18662,38 +18678,35 @@
       <c r="G169" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H169" s="10"/>
-      <c r="I169" s="10"/>
-      <c r="J169" s="10"/>
-      <c r="K169" s="10"/>
-      <c r="L169" s="10"/>
-      <c r="M169" s="10"/>
-      <c r="N169" s="10"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="7"/>
+      <c r="K169" s="7"/>
+      <c r="L169" s="7"/>
+      <c r="M169" s="7"/>
+      <c r="N169" s="7"/>
       <c r="O169" s="9" t="n">
         <f aca="false">G169=""</f>
         <v>0</v>
       </c>
       <c r="P169" s="7"/>
       <c r="Q169" s="7"/>
-      <c r="S169" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="170" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B170" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F170" s="8" t="s">
         <v>94</v>
@@ -18720,19 +18733,19 @@
     </row>
     <row r="171" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B171" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F171" s="8" t="s">
         <v>94</v>
@@ -18759,19 +18772,19 @@
     </row>
     <row r="172" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B172" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F172" s="8" t="s">
         <v>94</v>
@@ -18798,19 +18811,19 @@
     </row>
     <row r="173" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B173" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F173" s="8" t="s">
         <v>94</v>
@@ -18837,19 +18850,19 @@
     </row>
     <row r="174" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B174" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F174" s="8" t="s">
         <v>94</v>
@@ -18875,20 +18888,20 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="7" t="s">
-        <v>513</v>
+      <c r="A175" s="10" t="s">
+        <v>514</v>
       </c>
       <c r="B175" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C175" s="7" t="s">
-        <v>514</v>
+      <c r="C175" s="10" t="s">
+        <v>515</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>241</v>
+        <v>213</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="F175" s="8" t="s">
         <v>94</v>
@@ -18896,35 +18909,38 @@
       <c r="G175" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H175" s="7"/>
-      <c r="I175" s="7"/>
-      <c r="J175" s="7"/>
-      <c r="K175" s="7"/>
-      <c r="L175" s="7"/>
-      <c r="M175" s="7"/>
-      <c r="N175" s="7"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="10"/>
+      <c r="K175" s="10"/>
+      <c r="L175" s="10"/>
+      <c r="M175" s="10"/>
+      <c r="N175" s="10"/>
       <c r="O175" s="9" t="n">
         <f aca="false">G175=""</f>
         <v>0</v>
       </c>
       <c r="P175" s="7"/>
       <c r="Q175" s="7"/>
+      <c r="S175" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>380</v>
+        <v>241</v>
       </c>
       <c r="F176" s="8" t="s">
         <v>94</v>
@@ -18948,16 +18964,16 @@
     </row>
     <row r="177" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E177" s="7" t="s">
         <v>383</v>
@@ -18984,19 +19000,19 @@
     </row>
     <row r="178" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B178" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>244</v>
+        <v>386</v>
       </c>
       <c r="F178" s="8" t="s">
         <v>94</v>
@@ -19017,25 +19033,22 @@
       </c>
       <c r="P178" s="7"/>
       <c r="Q178" s="7"/>
-      <c r="S178" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="179" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B179" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>388</v>
+        <v>244</v>
       </c>
       <c r="F179" s="8" t="s">
         <v>94</v>
@@ -19062,19 +19075,19 @@
     </row>
     <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B180" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F180" s="8" t="s">
         <v>94</v>
@@ -19101,19 +19114,19 @@
     </row>
     <row r="181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B181" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>251</v>
+        <v>393</v>
       </c>
       <c r="F181" s="8" t="s">
         <v>94</v>
@@ -19134,22 +19147,25 @@
       </c>
       <c r="P181" s="7"/>
       <c r="Q181" s="7"/>
+      <c r="S181" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>410</v>
+        <v>251</v>
       </c>
       <c r="F182" s="8" t="s">
         <v>94</v>
@@ -19173,16 +19189,16 @@
     </row>
     <row r="183" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E183" s="7" t="s">
         <v>413</v>
@@ -19209,19 +19225,19 @@
     </row>
     <row r="184" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>254</v>
+        <v>416</v>
       </c>
       <c r="F184" s="8" t="s">
         <v>94</v>
@@ -19240,26 +19256,24 @@
         <f aca="false">G184=""</f>
         <v>0</v>
       </c>
-      <c r="P184" s="7" t="s">
-        <v>533</v>
-      </c>
+      <c r="P184" s="7"/>
       <c r="Q184" s="7"/>
     </row>
     <row r="185" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>535</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F185" s="8" t="s">
         <v>94</v>
@@ -19278,24 +19292,26 @@
         <f aca="false">G185=""</f>
         <v>0</v>
       </c>
-      <c r="P185" s="7"/>
+      <c r="P185" s="7" t="s">
+        <v>536</v>
+      </c>
       <c r="Q185" s="7"/>
     </row>
     <row r="186" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F186" s="8" t="s">
         <v>94</v>
@@ -19319,19 +19335,19 @@
     </row>
     <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F187" s="8" t="s">
         <v>94</v>
@@ -19355,19 +19371,19 @@
     </row>
     <row r="188" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F188" s="8" t="s">
         <v>94</v>
@@ -19391,19 +19407,19 @@
     </row>
     <row r="189" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F189" s="8" t="s">
         <v>94</v>
@@ -19427,19 +19443,19 @@
     </row>
     <row r="190" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D190" s="10" t="s">
         <v>213</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F190" s="8" t="s">
         <v>94</v>
@@ -19458,26 +19474,24 @@
         <f aca="false">G190=""</f>
         <v>0</v>
       </c>
-      <c r="P190" s="7" t="s">
-        <v>546</v>
-      </c>
+      <c r="P190" s="7"/>
       <c r="Q190" s="7"/>
     </row>
     <row r="191" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="10" t="s">
+      <c r="A191" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C191" s="10" t="s">
+      <c r="C191" s="7" t="s">
         <v>548</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E191" s="10" t="s">
-        <v>282</v>
+        <v>213</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="F191" s="8" t="s">
         <v>94</v>
@@ -19485,39 +19499,43 @@
       <c r="G191" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H191" s="10"/>
-      <c r="I191" s="10"/>
-      <c r="J191" s="10"/>
-      <c r="K191" s="10"/>
-      <c r="L191" s="10"/>
-      <c r="M191" s="10"/>
-      <c r="N191" s="10"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="7"/>
+      <c r="L191" s="7"/>
+      <c r="M191" s="7"/>
+      <c r="N191" s="7"/>
       <c r="O191" s="9" t="n">
         <f aca="false">G191=""</f>
         <v>0</v>
       </c>
-      <c r="P191" s="10"/>
+      <c r="P191" s="7" t="s">
+        <v>549</v>
+      </c>
       <c r="Q191" s="7"/>
     </row>
-    <row r="192" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="10" t="s">
-        <v>287</v>
+        <v>550</v>
       </c>
       <c r="B192" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="D192" s="10"/>
+        <v>551</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>209</v>
+      </c>
       <c r="E192" s="10" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>288</v>
+        <v>94</v>
       </c>
       <c r="G192" s="8" t="s">
-        <v>289</v>
+        <v>95</v>
       </c>
       <c r="H192" s="10"/>
       <c r="I192" s="10"/>
@@ -19530,33 +19548,28 @@
         <f aca="false">G192=""</f>
         <v>0</v>
       </c>
-      <c r="P192" s="7"/>
+      <c r="P192" s="10"/>
       <c r="Q192" s="7"/>
-      <c r="R192" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="193" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="10" t="s">
-        <v>550</v>
+        <v>287</v>
       </c>
       <c r="B193" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="D193" s="10" t="s">
-        <v>50</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D193" s="10"/>
       <c r="E193" s="10" t="s">
-        <v>552</v>
+        <v>298</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>52</v>
+        <v>288</v>
       </c>
       <c r="G193" s="8" t="s">
-        <v>48</v>
+        <v>289</v>
       </c>
       <c r="H193" s="10"/>
       <c r="I193" s="10"/>
@@ -19569,26 +19582,27 @@
         <f aca="false">G193=""</f>
         <v>0</v>
       </c>
-      <c r="P193" s="7" t="s">
-        <v>553</v>
-      </c>
+      <c r="P193" s="7"/>
       <c r="Q193" s="7"/>
+      <c r="R193" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B194" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E194" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F194" s="8" t="s">
         <v>52</v>
@@ -19608,29 +19622,31 @@
         <v>0</v>
       </c>
       <c r="P194" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q194" s="7"/>
+    </row>
+    <row r="195" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="10" t="s">
         <v>557</v>
-      </c>
-      <c r="Q194" s="7"/>
-    </row>
-    <row r="195" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="10" t="s">
-        <v>558</v>
       </c>
       <c r="B195" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D195" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E195" s="10"/>
+      <c r="E195" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F195" s="8" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="G195" s="8" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="H195" s="10"/>
       <c r="I195" s="10"/>
@@ -19643,7 +19659,7 @@
         <f aca="false">G195=""</f>
         <v>0</v>
       </c>
-      <c r="P195" s="10" t="s">
+      <c r="P195" s="7" t="s">
         <v>560</v>
       </c>
       <c r="Q195" s="7"/>
@@ -19680,63 +19696,65 @@
         <v>0</v>
       </c>
       <c r="P196" s="10" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="Q196" s="7"/>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C197" s="7" t="s">
+    <row r="197" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="D197" s="7"/>
-      <c r="E197" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="B197" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E197" s="10"/>
       <c r="F197" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G197" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="H197" s="7"/>
-      <c r="I197" s="7"/>
-      <c r="J197" s="7"/>
-      <c r="K197" s="7"/>
-      <c r="L197" s="7"/>
-      <c r="M197" s="7"/>
-      <c r="N197" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H197" s="10"/>
+      <c r="I197" s="10"/>
+      <c r="J197" s="10"/>
+      <c r="K197" s="10"/>
+      <c r="L197" s="10"/>
+      <c r="M197" s="10"/>
+      <c r="N197" s="10"/>
       <c r="O197" s="9" t="n">
         <f aca="false">G197=""</f>
         <v>0</v>
       </c>
-      <c r="P197" s="7"/>
+      <c r="P197" s="10" t="s">
+        <v>563</v>
+      </c>
       <c r="Q197" s="7"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D198" s="7"/>
       <c r="E198" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F198" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="F198" s="8" t="s">
-        <v>331</v>
-      </c>
       <c r="G198" s="11" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H198" s="7"/>
       <c r="I198" s="7"/>
@@ -19752,31 +19770,33 @@
       <c r="P198" s="7"/>
       <c r="Q198" s="7"/>
     </row>
-    <row r="199" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B199" s="10" t="s">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B199" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C199" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="D199" s="10"/>
-      <c r="E199" s="10"/>
+      <c r="C199" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7" t="s">
+        <v>337</v>
+      </c>
       <c r="F199" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="G199" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="H199" s="10"/>
-      <c r="I199" s="10"/>
-      <c r="J199" s="10"/>
-      <c r="K199" s="10"/>
-      <c r="L199" s="10"/>
-      <c r="M199" s="10"/>
-      <c r="N199" s="10"/>
+        <v>334</v>
+      </c>
+      <c r="G199" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="H199" s="7"/>
+      <c r="I199" s="7"/>
+      <c r="J199" s="7"/>
+      <c r="K199" s="7"/>
+      <c r="L199" s="7"/>
+      <c r="M199" s="7"/>
+      <c r="N199" s="7"/>
       <c r="O199" s="9" t="n">
         <f aca="false">G199=""</f>
         <v>0</v>
@@ -19784,45 +19804,31 @@
       <c r="P199" s="7"/>
       <c r="Q199" s="7"/>
     </row>
-    <row r="200" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B200" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D200" s="10"/>
       <c r="E200" s="10"/>
       <c r="F200" s="8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G200" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="H200" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="I200" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="J200" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="K200" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="L200" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="M200" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="N200" s="10" t="s">
-        <v>315</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="H200" s="10"/>
+      <c r="I200" s="10"/>
+      <c r="J200" s="10"/>
+      <c r="K200" s="10"/>
+      <c r="L200" s="10"/>
+      <c r="M200" s="10"/>
+      <c r="N200" s="10"/>
       <c r="O200" s="9" t="n">
         <f aca="false">G200=""</f>
         <v>0</v>
@@ -19843,31 +19849,31 @@
       <c r="D201" s="10"/>
       <c r="E201" s="10"/>
       <c r="F201" s="8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G201" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H201" s="10" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="I201" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="J201" s="10" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K201" s="10" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L201" s="10" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M201" s="10" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N201" s="10" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O201" s="9" t="n">
         <f aca="false">G201=""</f>
@@ -19878,42 +19884,42 @@
     </row>
     <row r="202" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B202" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D202" s="10"/>
       <c r="E202" s="10"/>
       <c r="F202" s="8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G202" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H202" s="10" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="I202" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="J202" s="10" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K202" s="10" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L202" s="10" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M202" s="10" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N202" s="10" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O202" s="9" t="n">
         <f aca="false">G202=""</f>
@@ -19922,35 +19928,45 @@
       <c r="P202" s="7"/>
       <c r="Q202" s="7"/>
     </row>
-    <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="D203" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E203" s="10" t="s">
         <v>578</v>
       </c>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
       <c r="F203" s="8" t="s">
-        <v>94</v>
+        <v>308</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H203" s="10"/>
-      <c r="I203" s="10"/>
-      <c r="J203" s="10"/>
-      <c r="K203" s="10"/>
-      <c r="L203" s="10"/>
-      <c r="M203" s="10"/>
-      <c r="N203" s="10"/>
+        <v>309</v>
+      </c>
+      <c r="H203" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="I203" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="J203" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="K203" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="L203" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M203" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="N203" s="10" t="s">
+        <v>318</v>
+      </c>
       <c r="O203" s="9" t="n">
         <f aca="false">G203=""</f>
         <v>0</v>
@@ -19963,18 +19979,22 @@
         <v>579</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C204" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="D204" s="10"/>
-      <c r="E204" s="10"/>
+      <c r="D204" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E204" s="10" t="s">
+        <v>581</v>
+      </c>
       <c r="F204" s="8" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="G204" s="8" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="H204" s="10"/>
       <c r="I204" s="10"/>
@@ -19992,23 +20012,21 @@
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="10" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="D205" s="10" t="s">
-        <v>209</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="D205" s="10"/>
       <c r="E205" s="10"/>
       <c r="F205" s="8" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="G205" s="8" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="H205" s="10"/>
       <c r="I205" s="10"/>
@@ -20026,21 +20044,23 @@
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="D206" s="10"/>
+        <v>585</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>209</v>
+      </c>
       <c r="E206" s="10"/>
       <c r="F206" s="8" t="s">
-        <v>33</v>
+       